--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -11,9 +11,11 @@
     <sheet name="CONV_BIG_REG" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="553">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1541,22 +1543,26 @@
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
-    <t xml:space="preserve">139 
-142
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">140
+141
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">142
 145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD Min faces Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин % фейсов кока-кола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140
-141</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -1575,9 +1581,6 @@
   </si>
   <si>
     <t xml:space="preserve">1 door cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=0</t>
   </si>
   <si>
     <t xml:space="preserve">Min 30% Coca-Cola</t>
@@ -1626,9 +1629,6 @@
   </si>
   <si>
     <t xml:space="preserve">each SKU hits facings target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=2</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: w/o other products</t>
@@ -1877,7 +1877,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1919,6 +1919,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1929,8 +1934,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1960,7 +1965,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2007,7 +2012,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2092,6 +2097,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2149,7 +2158,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2167,7 +2176,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -2193,54 +2202,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP179"/>
+  <dimension ref="A1:AP65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A153" activeCellId="0" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="65.9838056680162"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="103.582995951417"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="67.1619433198381"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="105.404858299595"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="88.3724696356275"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="89.8744939271255"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.6032388663968"/>
@@ -14898,7 +14907,7 @@
       <c r="AN152" s="9" t="n">
         <v>138</v>
       </c>
-      <c r="AO152" s="12" t="s">
+      <c r="AO152" s="21" t="s">
         <v>458</v>
       </c>
       <c r="AP152" s="9" t="n">
@@ -14907,7 +14916,7 @@
     </row>
     <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>42</v>
@@ -14926,21 +14935,31 @@
         <v>460</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>68</v>
+        <v>354</v>
       </c>
       <c r="I153" s="8"/>
-      <c r="J153" s="9"/>
+      <c r="J153" s="9" t="n">
+        <v>0.5</v>
+      </c>
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
-      <c r="M153" s="8"/>
-      <c r="N153" s="9"/>
+      <c r="M153" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="N153" s="9" t="s">
+        <v>462</v>
+      </c>
       <c r="O153" s="8"/>
       <c r="P153" s="8"/>
-      <c r="Q153" s="8"/>
+      <c r="Q153" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="R153" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S153" s="8"/>
+      <c r="S153" s="22" t="s">
+        <v>463</v>
+      </c>
       <c r="T153" s="8"/>
       <c r="U153" s="8"/>
       <c r="V153" s="8"/>
@@ -14948,20 +14967,22 @@
       <c r="X153" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="Y153" s="8"/>
+      <c r="Y153" s="8" t="s">
+        <v>464</v>
+      </c>
       <c r="Z153" s="8"/>
       <c r="AA153" s="9"/>
       <c r="AB153" s="8"/>
       <c r="AC153" s="8"/>
       <c r="AD153" s="8"/>
       <c r="AE153" s="8" t="s">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="AF153" s="10"/>
       <c r="AG153" s="8"/>
       <c r="AH153" s="8"/>
       <c r="AI153" s="8" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="AJ153" s="8"/>
       <c r="AK153" s="8"/>
@@ -14972,18 +14993,16 @@
         <v>3</v>
       </c>
       <c r="AN153" s="9" t="n">
-        <v>139</v>
-      </c>
-      <c r="AO153" s="12" t="s">
-        <v>462</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AO153" s="9"/>
       <c r="AP153" s="9" t="n">
         <v>138</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>42</v>
@@ -14996,36 +15015,36 @@
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H154" s="8" t="s">
         <v>354</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="9" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
       <c r="M154" s="8" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="N154" s="9" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="O154" s="8"/>
       <c r="P154" s="8"/>
       <c r="Q154" s="8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="R154" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S154" s="21" t="s">
-        <v>467</v>
+      <c r="S154" s="22" t="s">
+        <v>463</v>
       </c>
       <c r="T154" s="8"/>
       <c r="U154" s="8"/>
@@ -15035,7 +15054,7 @@
         <v>435</v>
       </c>
       <c r="Y154" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Z154" s="8"/>
       <c r="AA154" s="9"/>
@@ -15049,7 +15068,7 @@
       <c r="AG154" s="8"/>
       <c r="AH154" s="8"/>
       <c r="AI154" s="8" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AJ154" s="8"/>
       <c r="AK154" s="8"/>
@@ -15057,19 +15076,19 @@
         <v>438</v>
       </c>
       <c r="AM154" s="9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN154" s="9" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AO154" s="9"/>
       <c r="AP154" s="9" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>42</v>
@@ -15082,37 +15101,29 @@
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="9" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
-      <c r="M155" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="N155" s="9" t="s">
-        <v>466</v>
-      </c>
+      <c r="M155" s="8"/>
+      <c r="N155" s="9"/>
       <c r="O155" s="8"/>
       <c r="P155" s="8"/>
-      <c r="Q155" s="8" t="s">
-        <v>466</v>
-      </c>
+      <c r="Q155" s="8"/>
       <c r="R155" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="S155" s="21" t="s">
-        <v>467</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="S155" s="8"/>
       <c r="T155" s="8"/>
       <c r="U155" s="8"/>
       <c r="V155" s="8"/>
@@ -15120,9 +15131,7 @@
       <c r="X155" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="Y155" s="8" t="s">
-        <v>472</v>
-      </c>
+      <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
       <c r="AA155" s="9"/>
       <c r="AB155" s="8"/>
@@ -15132,10 +15141,12 @@
         <v>457</v>
       </c>
       <c r="AF155" s="10"/>
-      <c r="AG155" s="8"/>
+      <c r="AG155" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="AH155" s="8"/>
       <c r="AI155" s="8" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="AJ155" s="8"/>
       <c r="AK155" s="8"/>
@@ -15143,19 +15154,21 @@
         <v>438</v>
       </c>
       <c r="AM155" s="9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN155" s="9" t="n">
-        <v>141</v>
-      </c>
-      <c r="AO155" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="AO155" s="12" t="s">
+        <v>470</v>
+      </c>
       <c r="AP155" s="9" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>42</v>
@@ -15168,29 +15181,37 @@
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>360</v>
+        <v>74</v>
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
-      <c r="M156" s="8"/>
-      <c r="N156" s="9"/>
+      <c r="M156" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="N156" s="9" t="s">
+        <v>462</v>
+      </c>
       <c r="O156" s="8"/>
       <c r="P156" s="8"/>
-      <c r="Q156" s="8"/>
+      <c r="Q156" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="R156" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="S156" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="S156" s="22" t="s">
+        <v>463</v>
+      </c>
       <c r="T156" s="8"/>
       <c r="U156" s="8"/>
       <c r="V156" s="8"/>
@@ -15202,38 +15223,38 @@
       <c r="Z156" s="8"/>
       <c r="AA156" s="9"/>
       <c r="AB156" s="8"/>
-      <c r="AC156" s="8"/>
+      <c r="AC156" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AD156" s="8"/>
       <c r="AE156" s="8" t="s">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="AF156" s="10"/>
-      <c r="AG156" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="AG156" s="8"/>
       <c r="AH156" s="8"/>
-      <c r="AI156" s="8"/>
+      <c r="AI156" s="8" t="s">
+        <v>451</v>
+      </c>
       <c r="AJ156" s="8"/>
       <c r="AK156" s="8"/>
       <c r="AL156" s="8" t="s">
         <v>438</v>
       </c>
       <c r="AM156" s="9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN156" s="9" t="n">
+        <v>143</v>
+      </c>
+      <c r="AO156" s="9"/>
+      <c r="AP156" s="9" t="n">
         <v>142</v>
-      </c>
-      <c r="AO156" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="AP156" s="9" t="n">
-        <v>138</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>42</v>
@@ -15246,10 +15267,10 @@
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H157" s="8" t="s">
         <v>74</v>
@@ -15261,21 +15282,21 @@
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
       <c r="M157" s="8" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="N157" s="9" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="O157" s="8"/>
       <c r="P157" s="8"/>
       <c r="Q157" s="8" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="R157" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S157" s="21" t="s">
-        <v>467</v>
+      <c r="S157" s="22" t="s">
+        <v>463</v>
       </c>
       <c r="T157" s="8"/>
       <c r="U157" s="8"/>
@@ -15299,7 +15320,7 @@
       <c r="AG157" s="8"/>
       <c r="AH157" s="8"/>
       <c r="AI157" s="8" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="AJ157" s="8"/>
       <c r="AK157" s="8"/>
@@ -15310,7 +15331,7 @@
         <v>4</v>
       </c>
       <c r="AN157" s="9" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO157" s="9"/>
       <c r="AP157" s="9" t="n">
@@ -15319,7 +15340,7 @@
     </row>
     <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>42</v>
@@ -15332,36 +15353,34 @@
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="H158" s="20" t="s">
         <v>479</v>
-      </c>
-      <c r="H158" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
       <c r="M158" s="8" t="s">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="N158" s="9" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="O158" s="8"/>
       <c r="P158" s="8"/>
-      <c r="Q158" s="8" t="s">
-        <v>481</v>
-      </c>
+      <c r="Q158" s="8"/>
       <c r="R158" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S158" s="21" t="s">
-        <v>467</v>
+      <c r="S158" s="22" t="s">
+        <v>442</v>
       </c>
       <c r="T158" s="8"/>
       <c r="U158" s="8"/>
@@ -15374,9 +15393,7 @@
       <c r="Z158" s="8"/>
       <c r="AA158" s="9"/>
       <c r="AB158" s="8"/>
-      <c r="AC158" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="AC158" s="8"/>
       <c r="AD158" s="8"/>
       <c r="AE158" s="8" t="s">
         <v>80</v>
@@ -15385,7 +15402,7 @@
       <c r="AG158" s="8"/>
       <c r="AH158" s="8"/>
       <c r="AI158" s="8" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="AJ158" s="8"/>
       <c r="AK158" s="8"/>
@@ -15393,19 +15410,19 @@
         <v>438</v>
       </c>
       <c r="AM158" s="9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN158" s="9" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AO158" s="9"/>
       <c r="AP158" s="9" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>42</v>
@@ -15416,35 +15433,31 @@
       <c r="D159" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E159" s="8"/>
-      <c r="F159" s="7" t="s">
+      <c r="E159" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F159" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="H159" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="G159" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="H159" s="20" t="s">
-        <v>484</v>
-      </c>
       <c r="I159" s="8"/>
-      <c r="J159" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="J159" s="9"/>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
-      <c r="M159" s="8" t="s">
-        <v>290</v>
-      </c>
+      <c r="M159" s="8"/>
       <c r="N159" s="9" t="s">
         <v>441</v>
       </c>
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
-      <c r="R159" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="S159" s="21" t="s">
+      <c r="R159" s="8"/>
+      <c r="S159" s="8" t="s">
         <v>442</v>
       </c>
       <c r="T159" s="8"/>
@@ -15459,15 +15472,19 @@
       <c r="AA159" s="9"/>
       <c r="AB159" s="8"/>
       <c r="AC159" s="8"/>
-      <c r="AD159" s="8"/>
+      <c r="AD159" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="AE159" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF159" s="10"/>
+        <v>356</v>
+      </c>
+      <c r="AF159" s="10" t="n">
+        <v>0.025</v>
+      </c>
       <c r="AG159" s="8"/>
       <c r="AH159" s="8"/>
       <c r="AI159" s="8" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="AJ159" s="8"/>
       <c r="AK159" s="8"/>
@@ -15475,19 +15492,19 @@
         <v>438</v>
       </c>
       <c r="AM159" s="9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN159" s="9" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO159" s="9"/>
       <c r="AP159" s="9" t="n">
-        <v>138</v>
+        <v>312</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>42</v>
@@ -15496,41 +15513,41 @@
         <v>43</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E160" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E160" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="F160" s="21" t="s">
-        <v>486</v>
+      <c r="F160" s="8" t="s">
+        <v>483</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="I160" s="8"/>
-      <c r="J160" s="9"/>
+      <c r="J160" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
-      <c r="M160" s="8"/>
-      <c r="N160" s="9" t="s">
-        <v>441</v>
-      </c>
+      <c r="M160" s="24"/>
+      <c r="N160" s="8"/>
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
       <c r="Q160" s="8"/>
-      <c r="R160" s="8"/>
-      <c r="S160" s="8" t="s">
-        <v>442</v>
-      </c>
+      <c r="R160" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S160" s="8"/>
       <c r="T160" s="8"/>
       <c r="U160" s="8"/>
       <c r="V160" s="8"/>
-      <c r="W160" s="8"/>
-      <c r="X160" s="8" t="s">
-        <v>435</v>
+      <c r="W160" s="24"/>
+      <c r="X160" s="19" t="s">
+        <v>483</v>
       </c>
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
@@ -15544,32 +15561,30 @@
         <v>356</v>
       </c>
       <c r="AF160" s="10" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="AG160" s="8"/>
       <c r="AH160" s="8"/>
-      <c r="AI160" s="8" t="s">
-        <v>451</v>
-      </c>
+      <c r="AI160" s="8"/>
       <c r="AJ160" s="8"/>
       <c r="AK160" s="8"/>
-      <c r="AL160" s="8" t="s">
-        <v>438</v>
-      </c>
+      <c r="AL160" s="8"/>
       <c r="AM160" s="9" t="n">
         <v>2</v>
       </c>
       <c r="AN160" s="9" t="n">
-        <v>146</v>
-      </c>
-      <c r="AO160" s="9"/>
-      <c r="AP160" s="9" t="n">
-        <v>312</v>
+        <v>147</v>
+      </c>
+      <c r="AO160" s="9" t="n">
+        <v>148</v>
+      </c>
+      <c r="AP160" s="14" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>42</v>
@@ -15580,39 +15595,47 @@
       <c r="D161" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E161" s="22" t="s">
+      <c r="E161" s="23" t="s">
         <v>357</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K161" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K161" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="L161" s="9"/>
-      <c r="M161" s="23"/>
-      <c r="N161" s="8"/>
+      <c r="M161" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="N161" s="9" t="s">
+        <v>441</v>
+      </c>
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
       <c r="Q161" s="8"/>
       <c r="R161" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S161" s="8"/>
+      <c r="S161" s="8" t="s">
+        <v>442</v>
+      </c>
       <c r="T161" s="8"/>
       <c r="U161" s="8"/>
       <c r="V161" s="8"/>
-      <c r="W161" s="23"/>
+      <c r="W161" s="24"/>
       <c r="X161" s="19" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
@@ -15623,33 +15646,31 @@
         <v>69</v>
       </c>
       <c r="AE161" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="AF161" s="10" t="n">
-        <v>0.03</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="AF161" s="10"/>
       <c r="AG161" s="8"/>
       <c r="AH161" s="8"/>
-      <c r="AI161" s="8"/>
+      <c r="AI161" s="8" t="s">
+        <v>489</v>
+      </c>
       <c r="AJ161" s="8"/>
       <c r="AK161" s="8"/>
       <c r="AL161" s="8"/>
       <c r="AM161" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN161" s="9" t="n">
+        <v>148</v>
+      </c>
+      <c r="AO161" s="9"/>
+      <c r="AP161" s="9" t="n">
         <v>147</v>
-      </c>
-      <c r="AO161" s="9" t="n">
-        <v>148</v>
-      </c>
-      <c r="AP161" s="14" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>42</v>
@@ -15657,85 +15678,61 @@
       <c r="C162" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D162" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E162" s="22" t="s">
-        <v>357</v>
-      </c>
+      <c r="D162" s="8"/>
+      <c r="E162" s="23"/>
       <c r="F162" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="G162" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="G162" s="8" t="s">
-        <v>492</v>
-      </c>
       <c r="H162" s="8" t="s">
-        <v>493</v>
+        <v>44</v>
       </c>
       <c r="I162" s="8"/>
-      <c r="J162" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K162" s="9" t="n">
-        <v>8</v>
-      </c>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
       <c r="L162" s="9"/>
-      <c r="M162" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="N162" s="9" t="s">
-        <v>441</v>
-      </c>
+      <c r="M162" s="8"/>
+      <c r="N162" s="9"/>
       <c r="O162" s="8"/>
       <c r="P162" s="8"/>
       <c r="Q162" s="8"/>
-      <c r="R162" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="S162" s="8" t="s">
-        <v>442</v>
-      </c>
+      <c r="R162" s="8"/>
+      <c r="S162" s="8"/>
       <c r="T162" s="8"/>
       <c r="U162" s="8"/>
       <c r="V162" s="8"/>
-      <c r="W162" s="23"/>
-      <c r="X162" s="19" t="s">
-        <v>489</v>
-      </c>
+      <c r="W162" s="8"/>
+      <c r="X162" s="8"/>
       <c r="Y162" s="8"/>
       <c r="Z162" s="8"/>
       <c r="AA162" s="9"/>
       <c r="AB162" s="8"/>
       <c r="AC162" s="8"/>
-      <c r="AD162" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE162" s="8" t="s">
-        <v>494</v>
-      </c>
+      <c r="AD162" s="8"/>
+      <c r="AE162" s="8"/>
       <c r="AF162" s="10"/>
       <c r="AG162" s="8"/>
       <c r="AH162" s="8"/>
-      <c r="AI162" s="8" t="s">
-        <v>495</v>
-      </c>
+      <c r="AI162" s="8"/>
       <c r="AJ162" s="8"/>
       <c r="AK162" s="8"/>
       <c r="AL162" s="8"/>
       <c r="AM162" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN162" s="9" t="n">
-        <v>148</v>
-      </c>
-      <c r="AO162" s="9"/>
-      <c r="AP162" s="9" t="n">
-        <v>147</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="AO162" s="9" t="n">
+        <v>149</v>
+      </c>
+      <c r="AP162" s="9"/>
     </row>
     <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>42</v>
@@ -15743,16 +15740,20 @@
       <c r="C163" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D163" s="8"/>
-      <c r="E163" s="22"/>
+      <c r="D163" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="F163" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="9"/>
@@ -15775,8 +15776,12 @@
       <c r="AA163" s="9"/>
       <c r="AB163" s="8"/>
       <c r="AC163" s="8"/>
-      <c r="AD163" s="8"/>
-      <c r="AE163" s="8"/>
+      <c r="AD163" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE163" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="AF163" s="10"/>
       <c r="AG163" s="8"/>
       <c r="AH163" s="8"/>
@@ -15785,19 +15790,21 @@
       <c r="AK163" s="8"/>
       <c r="AL163" s="8"/>
       <c r="AM163" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN163" s="9" t="n">
+        <v>149</v>
+      </c>
+      <c r="AO163" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="AP163" s="14" t="n">
         <v>400</v>
       </c>
-      <c r="AO163" s="9" t="n">
-        <v>149</v>
-      </c>
-      <c r="AP163" s="9"/>
     </row>
     <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>42</v>
@@ -15812,31 +15819,41 @@
         <v>357</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>68</v>
+        <v>497</v>
       </c>
       <c r="I164" s="8"/>
-      <c r="J164" s="9"/>
+      <c r="J164" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
       <c r="M164" s="8"/>
-      <c r="N164" s="9"/>
+      <c r="N164" s="9" t="s">
+        <v>498</v>
+      </c>
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
       <c r="Q164" s="8"/>
-      <c r="R164" s="8"/>
-      <c r="S164" s="8"/>
+      <c r="R164" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S164" s="8" t="s">
+        <v>449</v>
+      </c>
       <c r="T164" s="8"/>
       <c r="U164" s="8"/>
       <c r="V164" s="8"/>
       <c r="W164" s="8"/>
       <c r="X164" s="8"/>
-      <c r="Y164" s="8"/>
+      <c r="Y164" s="8" t="s">
+        <v>498</v>
+      </c>
       <c r="Z164" s="8"/>
       <c r="AA164" s="9"/>
       <c r="AB164" s="8"/>
@@ -15845,9 +15862,11 @@
         <v>69</v>
       </c>
       <c r="AE164" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF164" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="AF164" s="10" t="n">
+        <v>0.01</v>
+      </c>
       <c r="AG164" s="8"/>
       <c r="AH164" s="8"/>
       <c r="AI164" s="8"/>
@@ -15855,21 +15874,19 @@
       <c r="AK164" s="8"/>
       <c r="AL164" s="8"/>
       <c r="AM164" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN164" s="9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AO164" s="9"/>
+      <c r="AP164" s="9" t="n">
         <v>149</v>
-      </c>
-      <c r="AO164" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="AP164" s="14" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>42</v>
@@ -15884,13 +15901,13 @@
         <v>357</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="9" t="n">
@@ -15900,7 +15917,7 @@
       <c r="L165" s="9"/>
       <c r="M165" s="8"/>
       <c r="N165" s="9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O165" s="8"/>
       <c r="P165" s="8"/>
@@ -15917,7 +15934,7 @@
       <c r="W165" s="8"/>
       <c r="X165" s="8"/>
       <c r="Y165" s="8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Z165" s="8"/>
       <c r="AA165" s="9"/>
@@ -15942,7 +15959,7 @@
         <v>3</v>
       </c>
       <c r="AN165" s="9" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AO165" s="9"/>
       <c r="AP165" s="9" t="n">
@@ -15951,7 +15968,7 @@
     </row>
     <row r="166" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>42</v>
@@ -15966,13 +15983,13 @@
         <v>357</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="I166" s="8"/>
       <c r="J166" s="9" t="n">
@@ -15982,7 +15999,7 @@
       <c r="L166" s="9"/>
       <c r="M166" s="8"/>
       <c r="N166" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O166" s="8"/>
       <c r="P166" s="8"/>
@@ -15999,7 +16016,7 @@
       <c r="W166" s="8"/>
       <c r="X166" s="8"/>
       <c r="Y166" s="8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Z166" s="8"/>
       <c r="AA166" s="9"/>
@@ -16024,7 +16041,7 @@
         <v>3</v>
       </c>
       <c r="AN166" s="9" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO166" s="9"/>
       <c r="AP166" s="9" t="n">
@@ -16033,7 +16050,7 @@
     </row>
     <row r="167" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>42</v>
@@ -16042,19 +16059,17 @@
         <v>43</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>357</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E167" s="8"/>
       <c r="F167" s="8" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="9" t="n">
@@ -16064,7 +16079,7 @@
       <c r="L167" s="9"/>
       <c r="M167" s="8"/>
       <c r="N167" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O167" s="8"/>
       <c r="P167" s="8"/>
@@ -16081,7 +16096,7 @@
       <c r="W167" s="8"/>
       <c r="X167" s="8"/>
       <c r="Y167" s="8" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="Z167" s="8"/>
       <c r="AA167" s="9"/>
@@ -16106,7 +16121,7 @@
         <v>3</v>
       </c>
       <c r="AN167" s="9" t="n">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="AO167" s="9"/>
       <c r="AP167" s="9" t="n">
@@ -16115,7 +16130,7 @@
     </row>
     <row r="168" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>42</v>
@@ -16124,78 +16139,66 @@
         <v>43</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E168" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="F168" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="G168" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="G168" s="8" t="s">
+      <c r="H168" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="H168" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="I168" s="8"/>
-      <c r="J168" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="J168" s="9"/>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
       <c r="M168" s="8"/>
-      <c r="N168" s="9" t="s">
-        <v>513</v>
-      </c>
+      <c r="N168" s="9"/>
       <c r="O168" s="8"/>
       <c r="P168" s="8"/>
       <c r="Q168" s="8"/>
-      <c r="R168" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="R168" s="8"/>
       <c r="S168" s="8" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="T168" s="8"/>
       <c r="U168" s="8"/>
       <c r="V168" s="8"/>
       <c r="W168" s="8"/>
       <c r="X168" s="8"/>
-      <c r="Y168" s="8" t="s">
-        <v>504</v>
-      </c>
+      <c r="Y168" s="8"/>
       <c r="Z168" s="8"/>
       <c r="AA168" s="9"/>
       <c r="AB168" s="8"/>
       <c r="AC168" s="8"/>
-      <c r="AD168" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE168" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF168" s="10" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="AD168" s="8"/>
+      <c r="AE168" s="8"/>
+      <c r="AF168" s="10"/>
       <c r="AG168" s="8"/>
       <c r="AH168" s="8"/>
       <c r="AI168" s="8"/>
       <c r="AJ168" s="8"/>
       <c r="AK168" s="8"/>
       <c r="AL168" s="8"/>
-      <c r="AM168" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="AM168" s="9"/>
       <c r="AN168" s="9" t="n">
-        <v>167</v>
-      </c>
-      <c r="AO168" s="9"/>
-      <c r="AP168" s="9" t="n">
-        <v>149</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AO168" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="AP168" s="9"/>
     </row>
     <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>42</v>
@@ -16204,22 +16207,22 @@
         <v>43</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E169" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E169" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="F169" s="22" t="s">
+      <c r="F169" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="G169" s="22" t="s">
+      <c r="G169" s="25" t="s">
         <v>517</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="J169" s="9"/>
       <c r="K169" s="9"/>
@@ -16231,7 +16234,7 @@
       <c r="Q169" s="8"/>
       <c r="R169" s="8"/>
       <c r="S169" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="T169" s="8"/>
       <c r="U169" s="8"/>
@@ -16254,16 +16257,16 @@
       <c r="AL169" s="8"/>
       <c r="AM169" s="9"/>
       <c r="AN169" s="9" t="n">
-        <v>153</v>
-      </c>
-      <c r="AO169" s="9" t="n">
-        <v>92</v>
+        <v>154</v>
+      </c>
+      <c r="AO169" s="12" t="s">
+        <v>518</v>
       </c>
       <c r="AP169" s="9"/>
     </row>
     <row r="170" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>42</v>
@@ -16272,34 +16275,36 @@
         <v>43</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E170" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E170" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="F170" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="G170" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="H170" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="F170" s="8" t="s">
+      <c r="I170" s="8" t="s">
         <v>522</v>
-      </c>
-      <c r="G170" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="H170" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="I170" s="8" t="s">
-        <v>519</v>
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="9"/>
       <c r="M170" s="8"/>
-      <c r="N170" s="9"/>
+      <c r="N170" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="O170" s="8"/>
       <c r="P170" s="8"/>
       <c r="Q170" s="8"/>
       <c r="R170" s="8"/>
       <c r="S170" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="T170" s="8"/>
       <c r="U170" s="8"/>
@@ -16322,7 +16327,7 @@
       <c r="AL170" s="8"/>
       <c r="AM170" s="9"/>
       <c r="AN170" s="9" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AO170" s="12" t="s">
         <v>524</v>
@@ -16331,7 +16336,7 @@
     </row>
     <row r="171" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>42</v>
@@ -16340,36 +16345,34 @@
         <v>43</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E171" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E171" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="F171" s="22" t="s">
+      <c r="F171" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="G171" s="22" t="s">
-        <v>498</v>
+      <c r="G171" s="23" t="s">
+        <v>527</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
       <c r="L171" s="9"/>
       <c r="M171" s="8"/>
-      <c r="N171" s="12" t="s">
-        <v>529</v>
-      </c>
+      <c r="N171" s="9"/>
       <c r="O171" s="8"/>
       <c r="P171" s="8"/>
       <c r="Q171" s="8"/>
       <c r="R171" s="8"/>
       <c r="S171" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="T171" s="8"/>
       <c r="U171" s="8"/>
@@ -16392,16 +16395,16 @@
       <c r="AL171" s="8"/>
       <c r="AM171" s="9"/>
       <c r="AN171" s="9" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AO171" s="12" t="s">
-        <v>530</v>
+        <v>429</v>
       </c>
       <c r="AP171" s="9"/>
     </row>
     <row r="172" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>42</v>
@@ -16410,22 +16413,22 @@
         <v>43</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E172" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E172" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="F172" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="F172" s="22" t="s">
+      <c r="G172" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="G172" s="22" t="s">
+      <c r="H172" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="H172" s="8" t="s">
-        <v>534</v>
-      </c>
       <c r="I172" s="8" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
@@ -16437,7 +16440,7 @@
       <c r="Q172" s="8"/>
       <c r="R172" s="8"/>
       <c r="S172" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="T172" s="8"/>
       <c r="U172" s="8"/>
@@ -16460,16 +16463,16 @@
       <c r="AL172" s="8"/>
       <c r="AM172" s="9"/>
       <c r="AN172" s="9" t="n">
-        <v>158</v>
-      </c>
-      <c r="AO172" s="12" t="s">
-        <v>429</v>
+        <v>159</v>
+      </c>
+      <c r="AO172" s="9" t="n">
+        <v>147</v>
       </c>
       <c r="AP172" s="9"/>
     </row>
     <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>42</v>
@@ -16478,34 +16481,36 @@
         <v>43</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E173" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E173" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="F173" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="G173" s="23" t="s">
         <v>536</v>
       </c>
-      <c r="F173" s="22" t="s">
+      <c r="H173" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="G173" s="22" t="s">
-        <v>538</v>
-      </c>
-      <c r="H173" s="8" t="s">
-        <v>539</v>
-      </c>
       <c r="I173" s="8" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="9"/>
       <c r="M173" s="8"/>
-      <c r="N173" s="9"/>
+      <c r="N173" s="9" t="s">
+        <v>538</v>
+      </c>
       <c r="O173" s="8"/>
       <c r="P173" s="8"/>
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
       <c r="S173" s="8" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="T173" s="8"/>
       <c r="U173" s="8"/>
@@ -16528,16 +16533,14 @@
       <c r="AL173" s="8"/>
       <c r="AM173" s="9"/>
       <c r="AN173" s="9" t="n">
-        <v>159</v>
-      </c>
-      <c r="AO173" s="9" t="n">
-        <v>147</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="AO173" s="9"/>
       <c r="AP173" s="9"/>
     </row>
     <row r="174" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>42</v>
@@ -16546,42 +16549,44 @@
         <v>43</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E174" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E174" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="F174" s="22" t="s">
+      <c r="F174" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="G174" s="22" t="s">
+      <c r="G174" s="23" t="s">
         <v>542</v>
       </c>
       <c r="H174" s="8" t="s">
         <v>543</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
       <c r="M174" s="8"/>
       <c r="N174" s="9" t="s">
-        <v>544</v>
+        <v>69</v>
       </c>
       <c r="O174" s="8"/>
       <c r="P174" s="8"/>
       <c r="Q174" s="8"/>
       <c r="R174" s="8"/>
       <c r="S174" s="8" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="T174" s="8"/>
       <c r="U174" s="8"/>
       <c r="V174" s="8"/>
       <c r="W174" s="8"/>
-      <c r="X174" s="8"/>
+      <c r="X174" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="Y174" s="8"/>
       <c r="Z174" s="8"/>
       <c r="AA174" s="9"/>
@@ -16592,20 +16597,22 @@
       <c r="AF174" s="10"/>
       <c r="AG174" s="8"/>
       <c r="AH174" s="8"/>
-      <c r="AI174" s="8"/>
+      <c r="AI174" s="15" t="s">
+        <v>545</v>
+      </c>
       <c r="AJ174" s="8"/>
       <c r="AK174" s="8"/>
       <c r="AL174" s="8"/>
       <c r="AM174" s="9"/>
       <c r="AN174" s="9" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO174" s="9"/>
       <c r="AP174" s="9"/>
     </row>
     <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="7" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>42</v>
@@ -16614,44 +16621,44 @@
         <v>43</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E175" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E175" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="F175" s="22" t="s">
+      <c r="F175" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="G175" s="22" t="s">
+      <c r="G175" s="23" t="s">
         <v>548</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
-      <c r="M175" s="8"/>
-      <c r="N175" s="9" t="s">
-        <v>69</v>
+      <c r="M175" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="N175" s="12" t="s">
+        <v>550</v>
       </c>
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
       <c r="Q175" s="8"/>
       <c r="R175" s="8"/>
       <c r="S175" s="8" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="T175" s="8"/>
       <c r="U175" s="8"/>
       <c r="V175" s="8"/>
       <c r="W175" s="8"/>
-      <c r="X175" s="25" t="s">
-        <v>550</v>
-      </c>
+      <c r="X175" s="8"/>
       <c r="Y175" s="8"/>
       <c r="Z175" s="8"/>
       <c r="AA175" s="9"/>
@@ -16662,22 +16669,22 @@
       <c r="AF175" s="10"/>
       <c r="AG175" s="8"/>
       <c r="AH175" s="8"/>
-      <c r="AI175" s="15" t="s">
-        <v>551</v>
-      </c>
+      <c r="AI175" s="8"/>
       <c r="AJ175" s="8"/>
       <c r="AK175" s="8"/>
       <c r="AL175" s="8"/>
       <c r="AM175" s="9"/>
       <c r="AN175" s="9" t="n">
-        <v>161</v>
-      </c>
-      <c r="AO175" s="9"/>
+        <v>163</v>
+      </c>
+      <c r="AO175" s="7" t="n">
+        <v>88</v>
+      </c>
       <c r="AP175" s="9"/>
     </row>
     <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>42</v>
@@ -16686,38 +16693,38 @@
         <v>43</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E176" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="F176" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="G176" s="22" t="s">
-        <v>554</v>
+        <v>508</v>
+      </c>
+      <c r="E176" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="F176" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="G176" s="23" t="s">
+        <v>548</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
-      <c r="M176" s="21" t="s">
-        <v>555</v>
+      <c r="M176" s="22" t="s">
+        <v>549</v>
       </c>
       <c r="N176" s="12" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
       <c r="Q176" s="8"/>
       <c r="R176" s="8"/>
       <c r="S176" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="T176" s="8"/>
       <c r="U176" s="8"/>
@@ -16740,16 +16747,16 @@
       <c r="AL176" s="8"/>
       <c r="AM176" s="9"/>
       <c r="AN176" s="9" t="n">
-        <v>163</v>
-      </c>
-      <c r="AO176" s="7" t="n">
-        <v>88</v>
+        <v>164</v>
+      </c>
+      <c r="AO176" s="9" t="n">
+        <v>97</v>
       </c>
       <c r="AP176" s="9"/>
     </row>
     <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>42</v>
@@ -16758,38 +16765,38 @@
         <v>43</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E177" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="F177" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="G177" s="22" t="s">
-        <v>554</v>
+        <v>508</v>
+      </c>
+      <c r="E177" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="F177" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="G177" s="23" t="s">
+        <v>548</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
-      <c r="M177" s="21" t="s">
-        <v>555</v>
+      <c r="M177" s="22" t="s">
+        <v>549</v>
       </c>
       <c r="N177" s="12" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
       <c r="Q177" s="8"/>
       <c r="R177" s="8"/>
       <c r="S177" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="T177" s="8"/>
       <c r="U177" s="8"/>
@@ -16812,16 +16819,16 @@
       <c r="AL177" s="8"/>
       <c r="AM177" s="9"/>
       <c r="AN177" s="9" t="n">
-        <v>164</v>
-      </c>
-      <c r="AO177" s="9" t="n">
-        <v>97</v>
+        <v>165</v>
+      </c>
+      <c r="AO177" s="7" t="n">
+        <v>103</v>
       </c>
       <c r="AP177" s="9"/>
     </row>
     <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>42</v>
@@ -16830,38 +16837,38 @@
         <v>43</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E178" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="F178" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="G178" s="22" t="s">
-        <v>554</v>
+        <v>508</v>
+      </c>
+      <c r="E178" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="F178" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="G178" s="23" t="s">
+        <v>548</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
-      <c r="M178" s="21" t="s">
-        <v>555</v>
+      <c r="M178" s="22" t="s">
+        <v>549</v>
       </c>
       <c r="N178" s="12" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="8"/>
       <c r="S178" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="T178" s="8"/>
       <c r="U178" s="8"/>
@@ -16884,87 +16891,16 @@
       <c r="AL178" s="8"/>
       <c r="AM178" s="9"/>
       <c r="AN178" s="9" t="n">
-        <v>165</v>
-      </c>
-      <c r="AO178" s="7" t="n">
-        <v>103</v>
+        <v>166</v>
+      </c>
+      <c r="AO178" s="12" t="s">
+        <v>524</v>
       </c>
       <c r="AP178" s="9"/>
     </row>
-    <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="7" t="n">
-        <v>175</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E179" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="F179" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="G179" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="H179" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="I179" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="J179" s="9"/>
-      <c r="K179" s="9"/>
-      <c r="L179" s="9"/>
-      <c r="M179" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="N179" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="O179" s="8"/>
-      <c r="P179" s="8"/>
-      <c r="Q179" s="8"/>
-      <c r="R179" s="8"/>
-      <c r="S179" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="T179" s="8"/>
-      <c r="U179" s="8"/>
-      <c r="V179" s="8"/>
-      <c r="W179" s="8"/>
-      <c r="X179" s="8"/>
-      <c r="Y179" s="8"/>
-      <c r="Z179" s="8"/>
-      <c r="AA179" s="9"/>
-      <c r="AB179" s="8"/>
-      <c r="AC179" s="8"/>
-      <c r="AD179" s="8"/>
-      <c r="AE179" s="8"/>
-      <c r="AF179" s="10"/>
-      <c r="AG179" s="8"/>
-      <c r="AH179" s="8"/>
-      <c r="AI179" s="8"/>
-      <c r="AJ179" s="8"/>
-      <c r="AK179" s="8"/>
-      <c r="AL179" s="8"/>
-      <c r="AM179" s="9"/>
-      <c r="AN179" s="9" t="n">
-        <v>166</v>
-      </c>
-      <c r="AO179" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="AP179" s="9"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AP179"/>
+  <autoFilter ref="A1:AP178"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="553">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1543,26 +1544,10 @@
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">140
+    <t xml:space="preserve">140
 141
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">142
+142
 145</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -1877,7 +1862,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1918,11 +1903,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2012,7 +1992,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2095,10 +2075,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2204,52 +2180,52 @@
   </sheetPr>
   <dimension ref="A1:AP65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A153" activeCellId="0" sqref="A153"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="AC158" activeCellId="0" sqref="AC158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.7004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="67.1619433198381"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="105.404858299595"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.7368421052632"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="106.368421052632"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.165991902834"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="90.7287449392713"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.6032388663968"/>
@@ -14907,7 +14883,7 @@
       <c r="AN152" s="9" t="n">
         <v>138</v>
       </c>
-      <c r="AO152" s="21" t="s">
+      <c r="AO152" s="12" t="s">
         <v>458</v>
       </c>
       <c r="AP152" s="9" t="n">
@@ -14957,7 +14933,7 @@
       <c r="R153" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S153" s="22" t="s">
+      <c r="S153" s="21" t="s">
         <v>463</v>
       </c>
       <c r="T153" s="8"/>
@@ -15043,7 +15019,7 @@
       <c r="R154" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S154" s="22" t="s">
+      <c r="S154" s="21" t="s">
         <v>463</v>
       </c>
       <c r="T154" s="8"/>
@@ -15209,7 +15185,7 @@
       <c r="R156" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S156" s="22" t="s">
+      <c r="S156" s="21" t="s">
         <v>463</v>
       </c>
       <c r="T156" s="8"/>
@@ -15223,8 +15199,8 @@
       <c r="Z156" s="8"/>
       <c r="AA156" s="9"/>
       <c r="AB156" s="8"/>
-      <c r="AC156" s="8" t="n">
-        <v>2</v>
+      <c r="AC156" s="8" t="s">
+        <v>361</v>
       </c>
       <c r="AD156" s="8"/>
       <c r="AE156" s="8" t="s">
@@ -15295,7 +15271,7 @@
       <c r="R157" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S157" s="22" t="s">
+      <c r="S157" s="21" t="s">
         <v>463</v>
       </c>
       <c r="T157" s="8"/>
@@ -15309,8 +15285,8 @@
       <c r="Z157" s="8"/>
       <c r="AA157" s="9"/>
       <c r="AB157" s="8"/>
-      <c r="AC157" s="8" t="n">
-        <v>2</v>
+      <c r="AC157" s="8" t="s">
+        <v>361</v>
       </c>
       <c r="AD157" s="8"/>
       <c r="AE157" s="8" t="s">
@@ -15379,7 +15355,7 @@
       <c r="R158" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S158" s="22" t="s">
+      <c r="S158" s="21" t="s">
         <v>442</v>
       </c>
       <c r="T158" s="8"/>
@@ -15436,7 +15412,7 @@
       <c r="E159" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="F159" s="22" t="s">
+      <c r="F159" s="21" t="s">
         <v>480</v>
       </c>
       <c r="G159" s="8" t="s">
@@ -15515,7 +15491,7 @@
       <c r="D160" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E160" s="23" t="s">
+      <c r="E160" s="22" t="s">
         <v>357</v>
       </c>
       <c r="F160" s="8" t="s">
@@ -15533,7 +15509,7 @@
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
-      <c r="M160" s="24"/>
+      <c r="M160" s="23"/>
       <c r="N160" s="8"/>
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
@@ -15545,7 +15521,7 @@
       <c r="T160" s="8"/>
       <c r="U160" s="8"/>
       <c r="V160" s="8"/>
-      <c r="W160" s="24"/>
+      <c r="W160" s="23"/>
       <c r="X160" s="19" t="s">
         <v>483</v>
       </c>
@@ -15595,7 +15571,7 @@
       <c r="D161" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E161" s="23" t="s">
+      <c r="E161" s="22" t="s">
         <v>357</v>
       </c>
       <c r="F161" s="8" t="s">
@@ -15633,7 +15609,7 @@
       <c r="T161" s="8"/>
       <c r="U161" s="8"/>
       <c r="V161" s="8"/>
-      <c r="W161" s="24"/>
+      <c r="W161" s="23"/>
       <c r="X161" s="19" t="s">
         <v>483</v>
       </c>
@@ -15679,7 +15655,7 @@
         <v>43</v>
       </c>
       <c r="D162" s="8"/>
-      <c r="E162" s="23"/>
+      <c r="E162" s="22"/>
       <c r="F162" s="8" t="s">
         <v>490</v>
       </c>
@@ -16141,13 +16117,13 @@
       <c r="D168" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E168" s="23" t="s">
+      <c r="E168" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="F168" s="23" t="s">
+      <c r="F168" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="G168" s="23" t="s">
+      <c r="G168" s="22" t="s">
         <v>511</v>
       </c>
       <c r="H168" s="8" t="s">
@@ -16215,7 +16191,7 @@
       <c r="F169" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="G169" s="25" t="s">
+      <c r="G169" s="24" t="s">
         <v>517</v>
       </c>
       <c r="H169" s="8" t="s">
@@ -16277,13 +16253,13 @@
       <c r="D170" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E170" s="23" t="s">
+      <c r="E170" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="F170" s="23" t="s">
+      <c r="F170" s="22" t="s">
         <v>520</v>
       </c>
-      <c r="G170" s="23" t="s">
+      <c r="G170" s="22" t="s">
         <v>492</v>
       </c>
       <c r="H170" s="8" t="s">
@@ -16347,13 +16323,13 @@
       <c r="D171" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E171" s="23" t="s">
+      <c r="E171" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="F171" s="23" t="s">
+      <c r="F171" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="G171" s="23" t="s">
+      <c r="G171" s="22" t="s">
         <v>527</v>
       </c>
       <c r="H171" s="8" t="s">
@@ -16415,13 +16391,13 @@
       <c r="D172" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E172" s="23" t="s">
+      <c r="E172" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="F172" s="23" t="s">
+      <c r="F172" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="G172" s="23" t="s">
+      <c r="G172" s="22" t="s">
         <v>532</v>
       </c>
       <c r="H172" s="8" t="s">
@@ -16483,13 +16459,13 @@
       <c r="D173" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E173" s="23" t="s">
+      <c r="E173" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="F173" s="23" t="s">
+      <c r="F173" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="G173" s="23" t="s">
+      <c r="G173" s="22" t="s">
         <v>536</v>
       </c>
       <c r="H173" s="8" t="s">
@@ -16551,13 +16527,13 @@
       <c r="D174" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E174" s="23" t="s">
+      <c r="E174" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="F174" s="23" t="s">
+      <c r="F174" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="G174" s="23" t="s">
+      <c r="G174" s="22" t="s">
         <v>542</v>
       </c>
       <c r="H174" s="8" t="s">
@@ -16584,7 +16560,7 @@
       <c r="U174" s="8"/>
       <c r="V174" s="8"/>
       <c r="W174" s="8"/>
-      <c r="X174" s="26" t="s">
+      <c r="X174" s="25" t="s">
         <v>544</v>
       </c>
       <c r="Y174" s="8"/>
@@ -16623,13 +16599,13 @@
       <c r="D175" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E175" s="23" t="s">
+      <c r="E175" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="F175" s="23" t="s">
+      <c r="F175" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G175" s="23" t="s">
+      <c r="G175" s="22" t="s">
         <v>548</v>
       </c>
       <c r="H175" s="8" t="s">
@@ -16641,7 +16617,7 @@
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
-      <c r="M175" s="22" t="s">
+      <c r="M175" s="21" t="s">
         <v>549</v>
       </c>
       <c r="N175" s="12" t="s">
@@ -16695,13 +16671,13 @@
       <c r="D176" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E176" s="23" t="s">
+      <c r="E176" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="F176" s="23" t="s">
+      <c r="F176" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G176" s="23" t="s">
+      <c r="G176" s="22" t="s">
         <v>548</v>
       </c>
       <c r="H176" s="8" t="s">
@@ -16713,7 +16689,7 @@
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
-      <c r="M176" s="22" t="s">
+      <c r="M176" s="21" t="s">
         <v>549</v>
       </c>
       <c r="N176" s="12" t="s">
@@ -16767,13 +16743,13 @@
       <c r="D177" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E177" s="23" t="s">
+      <c r="E177" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="F177" s="23" t="s">
+      <c r="F177" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G177" s="23" t="s">
+      <c r="G177" s="22" t="s">
         <v>548</v>
       </c>
       <c r="H177" s="8" t="s">
@@ -16785,7 +16761,7 @@
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
-      <c r="M177" s="22" t="s">
+      <c r="M177" s="21" t="s">
         <v>549</v>
       </c>
       <c r="N177" s="12" t="s">
@@ -16839,13 +16815,13 @@
       <c r="D178" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E178" s="23" t="s">
+      <c r="E178" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="F178" s="23" t="s">
+      <c r="F178" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G178" s="23" t="s">
+      <c r="G178" s="22" t="s">
         <v>548</v>
       </c>
       <c r="H178" s="8" t="s">
@@ -16857,7 +16833,7 @@
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
-      <c r="M178" s="22" t="s">
+      <c r="M178" s="21" t="s">
         <v>549</v>
       </c>
       <c r="N178" s="12" t="s">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -12,11 +12,6 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1520,7 +1515,7 @@
     <t xml:space="preserve">NUM_SCENES</t>
   </si>
   <si>
-    <t xml:space="preserve">Regular checkouts,  Bakery, Entrance of SSD section, Food and beverage prep area</t>
+    <t xml:space="preserve">Regular checkouts,  Bakery, Entrance of SSD section, Food and beverage prep area, 1/3 of the Store</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
@@ -1601,10 +1596,10 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
   </si>
   <si>
-    <t xml:space="preserve">Barnd: Fuze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze</t>
+    <t xml:space="preserve">Barnd: Fuzetea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuzetea</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD every SKUs min 2 facing</t>
@@ -1701,7 +1696,7 @@
     <t xml:space="preserve">Impulse Активации: Добрый Яблоко 0.33л в выпечке</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobry Apple 0.3L with Bakery</t>
+    <t xml:space="preserve">Dobriy 0.33 in Bakery </t>
   </si>
   <si>
     <t xml:space="preserve">Hidden</t>
@@ -1905,7 +1900,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1934,6 +1929,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3300"/>
         <bgColor rgb="FFFF3333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1992,13 +1993,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2069,7 +2070,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2077,7 +2078,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2085,7 +2094,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2157,7 +2170,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2178,61 +2191,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP65536"/>
+  <dimension ref="A1:AP178"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AC158" activeCellId="0" sqref="AC158"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="106.368421052632"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.165991902834"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="90.7287449392713"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.6963562753036"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.5506072874494"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="77.668016194332"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="101.769230769231"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.5627530364372"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="24.9028340080972"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="58.1376518218624"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="19.8582995951417"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="42" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2360,7 +2374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>176</v>
       </c>
@@ -2426,7 +2440,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>177</v>
       </c>
@@ -2492,7 +2506,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>178</v>
       </c>
@@ -2558,7 +2572,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>179</v>
       </c>
@@ -2624,7 +2638,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>180</v>
       </c>
@@ -2690,7 +2704,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>181</v>
       </c>
@@ -2754,7 +2768,7 @@
       </c>
       <c r="AP7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>1</v>
       </c>
@@ -2818,7 +2832,7 @@
       </c>
       <c r="AP8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>2</v>
       </c>
@@ -2890,7 +2904,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>3</v>
       </c>
@@ -2976,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>4</v>
       </c>
@@ -3062,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>5</v>
       </c>
@@ -3148,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>6</v>
       </c>
@@ -3234,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>7</v>
       </c>
@@ -3320,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>8</v>
       </c>
@@ -3406,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>9</v>
       </c>
@@ -3492,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>10</v>
       </c>
@@ -3578,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>11</v>
       </c>
@@ -3664,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>12</v>
       </c>
@@ -3750,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>13</v>
       </c>
@@ -3836,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>14</v>
       </c>
@@ -3922,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>15</v>
       </c>
@@ -4008,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>16</v>
       </c>
@@ -4094,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>17</v>
       </c>
@@ -4180,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>18</v>
       </c>
@@ -4266,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>19</v>
       </c>
@@ -4352,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>20</v>
       </c>
@@ -4438,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>21</v>
       </c>
@@ -4524,7 +4538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>22</v>
       </c>
@@ -4610,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>23</v>
       </c>
@@ -4696,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>24</v>
       </c>
@@ -4782,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>25</v>
       </c>
@@ -4868,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>26</v>
       </c>
@@ -4954,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>27</v>
       </c>
@@ -5040,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>28</v>
       </c>
@@ -5126,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <v>29</v>
       </c>
@@ -5212,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
         <v>30</v>
       </c>
@@ -5298,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
         <v>31</v>
       </c>
@@ -5384,7 +5398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
         <v>32</v>
       </c>
@@ -5456,7 +5470,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>33</v>
       </c>
@@ -5542,7 +5556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>34</v>
       </c>
@@ -5628,7 +5642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>35</v>
       </c>
@@ -5714,7 +5728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>36</v>
       </c>
@@ -5800,7 +5814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>37</v>
       </c>
@@ -5886,7 +5900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
         <v>38</v>
       </c>
@@ -5958,7 +5972,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
         <v>39</v>
       </c>
@@ -6044,7 +6058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
         <v>40</v>
       </c>
@@ -6130,7 +6144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
         <v>41</v>
       </c>
@@ -6216,7 +6230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>42</v>
       </c>
@@ -6302,7 +6316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
         <v>43</v>
       </c>
@@ -6374,7 +6388,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
         <v>44</v>
       </c>
@@ -6460,7 +6474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
         <v>45</v>
       </c>
@@ -6546,7 +6560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
         <v>46</v>
       </c>
@@ -6632,7 +6646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
         <v>47</v>
       </c>
@@ -6718,7 +6732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
         <v>48</v>
       </c>
@@ -6804,7 +6818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
         <v>49</v>
       </c>
@@ -6890,7 +6904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="n">
         <v>50</v>
       </c>
@@ -6976,7 +6990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="n">
         <v>51</v>
       </c>
@@ -7048,7 +7062,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
         <v>52</v>
       </c>
@@ -7134,7 +7148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
         <v>53</v>
       </c>
@@ -7220,7 +7234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="n">
         <v>54</v>
       </c>
@@ -7306,7 +7320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="n">
         <v>55</v>
       </c>
@@ -7392,7 +7406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="n">
         <v>56</v>
       </c>
@@ -7478,7 +7492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="n">
         <v>57</v>
       </c>
@@ -7564,7 +7578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="n">
         <v>58</v>
       </c>
@@ -7650,7 +7664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="n">
         <v>59</v>
       </c>
@@ -7736,7 +7750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="n">
         <v>60</v>
       </c>
@@ -7822,7 +7836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="n">
         <v>61</v>
       </c>
@@ -7908,7 +7922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="n">
         <v>62</v>
       </c>
@@ -7994,7 +8008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="n">
         <v>63</v>
       </c>
@@ -8080,7 +8094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="n">
         <v>64</v>
       </c>
@@ -8166,7 +8180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="n">
         <v>65</v>
       </c>
@@ -8252,7 +8266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="n">
         <v>66</v>
       </c>
@@ -8338,7 +8352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="n">
         <v>67</v>
       </c>
@@ -8424,7 +8438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="n">
         <v>68</v>
       </c>
@@ -8510,7 +8524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="n">
         <v>69</v>
       </c>
@@ -8596,7 +8610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="n">
         <v>70</v>
       </c>
@@ -8682,7 +8696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="n">
         <v>71</v>
       </c>
@@ -8768,7 +8782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="n">
         <v>72</v>
       </c>
@@ -8854,7 +8868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="n">
         <v>73</v>
       </c>
@@ -8940,7 +8954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="n">
         <v>74</v>
       </c>
@@ -9026,7 +9040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="n">
         <v>75</v>
       </c>
@@ -9112,7 +9126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="n">
         <v>76</v>
       </c>
@@ -9198,7 +9212,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="n">
         <v>77</v>
       </c>
@@ -9284,7 +9298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="n">
         <v>78</v>
       </c>
@@ -9370,7 +9384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="n">
         <v>79</v>
       </c>
@@ -9456,7 +9470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="n">
         <v>80</v>
       </c>
@@ -9542,7 +9556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="n">
         <v>81</v>
       </c>
@@ -9628,7 +9642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="n">
         <v>82</v>
       </c>
@@ -9714,7 +9728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="n">
         <v>83</v>
       </c>
@@ -9800,7 +9814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="n">
         <v>84</v>
       </c>
@@ -9886,7 +9900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="n">
         <v>85</v>
       </c>
@@ -9972,7 +9986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="n">
         <v>86</v>
       </c>
@@ -10058,7 +10072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="n">
         <v>87</v>
       </c>
@@ -10144,7 +10158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="n">
         <v>88</v>
       </c>
@@ -10230,7 +10244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="n">
         <v>89</v>
       </c>
@@ -10294,7 +10308,7 @@
       </c>
       <c r="AP96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="n">
         <v>90</v>
       </c>
@@ -10360,7 +10374,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="n">
         <v>91</v>
       </c>
@@ -10442,7 +10456,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="n">
         <v>92</v>
       </c>
@@ -10528,7 +10542,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="n">
         <v>93</v>
       </c>
@@ -10610,7 +10624,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="n">
         <v>94</v>
       </c>
@@ -10696,7 +10710,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="n">
         <v>95</v>
       </c>
@@ -10782,7 +10796,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="n">
         <v>96</v>
       </c>
@@ -10866,7 +10880,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="n">
         <v>97</v>
       </c>
@@ -10950,7 +10964,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="n">
         <v>98</v>
       </c>
@@ -11034,7 +11048,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="n">
         <v>99</v>
       </c>
@@ -11118,7 +11132,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="n">
         <v>100</v>
       </c>
@@ -11184,7 +11198,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="n">
         <v>101</v>
       </c>
@@ -11266,7 +11280,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="n">
         <v>102</v>
       </c>
@@ -11352,7 +11366,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="n">
         <v>103</v>
       </c>
@@ -11434,7 +11448,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="n">
         <v>104</v>
       </c>
@@ -11514,7 +11528,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="n">
         <v>105</v>
       </c>
@@ -11598,7 +11612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="n">
         <v>106</v>
       </c>
@@ -11682,7 +11696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="n">
         <v>107</v>
       </c>
@@ -11764,7 +11778,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="n">
         <v>108</v>
       </c>
@@ -11850,7 +11864,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="n">
         <v>109</v>
       </c>
@@ -11932,7 +11946,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="n">
         <v>110</v>
       </c>
@@ -12018,7 +12032,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="n">
         <v>111</v>
       </c>
@@ -12102,7 +12116,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="n">
         <v>112</v>
       </c>
@@ -12184,7 +12198,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="n">
         <v>113</v>
       </c>
@@ -12268,7 +12282,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="n">
         <v>114</v>
       </c>
@@ -12352,7 +12366,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="n">
         <v>115</v>
       </c>
@@ -12436,7 +12450,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="n">
         <v>116</v>
       </c>
@@ -12520,7 +12534,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="n">
         <v>117</v>
       </c>
@@ -12604,7 +12618,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="n">
         <v>118</v>
       </c>
@@ -12688,7 +12702,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="n">
         <v>119</v>
       </c>
@@ -12772,7 +12786,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="n">
         <v>120</v>
       </c>
@@ -12856,7 +12870,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="n">
         <v>121</v>
       </c>
@@ -12940,7 +12954,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="n">
         <v>122</v>
       </c>
@@ -13024,7 +13038,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="n">
         <v>123</v>
       </c>
@@ -13106,7 +13120,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="n">
         <v>124</v>
       </c>
@@ -13190,7 +13204,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="n">
         <v>125</v>
       </c>
@@ -13274,7 +13288,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="n">
         <v>126</v>
       </c>
@@ -13358,7 +13372,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="n">
         <v>127</v>
       </c>
@@ -13442,7 +13456,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="n">
         <v>128</v>
       </c>
@@ -13526,7 +13540,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="n">
         <v>129</v>
       </c>
@@ -13610,7 +13624,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="n">
         <v>130</v>
       </c>
@@ -13692,7 +13706,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="n">
         <v>131</v>
       </c>
@@ -13776,7 +13790,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="n">
         <v>132</v>
       </c>
@@ -13860,7 +13874,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="n">
         <v>133</v>
       </c>
@@ -13942,7 +13956,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="n">
         <v>134</v>
       </c>
@@ -13976,8 +13990,8 @@
       <c r="M141" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="N141" s="9" t="n">
-        <v>5440233622</v>
+      <c r="N141" s="19" t="n">
+        <v>5449000233622</v>
       </c>
       <c r="O141" s="9"/>
       <c r="P141" s="9"/>
@@ -14026,7 +14040,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="n">
         <v>135</v>
       </c>
@@ -14110,7 +14124,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="n">
         <v>136</v>
       </c>
@@ -14194,7 +14208,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="n">
         <v>137</v>
       </c>
@@ -14258,7 +14272,7 @@
       </c>
       <c r="AP144" s="9"/>
     </row>
-    <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="n">
         <v>138</v>
       </c>
@@ -14324,7 +14338,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="n">
         <v>139</v>
       </c>
@@ -14390,7 +14404,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="n">
         <v>140</v>
       </c>
@@ -14470,7 +14484,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="n">
         <v>141</v>
       </c>
@@ -14552,7 +14566,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="n">
         <v>142</v>
       </c>
@@ -14600,7 +14614,7 @@
       <c r="U149" s="8"/>
       <c r="V149" s="8"/>
       <c r="W149" s="8"/>
-      <c r="X149" s="19" t="s">
+      <c r="X149" s="20" t="s">
         <v>446</v>
       </c>
       <c r="Y149" s="8"/>
@@ -14632,7 +14646,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="n">
         <v>143</v>
       </c>
@@ -14716,7 +14730,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="n">
         <v>144</v>
       </c>
@@ -14738,7 +14752,7 @@
       <c r="G151" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H151" s="20" t="s">
+      <c r="H151" s="21" t="s">
         <v>454</v>
       </c>
       <c r="I151" s="8"/>
@@ -14804,7 +14818,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="n">
         <v>145</v>
       </c>
@@ -14890,7 +14904,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="n">
         <v>147</v>
       </c>
@@ -14933,7 +14947,7 @@
       <c r="R153" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S153" s="21" t="s">
+      <c r="S153" s="22" t="s">
         <v>463</v>
       </c>
       <c r="T153" s="8"/>
@@ -14976,7 +14990,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="n">
         <v>148</v>
       </c>
@@ -15019,7 +15033,7 @@
       <c r="R154" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S154" s="21" t="s">
+      <c r="S154" s="22" t="s">
         <v>463</v>
       </c>
       <c r="T154" s="8"/>
@@ -15062,7 +15076,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="n">
         <v>149</v>
       </c>
@@ -15142,7 +15156,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="n">
         <v>150</v>
       </c>
@@ -15185,7 +15199,7 @@
       <c r="R156" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S156" s="21" t="s">
+      <c r="S156" s="22" t="s">
         <v>463</v>
       </c>
       <c r="T156" s="8"/>
@@ -15228,7 +15242,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="n">
         <v>151</v>
       </c>
@@ -15257,21 +15271,21 @@
       </c>
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
-      <c r="M157" s="8" t="s">
+      <c r="M157" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="N157" s="9" t="s">
+      <c r="N157" s="19" t="s">
         <v>476</v>
       </c>
       <c r="O157" s="8"/>
       <c r="P157" s="8"/>
-      <c r="Q157" s="8" t="s">
+      <c r="Q157" s="23" t="s">
         <v>476</v>
       </c>
       <c r="R157" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S157" s="21" t="s">
+      <c r="S157" s="22" t="s">
         <v>463</v>
       </c>
       <c r="T157" s="8"/>
@@ -15314,7 +15328,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="n">
         <v>152</v>
       </c>
@@ -15334,7 +15348,7 @@
       <c r="G158" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="H158" s="20" t="s">
+      <c r="H158" s="21" t="s">
         <v>479</v>
       </c>
       <c r="I158" s="8"/>
@@ -15355,7 +15369,7 @@
       <c r="R158" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S158" s="21" t="s">
+      <c r="S158" s="22" t="s">
         <v>442</v>
       </c>
       <c r="T158" s="8"/>
@@ -15396,7 +15410,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="n">
         <v>153</v>
       </c>
@@ -15412,7 +15426,7 @@
       <c r="E159" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="F159" s="21" t="s">
+      <c r="F159" s="22" t="s">
         <v>480</v>
       </c>
       <c r="G159" s="8" t="s">
@@ -15478,7 +15492,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="n">
         <v>154</v>
       </c>
@@ -15491,7 +15505,7 @@
       <c r="D160" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E160" s="22" t="s">
+      <c r="E160" s="24" t="s">
         <v>357</v>
       </c>
       <c r="F160" s="8" t="s">
@@ -15509,7 +15523,7 @@
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
-      <c r="M160" s="23"/>
+      <c r="M160" s="25"/>
       <c r="N160" s="8"/>
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
@@ -15521,8 +15535,8 @@
       <c r="T160" s="8"/>
       <c r="U160" s="8"/>
       <c r="V160" s="8"/>
-      <c r="W160" s="23"/>
-      <c r="X160" s="19" t="s">
+      <c r="W160" s="25"/>
+      <c r="X160" s="20" t="s">
         <v>483</v>
       </c>
       <c r="Y160" s="8"/>
@@ -15558,7 +15572,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="n">
         <v>155</v>
       </c>
@@ -15571,7 +15585,7 @@
       <c r="D161" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E161" s="22" t="s">
+      <c r="E161" s="24" t="s">
         <v>357</v>
       </c>
       <c r="F161" s="8" t="s">
@@ -15609,8 +15623,8 @@
       <c r="T161" s="8"/>
       <c r="U161" s="8"/>
       <c r="V161" s="8"/>
-      <c r="W161" s="23"/>
-      <c r="X161" s="19" t="s">
+      <c r="W161" s="25"/>
+      <c r="X161" s="20" t="s">
         <v>483</v>
       </c>
       <c r="Y161" s="8"/>
@@ -15644,7 +15658,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="n">
         <v>156</v>
       </c>
@@ -15655,7 +15669,7 @@
         <v>43</v>
       </c>
       <c r="D162" s="8"/>
-      <c r="E162" s="22"/>
+      <c r="E162" s="24"/>
       <c r="F162" s="8" t="s">
         <v>490</v>
       </c>
@@ -15706,7 +15720,7 @@
       </c>
       <c r="AP162" s="9"/>
     </row>
-    <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="n">
         <v>157</v>
       </c>
@@ -15778,7 +15792,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="n">
         <v>158</v>
       </c>
@@ -15860,7 +15874,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="n">
         <v>159</v>
       </c>
@@ -15942,7 +15956,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="n">
         <v>160</v>
       </c>
@@ -16024,7 +16038,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="n">
         <v>161</v>
       </c>
@@ -16054,7 +16068,7 @@
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
       <c r="M167" s="8"/>
-      <c r="N167" s="9" t="s">
+      <c r="N167" s="26" t="s">
         <v>507</v>
       </c>
       <c r="O167" s="8"/>
@@ -16071,8 +16085,8 @@
       <c r="V167" s="8"/>
       <c r="W167" s="8"/>
       <c r="X167" s="8"/>
-      <c r="Y167" s="8" t="s">
-        <v>498</v>
+      <c r="Y167" s="23" t="s">
+        <v>507</v>
       </c>
       <c r="Z167" s="8"/>
       <c r="AA167" s="9"/>
@@ -16104,7 +16118,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="n">
         <v>162</v>
       </c>
@@ -16117,13 +16131,13 @@
       <c r="D168" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E168" s="22" t="s">
+      <c r="E168" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="F168" s="22" t="s">
+      <c r="F168" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="G168" s="22" t="s">
+      <c r="G168" s="24" t="s">
         <v>511</v>
       </c>
       <c r="H168" s="8" t="s">
@@ -16172,7 +16186,7 @@
       </c>
       <c r="AP168" s="9"/>
     </row>
-    <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="n">
         <v>163</v>
       </c>
@@ -16191,7 +16205,7 @@
       <c r="F169" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="G169" s="24" t="s">
+      <c r="G169" s="27" t="s">
         <v>517</v>
       </c>
       <c r="H169" s="8" t="s">
@@ -16240,7 +16254,7 @@
       </c>
       <c r="AP169" s="9"/>
     </row>
-    <row r="170" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="n">
         <v>164</v>
       </c>
@@ -16253,13 +16267,13 @@
       <c r="D170" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E170" s="22" t="s">
+      <c r="E170" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="F170" s="22" t="s">
+      <c r="F170" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="G170" s="22" t="s">
+      <c r="G170" s="24" t="s">
         <v>492</v>
       </c>
       <c r="H170" s="8" t="s">
@@ -16310,7 +16324,7 @@
       </c>
       <c r="AP170" s="9"/>
     </row>
-    <row r="171" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="n">
         <v>167</v>
       </c>
@@ -16323,13 +16337,13 @@
       <c r="D171" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E171" s="22" t="s">
+      <c r="E171" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="F171" s="22" t="s">
+      <c r="F171" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="G171" s="22" t="s">
+      <c r="G171" s="24" t="s">
         <v>527</v>
       </c>
       <c r="H171" s="8" t="s">
@@ -16378,7 +16392,7 @@
       </c>
       <c r="AP171" s="9"/>
     </row>
-    <row r="172" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="n">
         <v>168</v>
       </c>
@@ -16391,13 +16405,13 @@
       <c r="D172" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E172" s="22" t="s">
+      <c r="E172" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="F172" s="22" t="s">
+      <c r="F172" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="G172" s="22" t="s">
+      <c r="G172" s="24" t="s">
         <v>532</v>
       </c>
       <c r="H172" s="8" t="s">
@@ -16446,7 +16460,7 @@
       </c>
       <c r="AP172" s="9"/>
     </row>
-    <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="n">
         <v>169</v>
       </c>
@@ -16459,13 +16473,13 @@
       <c r="D173" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E173" s="22" t="s">
+      <c r="E173" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="F173" s="22" t="s">
+      <c r="F173" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="G173" s="22" t="s">
+      <c r="G173" s="24" t="s">
         <v>536</v>
       </c>
       <c r="H173" s="8" t="s">
@@ -16514,7 +16528,7 @@
       <c r="AO173" s="9"/>
       <c r="AP173" s="9"/>
     </row>
-    <row r="174" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="n">
         <v>170</v>
       </c>
@@ -16527,13 +16541,13 @@
       <c r="D174" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E174" s="22" t="s">
+      <c r="E174" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="F174" s="22" t="s">
+      <c r="F174" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="G174" s="22" t="s">
+      <c r="G174" s="24" t="s">
         <v>542</v>
       </c>
       <c r="H174" s="8" t="s">
@@ -16560,7 +16574,7 @@
       <c r="U174" s="8"/>
       <c r="V174" s="8"/>
       <c r="W174" s="8"/>
-      <c r="X174" s="25" t="s">
+      <c r="X174" s="28" t="s">
         <v>544</v>
       </c>
       <c r="Y174" s="8"/>
@@ -16586,7 +16600,7 @@
       <c r="AO174" s="9"/>
       <c r="AP174" s="9"/>
     </row>
-    <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="7" t="n">
         <v>172</v>
       </c>
@@ -16599,13 +16613,13 @@
       <c r="D175" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E175" s="22" t="s">
+      <c r="E175" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="F175" s="22" t="s">
+      <c r="F175" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="G175" s="22" t="s">
+      <c r="G175" s="24" t="s">
         <v>548</v>
       </c>
       <c r="H175" s="8" t="s">
@@ -16617,7 +16631,7 @@
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
-      <c r="M175" s="21" t="s">
+      <c r="M175" s="22" t="s">
         <v>549</v>
       </c>
       <c r="N175" s="12" t="s">
@@ -16658,7 +16672,7 @@
       </c>
       <c r="AP175" s="9"/>
     </row>
-    <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="n">
         <v>173</v>
       </c>
@@ -16671,13 +16685,13 @@
       <c r="D176" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E176" s="22" t="s">
+      <c r="E176" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="F176" s="22" t="s">
+      <c r="F176" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="G176" s="22" t="s">
+      <c r="G176" s="24" t="s">
         <v>548</v>
       </c>
       <c r="H176" s="8" t="s">
@@ -16689,7 +16703,7 @@
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
-      <c r="M176" s="21" t="s">
+      <c r="M176" s="22" t="s">
         <v>549</v>
       </c>
       <c r="N176" s="12" t="s">
@@ -16730,7 +16744,7 @@
       </c>
       <c r="AP176" s="9"/>
     </row>
-    <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="n">
         <v>174</v>
       </c>
@@ -16743,13 +16757,13 @@
       <c r="D177" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E177" s="22" t="s">
+      <c r="E177" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="F177" s="22" t="s">
+      <c r="F177" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="G177" s="22" t="s">
+      <c r="G177" s="24" t="s">
         <v>548</v>
       </c>
       <c r="H177" s="8" t="s">
@@ -16761,7 +16775,7 @@
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
-      <c r="M177" s="21" t="s">
+      <c r="M177" s="22" t="s">
         <v>549</v>
       </c>
       <c r="N177" s="12" t="s">
@@ -16802,7 +16816,7 @@
       </c>
       <c r="AP177" s="9"/>
     </row>
-    <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="n">
         <v>175</v>
       </c>
@@ -16815,13 +16829,13 @@
       <c r="D178" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E178" s="22" t="s">
+      <c r="E178" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="F178" s="22" t="s">
+      <c r="F178" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="G178" s="22" t="s">
+      <c r="G178" s="24" t="s">
         <v>548</v>
       </c>
       <c r="H178" s="8" t="s">
@@ -16833,7 +16847,7 @@
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
-      <c r="M178" s="21" t="s">
+      <c r="M178" s="22" t="s">
         <v>549</v>
       </c>
       <c r="N178" s="12" t="s">
@@ -16874,12 +16888,11 @@
       </c>
       <c r="AP178" s="9"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AP178"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -991,8 +992,7 @@
   <si>
     <t xml:space="preserve">89
 90
-91
-</t>
+91</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 1st: Facings</t>
@@ -2193,57 +2193,56 @@
   </sheetPr>
   <dimension ref="A1:AP178"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
+      <selection pane="bottomLeft" activeCell="AO99" activeCellId="0" sqref="AO99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.6963562753036"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="77.668016194332"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="101.769230769231"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="24.9028340080972"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="19.8582995951417"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.0931174089069"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.4534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="42" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="591">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">number of facings</t>
   </si>
   <si>
-    <t xml:space="preserve">5440228970, 5454227</t>
+    <t xml:space="preserve">5449000228970, 5449000054227</t>
   </si>
   <si>
     <t xml:space="preserve">OR</t>
@@ -320,12 +320,18 @@
     <t xml:space="preserve">Кока-Кола - 1.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000000439</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coca-Cola - 2L</t>
   </si>
   <si>
     <t xml:space="preserve">Кока-Кола - 2л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000000286</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coca-Cola - 0.5L</t>
   </si>
   <si>
@@ -341,13 +347,16 @@
     <t xml:space="preserve">Кока-Кола - 0.33л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000000996</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fanta Orange - 0.9L/1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фанта Апельсин - 0.9л/1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5440228963, 5446271</t>
+    <t xml:space="preserve">5449000228963, 5449000006271</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite - 0.9L/1L</t>
@@ -356,7 +365,7 @@
     <t xml:space="preserve">Спрайт - 0.9л/1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5440228956, 5450939</t>
+    <t xml:space="preserve">5449000228956, 5449000050939</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola Zero - 0.9L/1L</t>
@@ -365,7 +374,7 @@
     <t xml:space="preserve">Кока-Кола Зеро - 0.9л/1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5440231659, 5440133328</t>
+    <t xml:space="preserve">5449000231659, 5449000133328</t>
   </si>
   <si>
     <t xml:space="preserve">Schweppes Bitter Lemon - 1L</t>
@@ -374,48 +383,72 @@
     <t xml:space="preserve">Швеппс Биттер Лемон - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000044839</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coca-Cola Zero - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Кока-Кола Зеро - 1.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000133335</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sprite - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Спрайт - 1.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000012203</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fanta Orange - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фанта Апельсин - 1.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000052926</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coca-Cola Zero Cherry - 0.9L</t>
   </si>
   <si>
     <t xml:space="preserve">Кока-Кола Зеро Вишня- 0.9л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000251626</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000131836</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000214744</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schweppes Tonic - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Швеппс Тоник - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000044808</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fanta Orange - 0.5L</t>
   </si>
   <si>
@@ -440,19 +473,25 @@
     <t xml:space="preserve">Фанта Апельсин - 0.33л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000011527</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fanta Pear - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фанта Груша - 0.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000172228</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fanta Pear - 0.9L/1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фанта Груша - 0.9л/1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5440234155, 5440172235</t>
+    <t xml:space="preserve">5449000234155, 5449000172235</t>
   </si>
   <si>
     <t xml:space="preserve">Schweppes Bitter Lemon - 0.5L</t>
@@ -470,6 +509,9 @@
     <t xml:space="preserve">Кока-Кола Зеро - 0.33л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000131805</t>
+  </si>
+  <si>
     <t xml:space="preserve">STANDARD 2</t>
   </si>
   <si>
@@ -479,37 +521,52 @@
     <t xml:space="preserve">Спрайт - 0.33л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000014535</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schweppes Bitter Lemon - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Швеппс Биттер Лемон - 1.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000044709</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fanta Pear - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фанта Груша - 1.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000172242</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coca-Cola Zero Cherry - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Кока-Кола Зеро Вишня - 1.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000223586</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fanta Citrus - 0.9L/1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фанта Цитрус - 0.9л/1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5440234179, 5440213693</t>
+    <t xml:space="preserve">5449000234179, 5449000213693</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Citrus - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фанта Цитрус - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000213631</t>
   </si>
   <si>
     <t xml:space="preserve">Water Availability</t>
@@ -541,6 +598,9 @@
     <t xml:space="preserve">БонАква Негаз - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000005489</t>
+  </si>
+  <si>
     <t xml:space="preserve">BonAqua Carb - 0.5L</t>
   </si>
   <si>
@@ -556,10 +616,16 @@
     <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000152190</t>
+  </si>
+  <si>
     <t xml:space="preserve">BonAqua Still - 2L</t>
   </si>
   <si>
     <t xml:space="preserve">БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000032805</t>
   </si>
   <si>
     <t xml:space="preserve">Energy Availability</t>
@@ -579,6 +645,9 @@
   </si>
   <si>
     <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000131768</t>
   </si>
   <si>
     <t xml:space="preserve">Monster Green - 0.5L</t>
@@ -651,6 +720,9 @@
     <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000233622</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Berry-Hibiscus- 1L</t>
   </si>
   <si>
@@ -684,7 +756,7 @@
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">5440193155, 5449000259479</t>
+    <t xml:space="preserve">5449000193155, 5449000259479</t>
   </si>
   <si>
     <t xml:space="preserve">Juice (JNSD) Availability</t>
@@ -847,48 +919,72 @@
     <t xml:space="preserve">Моя Семья - Ягода-Вкуснягода - 0.95л</t>
   </si>
   <si>
+    <t xml:space="preserve">4650075421239</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moya Semya - Apple Mix - 0.95L</t>
   </si>
   <si>
     <t xml:space="preserve">Моя Семья - Яблоко - 0.95л</t>
   </si>
   <si>
+    <t xml:space="preserve">4650075421178</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moya Semya - Pineapple-Mango - 0.95L</t>
   </si>
   <si>
     <t xml:space="preserve">Моя Семья - Ананас-Маракас - 0.95л</t>
   </si>
   <si>
+    <t xml:space="preserve">4650075421536</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moya Semya - Apple-Strawberry - 0.95L</t>
   </si>
   <si>
     <t xml:space="preserve">Моя Семья - Клубничина-Земляничина - 0.95л</t>
   </si>
   <si>
+    <t xml:space="preserve">4650075421574</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dobriy - Pomegranate-Grape - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Добрый Уголки - Гранат-Виноград - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">4650075420287</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
   </si>
   <si>
     <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
   </si>
   <si>
+    <t xml:space="preserve">4650075420980</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dobriy - Berry Smoothie - 0.11L</t>
   </si>
   <si>
     <t xml:space="preserve">Добрый Смуззи - Ягодный Дэнс - 110 гр</t>
   </si>
   <si>
+    <t xml:space="preserve">4650075421970</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dobriy - Strawberry Smoothie - 0.11L</t>
   </si>
   <si>
     <t xml:space="preserve">Добрый Смуззи - Клубника Банана Гоу - 110 гр</t>
   </si>
   <si>
+    <t xml:space="preserve">4650075421932</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dobriy - Citrus-Apple - 1L</t>
   </si>
   <si>
@@ -901,6 +997,9 @@
     <t xml:space="preserve">Моя Семья - Яблочный Микс - 0.175л</t>
   </si>
   <si>
+    <t xml:space="preserve">4650075421192</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moya Semya - Pineapple-Mango - 0.175L</t>
   </si>
   <si>
@@ -925,12 +1024,18 @@
     <t xml:space="preserve">Добрый - Персик-Яблоко - 2л</t>
   </si>
   <si>
+    <t xml:space="preserve">4607042438998</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dobriy - Apple Cloudy - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Добрый - Деревенские яблочки - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">4607174577145</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEW SKU 6</t>
   </si>
   <si>
@@ -949,10 +1054,16 @@
     <t xml:space="preserve">Добрый - Персик-Яблоко - 0.2л</t>
   </si>
   <si>
+    <t xml:space="preserve">4607042438967</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moya Semya - Cherry-Mint - 0.95L</t>
   </si>
   <si>
     <t xml:space="preserve">Моя Семья - Вишнята-Мята - 0.95л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075421499</t>
   </si>
   <si>
     <t xml:space="preserve">Displays</t>
@@ -1080,7 +1191,7 @@
     <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Fanta Orange - 2L</t>
+    <t xml:space="preserve">Fanta Orange -1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">JNSD Displays</t>
@@ -1694,6 +1805,9 @@
   </si>
   <si>
     <t xml:space="preserve">Impulse Активации: Добрый Яблоко 0.33л в выпечке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy 0.33 in Bakery</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy 0.33 in Bakery </t>
@@ -1909,8 +2023,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC9900"/>
-        <bgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1933,12 +2053,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFCC00"/>
       </patternFill>
@@ -1946,7 +2060,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1993,7 +2107,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2046,19 +2160,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2066,13 +2192,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2082,11 +2208,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2098,7 +2220,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2106,7 +2232,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2144,10 +2270,10 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2165,7 +2291,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFCC9900"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -2193,59 +2319,59 @@
   </sheetPr>
   <dimension ref="A1:AP178"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
-      <selection pane="bottomLeft" activeCell="AO99" activeCellId="0" sqref="AO99"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.0931174089069"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="78.3036437246964"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="102.728744939271"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.4534412955466"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="103.582995951417"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="42" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>176</v>
       </c>
@@ -2439,7 +2565,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>177</v>
       </c>
@@ -2505,7 +2631,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>178</v>
       </c>
@@ -2571,7 +2697,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>179</v>
       </c>
@@ -2637,7 +2763,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>180</v>
       </c>
@@ -2703,7 +2829,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>181</v>
       </c>
@@ -2767,7 +2893,7 @@
       </c>
       <c r="AP7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2957,7 @@
       </c>
       <c r="AP8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>2</v>
       </c>
@@ -2903,7 +3029,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>3</v>
       </c>
@@ -2937,7 +3063,7 @@
       <c r="M10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="13" t="s">
         <v>75</v>
       </c>
       <c r="O10" s="8"/>
@@ -2989,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>4</v>
       </c>
@@ -3023,8 +3149,8 @@
       <c r="M11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N11" s="9" t="n">
-        <v>5440439</v>
+      <c r="N11" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -3075,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>5</v>
       </c>
@@ -3092,10 +3218,10 @@
         <v>65</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>74</v>
@@ -3107,10 +3233,10 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="9" t="n">
-        <v>5440286</v>
+        <v>84</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -3161,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>6</v>
       </c>
@@ -3178,10 +3304,10 @@
         <v>65</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>74</v>
@@ -3193,10 +3319,10 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N13" s="9" t="s">
         <v>87</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -3247,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>7</v>
       </c>
@@ -3264,10 +3390,10 @@
         <v>65</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>74</v>
@@ -3279,10 +3405,10 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="N14" s="9" t="n">
-        <v>5440996</v>
+        <v>90</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -3333,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>8</v>
       </c>
@@ -3350,10 +3476,10 @@
         <v>65</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>74</v>
@@ -3365,10 +3491,10 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -3419,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>9</v>
       </c>
@@ -3436,10 +3562,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>74</v>
@@ -3451,10 +3577,10 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -3505,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>10</v>
       </c>
@@ -3522,10 +3648,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>74</v>
@@ -3537,10 +3663,10 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -3591,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>11</v>
       </c>
@@ -3608,10 +3734,10 @@
         <v>65</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>74</v>
@@ -3623,10 +3749,10 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="9" t="n">
-        <v>5444839</v>
+        <v>102</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -3677,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>12</v>
       </c>
@@ -3694,10 +3820,10 @@
         <v>65</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>74</v>
@@ -3709,10 +3835,10 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="N19" s="9" t="n">
-        <v>5440133335</v>
+        <v>105</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -3763,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>13</v>
       </c>
@@ -3780,10 +3906,10 @@
         <v>65</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>74</v>
@@ -3795,10 +3921,10 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N20" s="9" t="n">
-        <v>5412203</v>
+        <v>108</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -3849,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>14</v>
       </c>
@@ -3866,10 +3992,10 @@
         <v>65</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>74</v>
@@ -3881,10 +4007,10 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N21" s="9" t="n">
-        <v>5452926</v>
+        <v>111</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -3935,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>15</v>
       </c>
@@ -3952,10 +4078,10 @@
         <v>65</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>74</v>
@@ -3967,10 +4093,10 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="N22" s="9" t="n">
-        <v>5440251626</v>
+        <v>114</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
@@ -4021,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>16</v>
       </c>
@@ -4038,10 +4164,10 @@
         <v>65</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>74</v>
@@ -4053,10 +4179,10 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="N23" s="9" t="n">
-        <v>5440131836</v>
+        <v>117</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
@@ -4107,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>17</v>
       </c>
@@ -4124,10 +4250,10 @@
         <v>65</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>74</v>
@@ -4139,10 +4265,10 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="N24" s="9" t="n">
-        <v>5440214744</v>
+        <v>120</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
@@ -4193,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>18</v>
       </c>
@@ -4210,10 +4336,10 @@
         <v>65</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>74</v>
@@ -4225,10 +4351,10 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N25" s="9" t="n">
-        <v>5444808</v>
+        <v>123</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
@@ -4279,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>19</v>
       </c>
@@ -4296,10 +4422,10 @@
         <v>65</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>74</v>
@@ -4311,10 +4437,10 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -4365,7 +4491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>20</v>
       </c>
@@ -4382,10 +4508,10 @@
         <v>65</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>74</v>
@@ -4397,10 +4523,10 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>120</v>
+        <v>129</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
@@ -4451,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>21</v>
       </c>
@@ -4468,10 +4594,10 @@
         <v>65</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>74</v>
@@ -4483,10 +4609,10 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="N28" s="9" t="n">
-        <v>5411527</v>
+        <v>132</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -4537,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>22</v>
       </c>
@@ -4554,10 +4680,10 @@
         <v>65</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>74</v>
@@ -4569,10 +4695,10 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="N29" s="9" t="n">
-        <v>5440172228</v>
+        <v>135</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
@@ -4623,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>23</v>
       </c>
@@ -4640,10 +4766,10 @@
         <v>65</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>74</v>
@@ -4655,10 +4781,10 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>127</v>
+        <v>138</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -4709,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>24</v>
       </c>
@@ -4726,10 +4852,10 @@
         <v>65</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>74</v>
@@ -4741,10 +4867,10 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>130</v>
+        <v>141</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
@@ -4795,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>25</v>
       </c>
@@ -4812,10 +4938,10 @@
         <v>65</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>74</v>
@@ -4827,10 +4953,10 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N32" s="9" t="n">
-        <v>5440131805</v>
+        <v>144</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
@@ -4881,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>26</v>
       </c>
@@ -4895,13 +5021,13 @@
         <v>44</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>74</v>
@@ -4913,10 +5039,10 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="N33" s="9" t="n">
-        <v>5414535</v>
+        <v>148</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
@@ -4967,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>27</v>
       </c>
@@ -4984,10 +5110,10 @@
         <v>65</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>74</v>
@@ -4999,10 +5125,10 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N34" s="9" t="n">
-        <v>5444709</v>
+        <v>151</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
@@ -5053,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>28</v>
       </c>
@@ -5070,10 +5196,10 @@
         <v>65</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>74</v>
@@ -5085,10 +5211,10 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N35" s="9" t="n">
-        <v>5440172242</v>
+        <v>154</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
@@ -5139,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <v>29</v>
       </c>
@@ -5156,10 +5282,10 @@
         <v>65</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>74</v>
@@ -5171,10 +5297,10 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="N36" s="9" t="n">
-        <v>5440223586</v>
+        <v>157</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
@@ -5225,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
         <v>30</v>
       </c>
@@ -5242,10 +5368,10 @@
         <v>65</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>74</v>
@@ -5257,10 +5383,10 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>144</v>
+        <v>160</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
@@ -5311,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
         <v>31</v>
       </c>
@@ -5328,10 +5454,10 @@
         <v>65</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>74</v>
@@ -5343,10 +5469,10 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="N38" s="9" t="n">
-        <v>5440213631</v>
+        <v>163</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
@@ -5397,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
         <v>32</v>
       </c>
@@ -5411,13 +5537,13 @@
         <v>44</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>68</v>
@@ -5463,13 +5589,13 @@
         <v>31</v>
       </c>
       <c r="AO39" s="12" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="AP39" s="9" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>33</v>
       </c>
@@ -5483,13 +5609,13 @@
         <v>44</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>74</v>
@@ -5501,10 +5627,10 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>152</v>
+        <v>169</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
@@ -5555,7 +5681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>34</v>
       </c>
@@ -5569,13 +5695,13 @@
         <v>44</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>74</v>
@@ -5587,10 +5713,10 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="N41" s="9" t="n">
-        <v>5445489</v>
+        <v>172</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
@@ -5641,7 +5767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>35</v>
       </c>
@@ -5655,13 +5781,13 @@
         <v>44</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>74</v>
@@ -5673,10 +5799,10 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>157</v>
+        <v>175</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
@@ -5727,7 +5853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>36</v>
       </c>
@@ -5741,13 +5867,13 @@
         <v>44</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>74</v>
@@ -5759,10 +5885,10 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="N43" s="9" t="n">
-        <v>5440152190</v>
+        <v>178</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
@@ -5813,7 +5939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>37</v>
       </c>
@@ -5827,13 +5953,13 @@
         <v>44</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>74</v>
@@ -5845,10 +5971,10 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="N44" s="9" t="n">
-        <v>5432805</v>
+        <v>181</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
@@ -5899,7 +6025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
         <v>38</v>
       </c>
@@ -5913,13 +6039,13 @@
         <v>44</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>68</v>
@@ -5965,13 +6091,13 @@
         <v>37</v>
       </c>
       <c r="AO45" s="12" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="AP45" s="9" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
         <v>39</v>
       </c>
@@ -5985,13 +6111,13 @@
         <v>44</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>74</v>
@@ -6003,10 +6129,10 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N46" s="9" t="n">
-        <v>5440131768</v>
+        <v>187</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
@@ -6057,7 +6183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
         <v>40</v>
       </c>
@@ -6071,13 +6197,13 @@
         <v>44</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>74</v>
@@ -6089,10 +6215,10 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>169</v>
+        <v>190</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
@@ -6143,7 +6269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
         <v>41</v>
       </c>
@@ -6157,13 +6283,13 @@
         <v>44</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>74</v>
@@ -6175,10 +6301,10 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>172</v>
+        <v>193</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
@@ -6229,7 +6355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>42</v>
       </c>
@@ -6243,13 +6369,13 @@
         <v>44</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>74</v>
@@ -6261,10 +6387,10 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>175</v>
+        <v>196</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
@@ -6315,7 +6441,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
         <v>43</v>
       </c>
@@ -6329,13 +6455,13 @@
         <v>44</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>68</v>
@@ -6381,13 +6507,13 @@
         <v>42</v>
       </c>
       <c r="AO50" s="12" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="AP50" s="9" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
         <v>44</v>
       </c>
@@ -6401,13 +6527,13 @@
         <v>44</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>74</v>
@@ -6419,10 +6545,10 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="N51" s="13" t="s">
-        <v>181</v>
+        <v>202</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
@@ -6473,7 +6599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
         <v>45</v>
       </c>
@@ -6487,13 +6613,13 @@
         <v>44</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>74</v>
@@ -6505,10 +6631,10 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>184</v>
+        <v>205</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
@@ -6559,7 +6685,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
         <v>46</v>
       </c>
@@ -6573,13 +6699,13 @@
         <v>44</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>74</v>
@@ -6591,10 +6717,10 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="N53" s="9" t="n">
-        <v>5440233622</v>
+        <v>209</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
@@ -6645,7 +6771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
         <v>47</v>
       </c>
@@ -6659,13 +6785,13 @@
         <v>44</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>74</v>
@@ -6677,10 +6803,10 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="N54" s="13" t="s">
-        <v>190</v>
+        <v>212</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
@@ -6731,7 +6857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
         <v>48</v>
       </c>
@@ -6745,13 +6871,13 @@
         <v>44</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>74</v>
@@ -6763,10 +6889,10 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="N55" s="13" t="s">
-        <v>193</v>
+        <v>215</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
@@ -6817,7 +6943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
         <v>49</v>
       </c>
@@ -6831,13 +6957,13 @@
         <v>44</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>74</v>
@@ -6849,10 +6975,10 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="N56" s="13" t="s">
-        <v>196</v>
+        <v>218</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
@@ -6903,7 +7029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="n">
         <v>50</v>
       </c>
@@ -6917,13 +7043,13 @@
         <v>44</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>74</v>
@@ -6935,12 +7061,12 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="O57" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="O57" s="16"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="8" t="s">
@@ -6989,7 +7115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="n">
         <v>51</v>
       </c>
@@ -7003,13 +7129,13 @@
         <v>44</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>68</v>
@@ -7055,13 +7181,13 @@
         <v>50</v>
       </c>
       <c r="AO58" s="12" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="AP58" s="9" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
         <v>52</v>
       </c>
@@ -7075,13 +7201,13 @@
         <v>44</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>74</v>
@@ -7093,7 +7219,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="8" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="N59" s="9" t="n">
         <v>4607042434877</v>
@@ -7147,7 +7273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
         <v>53</v>
       </c>
@@ -7161,13 +7287,13 @@
         <v>44</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>74</v>
@@ -7179,7 +7305,7 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="8" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="N60" s="9" t="n">
         <v>4607042434891</v>
@@ -7233,7 +7359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="n">
         <v>54</v>
       </c>
@@ -7247,13 +7373,13 @@
         <v>44</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>74</v>
@@ -7265,7 +7391,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="8" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="N61" s="9" t="n">
         <v>4607042438738</v>
@@ -7319,7 +7445,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="n">
         <v>55</v>
       </c>
@@ -7333,13 +7459,13 @@
         <v>44</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>74</v>
@@ -7351,7 +7477,7 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="8" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="N62" s="9" t="n">
         <v>4607042438950</v>
@@ -7405,7 +7531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="n">
         <v>56</v>
       </c>
@@ -7419,13 +7545,13 @@
         <v>44</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>74</v>
@@ -7437,7 +7563,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="8" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="N63" s="9" t="n">
         <v>4607042434884</v>
@@ -7491,7 +7617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="n">
         <v>57</v>
       </c>
@@ -7505,13 +7631,13 @@
         <v>44</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>74</v>
@@ -7523,7 +7649,7 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="8" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="N64" s="9" t="n">
         <v>4607042431388</v>
@@ -7577,7 +7703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="n">
         <v>58</v>
       </c>
@@ -7591,13 +7717,13 @@
         <v>44</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>74</v>
@@ -7609,7 +7735,7 @@
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="8" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="N65" s="9" t="n">
         <v>4607042431333</v>
@@ -7663,7 +7789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="n">
         <v>59</v>
       </c>
@@ -7677,13 +7803,13 @@
         <v>44</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>74</v>
@@ -7695,7 +7821,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="8" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="N66" s="9" t="n">
         <v>4607042438776</v>
@@ -7749,7 +7875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="n">
         <v>60</v>
       </c>
@@ -7763,13 +7889,13 @@
         <v>44</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>74</v>
@@ -7781,7 +7907,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="8" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="N67" s="9" t="n">
         <v>4607042431371</v>
@@ -7835,7 +7961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="n">
         <v>61</v>
       </c>
@@ -7849,13 +7975,13 @@
         <v>44</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>74</v>
@@ -7867,7 +7993,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="8" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="N68" s="9" t="n">
         <v>4607174577787</v>
@@ -7921,7 +8047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="n">
         <v>62</v>
       </c>
@@ -7935,13 +8061,13 @@
         <v>44</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>74</v>
@@ -7953,7 +8079,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="8" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="N69" s="9" t="n">
         <v>4607042430619</v>
@@ -8007,7 +8133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="n">
         <v>63</v>
       </c>
@@ -8021,13 +8147,13 @@
         <v>44</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>74</v>
@@ -8039,7 +8165,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="8" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="N70" s="9" t="n">
         <v>4607042430565</v>
@@ -8093,7 +8219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="n">
         <v>64</v>
       </c>
@@ -8107,13 +8233,13 @@
         <v>44</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>74</v>
@@ -8125,7 +8251,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="8" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="N71" s="9" t="n">
         <v>4607174579309</v>
@@ -8179,7 +8305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="n">
         <v>65</v>
       </c>
@@ -8193,13 +8319,13 @@
         <v>44</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>74</v>
@@ -8211,7 +8337,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="N72" s="9" t="n">
         <v>4607174579286</v>
@@ -8265,7 +8391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="n">
         <v>66</v>
       </c>
@@ -8279,13 +8405,13 @@
         <v>44</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>74</v>
@@ -8297,7 +8423,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="8" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="N73" s="9" t="n">
         <v>4607174577794</v>
@@ -8351,7 +8477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="n">
         <v>67</v>
       </c>
@@ -8365,13 +8491,13 @@
         <v>44</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>74</v>
@@ -8383,7 +8509,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="8" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="N74" s="9" t="n">
         <v>4607042439155</v>
@@ -8437,7 +8563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="n">
         <v>68</v>
       </c>
@@ -8451,13 +8577,13 @@
         <v>44</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>74</v>
@@ -8469,7 +8595,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="8" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="N75" s="9" t="n">
         <v>4607042439216</v>
@@ -8523,7 +8649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="n">
         <v>69</v>
       </c>
@@ -8537,13 +8663,13 @@
         <v>44</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>74</v>
@@ -8555,7 +8681,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="8" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="N76" s="9" t="n">
         <v>4607042439223</v>
@@ -8609,7 +8735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="n">
         <v>70</v>
       </c>
@@ -8623,13 +8749,13 @@
         <v>44</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>74</v>
@@ -8641,10 +8767,10 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="N77" s="9" t="n">
-        <v>4675421239</v>
+        <v>263</v>
+      </c>
+      <c r="N77" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
@@ -8695,7 +8821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="n">
         <v>71</v>
       </c>
@@ -8709,13 +8835,13 @@
         <v>44</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>74</v>
@@ -8727,10 +8853,10 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="N78" s="9" t="n">
-        <v>4675421178</v>
+        <v>266</v>
+      </c>
+      <c r="N78" s="14" t="s">
+        <v>268</v>
       </c>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
@@ -8781,7 +8907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="n">
         <v>72</v>
       </c>
@@ -8795,13 +8921,13 @@
         <v>44</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>74</v>
@@ -8813,10 +8939,10 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="N79" s="9" t="n">
-        <v>4675421536</v>
+        <v>269</v>
+      </c>
+      <c r="N79" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
@@ -8867,7 +8993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="n">
         <v>73</v>
       </c>
@@ -8881,13 +9007,13 @@
         <v>44</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>74</v>
@@ -8899,10 +9025,10 @@
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N80" s="9" t="n">
-        <v>4675421574</v>
+        <v>272</v>
+      </c>
+      <c r="N80" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
@@ -8953,7 +9079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="n">
         <v>74</v>
       </c>
@@ -8967,13 +9093,13 @@
         <v>44</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>74</v>
@@ -8985,10 +9111,10 @@
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="N81" s="9" t="n">
-        <v>4675420287</v>
+        <v>275</v>
+      </c>
+      <c r="N81" s="14" t="s">
+        <v>277</v>
       </c>
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
@@ -9039,7 +9165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="n">
         <v>75</v>
       </c>
@@ -9053,13 +9179,13 @@
         <v>44</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>74</v>
@@ -9071,10 +9197,10 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="N82" s="9" t="n">
-        <v>4675420980</v>
+        <v>278</v>
+      </c>
+      <c r="N82" s="14" t="s">
+        <v>280</v>
       </c>
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
@@ -9125,7 +9251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="n">
         <v>76</v>
       </c>
@@ -9139,13 +9265,13 @@
         <v>44</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>74</v>
@@ -9157,10 +9283,10 @@
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="N83" s="9" t="n">
-        <v>4675421970</v>
+        <v>281</v>
+      </c>
+      <c r="N83" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
@@ -9211,7 +9337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="n">
         <v>77</v>
       </c>
@@ -9225,13 +9351,13 @@
         <v>44</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>74</v>
@@ -9243,10 +9369,10 @@
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="N84" s="9" t="n">
-        <v>4675421932</v>
+        <v>284</v>
+      </c>
+      <c r="N84" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
@@ -9297,7 +9423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="n">
         <v>78</v>
       </c>
@@ -9311,13 +9437,13 @@
         <v>44</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>74</v>
@@ -9329,10 +9455,10 @@
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
       <c r="M85" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="N85" s="9" t="n">
-        <v>11111111</v>
+        <v>287</v>
+      </c>
+      <c r="N85" s="13" t="n">
+        <v>4650075422922</v>
       </c>
       <c r="O85" s="8"/>
       <c r="P85" s="8"/>
@@ -9383,7 +9509,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="n">
         <v>79</v>
       </c>
@@ -9397,13 +9523,13 @@
         <v>44</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>74</v>
@@ -9415,10 +9541,10 @@
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
       <c r="M86" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="N86" s="14" t="n">
-        <v>4675421192</v>
+        <v>289</v>
+      </c>
+      <c r="N86" s="17" t="s">
+        <v>291</v>
       </c>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
@@ -9469,7 +9595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="n">
         <v>80</v>
       </c>
@@ -9483,13 +9609,13 @@
         <v>44</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>74</v>
@@ -9501,10 +9627,10 @@
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="N87" s="9" t="n">
-        <v>4675421550</v>
+        <v>292</v>
+      </c>
+      <c r="N87" s="13" t="n">
+        <v>4650075421550</v>
       </c>
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
@@ -9555,7 +9681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="n">
         <v>81</v>
       </c>
@@ -9569,13 +9695,13 @@
         <v>44</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>74</v>
@@ -9587,10 +9713,10 @@
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="N88" s="9" t="n">
-        <v>1111</v>
+        <v>294</v>
+      </c>
+      <c r="N88" s="13" t="n">
+        <v>111111</v>
       </c>
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
@@ -9641,7 +9767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="n">
         <v>82</v>
       </c>
@@ -9655,13 +9781,13 @@
         <v>44</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>74</v>
@@ -9673,10 +9799,10 @@
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="N89" s="9" t="n">
-        <v>1111</v>
+        <v>296</v>
+      </c>
+      <c r="N89" s="13" t="n">
+        <v>111111</v>
       </c>
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
@@ -9727,7 +9853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="n">
         <v>83</v>
       </c>
@@ -9741,13 +9867,13 @@
         <v>44</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>74</v>
@@ -9759,10 +9885,10 @@
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
       <c r="M90" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="N90" s="9" t="n">
-        <v>4607042438998</v>
+        <v>298</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
@@ -9813,7 +9939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="n">
         <v>84</v>
       </c>
@@ -9827,13 +9953,13 @@
         <v>44</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="H91" s="8" t="s">
         <v>74</v>
@@ -9845,10 +9971,10 @@
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
       <c r="M91" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="N91" s="9" t="n">
-        <v>4607174577145</v>
+        <v>301</v>
+      </c>
+      <c r="N91" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
@@ -9899,7 +10025,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="n">
         <v>85</v>
       </c>
@@ -9913,13 +10039,13 @@
         <v>44</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>74</v>
@@ -9931,10 +10057,10 @@
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
       <c r="M92" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="N92" s="9" t="n">
-        <v>1111111</v>
+        <v>304</v>
+      </c>
+      <c r="N92" s="13" t="n">
+        <v>111111</v>
       </c>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
@@ -9985,7 +10111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="n">
         <v>86</v>
       </c>
@@ -9999,13 +10125,13 @@
         <v>44</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="H93" s="8" t="s">
         <v>74</v>
@@ -10017,10 +10143,10 @@
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="N93" s="9" t="n">
-        <v>4607174579729</v>
+        <v>306</v>
+      </c>
+      <c r="N93" s="13" t="n">
+        <v>111111</v>
       </c>
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
@@ -10071,7 +10197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="n">
         <v>87</v>
       </c>
@@ -10085,13 +10211,13 @@
         <v>44</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>74</v>
@@ -10103,10 +10229,10 @@
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="N94" s="9" t="n">
-        <v>4607042438967</v>
+        <v>308</v>
+      </c>
+      <c r="N94" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
@@ -10157,7 +10283,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="n">
         <v>88</v>
       </c>
@@ -10171,13 +10297,13 @@
         <v>44</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="H95" s="8" t="s">
         <v>74</v>
@@ -10189,10 +10315,10 @@
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="N95" s="9" t="n">
-        <v>4675421499</v>
+        <v>311</v>
+      </c>
+      <c r="N95" s="13" t="s">
+        <v>313</v>
       </c>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
@@ -10243,7 +10369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="n">
         <v>89</v>
       </c>
@@ -10258,10 +10384,10 @@
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>44</v>
@@ -10303,11 +10429,11 @@
         <v>301</v>
       </c>
       <c r="AO96" s="12" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="AP96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="n">
         <v>90</v>
       </c>
@@ -10322,10 +10448,10 @@
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>44</v>
@@ -10367,13 +10493,13 @@
         <v>302</v>
       </c>
       <c r="AO97" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="AP97" s="15" t="n">
+        <v>318</v>
+      </c>
+      <c r="AP97" s="18" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="n">
         <v>91</v>
       </c>
@@ -10387,16 +10513,16 @@
         <v>44</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="9" t="n">
@@ -10410,7 +10536,7 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="8" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>
@@ -10418,7 +10544,7 @@
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
       <c r="X98" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
@@ -10449,13 +10575,13 @@
         <v>88</v>
       </c>
       <c r="AO98" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="AP98" s="15" t="n">
+        <v>324</v>
+      </c>
+      <c r="AP98" s="18" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="n">
         <v>92</v>
       </c>
@@ -10469,13 +10595,13 @@
         <v>44</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>74</v>
@@ -10487,13 +10613,13 @@
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
       <c r="M99" s="8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N99" s="9" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
@@ -10501,14 +10627,14 @@
         <v>76</v>
       </c>
       <c r="S99" s="8" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
       <c r="X99" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
@@ -10541,7 +10667,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="n">
         <v>93</v>
       </c>
@@ -10555,16 +10681,16 @@
         <v>44</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="9" t="n">
@@ -10581,16 +10707,16 @@
         <v>76</v>
       </c>
       <c r="S100" s="8" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
       <c r="V100" s="8" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="W100" s="8"/>
       <c r="X100" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
@@ -10623,7 +10749,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="n">
         <v>94</v>
       </c>
@@ -10637,16 +10763,16 @@
         <v>44</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="9"/>
@@ -10655,11 +10781,11 @@
       <c r="M101" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N101" s="9" t="n">
-        <v>5440439</v>
+      <c r="N101" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
@@ -10674,7 +10800,7 @@
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
       <c r="X101" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
@@ -10693,7 +10819,7 @@
       <c r="AG101" s="8"/>
       <c r="AH101" s="8"/>
       <c r="AI101" s="8" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="AJ101" s="8"/>
       <c r="AK101" s="8"/>
@@ -10709,7 +10835,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="n">
         <v>95</v>
       </c>
@@ -10720,19 +10846,19 @@
         <v>43</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="9" t="n">
@@ -10746,7 +10872,7 @@
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="R102" s="8" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="S102" s="8"/>
       <c r="T102" s="8"/>
@@ -10754,7 +10880,7 @@
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
       <c r="X102" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
@@ -10775,12 +10901,12 @@
       <c r="AG102" s="8"/>
       <c r="AH102" s="8"/>
       <c r="AI102" s="8" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="AJ102" s="8"/>
       <c r="AK102" s="8"/>
       <c r="AL102" s="8" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="AM102" s="9" t="n">
         <v>2</v>
@@ -10789,13 +10915,13 @@
         <v>92</v>
       </c>
       <c r="AO102" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="AP102" s="15" t="n">
+        <v>343</v>
+      </c>
+      <c r="AP102" s="18" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="n">
         <v>96</v>
       </c>
@@ -10806,16 +10932,16 @@
         <v>43</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="H103" s="8" t="s">
         <v>74</v>
@@ -10829,8 +10955,8 @@
       <c r="M103" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N103" s="9" t="n">
-        <v>5440439</v>
+      <c r="N103" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
@@ -10846,7 +10972,7 @@
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
       <c r="X103" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Y103" s="8"/>
       <c r="Z103" s="8"/>
@@ -10879,7 +11005,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="n">
         <v>97</v>
       </c>
@@ -10890,16 +11016,16 @@
         <v>43</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="H104" s="8" t="s">
         <v>74</v>
@@ -10911,10 +11037,10 @@
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
       <c r="M104" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N104" s="9" t="n">
-        <v>5412203</v>
+        <v>108</v>
+      </c>
+      <c r="N104" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
@@ -10930,7 +11056,7 @@
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
       <c r="X104" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
@@ -10963,7 +11089,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="n">
         <v>98</v>
       </c>
@@ -10974,16 +11100,16 @@
         <v>43</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="H105" s="8" t="s">
         <v>74</v>
@@ -10995,10 +11121,10 @@
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
       <c r="M105" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="N105" s="9" t="n">
-        <v>5440133335</v>
+        <v>105</v>
+      </c>
+      <c r="N105" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
@@ -11014,7 +11140,7 @@
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
       <c r="X105" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
@@ -11047,7 +11173,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="n">
         <v>99</v>
       </c>
@@ -11058,16 +11184,16 @@
         <v>43</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="H106" s="8" t="s">
         <v>74</v>
@@ -11078,11 +11204,11 @@
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
-      <c r="M106" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="N106" s="9" t="n">
-        <v>5452926</v>
+      <c r="M106" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
@@ -11098,7 +11224,7 @@
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
       <c r="X106" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
@@ -11131,7 +11257,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="n">
         <v>100</v>
       </c>
@@ -11146,10 +11272,10 @@
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>44</v>
@@ -11193,11 +11319,11 @@
       <c r="AO107" s="9" t="n">
         <v>97</v>
       </c>
-      <c r="AP107" s="15" t="n">
+      <c r="AP107" s="18" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="n">
         <v>101</v>
       </c>
@@ -11211,16 +11337,16 @@
         <v>44</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="9" t="n">
@@ -11234,7 +11360,7 @@
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="8" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
@@ -11242,7 +11368,7 @@
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
       <c r="X108" s="8" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="Y108" s="8"/>
       <c r="Z108" s="8"/>
@@ -11273,13 +11399,13 @@
         <v>97</v>
       </c>
       <c r="AO108" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="AP108" s="15" t="n">
+        <v>358</v>
+      </c>
+      <c r="AP108" s="18" t="n">
         <v>303</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="n">
         <v>102</v>
       </c>
@@ -11293,13 +11419,13 @@
         <v>44</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="H109" s="8" t="s">
         <v>74</v>
@@ -11311,13 +11437,13 @@
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
       <c r="M109" s="8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N109" s="9" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -11325,14 +11451,14 @@
         <v>76</v>
       </c>
       <c r="S109" s="8" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="T109" s="8"/>
       <c r="U109" s="8"/>
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
       <c r="X109" s="8" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="Y109" s="8"/>
       <c r="Z109" s="8"/>
@@ -11365,7 +11491,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="n">
         <v>103</v>
       </c>
@@ -11379,16 +11505,16 @@
         <v>44</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="9" t="n">
@@ -11405,16 +11531,16 @@
         <v>76</v>
       </c>
       <c r="S110" s="8" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
       <c r="V110" s="8" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="W110" s="8"/>
       <c r="X110" s="8" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="Y110" s="8"/>
       <c r="Z110" s="8"/>
@@ -11447,7 +11573,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="n">
         <v>104</v>
       </c>
@@ -11461,16 +11587,16 @@
         <v>44</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="9" t="n">
@@ -11492,7 +11618,7 @@
       <c r="V111" s="8"/>
       <c r="W111" s="8"/>
       <c r="X111" s="8" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
@@ -11521,13 +11647,13 @@
         <v>100</v>
       </c>
       <c r="AO111" s="12" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AP111" s="9" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="n">
         <v>105</v>
       </c>
@@ -11541,23 +11667,23 @@
         <v>44</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
       <c r="M112" s="8" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="N112" s="9" t="n">
         <v>4607042434877</v>
@@ -11576,7 +11702,7 @@
       <c r="V112" s="8"/>
       <c r="W112" s="8"/>
       <c r="X112" s="8" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="Y112" s="8"/>
       <c r="Z112" s="8"/>
@@ -11595,7 +11721,7 @@
       <c r="AG112" s="8"/>
       <c r="AH112" s="8"/>
       <c r="AI112" s="8" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="AJ112" s="8"/>
       <c r="AK112" s="8"/>
@@ -11611,7 +11737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="n">
         <v>106</v>
       </c>
@@ -11625,23 +11751,23 @@
         <v>44</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
       <c r="M113" s="8" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="N113" s="9" t="n">
         <v>4607042434891</v>
@@ -11660,7 +11786,7 @@
       <c r="V113" s="8"/>
       <c r="W113" s="8"/>
       <c r="X113" s="8" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="Y113" s="8"/>
       <c r="Z113" s="8"/>
@@ -11679,7 +11805,7 @@
       <c r="AG113" s="8"/>
       <c r="AH113" s="8"/>
       <c r="AI113" s="8" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="AJ113" s="8"/>
       <c r="AK113" s="8"/>
@@ -11695,7 +11821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="n">
         <v>107</v>
       </c>
@@ -11709,16 +11835,16 @@
         <v>44</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="9" t="n">
@@ -11732,7 +11858,7 @@
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="8" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="S114" s="8"/>
       <c r="T114" s="8"/>
@@ -11740,7 +11866,7 @@
       <c r="V114" s="8"/>
       <c r="W114" s="8"/>
       <c r="X114" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Y114" s="8"/>
       <c r="Z114" s="8"/>
@@ -11771,13 +11897,13 @@
         <v>103</v>
       </c>
       <c r="AO114" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="AP114" s="15" t="n">
+        <v>377</v>
+      </c>
+      <c r="AP114" s="18" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="n">
         <v>108</v>
       </c>
@@ -11791,13 +11917,13 @@
         <v>44</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>74</v>
@@ -11809,13 +11935,13 @@
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
       <c r="M115" s="8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
@@ -11823,14 +11949,14 @@
         <v>76</v>
       </c>
       <c r="S115" s="8" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
       <c r="V115" s="8"/>
       <c r="W115" s="8"/>
       <c r="X115" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Y115" s="8"/>
       <c r="Z115" s="8"/>
@@ -11863,7 +11989,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="n">
         <v>109</v>
       </c>
@@ -11877,16 +12003,16 @@
         <v>44</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="9" t="n">
@@ -11903,16 +12029,16 @@
         <v>76</v>
       </c>
       <c r="S116" s="8" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
       <c r="V116" s="8" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="W116" s="8"/>
       <c r="X116" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Y116" s="8"/>
       <c r="Z116" s="8"/>
@@ -11945,7 +12071,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="n">
         <v>110</v>
       </c>
@@ -11959,29 +12085,29 @@
         <v>44</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
       <c r="M117" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="N117" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="N117" s="13" t="s">
         <v>75</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
@@ -11996,12 +12122,12 @@
       <c r="V117" s="8"/>
       <c r="W117" s="8"/>
       <c r="X117" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Y117" s="8"/>
       <c r="Z117" s="8"/>
       <c r="AA117" s="9" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="AB117" s="8"/>
       <c r="AC117" s="8"/>
@@ -12015,7 +12141,7 @@
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
       <c r="AI117" s="8" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="AJ117" s="8"/>
       <c r="AK117" s="8"/>
@@ -12031,7 +12157,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="n">
         <v>111</v>
       </c>
@@ -12042,19 +12168,19 @@
         <v>43</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="9" t="n">
@@ -12063,26 +12189,26 @@
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
       <c r="M118" s="8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N118" s="9" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
-      <c r="R118" s="16"/>
-      <c r="S118" s="16" t="s">
-        <v>292</v>
+      <c r="R118" s="20"/>
+      <c r="S118" s="20" t="s">
+        <v>329</v>
       </c>
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
       <c r="V118" s="8"/>
       <c r="W118" s="8"/>
       <c r="X118" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y118" s="8"/>
       <c r="Z118" s="8"/>
@@ -12093,7 +12219,7 @@
         <v>69</v>
       </c>
       <c r="AE118" s="8" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="AF118" s="10" t="n">
         <v>0.0625</v>
@@ -12111,11 +12237,11 @@
         <v>107</v>
       </c>
       <c r="AO118" s="9"/>
-      <c r="AP118" s="15" t="n">
+      <c r="AP118" s="18" t="n">
         <v>501</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="n">
         <v>112</v>
       </c>
@@ -12126,19 +12252,19 @@
         <v>43</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="9" t="n">
@@ -12152,7 +12278,7 @@
       <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
       <c r="R119" s="8" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="S119" s="8"/>
       <c r="T119" s="8"/>
@@ -12160,14 +12286,14 @@
       <c r="V119" s="8"/>
       <c r="W119" s="8"/>
       <c r="X119" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y119" s="8"/>
       <c r="Z119" s="8"/>
       <c r="AA119" s="9"/>
       <c r="AB119" s="8"/>
       <c r="AC119" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD119" s="8" t="s">
         <v>69</v>
@@ -12191,13 +12317,13 @@
         <v>108</v>
       </c>
       <c r="AO119" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="AP119" s="15" t="n">
+        <v>399</v>
+      </c>
+      <c r="AP119" s="18" t="n">
         <v>501</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="n">
         <v>113</v>
       </c>
@@ -12208,16 +12334,16 @@
         <v>43</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="H120" s="8" t="s">
         <v>74</v>
@@ -12229,9 +12355,9 @@
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
       <c r="M120" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N120" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="N120" s="13" t="n">
         <v>54491472</v>
       </c>
       <c r="O120" s="8"/>
@@ -12248,14 +12374,14 @@
       <c r="V120" s="8"/>
       <c r="W120" s="8"/>
       <c r="X120" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y120" s="8"/>
       <c r="Z120" s="8"/>
       <c r="AA120" s="9"/>
       <c r="AB120" s="8"/>
       <c r="AC120" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD120" s="8" t="s">
         <v>69</v>
@@ -12281,7 +12407,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="n">
         <v>114</v>
       </c>
@@ -12292,16 +12418,16 @@
         <v>43</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>74</v>
@@ -12313,9 +12439,9 @@
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
       <c r="M121" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="N121" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="N121" s="13" t="s">
         <v>75</v>
       </c>
       <c r="O121" s="8"/>
@@ -12332,14 +12458,14 @@
       <c r="V121" s="8"/>
       <c r="W121" s="8"/>
       <c r="X121" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y121" s="8"/>
       <c r="Z121" s="8"/>
       <c r="AA121" s="9"/>
       <c r="AB121" s="8"/>
       <c r="AC121" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD121" s="8" t="s">
         <v>69</v>
@@ -12365,7 +12491,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="n">
         <v>115</v>
       </c>
@@ -12376,16 +12502,16 @@
         <v>43</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="H122" s="8" t="s">
         <v>74</v>
@@ -12397,10 +12523,10 @@
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
       <c r="M122" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="N122" s="9" t="n">
-        <v>5440131836</v>
+        <v>117</v>
+      </c>
+      <c r="N122" s="13" t="n">
+        <v>5449000131836</v>
       </c>
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
@@ -12416,14 +12542,14 @@
       <c r="V122" s="8"/>
       <c r="W122" s="8"/>
       <c r="X122" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y122" s="8"/>
       <c r="Z122" s="8"/>
       <c r="AA122" s="9"/>
       <c r="AB122" s="8"/>
       <c r="AC122" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD122" s="8" t="s">
         <v>69</v>
@@ -12449,7 +12575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="n">
         <v>116</v>
       </c>
@@ -12460,16 +12586,16 @@
         <v>43</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>74</v>
@@ -12481,9 +12607,9 @@
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
       <c r="M123" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N123" s="9" t="n">
+        <v>129</v>
+      </c>
+      <c r="N123" s="13" t="n">
         <v>54491069</v>
       </c>
       <c r="O123" s="8"/>
@@ -12500,14 +12626,14 @@
       <c r="V123" s="8"/>
       <c r="W123" s="8"/>
       <c r="X123" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
       <c r="AA123" s="9"/>
       <c r="AB123" s="8"/>
       <c r="AC123" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD123" s="8" t="s">
         <v>69</v>
@@ -12533,7 +12659,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="n">
         <v>117</v>
       </c>
@@ -12544,16 +12670,16 @@
         <v>43</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>74</v>
@@ -12565,10 +12691,10 @@
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
       <c r="M124" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="N124" s="9" t="s">
-        <v>95</v>
+        <v>410</v>
+      </c>
+      <c r="N124" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
@@ -12584,14 +12710,14 @@
       <c r="V124" s="8"/>
       <c r="W124" s="8"/>
       <c r="X124" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
       <c r="AA124" s="9"/>
       <c r="AB124" s="8"/>
       <c r="AC124" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD124" s="8" t="s">
         <v>69</v>
@@ -12617,7 +12743,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="n">
         <v>118</v>
       </c>
@@ -12628,16 +12754,16 @@
         <v>43</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>74</v>
@@ -12649,9 +12775,9 @@
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
       <c r="M125" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="N125" s="9" t="n">
+        <v>126</v>
+      </c>
+      <c r="N125" s="13" t="n">
         <v>40822938</v>
       </c>
       <c r="O125" s="8"/>
@@ -12668,14 +12794,14 @@
       <c r="V125" s="8"/>
       <c r="W125" s="8"/>
       <c r="X125" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
       <c r="AA125" s="9"/>
       <c r="AB125" s="8"/>
       <c r="AC125" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD125" s="8" t="s">
         <v>69</v>
@@ -12701,7 +12827,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="n">
         <v>119</v>
       </c>
@@ -12712,16 +12838,16 @@
         <v>43</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>74</v>
@@ -12733,10 +12859,10 @@
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
       <c r="M126" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="N126" s="9" t="s">
-        <v>92</v>
+        <v>415</v>
+      </c>
+      <c r="N126" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
@@ -12752,14 +12878,14 @@
       <c r="V126" s="8"/>
       <c r="W126" s="8"/>
       <c r="X126" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
       <c r="AA126" s="9"/>
       <c r="AB126" s="8"/>
       <c r="AC126" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD126" s="8" t="s">
         <v>69</v>
@@ -12785,7 +12911,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="n">
         <v>120</v>
       </c>
@@ -12796,16 +12922,16 @@
         <v>43</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>74</v>
@@ -12817,10 +12943,10 @@
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
       <c r="M127" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N127" s="9" t="n">
-        <v>5444839</v>
+        <v>102</v>
+      </c>
+      <c r="N127" s="13" t="n">
+        <v>5449000044839</v>
       </c>
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
@@ -12836,14 +12962,14 @@
       <c r="V127" s="8"/>
       <c r="W127" s="8"/>
       <c r="X127" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
       <c r="AA127" s="9"/>
       <c r="AB127" s="8"/>
       <c r="AC127" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD127" s="8" t="s">
         <v>69</v>
@@ -12869,7 +12995,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="n">
         <v>121</v>
       </c>
@@ -12880,16 +13006,16 @@
         <v>43</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>74</v>
@@ -12901,10 +13027,10 @@
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
       <c r="M128" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N128" s="9" t="n">
-        <v>5444808</v>
+        <v>123</v>
+      </c>
+      <c r="N128" s="13" t="n">
+        <v>5449000044808</v>
       </c>
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
@@ -12920,14 +13046,14 @@
       <c r="V128" s="8"/>
       <c r="W128" s="8"/>
       <c r="X128" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y128" s="8"/>
       <c r="Z128" s="8"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="8"/>
       <c r="AC128" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD128" s="8" t="s">
         <v>69</v>
@@ -12953,7 +13079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="n">
         <v>122</v>
       </c>
@@ -12967,16 +13093,16 @@
         <v>44</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="9" t="n">
@@ -12985,26 +13111,26 @@
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
       <c r="M129" s="8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N129" s="9" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
-      <c r="R129" s="17"/>
-      <c r="S129" s="17" t="s">
-        <v>292</v>
+      <c r="R129" s="21"/>
+      <c r="S129" s="21" t="s">
+        <v>329</v>
       </c>
       <c r="T129" s="8"/>
       <c r="U129" s="8"/>
       <c r="V129" s="8"/>
       <c r="W129" s="8"/>
       <c r="X129" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y129" s="8"/>
       <c r="Z129" s="8"/>
@@ -13015,7 +13141,7 @@
         <v>69</v>
       </c>
       <c r="AE129" s="8" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="AF129" s="10" t="n">
         <v>0.0525</v>
@@ -13033,11 +13159,11 @@
         <v>118</v>
       </c>
       <c r="AO129" s="9"/>
-      <c r="AP129" s="15" t="n">
+      <c r="AP129" s="18" t="n">
         <v>502</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="n">
         <v>123</v>
       </c>
@@ -13048,19 +13174,19 @@
         <v>43</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="9" t="n">
@@ -13074,7 +13200,7 @@
       <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
       <c r="R130" s="8" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="S130" s="8"/>
       <c r="T130" s="8"/>
@@ -13082,14 +13208,14 @@
       <c r="V130" s="8"/>
       <c r="W130" s="8"/>
       <c r="X130" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y130" s="8"/>
       <c r="Z130" s="8"/>
       <c r="AA130" s="9"/>
       <c r="AB130" s="8"/>
       <c r="AC130" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD130" s="8" t="s">
         <v>69</v>
@@ -13113,13 +13239,13 @@
         <v>119</v>
       </c>
       <c r="AO130" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="AP130" s="15" t="n">
+        <v>425</v>
+      </c>
+      <c r="AP130" s="18" t="n">
         <v>502</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="n">
         <v>124</v>
       </c>
@@ -13130,16 +13256,16 @@
         <v>43</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>74</v>
@@ -13151,7 +13277,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="8" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="N131" s="9" t="n">
         <v>4607042434877</v>
@@ -13170,14 +13296,14 @@
       <c r="V131" s="8"/>
       <c r="W131" s="8"/>
       <c r="X131" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y131" s="8"/>
       <c r="Z131" s="8"/>
       <c r="AA131" s="9"/>
       <c r="AB131" s="8"/>
       <c r="AC131" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD131" s="8" t="s">
         <v>69</v>
@@ -13199,11 +13325,11 @@
         <v>120</v>
       </c>
       <c r="AO131" s="9"/>
-      <c r="AP131" s="18" t="n">
+      <c r="AP131" s="22" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="n">
         <v>125</v>
       </c>
@@ -13214,16 +13340,16 @@
         <v>43</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>74</v>
@@ -13235,7 +13361,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
       <c r="M132" s="8" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="N132" s="9" t="n">
         <v>4607042434891</v>
@@ -13254,14 +13380,14 @@
       <c r="V132" s="8"/>
       <c r="W132" s="8"/>
       <c r="X132" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y132" s="8"/>
       <c r="Z132" s="8"/>
       <c r="AA132" s="9"/>
       <c r="AB132" s="8"/>
       <c r="AC132" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD132" s="8" t="s">
         <v>69</v>
@@ -13283,11 +13409,11 @@
         <v>121</v>
       </c>
       <c r="AO132" s="9"/>
-      <c r="AP132" s="18" t="n">
+      <c r="AP132" s="22" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="n">
         <v>126</v>
       </c>
@@ -13298,16 +13424,16 @@
         <v>43</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>74</v>
@@ -13319,7 +13445,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
       <c r="M133" s="8" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="N133" s="9" t="n">
         <v>4607042438738</v>
@@ -13338,14 +13464,14 @@
       <c r="V133" s="8"/>
       <c r="W133" s="8"/>
       <c r="X133" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y133" s="8"/>
       <c r="Z133" s="8"/>
       <c r="AA133" s="9"/>
       <c r="AB133" s="8"/>
       <c r="AC133" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD133" s="8" t="s">
         <v>69</v>
@@ -13367,11 +13493,11 @@
         <v>122</v>
       </c>
       <c r="AO133" s="9"/>
-      <c r="AP133" s="18" t="n">
+      <c r="AP133" s="22" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="n">
         <v>127</v>
       </c>
@@ -13382,16 +13508,16 @@
         <v>43</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="H134" s="8" t="s">
         <v>74</v>
@@ -13403,7 +13529,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
       <c r="M134" s="8" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="N134" s="9" t="n">
         <v>4607042439155</v>
@@ -13422,14 +13548,14 @@
       <c r="V134" s="8"/>
       <c r="W134" s="8"/>
       <c r="X134" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y134" s="8"/>
       <c r="Z134" s="8"/>
       <c r="AA134" s="9"/>
       <c r="AB134" s="8"/>
       <c r="AC134" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD134" s="8" t="s">
         <v>69</v>
@@ -13451,11 +13577,11 @@
         <v>123</v>
       </c>
       <c r="AO134" s="9"/>
-      <c r="AP134" s="18" t="n">
+      <c r="AP134" s="22" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="n">
         <v>128</v>
       </c>
@@ -13466,16 +13592,16 @@
         <v>43</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>74</v>
@@ -13487,7 +13613,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
       <c r="M135" s="8" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="N135" s="9" t="n">
         <v>4607042439216</v>
@@ -13506,14 +13632,14 @@
       <c r="V135" s="8"/>
       <c r="W135" s="8"/>
       <c r="X135" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y135" s="8"/>
       <c r="Z135" s="8"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="8"/>
       <c r="AC135" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD135" s="8" t="s">
         <v>69</v>
@@ -13535,11 +13661,11 @@
         <v>124</v>
       </c>
       <c r="AO135" s="9"/>
-      <c r="AP135" s="18" t="n">
+      <c r="AP135" s="22" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="n">
         <v>129</v>
       </c>
@@ -13553,16 +13679,16 @@
         <v>44</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="9" t="n">
@@ -13571,26 +13697,26 @@
       <c r="K136" s="9"/>
       <c r="L136" s="9"/>
       <c r="M136" s="8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N136" s="9" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="O136" s="8" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="P136" s="8"/>
       <c r="Q136" s="8"/>
-      <c r="R136" s="17"/>
-      <c r="S136" s="17" t="s">
-        <v>292</v>
+      <c r="R136" s="21"/>
+      <c r="S136" s="21" t="s">
+        <v>329</v>
       </c>
       <c r="T136" s="8"/>
       <c r="U136" s="8"/>
       <c r="V136" s="8"/>
       <c r="W136" s="8"/>
       <c r="X136" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y136" s="8"/>
       <c r="Z136" s="8"/>
@@ -13601,7 +13727,7 @@
         <v>69</v>
       </c>
       <c r="AE136" s="8" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="AF136" s="10" t="n">
         <v>0.0125</v>
@@ -13619,11 +13745,11 @@
         <v>125</v>
       </c>
       <c r="AO136" s="9"/>
-      <c r="AP136" s="15" t="n">
+      <c r="AP136" s="18" t="n">
         <v>503</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="n">
         <v>130</v>
       </c>
@@ -13634,19 +13760,19 @@
         <v>43</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="9" t="n">
@@ -13660,7 +13786,7 @@
       <c r="P137" s="8"/>
       <c r="Q137" s="8"/>
       <c r="R137" s="8" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="S137" s="8"/>
       <c r="T137" s="8"/>
@@ -13668,14 +13794,14 @@
       <c r="V137" s="8"/>
       <c r="W137" s="8"/>
       <c r="X137" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="8"/>
       <c r="AC137" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD137" s="8" t="s">
         <v>69</v>
@@ -13701,11 +13827,11 @@
       <c r="AO137" s="9" t="n">
         <v>127</v>
       </c>
-      <c r="AP137" s="15" t="n">
+      <c r="AP137" s="18" t="n">
         <v>503</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="n">
         <v>131</v>
       </c>
@@ -13716,16 +13842,16 @@
         <v>43</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>74</v>
@@ -13737,10 +13863,10 @@
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
       <c r="M138" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="N138" s="9" t="n">
-        <v>5445489</v>
+        <v>172</v>
+      </c>
+      <c r="N138" s="13" t="n">
+        <v>5449000005489</v>
       </c>
       <c r="O138" s="9"/>
       <c r="P138" s="9"/>
@@ -13756,14 +13882,14 @@
       <c r="V138" s="7"/>
       <c r="W138" s="7"/>
       <c r="X138" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="7"/>
       <c r="AC138" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD138" s="7" t="s">
         <v>69</v>
@@ -13785,11 +13911,11 @@
         <v>127</v>
       </c>
       <c r="AO138" s="9"/>
-      <c r="AP138" s="18" t="n">
+      <c r="AP138" s="22" t="n">
         <v>126</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="n">
         <v>132</v>
       </c>
@@ -13803,16 +13929,16 @@
         <v>44</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="9" t="n">
@@ -13821,26 +13947,26 @@
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
       <c r="M139" s="8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
-      <c r="R139" s="17"/>
-      <c r="S139" s="17" t="s">
-        <v>292</v>
+      <c r="R139" s="21"/>
+      <c r="S139" s="21" t="s">
+        <v>329</v>
       </c>
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
       <c r="V139" s="8"/>
       <c r="W139" s="8"/>
       <c r="X139" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
@@ -13851,7 +13977,7 @@
         <v>69</v>
       </c>
       <c r="AE139" s="8" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="AF139" s="10" t="n">
         <v>0.0275</v>
@@ -13869,11 +13995,11 @@
         <v>128</v>
       </c>
       <c r="AO139" s="9"/>
-      <c r="AP139" s="15" t="n">
+      <c r="AP139" s="18" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="n">
         <v>133</v>
       </c>
@@ -13884,19 +14010,19 @@
         <v>43</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="9" t="n">
@@ -13910,7 +14036,7 @@
       <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
       <c r="R140" s="8" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="S140" s="8"/>
       <c r="T140" s="8"/>
@@ -13918,14 +14044,14 @@
       <c r="V140" s="8"/>
       <c r="W140" s="8"/>
       <c r="X140" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
       <c r="AA140" s="9"/>
       <c r="AB140" s="8"/>
       <c r="AC140" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD140" s="8" t="s">
         <v>69</v>
@@ -13949,13 +14075,13 @@
         <v>129</v>
       </c>
       <c r="AO140" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="AP140" s="15" t="n">
+        <v>450</v>
+      </c>
+      <c r="AP140" s="18" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="n">
         <v>134</v>
       </c>
@@ -13966,16 +14092,16 @@
         <v>43</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>74</v>
@@ -13987,9 +14113,9 @@
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
       <c r="M141" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="N141" s="19" t="n">
+        <v>209</v>
+      </c>
+      <c r="N141" s="13" t="n">
         <v>5449000233622</v>
       </c>
       <c r="O141" s="9"/>
@@ -14006,14 +14132,14 @@
       <c r="V141" s="7"/>
       <c r="W141" s="7"/>
       <c r="X141" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
       <c r="AA141" s="9"/>
       <c r="AB141" s="7"/>
       <c r="AC141" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD141" s="7" t="s">
         <v>69</v>
@@ -14035,11 +14161,11 @@
         <v>130</v>
       </c>
       <c r="AO141" s="9"/>
-      <c r="AP141" s="18" t="n">
+      <c r="AP141" s="22" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="n">
         <v>135</v>
       </c>
@@ -14050,16 +14176,16 @@
         <v>43</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="H142" s="8" t="s">
         <v>74</v>
@@ -14071,10 +14197,10 @@
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
       <c r="M142" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="N142" s="13" t="s">
-        <v>190</v>
+        <v>212</v>
+      </c>
+      <c r="N142" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="O142" s="9"/>
       <c r="P142" s="9"/>
@@ -14090,14 +14216,14 @@
       <c r="V142" s="7"/>
       <c r="W142" s="7"/>
       <c r="X142" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y142" s="7"/>
       <c r="Z142" s="7"/>
       <c r="AA142" s="9"/>
       <c r="AB142" s="7"/>
       <c r="AC142" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD142" s="7" t="s">
         <v>69</v>
@@ -14119,11 +14245,11 @@
         <v>131</v>
       </c>
       <c r="AO142" s="9"/>
-      <c r="AP142" s="18" t="n">
+      <c r="AP142" s="22" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="n">
         <v>136</v>
       </c>
@@ -14137,16 +14263,16 @@
         <v>44</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="9" t="n">
@@ -14155,26 +14281,26 @@
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
       <c r="M143" s="8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N143" s="9" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="O143" s="8" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="P143" s="8"/>
       <c r="Q143" s="8"/>
-      <c r="R143" s="17"/>
-      <c r="S143" s="17" t="s">
-        <v>292</v>
+      <c r="R143" s="21"/>
+      <c r="S143" s="21" t="s">
+        <v>329</v>
       </c>
       <c r="T143" s="8"/>
       <c r="U143" s="8"/>
       <c r="V143" s="8"/>
       <c r="W143" s="8"/>
       <c r="X143" s="8" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y143" s="8"/>
       <c r="Z143" s="8"/>
@@ -14185,7 +14311,7 @@
         <v>69</v>
       </c>
       <c r="AE143" s="8" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="AF143" s="10" t="n">
         <v>0.035</v>
@@ -14203,11 +14329,11 @@
         <v>132</v>
       </c>
       <c r="AO143" s="9"/>
-      <c r="AP143" s="15" t="n">
+      <c r="AP143" s="18" t="n">
         <v>505</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="n">
         <v>137</v>
       </c>
@@ -14222,10 +14348,10 @@
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="H144" s="8" t="s">
         <v>44</v>
@@ -14267,11 +14393,11 @@
         <v>310</v>
       </c>
       <c r="AO144" s="12" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="AP144" s="9"/>
     </row>
-    <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="n">
         <v>138</v>
       </c>
@@ -14286,10 +14412,10 @@
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="H145" s="8" t="s">
         <v>44</v>
@@ -14337,7 +14463,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="n">
         <v>139</v>
       </c>
@@ -14352,10 +14478,10 @@
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="H146" s="8" t="s">
         <v>44</v>
@@ -14397,13 +14523,13 @@
         <v>312</v>
       </c>
       <c r="AO146" s="12" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="AP146" s="9" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="n">
         <v>140</v>
       </c>
@@ -14417,16 +14543,16 @@
         <v>44</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="9"/>
@@ -14438,7 +14564,7 @@
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
       <c r="R147" s="8" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="S147" s="8"/>
       <c r="T147" s="8"/>
@@ -14446,7 +14572,7 @@
       <c r="V147" s="8"/>
       <c r="W147" s="8"/>
       <c r="X147" s="8" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
@@ -14457,7 +14583,7 @@
         <v>69</v>
       </c>
       <c r="AE147" s="8" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="AF147" s="10" t="n">
         <v>0.14</v>
@@ -14465,7 +14591,7 @@
       <c r="AG147" s="8"/>
       <c r="AH147" s="8"/>
       <c r="AI147" s="8" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="AJ147" s="8"/>
       <c r="AK147" s="8"/>
@@ -14477,13 +14603,13 @@
         <v>133</v>
       </c>
       <c r="AO147" s="12" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="AP147" s="9" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="n">
         <v>141</v>
       </c>
@@ -14497,16 +14623,16 @@
         <v>44</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="9" t="n">
@@ -14517,24 +14643,24 @@
       </c>
       <c r="L148" s="9"/>
       <c r="M148" s="8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N148" s="9" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
       <c r="S148" s="8" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="T148" s="8"/>
       <c r="U148" s="8"/>
       <c r="V148" s="8"/>
       <c r="W148" s="8"/>
       <c r="X148" s="8" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
@@ -14565,7 +14691,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="n">
         <v>142</v>
       </c>
@@ -14579,16 +14705,16 @@
         <v>44</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="9" t="n">
@@ -14597,24 +14723,24 @@
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
       <c r="M149" s="8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N149" s="9" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
       <c r="S149" s="8" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="T149" s="8"/>
       <c r="U149" s="8"/>
       <c r="V149" s="8"/>
       <c r="W149" s="8"/>
-      <c r="X149" s="20" t="s">
-        <v>446</v>
+      <c r="X149" s="23" t="s">
+        <v>483</v>
       </c>
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
@@ -14645,7 +14771,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="n">
         <v>143</v>
       </c>
@@ -14659,16 +14785,16 @@
         <v>44</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="9" t="n">
@@ -14683,16 +14809,16 @@
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
       <c r="S150" s="8" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="T150" s="8"/>
       <c r="U150" s="8"/>
       <c r="V150" s="7" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="W150" s="8"/>
       <c r="X150" s="8" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
@@ -14711,12 +14837,12 @@
       <c r="AG150" s="8"/>
       <c r="AH150" s="8"/>
       <c r="AI150" s="8" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="AJ150" s="8"/>
       <c r="AK150" s="8"/>
       <c r="AL150" s="8" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="AM150" s="9" t="n">
         <v>2</v>
@@ -14729,7 +14855,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="n">
         <v>144</v>
       </c>
@@ -14743,16 +14869,16 @@
         <v>44</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H151" s="21" t="s">
-        <v>454</v>
+        <v>490</v>
+      </c>
+      <c r="H151" s="24" t="s">
+        <v>491</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="9"/>
@@ -14763,24 +14889,24 @@
         <v>15</v>
       </c>
       <c r="M151" s="8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N151" s="9" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
       <c r="Q151" s="8"/>
       <c r="R151" s="8"/>
       <c r="S151" s="8" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="T151" s="8"/>
       <c r="U151" s="8"/>
       <c r="V151" s="8"/>
       <c r="W151" s="8"/>
       <c r="X151" s="8" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
@@ -14791,7 +14917,7 @@
         <v>69</v>
       </c>
       <c r="AE151" s="8" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="AF151" s="10" t="n">
         <v>0.025</v>
@@ -14799,12 +14925,12 @@
       <c r="AG151" s="8"/>
       <c r="AH151" s="8"/>
       <c r="AI151" s="8" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="AJ151" s="8"/>
       <c r="AK151" s="8"/>
       <c r="AL151" s="8" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="AM151" s="9" t="n">
         <v>2</v>
@@ -14817,7 +14943,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="n">
         <v>145</v>
       </c>
@@ -14831,13 +14957,13 @@
         <v>44</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="H152" s="8" t="s">
         <v>68</v>
@@ -14852,7 +14978,7 @@
       <c r="P152" s="8"/>
       <c r="Q152" s="8"/>
       <c r="R152" s="8" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="S152" s="8"/>
       <c r="T152" s="8"/>
@@ -14860,7 +14986,7 @@
       <c r="V152" s="8"/>
       <c r="W152" s="8"/>
       <c r="X152" s="8" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
@@ -14871,7 +14997,7 @@
         <v>69</v>
       </c>
       <c r="AE152" s="8" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="AF152" s="10" t="n">
         <v>0.025</v>
@@ -14883,12 +15009,12 @@
         <v>1</v>
       </c>
       <c r="AI152" s="8" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="AJ152" s="8"/>
       <c r="AK152" s="8"/>
       <c r="AL152" s="8" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="AM152" s="9" t="n">
         <v>2</v>
@@ -14897,13 +15023,13 @@
         <v>138</v>
       </c>
       <c r="AO152" s="12" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="AP152" s="9" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="n">
         <v>147</v>
       </c>
@@ -14918,13 +15044,13 @@
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="7" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="9" t="n">
@@ -14933,31 +15059,31 @@
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
       <c r="M153" s="8" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="N153" s="9" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="O153" s="8"/>
       <c r="P153" s="8"/>
       <c r="Q153" s="8" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="R153" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S153" s="22" t="s">
-        <v>463</v>
+      <c r="S153" s="25" t="s">
+        <v>500</v>
       </c>
       <c r="T153" s="8"/>
       <c r="U153" s="8"/>
       <c r="V153" s="8"/>
       <c r="W153" s="8"/>
       <c r="X153" s="8" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="Y153" s="8" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="Z153" s="8"/>
       <c r="AA153" s="9"/>
@@ -14965,18 +15091,18 @@
       <c r="AC153" s="8"/>
       <c r="AD153" s="8"/>
       <c r="AE153" s="8" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="AF153" s="10"/>
       <c r="AG153" s="8"/>
       <c r="AH153" s="8"/>
       <c r="AI153" s="8" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="AJ153" s="8"/>
       <c r="AK153" s="8"/>
       <c r="AL153" s="8" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="AM153" s="9" t="n">
         <v>3</v>
@@ -14989,7 +15115,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="n">
         <v>148</v>
       </c>
@@ -15004,13 +15130,13 @@
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="7" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="9" t="n">
@@ -15019,31 +15145,31 @@
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
       <c r="M154" s="8" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="N154" s="9" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="O154" s="8"/>
       <c r="P154" s="8"/>
       <c r="Q154" s="8" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="R154" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S154" s="22" t="s">
-        <v>463</v>
+      <c r="S154" s="25" t="s">
+        <v>500</v>
       </c>
       <c r="T154" s="8"/>
       <c r="U154" s="8"/>
       <c r="V154" s="8"/>
       <c r="W154" s="8"/>
       <c r="X154" s="8" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="Y154" s="8" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="Z154" s="8"/>
       <c r="AA154" s="9"/>
@@ -15051,18 +15177,18 @@
       <c r="AC154" s="8"/>
       <c r="AD154" s="8"/>
       <c r="AE154" s="8" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="AF154" s="10"/>
       <c r="AG154" s="8"/>
       <c r="AH154" s="8"/>
       <c r="AI154" s="8" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="AJ154" s="8"/>
       <c r="AK154" s="8"/>
       <c r="AL154" s="8" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="AM154" s="9" t="n">
         <v>3</v>
@@ -15075,7 +15201,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="n">
         <v>149</v>
       </c>
@@ -15090,13 +15216,13 @@
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="7" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="9" t="n">
@@ -15110,7 +15236,7 @@
       <c r="P155" s="8"/>
       <c r="Q155" s="8"/>
       <c r="R155" s="8" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="S155" s="8"/>
       <c r="T155" s="8"/>
@@ -15118,7 +15244,7 @@
       <c r="V155" s="8"/>
       <c r="W155" s="8"/>
       <c r="X155" s="8" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
@@ -15127,7 +15253,7 @@
       <c r="AC155" s="8"/>
       <c r="AD155" s="8"/>
       <c r="AE155" s="8" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="AF155" s="10"/>
       <c r="AG155" s="8" t="s">
@@ -15135,12 +15261,12 @@
       </c>
       <c r="AH155" s="8"/>
       <c r="AI155" s="8" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="AJ155" s="8"/>
       <c r="AK155" s="8"/>
       <c r="AL155" s="8" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="AM155" s="9" t="n">
         <v>3</v>
@@ -15149,13 +15275,13 @@
         <v>142</v>
       </c>
       <c r="AO155" s="12" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="AP155" s="9" t="n">
         <v>138</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="n">
         <v>150</v>
       </c>
@@ -15170,10 +15296,10 @@
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="7" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="H156" s="8" t="s">
         <v>74</v>
@@ -15185,35 +15311,35 @@
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
       <c r="M156" s="8" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="N156" s="9" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="O156" s="8"/>
       <c r="P156" s="8"/>
       <c r="Q156" s="8" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="R156" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S156" s="22" t="s">
-        <v>463</v>
+      <c r="S156" s="25" t="s">
+        <v>500</v>
       </c>
       <c r="T156" s="8"/>
       <c r="U156" s="8"/>
       <c r="V156" s="8"/>
       <c r="W156" s="8"/>
       <c r="X156" s="8" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
       <c r="AA156" s="9"/>
       <c r="AB156" s="8"/>
       <c r="AC156" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD156" s="8"/>
       <c r="AE156" s="8" t="s">
@@ -15223,12 +15349,12 @@
       <c r="AG156" s="8"/>
       <c r="AH156" s="8"/>
       <c r="AI156" s="8" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="AJ156" s="8"/>
       <c r="AK156" s="8"/>
       <c r="AL156" s="8" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="AM156" s="9" t="n">
         <v>4</v>
@@ -15241,7 +15367,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="n">
         <v>151</v>
       </c>
@@ -15256,10 +15382,10 @@
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="7" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="H157" s="8" t="s">
         <v>74</v>
@@ -15270,36 +15396,36 @@
       </c>
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
-      <c r="M157" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="N157" s="19" t="s">
-        <v>476</v>
+      <c r="M157" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="N157" s="13" t="s">
+        <v>513</v>
       </c>
       <c r="O157" s="8"/>
       <c r="P157" s="8"/>
-      <c r="Q157" s="23" t="s">
-        <v>476</v>
+      <c r="Q157" s="19" t="s">
+        <v>513</v>
       </c>
       <c r="R157" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S157" s="22" t="s">
-        <v>463</v>
+      <c r="S157" s="25" t="s">
+        <v>500</v>
       </c>
       <c r="T157" s="8"/>
       <c r="U157" s="8"/>
       <c r="V157" s="8"/>
       <c r="W157" s="8"/>
       <c r="X157" s="8" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
       <c r="AA157" s="9"/>
       <c r="AB157" s="8"/>
       <c r="AC157" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AD157" s="8"/>
       <c r="AE157" s="8" t="s">
@@ -15309,12 +15435,12 @@
       <c r="AG157" s="8"/>
       <c r="AH157" s="8"/>
       <c r="AI157" s="8" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="AJ157" s="8"/>
       <c r="AK157" s="8"/>
       <c r="AL157" s="8" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="AM157" s="9" t="n">
         <v>4</v>
@@ -15327,7 +15453,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="n">
         <v>152</v>
       </c>
@@ -15342,13 +15468,13 @@
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="7" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="H158" s="21" t="s">
-        <v>479</v>
+        <v>515</v>
+      </c>
+      <c r="H158" s="24" t="s">
+        <v>516</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="9" t="n">
@@ -15357,10 +15483,10 @@
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
       <c r="M158" s="8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N158" s="9" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="O158" s="8"/>
       <c r="P158" s="8"/>
@@ -15368,15 +15494,15 @@
       <c r="R158" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S158" s="22" t="s">
-        <v>442</v>
+      <c r="S158" s="25" t="s">
+        <v>479</v>
       </c>
       <c r="T158" s="8"/>
       <c r="U158" s="8"/>
       <c r="V158" s="8"/>
       <c r="W158" s="8"/>
       <c r="X158" s="8" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
@@ -15391,12 +15517,12 @@
       <c r="AG158" s="8"/>
       <c r="AH158" s="8"/>
       <c r="AI158" s="8" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="AJ158" s="8"/>
       <c r="AK158" s="8"/>
       <c r="AL158" s="8" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="AM158" s="9" t="n">
         <v>3</v>
@@ -15409,7 +15535,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="n">
         <v>153</v>
       </c>
@@ -15423,16 +15549,16 @@
         <v>44</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="F159" s="22" t="s">
-        <v>480</v>
+        <v>394</v>
+      </c>
+      <c r="F159" s="25" t="s">
+        <v>517</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="9"/>
@@ -15440,21 +15566,21 @@
       <c r="L159" s="9"/>
       <c r="M159" s="8"/>
       <c r="N159" s="9" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
       <c r="R159" s="8"/>
       <c r="S159" s="8" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="T159" s="8"/>
       <c r="U159" s="8"/>
       <c r="V159" s="8"/>
       <c r="W159" s="8"/>
       <c r="X159" s="8" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
@@ -15465,7 +15591,7 @@
         <v>69</v>
       </c>
       <c r="AE159" s="8" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="AF159" s="10" t="n">
         <v>0.025</v>
@@ -15473,12 +15599,12 @@
       <c r="AG159" s="8"/>
       <c r="AH159" s="8"/>
       <c r="AI159" s="8" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="AJ159" s="8"/>
       <c r="AK159" s="8"/>
       <c r="AL159" s="8" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="AM159" s="9" t="n">
         <v>2</v>
@@ -15491,7 +15617,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="n">
         <v>154</v>
       </c>
@@ -15502,19 +15628,19 @@
         <v>43</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E160" s="24" t="s">
-        <v>357</v>
+        <v>339</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>394</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="9" t="n">
@@ -15522,7 +15648,7 @@
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
-      <c r="M160" s="25"/>
+      <c r="M160" s="27"/>
       <c r="N160" s="8"/>
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
@@ -15534,9 +15660,9 @@
       <c r="T160" s="8"/>
       <c r="U160" s="8"/>
       <c r="V160" s="8"/>
-      <c r="W160" s="25"/>
-      <c r="X160" s="20" t="s">
-        <v>483</v>
+      <c r="W160" s="27"/>
+      <c r="X160" s="23" t="s">
+        <v>520</v>
       </c>
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
@@ -15547,7 +15673,7 @@
         <v>69</v>
       </c>
       <c r="AE160" s="8" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="AF160" s="10" t="n">
         <v>0.03</v>
@@ -15567,11 +15693,11 @@
       <c r="AO160" s="9" t="n">
         <v>148</v>
       </c>
-      <c r="AP160" s="14" t="n">
+      <c r="AP160" s="28" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="n">
         <v>155</v>
       </c>
@@ -15582,19 +15708,19 @@
         <v>43</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E161" s="24" t="s">
-        <v>357</v>
+        <v>339</v>
+      </c>
+      <c r="E161" s="26" t="s">
+        <v>394</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="9" t="n">
@@ -15605,10 +15731,10 @@
       </c>
       <c r="L161" s="9"/>
       <c r="M161" s="8" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="N161" s="9" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
@@ -15617,14 +15743,14 @@
         <v>76</v>
       </c>
       <c r="S161" s="8" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="T161" s="8"/>
       <c r="U161" s="8"/>
       <c r="V161" s="8"/>
-      <c r="W161" s="25"/>
-      <c r="X161" s="20" t="s">
-        <v>483</v>
+      <c r="W161" s="27"/>
+      <c r="X161" s="23" t="s">
+        <v>520</v>
       </c>
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
@@ -15635,13 +15761,13 @@
         <v>69</v>
       </c>
       <c r="AE161" s="8" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="AF161" s="10"/>
       <c r="AG161" s="8"/>
       <c r="AH161" s="8"/>
       <c r="AI161" s="8" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="AJ161" s="8"/>
       <c r="AK161" s="8"/>
@@ -15657,7 +15783,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="n">
         <v>156</v>
       </c>
@@ -15668,12 +15794,12 @@
         <v>43</v>
       </c>
       <c r="D162" s="8"/>
-      <c r="E162" s="24"/>
+      <c r="E162" s="26"/>
       <c r="F162" s="8" t="s">
-        <v>490</v>
+        <v>527</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="H162" s="8" t="s">
         <v>44</v>
@@ -15719,7 +15845,7 @@
       </c>
       <c r="AP162" s="9"/>
     </row>
-    <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="n">
         <v>157</v>
       </c>
@@ -15730,16 +15856,16 @@
         <v>43</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="H163" s="8" t="s">
         <v>68</v>
@@ -15785,13 +15911,13 @@
         <v>149</v>
       </c>
       <c r="AO163" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="AP163" s="14" t="n">
+        <v>531</v>
+      </c>
+      <c r="AP163" s="28" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="n">
         <v>158</v>
       </c>
@@ -15802,19 +15928,19 @@
         <v>43</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="I164" s="8"/>
       <c r="J164" s="9" t="n">
@@ -15824,7 +15950,7 @@
       <c r="L164" s="9"/>
       <c r="M164" s="8"/>
       <c r="N164" s="9" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
@@ -15833,7 +15959,7 @@
         <v>76</v>
       </c>
       <c r="S164" s="8" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="T164" s="8"/>
       <c r="U164" s="8"/>
@@ -15841,7 +15967,7 @@
       <c r="W164" s="8"/>
       <c r="X164" s="8"/>
       <c r="Y164" s="8" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="Z164" s="8"/>
       <c r="AA164" s="9"/>
@@ -15873,7 +15999,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="n">
         <v>159</v>
       </c>
@@ -15884,19 +16010,19 @@
         <v>43</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="9" t="n">
@@ -15906,7 +16032,7 @@
       <c r="L165" s="9"/>
       <c r="M165" s="8"/>
       <c r="N165" s="9" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="O165" s="8"/>
       <c r="P165" s="8"/>
@@ -15915,7 +16041,7 @@
         <v>76</v>
       </c>
       <c r="S165" s="8" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="T165" s="8"/>
       <c r="U165" s="8"/>
@@ -15923,7 +16049,7 @@
       <c r="W165" s="8"/>
       <c r="X165" s="8"/>
       <c r="Y165" s="8" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="Z165" s="8"/>
       <c r="AA165" s="9"/>
@@ -15955,7 +16081,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="n">
         <v>160</v>
       </c>
@@ -15966,19 +16092,19 @@
         <v>43</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="I166" s="8"/>
       <c r="J166" s="9" t="n">
@@ -15988,7 +16114,7 @@
       <c r="L166" s="9"/>
       <c r="M166" s="8"/>
       <c r="N166" s="9" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="O166" s="8"/>
       <c r="P166" s="8"/>
@@ -15997,7 +16123,7 @@
         <v>76</v>
       </c>
       <c r="S166" s="8" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="T166" s="8"/>
       <c r="U166" s="8"/>
@@ -16005,7 +16131,7 @@
       <c r="W166" s="8"/>
       <c r="X166" s="8"/>
       <c r="Y166" s="8" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="Z166" s="8"/>
       <c r="AA166" s="9"/>
@@ -16037,7 +16163,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="n">
         <v>161</v>
       </c>
@@ -16052,13 +16178,13 @@
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="8" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="9" t="n">
@@ -16067,8 +16193,8 @@
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
       <c r="M167" s="8"/>
-      <c r="N167" s="26" t="s">
-        <v>507</v>
+      <c r="N167" s="29" t="s">
+        <v>544</v>
       </c>
       <c r="O167" s="8"/>
       <c r="P167" s="8"/>
@@ -16077,15 +16203,15 @@
         <v>76</v>
       </c>
       <c r="S167" s="8" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="T167" s="8"/>
       <c r="U167" s="8"/>
       <c r="V167" s="8"/>
       <c r="W167" s="8"/>
       <c r="X167" s="8"/>
-      <c r="Y167" s="23" t="s">
-        <v>507</v>
+      <c r="Y167" s="19" t="s">
+        <v>545</v>
       </c>
       <c r="Z167" s="8"/>
       <c r="AA167" s="9"/>
@@ -16117,7 +16243,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="n">
         <v>162</v>
       </c>
@@ -16128,22 +16254,22 @@
         <v>43</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E168" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="F168" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="G168" s="24" t="s">
-        <v>511</v>
+        <v>546</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="F168" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="G168" s="26" t="s">
+        <v>549</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
@@ -16155,7 +16281,7 @@
       <c r="Q168" s="8"/>
       <c r="R168" s="8"/>
       <c r="S168" s="8" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="T168" s="8"/>
       <c r="U168" s="8"/>
@@ -16185,7 +16311,7 @@
       </c>
       <c r="AP168" s="9"/>
     </row>
-    <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="n">
         <v>163</v>
       </c>
@@ -16196,22 +16322,22 @@
         <v>43</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>515</v>
+        <v>553</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="G169" s="27" t="s">
-        <v>517</v>
+        <v>554</v>
+      </c>
+      <c r="G169" s="30" t="s">
+        <v>555</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="J169" s="9"/>
       <c r="K169" s="9"/>
@@ -16223,7 +16349,7 @@
       <c r="Q169" s="8"/>
       <c r="R169" s="8"/>
       <c r="S169" s="8" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="T169" s="8"/>
       <c r="U169" s="8"/>
@@ -16249,11 +16375,11 @@
         <v>154</v>
       </c>
       <c r="AO169" s="12" t="s">
-        <v>518</v>
+        <v>556</v>
       </c>
       <c r="AP169" s="9"/>
     </row>
-    <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="n">
         <v>164</v>
       </c>
@@ -16264,36 +16390,36 @@
         <v>43</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E170" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="F170" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="G170" s="24" t="s">
-        <v>492</v>
+        <v>546</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="F170" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="G170" s="26" t="s">
+        <v>529</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="9"/>
       <c r="M170" s="8"/>
       <c r="N170" s="12" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="O170" s="8"/>
       <c r="P170" s="8"/>
       <c r="Q170" s="8"/>
       <c r="R170" s="8"/>
       <c r="S170" s="8" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="T170" s="8"/>
       <c r="U170" s="8"/>
@@ -16319,11 +16445,11 @@
         <v>155</v>
       </c>
       <c r="AO170" s="12" t="s">
-        <v>524</v>
+        <v>562</v>
       </c>
       <c r="AP170" s="9"/>
     </row>
-    <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="n">
         <v>167</v>
       </c>
@@ -16334,22 +16460,22 @@
         <v>43</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E171" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="F171" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="G171" s="24" t="s">
-        <v>527</v>
+        <v>546</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="F171" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="G171" s="26" t="s">
+        <v>565</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
@@ -16361,7 +16487,7 @@
       <c r="Q171" s="8"/>
       <c r="R171" s="8"/>
       <c r="S171" s="8" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="T171" s="8"/>
       <c r="U171" s="8"/>
@@ -16387,11 +16513,11 @@
         <v>158</v>
       </c>
       <c r="AO171" s="12" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="AP171" s="9"/>
     </row>
-    <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="n">
         <v>168</v>
       </c>
@@ -16402,22 +16528,22 @@
         <v>43</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E172" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="F172" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="G172" s="24" t="s">
-        <v>532</v>
+        <v>546</v>
+      </c>
+      <c r="E172" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="F172" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="G172" s="26" t="s">
+        <v>570</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
@@ -16429,7 +16555,7 @@
       <c r="Q172" s="8"/>
       <c r="R172" s="8"/>
       <c r="S172" s="8" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="T172" s="8"/>
       <c r="U172" s="8"/>
@@ -16459,7 +16585,7 @@
       </c>
       <c r="AP172" s="9"/>
     </row>
-    <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="n">
         <v>169</v>
       </c>
@@ -16470,36 +16596,36 @@
         <v>43</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E173" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="F173" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="G173" s="24" t="s">
-        <v>536</v>
+        <v>546</v>
+      </c>
+      <c r="E173" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="F173" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="G173" s="26" t="s">
+        <v>574</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="9"/>
       <c r="M173" s="8"/>
       <c r="N173" s="9" t="s">
-        <v>538</v>
+        <v>576</v>
       </c>
       <c r="O173" s="8"/>
       <c r="P173" s="8"/>
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
       <c r="S173" s="8" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="T173" s="8"/>
       <c r="U173" s="8"/>
@@ -16527,7 +16653,7 @@
       <c r="AO173" s="9"/>
       <c r="AP173" s="9"/>
     </row>
-    <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="n">
         <v>170</v>
       </c>
@@ -16538,22 +16664,22 @@
         <v>43</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E174" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="F174" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="G174" s="24" t="s">
-        <v>542</v>
+        <v>546</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="F174" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="G174" s="26" t="s">
+        <v>580</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>543</v>
+        <v>581</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
@@ -16567,14 +16693,14 @@
       <c r="Q174" s="8"/>
       <c r="R174" s="8"/>
       <c r="S174" s="8" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="T174" s="8"/>
       <c r="U174" s="8"/>
       <c r="V174" s="8"/>
       <c r="W174" s="8"/>
-      <c r="X174" s="28" t="s">
-        <v>544</v>
+      <c r="X174" s="31" t="s">
+        <v>582</v>
       </c>
       <c r="Y174" s="8"/>
       <c r="Z174" s="8"/>
@@ -16586,8 +16712,8 @@
       <c r="AF174" s="10"/>
       <c r="AG174" s="8"/>
       <c r="AH174" s="8"/>
-      <c r="AI174" s="15" t="s">
-        <v>545</v>
+      <c r="AI174" s="18" t="s">
+        <v>583</v>
       </c>
       <c r="AJ174" s="8"/>
       <c r="AK174" s="8"/>
@@ -16599,7 +16725,7 @@
       <c r="AO174" s="9"/>
       <c r="AP174" s="9"/>
     </row>
-    <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="7" t="n">
         <v>172</v>
       </c>
@@ -16610,38 +16736,38 @@
         <v>43</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E175" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="F175" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="G175" s="24" t="s">
-        <v>548</v>
+      <c r="E175" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="F175" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="G175" s="26" t="s">
+        <v>586</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
-      <c r="M175" s="22" t="s">
-        <v>549</v>
+      <c r="M175" s="25" t="s">
+        <v>587</v>
       </c>
       <c r="N175" s="12" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
       <c r="Q175" s="8"/>
       <c r="R175" s="8"/>
       <c r="S175" s="8" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="T175" s="8"/>
       <c r="U175" s="8"/>
@@ -16671,7 +16797,7 @@
       </c>
       <c r="AP175" s="9"/>
     </row>
-    <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="n">
         <v>173</v>
       </c>
@@ -16682,38 +16808,38 @@
         <v>43</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E176" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="F176" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="G176" s="24" t="s">
-        <v>548</v>
+      <c r="E176" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="F176" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="G176" s="26" t="s">
+        <v>586</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
-      <c r="M176" s="22" t="s">
-        <v>549</v>
+      <c r="M176" s="25" t="s">
+        <v>587</v>
       </c>
       <c r="N176" s="12" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
       <c r="Q176" s="8"/>
       <c r="R176" s="8"/>
       <c r="S176" s="8" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="T176" s="8"/>
       <c r="U176" s="8"/>
@@ -16743,7 +16869,7 @@
       </c>
       <c r="AP176" s="9"/>
     </row>
-    <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="n">
         <v>174</v>
       </c>
@@ -16754,38 +16880,38 @@
         <v>43</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E177" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="F177" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="G177" s="24" t="s">
-        <v>548</v>
+      <c r="E177" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="F177" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="G177" s="26" t="s">
+        <v>586</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
-      <c r="M177" s="22" t="s">
-        <v>549</v>
+      <c r="M177" s="25" t="s">
+        <v>587</v>
       </c>
       <c r="N177" s="12" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
       <c r="Q177" s="8"/>
       <c r="R177" s="8"/>
       <c r="S177" s="8" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="T177" s="8"/>
       <c r="U177" s="8"/>
@@ -16815,7 +16941,7 @@
       </c>
       <c r="AP177" s="9"/>
     </row>
-    <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="n">
         <v>175</v>
       </c>
@@ -16826,38 +16952,38 @@
         <v>43</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E178" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="F178" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="G178" s="24" t="s">
-        <v>548</v>
+      <c r="E178" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="F178" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="G178" s="26" t="s">
+        <v>586</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
-      <c r="M178" s="22" t="s">
-        <v>549</v>
+      <c r="M178" s="25" t="s">
+        <v>587</v>
       </c>
       <c r="N178" s="12" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="8"/>
       <c r="S178" s="8" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="T178" s="8"/>
       <c r="U178" s="8"/>
@@ -16883,7 +17009,7 @@
         <v>166</v>
       </c>
       <c r="AO178" s="12" t="s">
-        <v>524</v>
+        <v>562</v>
       </c>
       <c r="AP178" s="9"/>
     </row>
@@ -16891,7 +17017,7 @@
   <autoFilter ref="A1:AP178"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="590">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1204,9 +1205,6 @@
   </si>
   <si>
     <t xml:space="preserve">Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Displays</t>
   </si>
   <si>
     <t xml:space="preserve">98
@@ -2327,44 +2325,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.165991902834"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="103.582995951417"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="45.6761133603239"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.3117408906883"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.6032388663968"/>
@@ -10543,9 +10541,7 @@
       <c r="U98" s="8"/>
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
-      <c r="X98" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="X98" s="8"/>
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
       <c r="AA98" s="9" t="n">
@@ -10633,9 +10629,7 @@
       <c r="U99" s="8"/>
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
-      <c r="X99" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="X99" s="8"/>
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
       <c r="AA99" s="9" t="n">
@@ -10715,9 +10709,7 @@
         <v>334</v>
       </c>
       <c r="W100" s="8"/>
-      <c r="X100" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="X100" s="8"/>
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
       <c r="AA100" s="9" t="n">
@@ -10799,9 +10791,7 @@
       <c r="U101" s="8"/>
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
-      <c r="X101" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="X101" s="8"/>
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
       <c r="AA101" s="9" t="n">
@@ -10879,9 +10869,7 @@
       <c r="U102" s="8"/>
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
-      <c r="X102" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="X102" s="8"/>
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
       <c r="AA102" s="9" t="n">
@@ -10971,9 +10959,7 @@
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
-      <c r="X103" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="X103" s="8"/>
       <c r="Y103" s="8"/>
       <c r="Z103" s="8"/>
       <c r="AA103" s="9" t="n">
@@ -11055,9 +11041,7 @@
       <c r="U104" s="8"/>
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
-      <c r="X104" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="X104" s="8"/>
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
       <c r="AA104" s="9" t="n">
@@ -11139,9 +11123,7 @@
       <c r="U105" s="8"/>
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
-      <c r="X105" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="X105" s="8"/>
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
       <c r="AA105" s="9" t="n">
@@ -11223,9 +11205,7 @@
       <c r="U106" s="8"/>
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
-      <c r="X106" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="X106" s="8"/>
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
       <c r="AA106" s="9" t="n">
@@ -11367,9 +11347,7 @@
       <c r="U108" s="8"/>
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
-      <c r="X108" s="8" t="s">
-        <v>357</v>
-      </c>
+      <c r="X108" s="8"/>
       <c r="Y108" s="8"/>
       <c r="Z108" s="8"/>
       <c r="AA108" s="9" t="n">
@@ -11399,7 +11377,7 @@
         <v>97</v>
       </c>
       <c r="AO108" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AP108" s="18" t="n">
         <v>303</v>
@@ -11422,10 +11400,10 @@
         <v>319</v>
       </c>
       <c r="F109" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>360</v>
       </c>
       <c r="H109" s="8" t="s">
         <v>74</v>
@@ -11440,10 +11418,10 @@
         <v>327</v>
       </c>
       <c r="N109" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -11457,9 +11435,7 @@
       <c r="U109" s="8"/>
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
-      <c r="X109" s="8" t="s">
-        <v>357</v>
-      </c>
+      <c r="X109" s="8"/>
       <c r="Y109" s="8"/>
       <c r="Z109" s="8"/>
       <c r="AA109" s="9" t="n">
@@ -11508,10 +11484,10 @@
         <v>319</v>
       </c>
       <c r="F110" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G110" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="H110" s="8" t="s">
         <v>332</v>
@@ -11536,12 +11512,10 @@
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
       <c r="V110" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W110" s="8"/>
-      <c r="X110" s="8" t="s">
-        <v>357</v>
-      </c>
+      <c r="X110" s="8"/>
       <c r="Y110" s="8"/>
       <c r="Z110" s="8"/>
       <c r="AA110" s="9" t="n">
@@ -11590,13 +11564,13 @@
         <v>319</v>
       </c>
       <c r="F111" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G111" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="H111" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>367</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="9" t="n">
@@ -11617,9 +11591,7 @@
       <c r="U111" s="8"/>
       <c r="V111" s="8"/>
       <c r="W111" s="8"/>
-      <c r="X111" s="8" t="s">
-        <v>357</v>
-      </c>
+      <c r="X111" s="8"/>
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
       <c r="AA111" s="9" t="n">
@@ -11647,7 +11619,7 @@
         <v>100</v>
       </c>
       <c r="AO111" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AP111" s="9" t="n">
         <v>97</v>
@@ -11670,10 +11642,10 @@
         <v>319</v>
       </c>
       <c r="F112" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G112" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>370</v>
       </c>
       <c r="H112" s="8" t="s">
         <v>337</v>
@@ -11701,9 +11673,7 @@
       <c r="U112" s="8"/>
       <c r="V112" s="8"/>
       <c r="W112" s="8"/>
-      <c r="X112" s="8" t="s">
-        <v>357</v>
-      </c>
+      <c r="X112" s="8"/>
       <c r="Y112" s="8"/>
       <c r="Z112" s="8"/>
       <c r="AA112" s="9" t="n">
@@ -11721,7 +11691,7 @@
       <c r="AG112" s="8"/>
       <c r="AH112" s="8"/>
       <c r="AI112" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ112" s="8"/>
       <c r="AK112" s="8"/>
@@ -11754,10 +11724,10 @@
         <v>319</v>
       </c>
       <c r="F113" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G113" s="8" t="s">
         <v>372</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>373</v>
       </c>
       <c r="H113" s="8" t="s">
         <v>337</v>
@@ -11785,9 +11755,7 @@
       <c r="U113" s="8"/>
       <c r="V113" s="8"/>
       <c r="W113" s="8"/>
-      <c r="X113" s="8" t="s">
-        <v>357</v>
-      </c>
+      <c r="X113" s="8"/>
       <c r="Y113" s="8"/>
       <c r="Z113" s="8"/>
       <c r="AA113" s="9" t="n">
@@ -11805,7 +11773,7 @@
       <c r="AG113" s="8"/>
       <c r="AH113" s="8"/>
       <c r="AI113" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AJ113" s="8"/>
       <c r="AK113" s="8"/>
@@ -11838,10 +11806,10 @@
         <v>319</v>
       </c>
       <c r="F114" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G114" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>376</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>322</v>
@@ -11865,9 +11833,7 @@
       <c r="U114" s="8"/>
       <c r="V114" s="8"/>
       <c r="W114" s="8"/>
-      <c r="X114" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="X114" s="8"/>
       <c r="Y114" s="8"/>
       <c r="Z114" s="8"/>
       <c r="AA114" s="9" t="n">
@@ -11897,7 +11863,7 @@
         <v>103</v>
       </c>
       <c r="AO114" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AP114" s="18" t="n">
         <v>302</v>
@@ -11920,10 +11886,10 @@
         <v>319</v>
       </c>
       <c r="F115" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="G115" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>379</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>74</v>
@@ -11955,9 +11921,7 @@
       <c r="U115" s="8"/>
       <c r="V115" s="8"/>
       <c r="W115" s="8"/>
-      <c r="X115" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="X115" s="8"/>
       <c r="Y115" s="8"/>
       <c r="Z115" s="8"/>
       <c r="AA115" s="9" t="n">
@@ -12006,10 +11970,10 @@
         <v>319</v>
       </c>
       <c r="F116" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="G116" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>381</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>332</v>
@@ -12034,12 +11998,10 @@
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
       <c r="V116" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W116" s="8"/>
-      <c r="X116" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="X116" s="8"/>
       <c r="Y116" s="8"/>
       <c r="Z116" s="8"/>
       <c r="AA116" s="9" t="n">
@@ -12088,10 +12050,10 @@
         <v>319</v>
       </c>
       <c r="F117" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G117" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>384</v>
       </c>
       <c r="H117" s="8" t="s">
         <v>337</v>
@@ -12101,7 +12063,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
       <c r="M117" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N117" s="13" t="s">
         <v>75</v>
@@ -12121,13 +12083,11 @@
       <c r="U117" s="8"/>
       <c r="V117" s="8"/>
       <c r="W117" s="8"/>
-      <c r="X117" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="X117" s="8"/>
       <c r="Y117" s="8"/>
       <c r="Z117" s="8"/>
       <c r="AA117" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AB117" s="8"/>
       <c r="AC117" s="8"/>
@@ -12141,7 +12101,7 @@
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
       <c r="AI117" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AJ117" s="8"/>
       <c r="AK117" s="8"/>
@@ -12171,16 +12131,16 @@
         <v>339</v>
       </c>
       <c r="E118" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F118" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="G118" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="G118" s="8" t="s">
+      <c r="H118" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="9" t="n">
@@ -12208,7 +12168,7 @@
       <c r="V118" s="8"/>
       <c r="W118" s="8"/>
       <c r="X118" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y118" s="8"/>
       <c r="Z118" s="8"/>
@@ -12219,7 +12179,7 @@
         <v>69</v>
       </c>
       <c r="AE118" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF118" s="10" t="n">
         <v>0.0625</v>
@@ -12255,16 +12215,16 @@
         <v>339</v>
       </c>
       <c r="E119" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="G119" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="H119" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>397</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="9" t="n">
@@ -12286,14 +12246,14 @@
       <c r="V119" s="8"/>
       <c r="W119" s="8"/>
       <c r="X119" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y119" s="8"/>
       <c r="Z119" s="8"/>
       <c r="AA119" s="9"/>
       <c r="AB119" s="8"/>
       <c r="AC119" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD119" s="8" t="s">
         <v>69</v>
@@ -12317,7 +12277,7 @@
         <v>108</v>
       </c>
       <c r="AO119" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AP119" s="18" t="n">
         <v>501</v>
@@ -12337,13 +12297,13 @@
         <v>339</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F120" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="G120" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>401</v>
       </c>
       <c r="H120" s="8" t="s">
         <v>74</v>
@@ -12374,14 +12334,14 @@
       <c r="V120" s="8"/>
       <c r="W120" s="8"/>
       <c r="X120" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y120" s="8"/>
       <c r="Z120" s="8"/>
       <c r="AA120" s="9"/>
       <c r="AB120" s="8"/>
       <c r="AC120" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD120" s="8" t="s">
         <v>69</v>
@@ -12421,13 +12381,13 @@
         <v>339</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F121" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G121" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>403</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>74</v>
@@ -12439,7 +12399,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
       <c r="M121" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N121" s="13" t="s">
         <v>75</v>
@@ -12458,14 +12418,14 @@
       <c r="V121" s="8"/>
       <c r="W121" s="8"/>
       <c r="X121" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y121" s="8"/>
       <c r="Z121" s="8"/>
       <c r="AA121" s="9"/>
       <c r="AB121" s="8"/>
       <c r="AC121" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD121" s="8" t="s">
         <v>69</v>
@@ -12505,13 +12465,13 @@
         <v>339</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F122" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G122" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="H122" s="8" t="s">
         <v>74</v>
@@ -12542,14 +12502,14 @@
       <c r="V122" s="8"/>
       <c r="W122" s="8"/>
       <c r="X122" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y122" s="8"/>
       <c r="Z122" s="8"/>
       <c r="AA122" s="9"/>
       <c r="AB122" s="8"/>
       <c r="AC122" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD122" s="8" t="s">
         <v>69</v>
@@ -12589,13 +12549,13 @@
         <v>339</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F123" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G123" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>407</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>74</v>
@@ -12626,14 +12586,14 @@
       <c r="V123" s="8"/>
       <c r="W123" s="8"/>
       <c r="X123" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
       <c r="AA123" s="9"/>
       <c r="AB123" s="8"/>
       <c r="AC123" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD123" s="8" t="s">
         <v>69</v>
@@ -12673,13 +12633,13 @@
         <v>339</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F124" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="G124" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>74</v>
@@ -12691,7 +12651,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
       <c r="M124" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N124" s="13" t="s">
         <v>98</v>
@@ -12710,14 +12670,14 @@
       <c r="V124" s="8"/>
       <c r="W124" s="8"/>
       <c r="X124" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
       <c r="AA124" s="9"/>
       <c r="AB124" s="8"/>
       <c r="AC124" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD124" s="8" t="s">
         <v>69</v>
@@ -12757,13 +12717,13 @@
         <v>339</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F125" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="G125" s="8" t="s">
         <v>411</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>412</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>74</v>
@@ -12794,14 +12754,14 @@
       <c r="V125" s="8"/>
       <c r="W125" s="8"/>
       <c r="X125" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
       <c r="AA125" s="9"/>
       <c r="AB125" s="8"/>
       <c r="AC125" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD125" s="8" t="s">
         <v>69</v>
@@ -12841,13 +12801,13 @@
         <v>339</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F126" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G126" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>414</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>74</v>
@@ -12859,7 +12819,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
       <c r="M126" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N126" s="13" t="s">
         <v>95</v>
@@ -12878,14 +12838,14 @@
       <c r="V126" s="8"/>
       <c r="W126" s="8"/>
       <c r="X126" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
       <c r="AA126" s="9"/>
       <c r="AB126" s="8"/>
       <c r="AC126" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD126" s="8" t="s">
         <v>69</v>
@@ -12925,13 +12885,13 @@
         <v>339</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F127" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G127" s="8" t="s">
         <v>416</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>417</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>74</v>
@@ -12962,14 +12922,14 @@
       <c r="V127" s="8"/>
       <c r="W127" s="8"/>
       <c r="X127" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
       <c r="AA127" s="9"/>
       <c r="AB127" s="8"/>
       <c r="AC127" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD127" s="8" t="s">
         <v>69</v>
@@ -13009,13 +12969,13 @@
         <v>339</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F128" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G128" s="8" t="s">
         <v>418</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>419</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>74</v>
@@ -13046,14 +13006,14 @@
       <c r="V128" s="8"/>
       <c r="W128" s="8"/>
       <c r="X128" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y128" s="8"/>
       <c r="Z128" s="8"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="8"/>
       <c r="AC128" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD128" s="8" t="s">
         <v>69</v>
@@ -13093,16 +13053,16 @@
         <v>44</v>
       </c>
       <c r="E129" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="G129" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="G129" s="8" t="s">
-        <v>422</v>
-      </c>
       <c r="H129" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="9" t="n">
@@ -13114,10 +13074,10 @@
         <v>327</v>
       </c>
       <c r="N129" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
@@ -13130,7 +13090,7 @@
       <c r="V129" s="8"/>
       <c r="W129" s="8"/>
       <c r="X129" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y129" s="8"/>
       <c r="Z129" s="8"/>
@@ -13141,7 +13101,7 @@
         <v>69</v>
       </c>
       <c r="AE129" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF129" s="10" t="n">
         <v>0.0525</v>
@@ -13177,16 +13137,16 @@
         <v>339</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F130" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G130" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="G130" s="8" t="s">
-        <v>424</v>
-      </c>
       <c r="H130" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="9" t="n">
@@ -13208,14 +13168,14 @@
       <c r="V130" s="8"/>
       <c r="W130" s="8"/>
       <c r="X130" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y130" s="8"/>
       <c r="Z130" s="8"/>
       <c r="AA130" s="9"/>
       <c r="AB130" s="8"/>
       <c r="AC130" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD130" s="8" t="s">
         <v>69</v>
@@ -13239,7 +13199,7 @@
         <v>119</v>
       </c>
       <c r="AO130" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP130" s="18" t="n">
         <v>502</v>
@@ -13259,13 +13219,13 @@
         <v>339</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F131" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G131" s="8" t="s">
         <v>426</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>427</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>74</v>
@@ -13296,14 +13256,14 @@
       <c r="V131" s="8"/>
       <c r="W131" s="8"/>
       <c r="X131" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y131" s="8"/>
       <c r="Z131" s="8"/>
       <c r="AA131" s="9"/>
       <c r="AB131" s="8"/>
       <c r="AC131" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD131" s="8" t="s">
         <v>69</v>
@@ -13343,13 +13303,13 @@
         <v>339</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F132" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G132" s="8" t="s">
         <v>428</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>429</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>74</v>
@@ -13380,14 +13340,14 @@
       <c r="V132" s="8"/>
       <c r="W132" s="8"/>
       <c r="X132" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y132" s="8"/>
       <c r="Z132" s="8"/>
       <c r="AA132" s="9"/>
       <c r="AB132" s="8"/>
       <c r="AC132" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD132" s="8" t="s">
         <v>69</v>
@@ -13427,13 +13387,13 @@
         <v>339</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F133" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="G133" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>431</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>74</v>
@@ -13464,14 +13424,14 @@
       <c r="V133" s="8"/>
       <c r="W133" s="8"/>
       <c r="X133" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y133" s="8"/>
       <c r="Z133" s="8"/>
       <c r="AA133" s="9"/>
       <c r="AB133" s="8"/>
       <c r="AC133" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD133" s="8" t="s">
         <v>69</v>
@@ -13511,13 +13471,13 @@
         <v>339</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F134" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="G134" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>433</v>
       </c>
       <c r="H134" s="8" t="s">
         <v>74</v>
@@ -13548,14 +13508,14 @@
       <c r="V134" s="8"/>
       <c r="W134" s="8"/>
       <c r="X134" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y134" s="8"/>
       <c r="Z134" s="8"/>
       <c r="AA134" s="9"/>
       <c r="AB134" s="8"/>
       <c r="AC134" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD134" s="8" t="s">
         <v>69</v>
@@ -13595,13 +13555,13 @@
         <v>339</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F135" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="G135" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>435</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>74</v>
@@ -13632,14 +13592,14 @@
       <c r="V135" s="8"/>
       <c r="W135" s="8"/>
       <c r="X135" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y135" s="8"/>
       <c r="Z135" s="8"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="8"/>
       <c r="AC135" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD135" s="8" t="s">
         <v>69</v>
@@ -13679,16 +13639,16 @@
         <v>44</v>
       </c>
       <c r="E136" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="F136" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F136" s="8" t="s">
+      <c r="G136" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="G136" s="8" t="s">
-        <v>438</v>
-      </c>
       <c r="H136" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="9" t="n">
@@ -13700,10 +13660,10 @@
         <v>327</v>
       </c>
       <c r="N136" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O136" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P136" s="8"/>
       <c r="Q136" s="8"/>
@@ -13716,7 +13676,7 @@
       <c r="V136" s="8"/>
       <c r="W136" s="8"/>
       <c r="X136" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y136" s="8"/>
       <c r="Z136" s="8"/>
@@ -13727,7 +13687,7 @@
         <v>69</v>
       </c>
       <c r="AE136" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF136" s="10" t="n">
         <v>0.0125</v>
@@ -13763,16 +13723,16 @@
         <v>339</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F137" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G137" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="G137" s="8" t="s">
-        <v>441</v>
-      </c>
       <c r="H137" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="9" t="n">
@@ -13794,14 +13754,14 @@
       <c r="V137" s="8"/>
       <c r="W137" s="8"/>
       <c r="X137" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="8"/>
       <c r="AC137" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD137" s="8" t="s">
         <v>69</v>
@@ -13845,13 +13805,13 @@
         <v>339</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F138" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>74</v>
@@ -13882,14 +13842,14 @@
       <c r="V138" s="7"/>
       <c r="W138" s="7"/>
       <c r="X138" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="7"/>
       <c r="AC138" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD138" s="7" t="s">
         <v>69</v>
@@ -13929,16 +13889,16 @@
         <v>44</v>
       </c>
       <c r="E139" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F139" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="G139" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="G139" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="H139" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="9" t="n">
@@ -13950,10 +13910,10 @@
         <v>327</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
@@ -13966,7 +13926,7 @@
       <c r="V139" s="8"/>
       <c r="W139" s="8"/>
       <c r="X139" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
@@ -13977,7 +13937,7 @@
         <v>69</v>
       </c>
       <c r="AE139" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF139" s="10" t="n">
         <v>0.0275</v>
@@ -14013,16 +13973,16 @@
         <v>339</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F140" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G140" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="G140" s="8" t="s">
-        <v>449</v>
-      </c>
       <c r="H140" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="9" t="n">
@@ -14044,14 +14004,14 @@
       <c r="V140" s="8"/>
       <c r="W140" s="8"/>
       <c r="X140" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
       <c r="AA140" s="9"/>
       <c r="AB140" s="8"/>
       <c r="AC140" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD140" s="8" t="s">
         <v>69</v>
@@ -14075,7 +14035,7 @@
         <v>129</v>
       </c>
       <c r="AO140" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AP140" s="18" t="n">
         <v>504</v>
@@ -14095,13 +14055,13 @@
         <v>339</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F141" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G141" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>74</v>
@@ -14132,14 +14092,14 @@
       <c r="V141" s="7"/>
       <c r="W141" s="7"/>
       <c r="X141" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
       <c r="AA141" s="9"/>
       <c r="AB141" s="7"/>
       <c r="AC141" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD141" s="7" t="s">
         <v>69</v>
@@ -14179,13 +14139,13 @@
         <v>339</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F142" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G142" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="H142" s="8" t="s">
         <v>74</v>
@@ -14216,14 +14176,14 @@
       <c r="V142" s="7"/>
       <c r="W142" s="7"/>
       <c r="X142" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y142" s="7"/>
       <c r="Z142" s="7"/>
       <c r="AA142" s="9"/>
       <c r="AB142" s="7"/>
       <c r="AC142" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD142" s="7" t="s">
         <v>69</v>
@@ -14263,16 +14223,16 @@
         <v>44</v>
       </c>
       <c r="E143" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F143" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="G143" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="G143" s="8" t="s">
-        <v>457</v>
-      </c>
       <c r="H143" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="9" t="n">
@@ -14284,10 +14244,10 @@
         <v>327</v>
       </c>
       <c r="N143" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O143" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P143" s="8"/>
       <c r="Q143" s="8"/>
@@ -14300,7 +14260,7 @@
       <c r="V143" s="8"/>
       <c r="W143" s="8"/>
       <c r="X143" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y143" s="8"/>
       <c r="Z143" s="8"/>
@@ -14311,7 +14271,7 @@
         <v>69</v>
       </c>
       <c r="AE143" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF143" s="10" t="n">
         <v>0.035</v>
@@ -14348,10 +14308,10 @@
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="G144" s="8" t="s">
         <v>459</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>460</v>
       </c>
       <c r="H144" s="8" t="s">
         <v>44</v>
@@ -14393,7 +14353,7 @@
         <v>310</v>
       </c>
       <c r="AO144" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AP144" s="9"/>
     </row>
@@ -14412,10 +14372,10 @@
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="G145" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>463</v>
       </c>
       <c r="H145" s="8" t="s">
         <v>44</v>
@@ -14478,10 +14438,10 @@
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="G146" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>465</v>
       </c>
       <c r="H146" s="8" t="s">
         <v>44</v>
@@ -14523,7 +14483,7 @@
         <v>312</v>
       </c>
       <c r="AO146" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AP146" s="9" t="n">
         <v>310</v>
@@ -14543,16 +14503,16 @@
         <v>44</v>
       </c>
       <c r="E147" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F147" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="G147" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="G147" s="8" t="s">
+      <c r="H147" s="8" t="s">
         <v>469</v>
-      </c>
-      <c r="H147" s="8" t="s">
-        <v>470</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="9"/>
@@ -14564,7 +14524,7 @@
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
       <c r="R147" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S147" s="8"/>
       <c r="T147" s="8"/>
@@ -14572,7 +14532,7 @@
       <c r="V147" s="8"/>
       <c r="W147" s="8"/>
       <c r="X147" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
@@ -14583,7 +14543,7 @@
         <v>69</v>
       </c>
       <c r="AE147" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF147" s="10" t="n">
         <v>0.14</v>
@@ -14591,7 +14551,7 @@
       <c r="AG147" s="8"/>
       <c r="AH147" s="8"/>
       <c r="AI147" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AJ147" s="8"/>
       <c r="AK147" s="8"/>
@@ -14603,7 +14563,7 @@
         <v>133</v>
       </c>
       <c r="AO147" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AP147" s="9" t="n">
         <v>311</v>
@@ -14623,16 +14583,16 @@
         <v>44</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F148" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="G148" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="G148" s="8" t="s">
+      <c r="H148" s="8" t="s">
         <v>476</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>477</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="9" t="n">
@@ -14646,21 +14606,21 @@
         <v>327</v>
       </c>
       <c r="N148" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
       <c r="S148" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T148" s="8"/>
       <c r="U148" s="8"/>
       <c r="V148" s="8"/>
       <c r="W148" s="8"/>
       <c r="X148" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
@@ -14705,16 +14665,16 @@
         <v>44</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F149" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G149" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="G149" s="8" t="s">
+      <c r="H149" s="8" t="s">
         <v>481</v>
-      </c>
-      <c r="H149" s="8" t="s">
-        <v>482</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="9" t="n">
@@ -14726,21 +14686,21 @@
         <v>327</v>
       </c>
       <c r="N149" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
       <c r="S149" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T149" s="8"/>
       <c r="U149" s="8"/>
       <c r="V149" s="8"/>
       <c r="W149" s="8"/>
       <c r="X149" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
@@ -14785,13 +14745,13 @@
         <v>44</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F150" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G150" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>485</v>
       </c>
       <c r="H150" s="8" t="s">
         <v>332</v>
@@ -14809,16 +14769,16 @@
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
       <c r="S150" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T150" s="8"/>
       <c r="U150" s="8"/>
       <c r="V150" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W150" s="8"/>
       <c r="X150" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
@@ -14837,12 +14797,12 @@
       <c r="AG150" s="8"/>
       <c r="AH150" s="8"/>
       <c r="AI150" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ150" s="8"/>
       <c r="AK150" s="8"/>
       <c r="AL150" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM150" s="9" t="n">
         <v>2</v>
@@ -14869,16 +14829,16 @@
         <v>44</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F151" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="G151" s="7" t="s">
+      <c r="H151" s="24" t="s">
         <v>490</v>
-      </c>
-      <c r="H151" s="24" t="s">
-        <v>491</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="9"/>
@@ -14892,21 +14852,21 @@
         <v>327</v>
       </c>
       <c r="N151" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
       <c r="Q151" s="8"/>
       <c r="R151" s="8"/>
       <c r="S151" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T151" s="8"/>
       <c r="U151" s="8"/>
       <c r="V151" s="8"/>
       <c r="W151" s="8"/>
       <c r="X151" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
@@ -14917,7 +14877,7 @@
         <v>69</v>
       </c>
       <c r="AE151" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF151" s="10" t="n">
         <v>0.025</v>
@@ -14925,12 +14885,12 @@
       <c r="AG151" s="8"/>
       <c r="AH151" s="8"/>
       <c r="AI151" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ151" s="8"/>
       <c r="AK151" s="8"/>
       <c r="AL151" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM151" s="9" t="n">
         <v>2</v>
@@ -14957,13 +14917,13 @@
         <v>44</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="H152" s="8" t="s">
         <v>68</v>
@@ -14986,7 +14946,7 @@
       <c r="V152" s="8"/>
       <c r="W152" s="8"/>
       <c r="X152" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
@@ -14997,7 +14957,7 @@
         <v>69</v>
       </c>
       <c r="AE152" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF152" s="10" t="n">
         <v>0.025</v>
@@ -15009,12 +14969,12 @@
         <v>1</v>
       </c>
       <c r="AI152" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ152" s="8"/>
       <c r="AK152" s="8"/>
       <c r="AL152" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM152" s="9" t="n">
         <v>2</v>
@@ -15023,7 +14983,7 @@
         <v>138</v>
       </c>
       <c r="AO152" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP152" s="9" t="n">
         <v>312</v>
@@ -15044,13 +15004,13 @@
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="G153" s="7" t="s">
-        <v>497</v>
-      </c>
       <c r="H153" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="9" t="n">
@@ -15059,31 +15019,31 @@
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
       <c r="M153" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="N153" s="9" t="s">
         <v>498</v>
-      </c>
-      <c r="N153" s="9" t="s">
-        <v>499</v>
       </c>
       <c r="O153" s="8"/>
       <c r="P153" s="8"/>
       <c r="Q153" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R153" s="8" t="s">
         <v>76</v>
       </c>
       <c r="S153" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T153" s="8"/>
       <c r="U153" s="8"/>
       <c r="V153" s="8"/>
       <c r="W153" s="8"/>
       <c r="X153" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y153" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Z153" s="8"/>
       <c r="AA153" s="9"/>
@@ -15091,18 +15051,18 @@
       <c r="AC153" s="8"/>
       <c r="AD153" s="8"/>
       <c r="AE153" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF153" s="10"/>
       <c r="AG153" s="8"/>
       <c r="AH153" s="8"/>
       <c r="AI153" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ153" s="8"/>
       <c r="AK153" s="8"/>
       <c r="AL153" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM153" s="9" t="n">
         <v>3</v>
@@ -15130,13 +15090,13 @@
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="G154" s="7" t="s">
-        <v>503</v>
-      </c>
       <c r="H154" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="9" t="n">
@@ -15145,31 +15105,31 @@
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
       <c r="M154" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="N154" s="9" t="s">
         <v>498</v>
-      </c>
-      <c r="N154" s="9" t="s">
-        <v>499</v>
       </c>
       <c r="O154" s="8"/>
       <c r="P154" s="8"/>
       <c r="Q154" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R154" s="8" t="s">
         <v>76</v>
       </c>
       <c r="S154" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T154" s="8"/>
       <c r="U154" s="8"/>
       <c r="V154" s="8"/>
       <c r="W154" s="8"/>
       <c r="X154" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y154" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Z154" s="8"/>
       <c r="AA154" s="9"/>
@@ -15177,18 +15137,18 @@
       <c r="AC154" s="8"/>
       <c r="AD154" s="8"/>
       <c r="AE154" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF154" s="10"/>
       <c r="AG154" s="8"/>
       <c r="AH154" s="8"/>
       <c r="AI154" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ154" s="8"/>
       <c r="AK154" s="8"/>
       <c r="AL154" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM154" s="9" t="n">
         <v>3</v>
@@ -15216,13 +15176,13 @@
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G155" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="G155" s="7" t="s">
-        <v>506</v>
-      </c>
       <c r="H155" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="9" t="n">
@@ -15244,7 +15204,7 @@
       <c r="V155" s="8"/>
       <c r="W155" s="8"/>
       <c r="X155" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
@@ -15253,7 +15213,7 @@
       <c r="AC155" s="8"/>
       <c r="AD155" s="8"/>
       <c r="AE155" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF155" s="10"/>
       <c r="AG155" s="8" t="s">
@@ -15261,12 +15221,12 @@
       </c>
       <c r="AH155" s="8"/>
       <c r="AI155" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ155" s="8"/>
       <c r="AK155" s="8"/>
       <c r="AL155" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM155" s="9" t="n">
         <v>3</v>
@@ -15275,7 +15235,7 @@
         <v>142</v>
       </c>
       <c r="AO155" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AP155" s="9" t="n">
         <v>138</v>
@@ -15296,10 +15256,10 @@
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H156" s="8" t="s">
         <v>74</v>
@@ -15311,35 +15271,35 @@
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
       <c r="M156" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="N156" s="9" t="s">
         <v>498</v>
-      </c>
-      <c r="N156" s="9" t="s">
-        <v>499</v>
       </c>
       <c r="O156" s="8"/>
       <c r="P156" s="8"/>
       <c r="Q156" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R156" s="8" t="s">
         <v>76</v>
       </c>
       <c r="S156" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T156" s="8"/>
       <c r="U156" s="8"/>
       <c r="V156" s="8"/>
       <c r="W156" s="8"/>
       <c r="X156" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
       <c r="AA156" s="9"/>
       <c r="AB156" s="8"/>
       <c r="AC156" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD156" s="8"/>
       <c r="AE156" s="8" t="s">
@@ -15349,12 +15309,12 @@
       <c r="AG156" s="8"/>
       <c r="AH156" s="8"/>
       <c r="AI156" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ156" s="8"/>
       <c r="AK156" s="8"/>
       <c r="AL156" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM156" s="9" t="n">
         <v>4</v>
@@ -15382,10 +15342,10 @@
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H157" s="8" t="s">
         <v>74</v>
@@ -15397,35 +15357,35 @@
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
       <c r="M157" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="N157" s="13" t="s">
         <v>512</v>
-      </c>
-      <c r="N157" s="13" t="s">
-        <v>513</v>
       </c>
       <c r="O157" s="8"/>
       <c r="P157" s="8"/>
       <c r="Q157" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R157" s="8" t="s">
         <v>76</v>
       </c>
       <c r="S157" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T157" s="8"/>
       <c r="U157" s="8"/>
       <c r="V157" s="8"/>
       <c r="W157" s="8"/>
       <c r="X157" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
       <c r="AA157" s="9"/>
       <c r="AB157" s="8"/>
       <c r="AC157" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD157" s="8"/>
       <c r="AE157" s="8" t="s">
@@ -15435,12 +15395,12 @@
       <c r="AG157" s="8"/>
       <c r="AH157" s="8"/>
       <c r="AI157" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ157" s="8"/>
       <c r="AK157" s="8"/>
       <c r="AL157" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM157" s="9" t="n">
         <v>4</v>
@@ -15468,13 +15428,13 @@
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="H158" s="24" t="s">
         <v>515</v>
-      </c>
-      <c r="H158" s="24" t="s">
-        <v>516</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="9" t="n">
@@ -15486,7 +15446,7 @@
         <v>327</v>
       </c>
       <c r="N158" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O158" s="8"/>
       <c r="P158" s="8"/>
@@ -15495,14 +15455,14 @@
         <v>76</v>
       </c>
       <c r="S158" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T158" s="8"/>
       <c r="U158" s="8"/>
       <c r="V158" s="8"/>
       <c r="W158" s="8"/>
       <c r="X158" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
@@ -15517,12 +15477,12 @@
       <c r="AG158" s="8"/>
       <c r="AH158" s="8"/>
       <c r="AI158" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ158" s="8"/>
       <c r="AK158" s="8"/>
       <c r="AL158" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM158" s="9" t="n">
         <v>3</v>
@@ -15549,16 +15509,16 @@
         <v>44</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F159" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="G159" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="G159" s="8" t="s">
+      <c r="H159" s="8" t="s">
         <v>518</v>
-      </c>
-      <c r="H159" s="8" t="s">
-        <v>519</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="9"/>
@@ -15566,21 +15526,21 @@
       <c r="L159" s="9"/>
       <c r="M159" s="8"/>
       <c r="N159" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
       <c r="R159" s="8"/>
       <c r="S159" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T159" s="8"/>
       <c r="U159" s="8"/>
       <c r="V159" s="8"/>
       <c r="W159" s="8"/>
       <c r="X159" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
@@ -15591,7 +15551,7 @@
         <v>69</v>
       </c>
       <c r="AE159" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF159" s="10" t="n">
         <v>0.025</v>
@@ -15599,12 +15559,12 @@
       <c r="AG159" s="8"/>
       <c r="AH159" s="8"/>
       <c r="AI159" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ159" s="8"/>
       <c r="AK159" s="8"/>
       <c r="AL159" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM159" s="9" t="n">
         <v>2</v>
@@ -15631,16 +15591,16 @@
         <v>339</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F160" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="G160" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="G160" s="8" t="s">
-        <v>521</v>
-      </c>
       <c r="H160" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="9" t="n">
@@ -15662,7 +15622,7 @@
       <c r="V160" s="8"/>
       <c r="W160" s="27"/>
       <c r="X160" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
@@ -15673,7 +15633,7 @@
         <v>69</v>
       </c>
       <c r="AE160" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF160" s="10" t="n">
         <v>0.03</v>
@@ -15711,16 +15671,16 @@
         <v>339</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F161" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="G161" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="G161" s="8" t="s">
+      <c r="H161" s="8" t="s">
         <v>523</v>
-      </c>
-      <c r="H161" s="8" t="s">
-        <v>524</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="9" t="n">
@@ -15734,7 +15694,7 @@
         <v>327</v>
       </c>
       <c r="N161" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
@@ -15743,14 +15703,14 @@
         <v>76</v>
       </c>
       <c r="S161" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T161" s="8"/>
       <c r="U161" s="8"/>
       <c r="V161" s="8"/>
       <c r="W161" s="27"/>
       <c r="X161" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
@@ -15761,13 +15721,13 @@
         <v>69</v>
       </c>
       <c r="AE161" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF161" s="10"/>
       <c r="AG161" s="8"/>
       <c r="AH161" s="8"/>
       <c r="AI161" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AJ161" s="8"/>
       <c r="AK161" s="8"/>
@@ -15796,10 +15756,10 @@
       <c r="D162" s="8"/>
       <c r="E162" s="26"/>
       <c r="F162" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G162" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G162" s="8" t="s">
-        <v>528</v>
       </c>
       <c r="H162" s="8" t="s">
         <v>44</v>
@@ -15859,13 +15819,13 @@
         <v>339</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F163" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="G163" s="8" t="s">
         <v>529</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>530</v>
       </c>
       <c r="H163" s="8" t="s">
         <v>68</v>
@@ -15911,7 +15871,7 @@
         <v>149</v>
       </c>
       <c r="AO163" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AP163" s="28" t="n">
         <v>400</v>
@@ -15931,16 +15891,16 @@
         <v>339</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F164" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="G164" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="G164" s="8" t="s">
+      <c r="H164" s="8" t="s">
         <v>533</v>
-      </c>
-      <c r="H164" s="8" t="s">
-        <v>534</v>
       </c>
       <c r="I164" s="8"/>
       <c r="J164" s="9" t="n">
@@ -15950,7 +15910,7 @@
       <c r="L164" s="9"/>
       <c r="M164" s="8"/>
       <c r="N164" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
@@ -15959,7 +15919,7 @@
         <v>76</v>
       </c>
       <c r="S164" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T164" s="8"/>
       <c r="U164" s="8"/>
@@ -15967,7 +15927,7 @@
       <c r="W164" s="8"/>
       <c r="X164" s="8"/>
       <c r="Y164" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z164" s="8"/>
       <c r="AA164" s="9"/>
@@ -16013,16 +15973,16 @@
         <v>339</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F165" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="G165" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="G165" s="8" t="s">
-        <v>537</v>
-      </c>
       <c r="H165" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="9" t="n">
@@ -16032,7 +15992,7 @@
       <c r="L165" s="9"/>
       <c r="M165" s="8"/>
       <c r="N165" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O165" s="8"/>
       <c r="P165" s="8"/>
@@ -16041,7 +16001,7 @@
         <v>76</v>
       </c>
       <c r="S165" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T165" s="8"/>
       <c r="U165" s="8"/>
@@ -16049,7 +16009,7 @@
       <c r="W165" s="8"/>
       <c r="X165" s="8"/>
       <c r="Y165" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Z165" s="8"/>
       <c r="AA165" s="9"/>
@@ -16095,16 +16055,16 @@
         <v>339</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F166" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="G166" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="G166" s="8" t="s">
-        <v>540</v>
-      </c>
       <c r="H166" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I166" s="8"/>
       <c r="J166" s="9" t="n">
@@ -16114,7 +16074,7 @@
       <c r="L166" s="9"/>
       <c r="M166" s="8"/>
       <c r="N166" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O166" s="8"/>
       <c r="P166" s="8"/>
@@ -16123,7 +16083,7 @@
         <v>76</v>
       </c>
       <c r="S166" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T166" s="8"/>
       <c r="U166" s="8"/>
@@ -16131,7 +16091,7 @@
       <c r="W166" s="8"/>
       <c r="X166" s="8"/>
       <c r="Y166" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Z166" s="8"/>
       <c r="AA166" s="9"/>
@@ -16178,13 +16138,13 @@
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="G167" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="G167" s="8" t="s">
-        <v>543</v>
-      </c>
       <c r="H167" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="9" t="n">
@@ -16194,7 +16154,7 @@
       <c r="L167" s="9"/>
       <c r="M167" s="8"/>
       <c r="N167" s="29" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O167" s="8"/>
       <c r="P167" s="8"/>
@@ -16203,7 +16163,7 @@
         <v>76</v>
       </c>
       <c r="S167" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T167" s="8"/>
       <c r="U167" s="8"/>
@@ -16211,7 +16171,7 @@
       <c r="W167" s="8"/>
       <c r="X167" s="8"/>
       <c r="Y167" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Z167" s="8"/>
       <c r="AA167" s="9"/>
@@ -16254,22 +16214,22 @@
         <v>43</v>
       </c>
       <c r="D168" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E168" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="E168" s="26" t="s">
+      <c r="F168" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="F168" s="26" t="s">
+      <c r="G168" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="G168" s="26" t="s">
+      <c r="H168" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="H168" s="8" t="s">
+      <c r="I168" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="I168" s="8" t="s">
-        <v>551</v>
       </c>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
@@ -16281,7 +16241,7 @@
       <c r="Q168" s="8"/>
       <c r="R168" s="8"/>
       <c r="S168" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T168" s="8"/>
       <c r="U168" s="8"/>
@@ -16322,22 +16282,22 @@
         <v>43</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E169" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F169" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="G169" s="30" t="s">
         <v>554</v>
       </c>
-      <c r="G169" s="30" t="s">
-        <v>555</v>
-      </c>
       <c r="H169" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="I169" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="I169" s="8" t="s">
-        <v>551</v>
       </c>
       <c r="J169" s="9"/>
       <c r="K169" s="9"/>
@@ -16349,7 +16309,7 @@
       <c r="Q169" s="8"/>
       <c r="R169" s="8"/>
       <c r="S169" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T169" s="8"/>
       <c r="U169" s="8"/>
@@ -16375,7 +16335,7 @@
         <v>154</v>
       </c>
       <c r="AO169" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AP169" s="9"/>
     </row>
@@ -16390,36 +16350,36 @@
         <v>43</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E170" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="F170" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="F170" s="26" t="s">
+      <c r="G170" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="H170" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="G170" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="H170" s="8" t="s">
+      <c r="I170" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="I170" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="9"/>
       <c r="M170" s="8"/>
       <c r="N170" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O170" s="8"/>
       <c r="P170" s="8"/>
       <c r="Q170" s="8"/>
       <c r="R170" s="8"/>
       <c r="S170" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T170" s="8"/>
       <c r="U170" s="8"/>
@@ -16445,7 +16405,7 @@
         <v>155</v>
       </c>
       <c r="AO170" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AP170" s="9"/>
     </row>
@@ -16460,22 +16420,22 @@
         <v>43</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E171" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="F171" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="F171" s="26" t="s">
+      <c r="G171" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="G171" s="26" t="s">
+      <c r="H171" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="H171" s="8" t="s">
+      <c r="I171" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="I171" s="8" t="s">
-        <v>567</v>
       </c>
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
@@ -16487,7 +16447,7 @@
       <c r="Q171" s="8"/>
       <c r="R171" s="8"/>
       <c r="S171" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T171" s="8"/>
       <c r="U171" s="8"/>
@@ -16513,7 +16473,7 @@
         <v>158</v>
       </c>
       <c r="AO171" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AP171" s="9"/>
     </row>
@@ -16528,22 +16488,22 @@
         <v>43</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E172" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="F172" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="G172" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="G172" s="26" t="s">
+      <c r="H172" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="H172" s="8" t="s">
-        <v>571</v>
-      </c>
       <c r="I172" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
@@ -16555,7 +16515,7 @@
       <c r="Q172" s="8"/>
       <c r="R172" s="8"/>
       <c r="S172" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T172" s="8"/>
       <c r="U172" s="8"/>
@@ -16596,36 +16556,36 @@
         <v>43</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E173" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="F173" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="F173" s="26" t="s">
+      <c r="G173" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="G173" s="26" t="s">
+      <c r="H173" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="H173" s="8" t="s">
-        <v>575</v>
-      </c>
       <c r="I173" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="9"/>
       <c r="M173" s="8"/>
       <c r="N173" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O173" s="8"/>
       <c r="P173" s="8"/>
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
       <c r="S173" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T173" s="8"/>
       <c r="U173" s="8"/>
@@ -16664,22 +16624,22 @@
         <v>43</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E174" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="F174" s="26" t="s">
         <v>578</v>
       </c>
-      <c r="F174" s="26" t="s">
+      <c r="G174" s="26" t="s">
         <v>579</v>
       </c>
-      <c r="G174" s="26" t="s">
+      <c r="H174" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="H174" s="8" t="s">
-        <v>581</v>
-      </c>
       <c r="I174" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
@@ -16693,14 +16653,14 @@
       <c r="Q174" s="8"/>
       <c r="R174" s="8"/>
       <c r="S174" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T174" s="8"/>
       <c r="U174" s="8"/>
       <c r="V174" s="8"/>
       <c r="W174" s="8"/>
       <c r="X174" s="31" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Y174" s="8"/>
       <c r="Z174" s="8"/>
@@ -16713,7 +16673,7 @@
       <c r="AG174" s="8"/>
       <c r="AH174" s="8"/>
       <c r="AI174" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AJ174" s="8"/>
       <c r="AK174" s="8"/>
@@ -16736,38 +16696,38 @@
         <v>43</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E175" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="F175" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="F175" s="26" t="s">
+      <c r="G175" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="G175" s="26" t="s">
-        <v>586</v>
-      </c>
       <c r="H175" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="I175" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="I175" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
       <c r="M175" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="N175" s="12" t="s">
         <v>587</v>
-      </c>
-      <c r="N175" s="12" t="s">
-        <v>588</v>
       </c>
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
       <c r="Q175" s="8"/>
       <c r="R175" s="8"/>
       <c r="S175" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T175" s="8"/>
       <c r="U175" s="8"/>
@@ -16808,38 +16768,38 @@
         <v>43</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E176" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="F176" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="F176" s="26" t="s">
+      <c r="G176" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="G176" s="26" t="s">
-        <v>586</v>
-      </c>
       <c r="H176" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="I176" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="I176" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
       <c r="M176" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="N176" s="12" t="s">
         <v>587</v>
-      </c>
-      <c r="N176" s="12" t="s">
-        <v>588</v>
       </c>
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
       <c r="Q176" s="8"/>
       <c r="R176" s="8"/>
       <c r="S176" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T176" s="8"/>
       <c r="U176" s="8"/>
@@ -16880,38 +16840,38 @@
         <v>43</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E177" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="F177" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="F177" s="26" t="s">
+      <c r="G177" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="G177" s="26" t="s">
-        <v>586</v>
-      </c>
       <c r="H177" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="I177" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="I177" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
       <c r="M177" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N177" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
       <c r="Q177" s="8"/>
       <c r="R177" s="8"/>
       <c r="S177" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T177" s="8"/>
       <c r="U177" s="8"/>
@@ -16952,38 +16912,38 @@
         <v>43</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E178" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="F178" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="F178" s="26" t="s">
+      <c r="G178" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="G178" s="26" t="s">
-        <v>586</v>
-      </c>
       <c r="H178" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="I178" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="I178" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
       <c r="M178" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N178" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="8"/>
       <c r="S178" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T178" s="8"/>
       <c r="U178" s="8"/>
@@ -17009,7 +16969,7 @@
         <v>166</v>
       </c>
       <c r="AO178" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AP178" s="9"/>
     </row>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -12,8 +12,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="589">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1296,9 +1296,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola 0.9L/1L share on Display. The competitors are only SSD SKUs</t>
@@ -2317,52 +2314,52 @@
   </sheetPr>
   <dimension ref="A1:AP178"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.165991902834"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.8097165991903"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="45.6761133603239"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.6032388663968"/>
@@ -12086,8 +12083,8 @@
       <c r="X117" s="8"/>
       <c r="Y117" s="8"/>
       <c r="Z117" s="8"/>
-      <c r="AA117" s="9" t="s">
-        <v>385</v>
+      <c r="AA117" s="9" t="n">
+        <v>103</v>
       </c>
       <c r="AB117" s="8"/>
       <c r="AC117" s="8"/>
@@ -12101,7 +12098,7 @@
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
       <c r="AI117" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AJ117" s="8"/>
       <c r="AK117" s="8"/>
@@ -12131,16 +12128,16 @@
         <v>339</v>
       </c>
       <c r="E118" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F118" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="G118" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="G118" s="8" t="s">
+      <c r="H118" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="9" t="n">
@@ -12168,7 +12165,7 @@
       <c r="V118" s="8"/>
       <c r="W118" s="8"/>
       <c r="X118" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y118" s="8"/>
       <c r="Z118" s="8"/>
@@ -12179,7 +12176,7 @@
         <v>69</v>
       </c>
       <c r="AE118" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF118" s="10" t="n">
         <v>0.0625</v>
@@ -12215,16 +12212,16 @@
         <v>339</v>
       </c>
       <c r="E119" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="G119" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="H119" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>396</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="9" t="n">
@@ -12246,14 +12243,14 @@
       <c r="V119" s="8"/>
       <c r="W119" s="8"/>
       <c r="X119" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y119" s="8"/>
       <c r="Z119" s="8"/>
       <c r="AA119" s="9"/>
       <c r="AB119" s="8"/>
       <c r="AC119" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD119" s="8" t="s">
         <v>69</v>
@@ -12277,7 +12274,7 @@
         <v>108</v>
       </c>
       <c r="AO119" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AP119" s="18" t="n">
         <v>501</v>
@@ -12297,13 +12294,13 @@
         <v>339</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F120" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G120" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="H120" s="8" t="s">
         <v>74</v>
@@ -12334,14 +12331,14 @@
       <c r="V120" s="8"/>
       <c r="W120" s="8"/>
       <c r="X120" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y120" s="8"/>
       <c r="Z120" s="8"/>
       <c r="AA120" s="9"/>
       <c r="AB120" s="8"/>
       <c r="AC120" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD120" s="8" t="s">
         <v>69</v>
@@ -12381,13 +12378,13 @@
         <v>339</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F121" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G121" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>402</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>74</v>
@@ -12418,14 +12415,14 @@
       <c r="V121" s="8"/>
       <c r="W121" s="8"/>
       <c r="X121" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y121" s="8"/>
       <c r="Z121" s="8"/>
       <c r="AA121" s="9"/>
       <c r="AB121" s="8"/>
       <c r="AC121" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD121" s="8" t="s">
         <v>69</v>
@@ -12465,13 +12462,13 @@
         <v>339</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F122" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="G122" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>404</v>
       </c>
       <c r="H122" s="8" t="s">
         <v>74</v>
@@ -12502,14 +12499,14 @@
       <c r="V122" s="8"/>
       <c r="W122" s="8"/>
       <c r="X122" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y122" s="8"/>
       <c r="Z122" s="8"/>
       <c r="AA122" s="9"/>
       <c r="AB122" s="8"/>
       <c r="AC122" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD122" s="8" t="s">
         <v>69</v>
@@ -12549,13 +12546,13 @@
         <v>339</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F123" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="G123" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>406</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>74</v>
@@ -12586,14 +12583,14 @@
       <c r="V123" s="8"/>
       <c r="W123" s="8"/>
       <c r="X123" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
       <c r="AA123" s="9"/>
       <c r="AB123" s="8"/>
       <c r="AC123" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD123" s="8" t="s">
         <v>69</v>
@@ -12633,13 +12630,13 @@
         <v>339</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F124" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="G124" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>408</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>74</v>
@@ -12651,7 +12648,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
       <c r="M124" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N124" s="13" t="s">
         <v>98</v>
@@ -12670,14 +12667,14 @@
       <c r="V124" s="8"/>
       <c r="W124" s="8"/>
       <c r="X124" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
       <c r="AA124" s="9"/>
       <c r="AB124" s="8"/>
       <c r="AC124" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD124" s="8" t="s">
         <v>69</v>
@@ -12717,13 +12714,13 @@
         <v>339</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F125" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G125" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>411</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>74</v>
@@ -12754,14 +12751,14 @@
       <c r="V125" s="8"/>
       <c r="W125" s="8"/>
       <c r="X125" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
       <c r="AA125" s="9"/>
       <c r="AB125" s="8"/>
       <c r="AC125" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD125" s="8" t="s">
         <v>69</v>
@@ -12801,13 +12798,13 @@
         <v>339</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F126" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="G126" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>413</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>74</v>
@@ -12819,7 +12816,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
       <c r="M126" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N126" s="13" t="s">
         <v>95</v>
@@ -12838,14 +12835,14 @@
       <c r="V126" s="8"/>
       <c r="W126" s="8"/>
       <c r="X126" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
       <c r="AA126" s="9"/>
       <c r="AB126" s="8"/>
       <c r="AC126" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD126" s="8" t="s">
         <v>69</v>
@@ -12885,13 +12882,13 @@
         <v>339</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F127" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="G127" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>416</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>74</v>
@@ -12922,14 +12919,14 @@
       <c r="V127" s="8"/>
       <c r="W127" s="8"/>
       <c r="X127" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
       <c r="AA127" s="9"/>
       <c r="AB127" s="8"/>
       <c r="AC127" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD127" s="8" t="s">
         <v>69</v>
@@ -12969,13 +12966,13 @@
         <v>339</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F128" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G128" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>418</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>74</v>
@@ -13006,14 +13003,14 @@
       <c r="V128" s="8"/>
       <c r="W128" s="8"/>
       <c r="X128" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y128" s="8"/>
       <c r="Z128" s="8"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="8"/>
       <c r="AC128" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD128" s="8" t="s">
         <v>69</v>
@@ -13053,16 +13050,16 @@
         <v>44</v>
       </c>
       <c r="E129" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="G129" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="G129" s="8" t="s">
-        <v>421</v>
-      </c>
       <c r="H129" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="9" t="n">
@@ -13090,7 +13087,7 @@
       <c r="V129" s="8"/>
       <c r="W129" s="8"/>
       <c r="X129" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y129" s="8"/>
       <c r="Z129" s="8"/>
@@ -13101,7 +13098,7 @@
         <v>69</v>
       </c>
       <c r="AE129" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF129" s="10" t="n">
         <v>0.0525</v>
@@ -13137,16 +13134,16 @@
         <v>339</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F130" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="G130" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="G130" s="8" t="s">
-        <v>423</v>
-      </c>
       <c r="H130" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="9" t="n">
@@ -13168,14 +13165,14 @@
       <c r="V130" s="8"/>
       <c r="W130" s="8"/>
       <c r="X130" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y130" s="8"/>
       <c r="Z130" s="8"/>
       <c r="AA130" s="9"/>
       <c r="AB130" s="8"/>
       <c r="AC130" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD130" s="8" t="s">
         <v>69</v>
@@ -13199,7 +13196,7 @@
         <v>119</v>
       </c>
       <c r="AO130" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AP130" s="18" t="n">
         <v>502</v>
@@ -13219,13 +13216,13 @@
         <v>339</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F131" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G131" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>426</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>74</v>
@@ -13256,14 +13253,14 @@
       <c r="V131" s="8"/>
       <c r="W131" s="8"/>
       <c r="X131" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y131" s="8"/>
       <c r="Z131" s="8"/>
       <c r="AA131" s="9"/>
       <c r="AB131" s="8"/>
       <c r="AC131" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD131" s="8" t="s">
         <v>69</v>
@@ -13303,13 +13300,13 @@
         <v>339</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F132" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="G132" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>428</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>74</v>
@@ -13340,14 +13337,14 @@
       <c r="V132" s="8"/>
       <c r="W132" s="8"/>
       <c r="X132" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y132" s="8"/>
       <c r="Z132" s="8"/>
       <c r="AA132" s="9"/>
       <c r="AB132" s="8"/>
       <c r="AC132" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD132" s="8" t="s">
         <v>69</v>
@@ -13387,13 +13384,13 @@
         <v>339</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F133" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="G133" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>430</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>74</v>
@@ -13424,14 +13421,14 @@
       <c r="V133" s="8"/>
       <c r="W133" s="8"/>
       <c r="X133" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y133" s="8"/>
       <c r="Z133" s="8"/>
       <c r="AA133" s="9"/>
       <c r="AB133" s="8"/>
       <c r="AC133" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD133" s="8" t="s">
         <v>69</v>
@@ -13471,13 +13468,13 @@
         <v>339</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F134" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G134" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>432</v>
       </c>
       <c r="H134" s="8" t="s">
         <v>74</v>
@@ -13508,14 +13505,14 @@
       <c r="V134" s="8"/>
       <c r="W134" s="8"/>
       <c r="X134" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y134" s="8"/>
       <c r="Z134" s="8"/>
       <c r="AA134" s="9"/>
       <c r="AB134" s="8"/>
       <c r="AC134" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD134" s="8" t="s">
         <v>69</v>
@@ -13555,13 +13552,13 @@
         <v>339</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F135" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="G135" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>434</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>74</v>
@@ -13592,14 +13589,14 @@
       <c r="V135" s="8"/>
       <c r="W135" s="8"/>
       <c r="X135" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y135" s="8"/>
       <c r="Z135" s="8"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="8"/>
       <c r="AC135" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD135" s="8" t="s">
         <v>69</v>
@@ -13639,16 +13636,16 @@
         <v>44</v>
       </c>
       <c r="E136" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F136" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="F136" s="8" t="s">
+      <c r="G136" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="G136" s="8" t="s">
-        <v>437</v>
-      </c>
       <c r="H136" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="9" t="n">
@@ -13660,10 +13657,10 @@
         <v>327</v>
       </c>
       <c r="N136" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O136" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P136" s="8"/>
       <c r="Q136" s="8"/>
@@ -13676,7 +13673,7 @@
       <c r="V136" s="8"/>
       <c r="W136" s="8"/>
       <c r="X136" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y136" s="8"/>
       <c r="Z136" s="8"/>
@@ -13687,7 +13684,7 @@
         <v>69</v>
       </c>
       <c r="AE136" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF136" s="10" t="n">
         <v>0.0125</v>
@@ -13723,16 +13720,16 @@
         <v>339</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F137" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G137" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="G137" s="8" t="s">
-        <v>440</v>
-      </c>
       <c r="H137" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="9" t="n">
@@ -13754,14 +13751,14 @@
       <c r="V137" s="8"/>
       <c r="W137" s="8"/>
       <c r="X137" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="8"/>
       <c r="AC137" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD137" s="8" t="s">
         <v>69</v>
@@ -13805,13 +13802,13 @@
         <v>339</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F138" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>74</v>
@@ -13842,14 +13839,14 @@
       <c r="V138" s="7"/>
       <c r="W138" s="7"/>
       <c r="X138" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="7"/>
       <c r="AC138" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD138" s="7" t="s">
         <v>69</v>
@@ -13889,16 +13886,16 @@
         <v>44</v>
       </c>
       <c r="E139" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F139" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="G139" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="G139" s="8" t="s">
-        <v>445</v>
-      </c>
       <c r="H139" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="9" t="n">
@@ -13910,10 +13907,10 @@
         <v>327</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
@@ -13926,7 +13923,7 @@
       <c r="V139" s="8"/>
       <c r="W139" s="8"/>
       <c r="X139" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
@@ -13937,7 +13934,7 @@
         <v>69</v>
       </c>
       <c r="AE139" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF139" s="10" t="n">
         <v>0.0275</v>
@@ -13973,16 +13970,16 @@
         <v>339</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F140" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G140" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="G140" s="8" t="s">
-        <v>448</v>
-      </c>
       <c r="H140" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="9" t="n">
@@ -14004,14 +14001,14 @@
       <c r="V140" s="8"/>
       <c r="W140" s="8"/>
       <c r="X140" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
       <c r="AA140" s="9"/>
       <c r="AB140" s="8"/>
       <c r="AC140" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD140" s="8" t="s">
         <v>69</v>
@@ -14035,7 +14032,7 @@
         <v>129</v>
       </c>
       <c r="AO140" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AP140" s="18" t="n">
         <v>504</v>
@@ -14055,13 +14052,13 @@
         <v>339</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F141" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G141" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>451</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>74</v>
@@ -14092,14 +14089,14 @@
       <c r="V141" s="7"/>
       <c r="W141" s="7"/>
       <c r="X141" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
       <c r="AA141" s="9"/>
       <c r="AB141" s="7"/>
       <c r="AC141" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD141" s="7" t="s">
         <v>69</v>
@@ -14139,13 +14136,13 @@
         <v>339</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F142" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="G142" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="H142" s="8" t="s">
         <v>74</v>
@@ -14176,14 +14173,14 @@
       <c r="V142" s="7"/>
       <c r="W142" s="7"/>
       <c r="X142" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y142" s="7"/>
       <c r="Z142" s="7"/>
       <c r="AA142" s="9"/>
       <c r="AB142" s="7"/>
       <c r="AC142" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD142" s="7" t="s">
         <v>69</v>
@@ -14223,16 +14220,16 @@
         <v>44</v>
       </c>
       <c r="E143" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="F143" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="G143" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G143" s="8" t="s">
-        <v>456</v>
-      </c>
       <c r="H143" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="9" t="n">
@@ -14244,10 +14241,10 @@
         <v>327</v>
       </c>
       <c r="N143" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O143" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P143" s="8"/>
       <c r="Q143" s="8"/>
@@ -14260,7 +14257,7 @@
       <c r="V143" s="8"/>
       <c r="W143" s="8"/>
       <c r="X143" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y143" s="8"/>
       <c r="Z143" s="8"/>
@@ -14271,7 +14268,7 @@
         <v>69</v>
       </c>
       <c r="AE143" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF143" s="10" t="n">
         <v>0.035</v>
@@ -14308,10 +14305,10 @@
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="G144" s="8" t="s">
         <v>458</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>459</v>
       </c>
       <c r="H144" s="8" t="s">
         <v>44</v>
@@ -14353,7 +14350,7 @@
         <v>310</v>
       </c>
       <c r="AO144" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AP144" s="9"/>
     </row>
@@ -14372,10 +14369,10 @@
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="G145" s="8" t="s">
         <v>461</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>462</v>
       </c>
       <c r="H145" s="8" t="s">
         <v>44</v>
@@ -14438,10 +14435,10 @@
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="G146" s="8" t="s">
         <v>463</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>464</v>
       </c>
       <c r="H146" s="8" t="s">
         <v>44</v>
@@ -14483,7 +14480,7 @@
         <v>312</v>
       </c>
       <c r="AO146" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AP146" s="9" t="n">
         <v>310</v>
@@ -14503,16 +14500,16 @@
         <v>44</v>
       </c>
       <c r="E147" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F147" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="G147" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="G147" s="8" t="s">
+      <c r="H147" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="H147" s="8" t="s">
-        <v>469</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="9"/>
@@ -14524,7 +14521,7 @@
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
       <c r="R147" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S147" s="8"/>
       <c r="T147" s="8"/>
@@ -14532,7 +14529,7 @@
       <c r="V147" s="8"/>
       <c r="W147" s="8"/>
       <c r="X147" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
@@ -14543,7 +14540,7 @@
         <v>69</v>
       </c>
       <c r="AE147" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF147" s="10" t="n">
         <v>0.14</v>
@@ -14551,7 +14548,7 @@
       <c r="AG147" s="8"/>
       <c r="AH147" s="8"/>
       <c r="AI147" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AJ147" s="8"/>
       <c r="AK147" s="8"/>
@@ -14563,7 +14560,7 @@
         <v>133</v>
       </c>
       <c r="AO147" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AP147" s="9" t="n">
         <v>311</v>
@@ -14583,16 +14580,16 @@
         <v>44</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F148" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="G148" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G148" s="8" t="s">
+      <c r="H148" s="8" t="s">
         <v>475</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>476</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="9" t="n">
@@ -14606,21 +14603,21 @@
         <v>327</v>
       </c>
       <c r="N148" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
       <c r="S148" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T148" s="8"/>
       <c r="U148" s="8"/>
       <c r="V148" s="8"/>
       <c r="W148" s="8"/>
       <c r="X148" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
@@ -14665,16 +14662,16 @@
         <v>44</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F149" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="G149" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="G149" s="8" t="s">
+      <c r="H149" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="H149" s="8" t="s">
-        <v>481</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="9" t="n">
@@ -14686,21 +14683,21 @@
         <v>327</v>
       </c>
       <c r="N149" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
       <c r="S149" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T149" s="8"/>
       <c r="U149" s="8"/>
       <c r="V149" s="8"/>
       <c r="W149" s="8"/>
       <c r="X149" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
@@ -14745,13 +14742,13 @@
         <v>44</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F150" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="G150" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>484</v>
       </c>
       <c r="H150" s="8" t="s">
         <v>332</v>
@@ -14769,16 +14766,16 @@
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
       <c r="S150" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T150" s="8"/>
       <c r="U150" s="8"/>
       <c r="V150" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W150" s="8"/>
       <c r="X150" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
@@ -14797,12 +14794,12 @@
       <c r="AG150" s="8"/>
       <c r="AH150" s="8"/>
       <c r="AI150" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ150" s="8"/>
       <c r="AK150" s="8"/>
       <c r="AL150" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM150" s="9" t="n">
         <v>2</v>
@@ -14829,16 +14826,16 @@
         <v>44</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F151" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="G151" s="7" t="s">
+      <c r="H151" s="24" t="s">
         <v>489</v>
-      </c>
-      <c r="H151" s="24" t="s">
-        <v>490</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="9"/>
@@ -14852,21 +14849,21 @@
         <v>327</v>
       </c>
       <c r="N151" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
       <c r="Q151" s="8"/>
       <c r="R151" s="8"/>
       <c r="S151" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T151" s="8"/>
       <c r="U151" s="8"/>
       <c r="V151" s="8"/>
       <c r="W151" s="8"/>
       <c r="X151" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
@@ -14877,7 +14874,7 @@
         <v>69</v>
       </c>
       <c r="AE151" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF151" s="10" t="n">
         <v>0.025</v>
@@ -14885,12 +14882,12 @@
       <c r="AG151" s="8"/>
       <c r="AH151" s="8"/>
       <c r="AI151" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ151" s="8"/>
       <c r="AK151" s="8"/>
       <c r="AL151" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM151" s="9" t="n">
         <v>2</v>
@@ -14917,13 +14914,13 @@
         <v>44</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="H152" s="8" t="s">
         <v>68</v>
@@ -14946,7 +14943,7 @@
       <c r="V152" s="8"/>
       <c r="W152" s="8"/>
       <c r="X152" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
@@ -14957,7 +14954,7 @@
         <v>69</v>
       </c>
       <c r="AE152" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF152" s="10" t="n">
         <v>0.025</v>
@@ -14969,12 +14966,12 @@
         <v>1</v>
       </c>
       <c r="AI152" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ152" s="8"/>
       <c r="AK152" s="8"/>
       <c r="AL152" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM152" s="9" t="n">
         <v>2</v>
@@ -14983,7 +14980,7 @@
         <v>138</v>
       </c>
       <c r="AO152" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AP152" s="9" t="n">
         <v>312</v>
@@ -15004,13 +15001,13 @@
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="G153" s="7" t="s">
-        <v>496</v>
-      </c>
       <c r="H153" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="9" t="n">
@@ -15019,31 +15016,31 @@
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
       <c r="M153" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="N153" s="9" t="s">
         <v>497</v>
-      </c>
-      <c r="N153" s="9" t="s">
-        <v>498</v>
       </c>
       <c r="O153" s="8"/>
       <c r="P153" s="8"/>
       <c r="Q153" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R153" s="8" t="s">
         <v>76</v>
       </c>
       <c r="S153" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="T153" s="8"/>
       <c r="U153" s="8"/>
       <c r="V153" s="8"/>
       <c r="W153" s="8"/>
       <c r="X153" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y153" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Z153" s="8"/>
       <c r="AA153" s="9"/>
@@ -15051,18 +15048,18 @@
       <c r="AC153" s="8"/>
       <c r="AD153" s="8"/>
       <c r="AE153" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF153" s="10"/>
       <c r="AG153" s="8"/>
       <c r="AH153" s="8"/>
       <c r="AI153" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ153" s="8"/>
       <c r="AK153" s="8"/>
       <c r="AL153" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM153" s="9" t="n">
         <v>3</v>
@@ -15090,13 +15087,13 @@
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="7" t="s">
-        <v>502</v>
-      </c>
       <c r="H154" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="9" t="n">
@@ -15105,31 +15102,31 @@
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
       <c r="M154" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="N154" s="9" t="s">
         <v>497</v>
-      </c>
-      <c r="N154" s="9" t="s">
-        <v>498</v>
       </c>
       <c r="O154" s="8"/>
       <c r="P154" s="8"/>
       <c r="Q154" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R154" s="8" t="s">
         <v>76</v>
       </c>
       <c r="S154" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="T154" s="8"/>
       <c r="U154" s="8"/>
       <c r="V154" s="8"/>
       <c r="W154" s="8"/>
       <c r="X154" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y154" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Z154" s="8"/>
       <c r="AA154" s="9"/>
@@ -15137,18 +15134,18 @@
       <c r="AC154" s="8"/>
       <c r="AD154" s="8"/>
       <c r="AE154" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF154" s="10"/>
       <c r="AG154" s="8"/>
       <c r="AH154" s="8"/>
       <c r="AI154" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ154" s="8"/>
       <c r="AK154" s="8"/>
       <c r="AL154" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM154" s="9" t="n">
         <v>3</v>
@@ -15176,10 +15173,10 @@
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G155" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="H155" s="8" t="s">
         <v>366</v>
@@ -15204,7 +15201,7 @@
       <c r="V155" s="8"/>
       <c r="W155" s="8"/>
       <c r="X155" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
@@ -15213,7 +15210,7 @@
       <c r="AC155" s="8"/>
       <c r="AD155" s="8"/>
       <c r="AE155" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF155" s="10"/>
       <c r="AG155" s="8" t="s">
@@ -15221,12 +15218,12 @@
       </c>
       <c r="AH155" s="8"/>
       <c r="AI155" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ155" s="8"/>
       <c r="AK155" s="8"/>
       <c r="AL155" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM155" s="9" t="n">
         <v>3</v>
@@ -15235,7 +15232,7 @@
         <v>142</v>
       </c>
       <c r="AO155" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AP155" s="9" t="n">
         <v>138</v>
@@ -15256,10 +15253,10 @@
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H156" s="8" t="s">
         <v>74</v>
@@ -15271,35 +15268,35 @@
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
       <c r="M156" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="N156" s="9" t="s">
         <v>497</v>
-      </c>
-      <c r="N156" s="9" t="s">
-        <v>498</v>
       </c>
       <c r="O156" s="8"/>
       <c r="P156" s="8"/>
       <c r="Q156" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R156" s="8" t="s">
         <v>76</v>
       </c>
       <c r="S156" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="T156" s="8"/>
       <c r="U156" s="8"/>
       <c r="V156" s="8"/>
       <c r="W156" s="8"/>
       <c r="X156" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
       <c r="AA156" s="9"/>
       <c r="AB156" s="8"/>
       <c r="AC156" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD156" s="8"/>
       <c r="AE156" s="8" t="s">
@@ -15309,12 +15306,12 @@
       <c r="AG156" s="8"/>
       <c r="AH156" s="8"/>
       <c r="AI156" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ156" s="8"/>
       <c r="AK156" s="8"/>
       <c r="AL156" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM156" s="9" t="n">
         <v>4</v>
@@ -15342,10 +15339,10 @@
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H157" s="8" t="s">
         <v>74</v>
@@ -15357,35 +15354,35 @@
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
       <c r="M157" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="N157" s="13" t="s">
         <v>511</v>
-      </c>
-      <c r="N157" s="13" t="s">
-        <v>512</v>
       </c>
       <c r="O157" s="8"/>
       <c r="P157" s="8"/>
       <c r="Q157" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="R157" s="8" t="s">
         <v>76</v>
       </c>
       <c r="S157" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="T157" s="8"/>
       <c r="U157" s="8"/>
       <c r="V157" s="8"/>
       <c r="W157" s="8"/>
       <c r="X157" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
       <c r="AA157" s="9"/>
       <c r="AB157" s="8"/>
       <c r="AC157" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD157" s="8"/>
       <c r="AE157" s="8" t="s">
@@ -15395,12 +15392,12 @@
       <c r="AG157" s="8"/>
       <c r="AH157" s="8"/>
       <c r="AI157" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ157" s="8"/>
       <c r="AK157" s="8"/>
       <c r="AL157" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM157" s="9" t="n">
         <v>4</v>
@@ -15428,13 +15425,13 @@
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="H158" s="24" t="s">
         <v>514</v>
-      </c>
-      <c r="H158" s="24" t="s">
-        <v>515</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="9" t="n">
@@ -15446,7 +15443,7 @@
         <v>327</v>
       </c>
       <c r="N158" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O158" s="8"/>
       <c r="P158" s="8"/>
@@ -15455,14 +15452,14 @@
         <v>76</v>
       </c>
       <c r="S158" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T158" s="8"/>
       <c r="U158" s="8"/>
       <c r="V158" s="8"/>
       <c r="W158" s="8"/>
       <c r="X158" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
@@ -15477,12 +15474,12 @@
       <c r="AG158" s="8"/>
       <c r="AH158" s="8"/>
       <c r="AI158" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ158" s="8"/>
       <c r="AK158" s="8"/>
       <c r="AL158" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM158" s="9" t="n">
         <v>3</v>
@@ -15509,16 +15506,16 @@
         <v>44</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F159" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="G159" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="G159" s="8" t="s">
+      <c r="H159" s="8" t="s">
         <v>517</v>
-      </c>
-      <c r="H159" s="8" t="s">
-        <v>518</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="9"/>
@@ -15526,21 +15523,21 @@
       <c r="L159" s="9"/>
       <c r="M159" s="8"/>
       <c r="N159" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
       <c r="R159" s="8"/>
       <c r="S159" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T159" s="8"/>
       <c r="U159" s="8"/>
       <c r="V159" s="8"/>
       <c r="W159" s="8"/>
       <c r="X159" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
@@ -15551,7 +15548,7 @@
         <v>69</v>
       </c>
       <c r="AE159" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF159" s="10" t="n">
         <v>0.025</v>
@@ -15559,12 +15556,12 @@
       <c r="AG159" s="8"/>
       <c r="AH159" s="8"/>
       <c r="AI159" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ159" s="8"/>
       <c r="AK159" s="8"/>
       <c r="AL159" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM159" s="9" t="n">
         <v>2</v>
@@ -15591,16 +15588,16 @@
         <v>339</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F160" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="G160" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="G160" s="8" t="s">
-        <v>520</v>
-      </c>
       <c r="H160" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="9" t="n">
@@ -15622,7 +15619,7 @@
       <c r="V160" s="8"/>
       <c r="W160" s="27"/>
       <c r="X160" s="23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
@@ -15633,7 +15630,7 @@
         <v>69</v>
       </c>
       <c r="AE160" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF160" s="10" t="n">
         <v>0.03</v>
@@ -15671,16 +15668,16 @@
         <v>339</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F161" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="G161" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="G161" s="8" t="s">
+      <c r="H161" s="8" t="s">
         <v>522</v>
-      </c>
-      <c r="H161" s="8" t="s">
-        <v>523</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="9" t="n">
@@ -15694,7 +15691,7 @@
         <v>327</v>
       </c>
       <c r="N161" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
@@ -15703,14 +15700,14 @@
         <v>76</v>
       </c>
       <c r="S161" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T161" s="8"/>
       <c r="U161" s="8"/>
       <c r="V161" s="8"/>
       <c r="W161" s="27"/>
       <c r="X161" s="23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
@@ -15721,13 +15718,13 @@
         <v>69</v>
       </c>
       <c r="AE161" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF161" s="10"/>
       <c r="AG161" s="8"/>
       <c r="AH161" s="8"/>
       <c r="AI161" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AJ161" s="8"/>
       <c r="AK161" s="8"/>
@@ -15756,10 +15753,10 @@
       <c r="D162" s="8"/>
       <c r="E162" s="26"/>
       <c r="F162" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="G162" s="8" t="s">
         <v>526</v>
-      </c>
-      <c r="G162" s="8" t="s">
-        <v>527</v>
       </c>
       <c r="H162" s="8" t="s">
         <v>44</v>
@@ -15819,13 +15816,13 @@
         <v>339</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F163" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="G163" s="8" t="s">
         <v>528</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>529</v>
       </c>
       <c r="H163" s="8" t="s">
         <v>68</v>
@@ -15871,7 +15868,7 @@
         <v>149</v>
       </c>
       <c r="AO163" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AP163" s="28" t="n">
         <v>400</v>
@@ -15891,16 +15888,16 @@
         <v>339</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F164" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="G164" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="G164" s="8" t="s">
+      <c r="H164" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="H164" s="8" t="s">
-        <v>533</v>
       </c>
       <c r="I164" s="8"/>
       <c r="J164" s="9" t="n">
@@ -15910,7 +15907,7 @@
       <c r="L164" s="9"/>
       <c r="M164" s="8"/>
       <c r="N164" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
@@ -15919,7 +15916,7 @@
         <v>76</v>
       </c>
       <c r="S164" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T164" s="8"/>
       <c r="U164" s="8"/>
@@ -15927,7 +15924,7 @@
       <c r="W164" s="8"/>
       <c r="X164" s="8"/>
       <c r="Y164" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Z164" s="8"/>
       <c r="AA164" s="9"/>
@@ -15973,16 +15970,16 @@
         <v>339</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F165" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="G165" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="G165" s="8" t="s">
-        <v>536</v>
-      </c>
       <c r="H165" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="9" t="n">
@@ -15992,7 +15989,7 @@
       <c r="L165" s="9"/>
       <c r="M165" s="8"/>
       <c r="N165" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O165" s="8"/>
       <c r="P165" s="8"/>
@@ -16001,7 +15998,7 @@
         <v>76</v>
       </c>
       <c r="S165" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T165" s="8"/>
       <c r="U165" s="8"/>
@@ -16009,7 +16006,7 @@
       <c r="W165" s="8"/>
       <c r="X165" s="8"/>
       <c r="Y165" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Z165" s="8"/>
       <c r="AA165" s="9"/>
@@ -16055,16 +16052,16 @@
         <v>339</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F166" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="G166" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="G166" s="8" t="s">
-        <v>539</v>
-      </c>
       <c r="H166" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I166" s="8"/>
       <c r="J166" s="9" t="n">
@@ -16074,7 +16071,7 @@
       <c r="L166" s="9"/>
       <c r="M166" s="8"/>
       <c r="N166" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O166" s="8"/>
       <c r="P166" s="8"/>
@@ -16083,7 +16080,7 @@
         <v>76</v>
       </c>
       <c r="S166" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T166" s="8"/>
       <c r="U166" s="8"/>
@@ -16091,7 +16088,7 @@
       <c r="W166" s="8"/>
       <c r="X166" s="8"/>
       <c r="Y166" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Z166" s="8"/>
       <c r="AA166" s="9"/>
@@ -16138,13 +16135,13 @@
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="G167" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="G167" s="8" t="s">
-        <v>542</v>
-      </c>
       <c r="H167" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="9" t="n">
@@ -16154,7 +16151,7 @@
       <c r="L167" s="9"/>
       <c r="M167" s="8"/>
       <c r="N167" s="29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O167" s="8"/>
       <c r="P167" s="8"/>
@@ -16163,7 +16160,7 @@
         <v>76</v>
       </c>
       <c r="S167" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T167" s="8"/>
       <c r="U167" s="8"/>
@@ -16171,7 +16168,7 @@
       <c r="W167" s="8"/>
       <c r="X167" s="8"/>
       <c r="Y167" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Z167" s="8"/>
       <c r="AA167" s="9"/>
@@ -16214,22 +16211,22 @@
         <v>43</v>
       </c>
       <c r="D168" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="E168" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="E168" s="26" t="s">
+      <c r="F168" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="F168" s="26" t="s">
+      <c r="G168" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="G168" s="26" t="s">
+      <c r="H168" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="H168" s="8" t="s">
+      <c r="I168" s="8" t="s">
         <v>549</v>
-      </c>
-      <c r="I168" s="8" t="s">
-        <v>550</v>
       </c>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
@@ -16241,7 +16238,7 @@
       <c r="Q168" s="8"/>
       <c r="R168" s="8"/>
       <c r="S168" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T168" s="8"/>
       <c r="U168" s="8"/>
@@ -16282,22 +16279,22 @@
         <v>43</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E169" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="F169" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="G169" s="30" t="s">
         <v>553</v>
       </c>
-      <c r="G169" s="30" t="s">
-        <v>554</v>
-      </c>
       <c r="H169" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="I169" s="8" t="s">
         <v>549</v>
-      </c>
-      <c r="I169" s="8" t="s">
-        <v>550</v>
       </c>
       <c r="J169" s="9"/>
       <c r="K169" s="9"/>
@@ -16309,7 +16306,7 @@
       <c r="Q169" s="8"/>
       <c r="R169" s="8"/>
       <c r="S169" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T169" s="8"/>
       <c r="U169" s="8"/>
@@ -16335,7 +16332,7 @@
         <v>154</v>
       </c>
       <c r="AO169" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AP169" s="9"/>
     </row>
@@ -16350,36 +16347,36 @@
         <v>43</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E170" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="F170" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="F170" s="26" t="s">
+      <c r="G170" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="H170" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="G170" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="H170" s="8" t="s">
+      <c r="I170" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="I170" s="8" t="s">
-        <v>559</v>
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="9"/>
       <c r="M170" s="8"/>
       <c r="N170" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O170" s="8"/>
       <c r="P170" s="8"/>
       <c r="Q170" s="8"/>
       <c r="R170" s="8"/>
       <c r="S170" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T170" s="8"/>
       <c r="U170" s="8"/>
@@ -16405,7 +16402,7 @@
         <v>155</v>
       </c>
       <c r="AO170" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AP170" s="9"/>
     </row>
@@ -16420,22 +16417,22 @@
         <v>43</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E171" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="F171" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="F171" s="26" t="s">
+      <c r="G171" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="G171" s="26" t="s">
+      <c r="H171" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="H171" s="8" t="s">
+      <c r="I171" s="8" t="s">
         <v>565</v>
-      </c>
-      <c r="I171" s="8" t="s">
-        <v>566</v>
       </c>
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
@@ -16447,7 +16444,7 @@
       <c r="Q171" s="8"/>
       <c r="R171" s="8"/>
       <c r="S171" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T171" s="8"/>
       <c r="U171" s="8"/>
@@ -16473,7 +16470,7 @@
         <v>158</v>
       </c>
       <c r="AO171" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AP171" s="9"/>
     </row>
@@ -16488,22 +16485,22 @@
         <v>43</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E172" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="F172" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="F172" s="26" t="s">
+      <c r="G172" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="G172" s="26" t="s">
+      <c r="H172" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H172" s="8" t="s">
-        <v>570</v>
-      </c>
       <c r="I172" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
@@ -16515,7 +16512,7 @@
       <c r="Q172" s="8"/>
       <c r="R172" s="8"/>
       <c r="S172" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T172" s="8"/>
       <c r="U172" s="8"/>
@@ -16556,36 +16553,36 @@
         <v>43</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E173" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="F173" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="F173" s="26" t="s">
+      <c r="G173" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="G173" s="26" t="s">
+      <c r="H173" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="H173" s="8" t="s">
-        <v>574</v>
-      </c>
       <c r="I173" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="9"/>
       <c r="M173" s="8"/>
       <c r="N173" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O173" s="8"/>
       <c r="P173" s="8"/>
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
       <c r="S173" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="T173" s="8"/>
       <c r="U173" s="8"/>
@@ -16624,22 +16621,22 @@
         <v>43</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E174" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="F174" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="F174" s="26" t="s">
+      <c r="G174" s="26" t="s">
         <v>578</v>
       </c>
-      <c r="G174" s="26" t="s">
+      <c r="H174" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="H174" s="8" t="s">
-        <v>580</v>
-      </c>
       <c r="I174" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
@@ -16653,14 +16650,14 @@
       <c r="Q174" s="8"/>
       <c r="R174" s="8"/>
       <c r="S174" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="T174" s="8"/>
       <c r="U174" s="8"/>
       <c r="V174" s="8"/>
       <c r="W174" s="8"/>
       <c r="X174" s="31" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Y174" s="8"/>
       <c r="Z174" s="8"/>
@@ -16673,7 +16670,7 @@
       <c r="AG174" s="8"/>
       <c r="AH174" s="8"/>
       <c r="AI174" s="18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AJ174" s="8"/>
       <c r="AK174" s="8"/>
@@ -16696,38 +16693,38 @@
         <v>43</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E175" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="F175" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="F175" s="26" t="s">
+      <c r="G175" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="G175" s="26" t="s">
-        <v>585</v>
-      </c>
       <c r="H175" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="I175" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="I175" s="8" t="s">
-        <v>559</v>
       </c>
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
       <c r="M175" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="N175" s="12" t="s">
         <v>586</v>
-      </c>
-      <c r="N175" s="12" t="s">
-        <v>587</v>
       </c>
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
       <c r="Q175" s="8"/>
       <c r="R175" s="8"/>
       <c r="S175" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T175" s="8"/>
       <c r="U175" s="8"/>
@@ -16768,38 +16765,38 @@
         <v>43</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E176" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="F176" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="F176" s="26" t="s">
+      <c r="G176" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="G176" s="26" t="s">
-        <v>585</v>
-      </c>
       <c r="H176" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="I176" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="I176" s="8" t="s">
-        <v>559</v>
       </c>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
       <c r="M176" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="N176" s="12" t="s">
         <v>586</v>
-      </c>
-      <c r="N176" s="12" t="s">
-        <v>587</v>
       </c>
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
       <c r="Q176" s="8"/>
       <c r="R176" s="8"/>
       <c r="S176" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T176" s="8"/>
       <c r="U176" s="8"/>
@@ -16840,38 +16837,38 @@
         <v>43</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E177" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="F177" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="F177" s="26" t="s">
+      <c r="G177" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="G177" s="26" t="s">
-        <v>585</v>
-      </c>
       <c r="H177" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="I177" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="I177" s="8" t="s">
-        <v>559</v>
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
       <c r="M177" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N177" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
       <c r="Q177" s="8"/>
       <c r="R177" s="8"/>
       <c r="S177" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T177" s="8"/>
       <c r="U177" s="8"/>
@@ -16912,38 +16909,38 @@
         <v>43</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E178" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="F178" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="F178" s="26" t="s">
+      <c r="G178" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="G178" s="26" t="s">
-        <v>585</v>
-      </c>
       <c r="H178" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="I178" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="I178" s="8" t="s">
-        <v>559</v>
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
       <c r="M178" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N178" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="8"/>
       <c r="S178" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T178" s="8"/>
       <c r="U178" s="8"/>
@@ -16969,7 +16966,7 @@
         <v>166</v>
       </c>
       <c r="AO178" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AP178" s="9"/>
     </row>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$178</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2337,51 +2338,51 @@
   <dimension ref="A1:AP178"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A154" activeCellId="0" sqref="A154"/>
+      <selection pane="bottomLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="80.9838056680162"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.4898785425101"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.165991902834"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.6032388663968"/>
@@ -11856,7 +11857,7 @@
       <c r="Y114" s="12"/>
       <c r="Z114" s="12"/>
       <c r="AA114" s="15" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB114" s="12"/>
       <c r="AC114" s="12"/>
@@ -11944,7 +11945,7 @@
       <c r="Y115" s="12"/>
       <c r="Z115" s="12"/>
       <c r="AA115" s="15" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB115" s="12"/>
       <c r="AC115" s="12"/>
@@ -12024,7 +12025,7 @@
       <c r="Y116" s="12"/>
       <c r="Z116" s="12"/>
       <c r="AA116" s="15" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB116" s="12"/>
       <c r="AC116" s="12"/>
@@ -12106,7 +12107,7 @@
       <c r="Y117" s="12"/>
       <c r="Z117" s="12"/>
       <c r="AA117" s="15" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB117" s="12"/>
       <c r="AC117" s="12"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CONV_BIG_REG" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="596">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1968,12 +1970,18 @@
 167
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
@@ -1982,6 +1990,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="@"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2127,7 +2136,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2284,6 +2293,30 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2365,60 +2398,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ181"/>
+  <dimension ref="1:182"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="F181" activeCellId="0" sqref="F181:F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.3400809716599"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="54.2024291497976"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="77.668016194332"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="113.109311740891"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.6113360323887"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="19.8582995951417"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="63.6275303643725"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="55.165991902834"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="115.153846153846"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="44" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2618,6 +2650,7 @@
       <c r="AQ2" s="14" t="n">
         <v>506</v>
       </c>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="n">
@@ -2685,6 +2718,7 @@
       <c r="AQ3" s="14" t="n">
         <v>506</v>
       </c>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
@@ -2752,6 +2786,7 @@
       <c r="AQ4" s="14" t="n">
         <v>506</v>
       </c>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
@@ -2819,6 +2854,7 @@
       <c r="AQ5" s="14" t="n">
         <v>506</v>
       </c>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
@@ -2886,6 +2922,7 @@
       <c r="AQ6" s="14" t="n">
         <v>506</v>
       </c>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
@@ -2951,6 +2988,7 @@
         <v>62</v>
       </c>
       <c r="AQ7" s="14"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
@@ -3016,6 +3054,7 @@
         <v>65</v>
       </c>
       <c r="AQ8" s="14"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
@@ -3089,6 +3128,7 @@
       <c r="AQ9" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
@@ -3176,6 +3216,7 @@
       <c r="AQ10" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
@@ -3263,6 +3304,7 @@
       <c r="AQ11" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
@@ -3350,6 +3392,7 @@
       <c r="AQ12" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
@@ -3437,6 +3480,7 @@
       <c r="AQ13" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
@@ -3524,6 +3568,7 @@
       <c r="AQ14" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
@@ -3611,6 +3656,7 @@
       <c r="AQ15" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="n">
@@ -3698,6 +3744,7 @@
       <c r="AQ16" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
@@ -3785,6 +3832,7 @@
       <c r="AQ17" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
@@ -3872,6 +3920,7 @@
       <c r="AQ18" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="n">
@@ -3959,6 +4008,7 @@
       <c r="AQ19" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="n">
@@ -4046,6 +4096,7 @@
       <c r="AQ20" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="n">
@@ -4133,6 +4184,7 @@
       <c r="AQ21" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="n">
@@ -4220,6 +4272,7 @@
       <c r="AQ22" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="n">
@@ -4307,6 +4360,7 @@
       <c r="AQ23" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="n">
@@ -4394,6 +4448,7 @@
       <c r="AQ24" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="n">
@@ -4481,6 +4536,7 @@
       <c r="AQ25" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="n">
@@ -4568,6 +4624,7 @@
       <c r="AQ26" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="n">
@@ -4655,6 +4712,7 @@
       <c r="AQ27" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="n">
@@ -4742,6 +4800,7 @@
       <c r="AQ28" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="n">
@@ -4829,6 +4888,7 @@
       <c r="AQ29" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="n">
@@ -4916,6 +4976,7 @@
       <c r="AQ30" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="n">
@@ -5003,6 +5064,7 @@
       <c r="AQ31" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="n">
@@ -5090,6 +5152,7 @@
       <c r="AQ32" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="n">
@@ -5177,6 +5240,7 @@
       <c r="AQ33" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="n">
@@ -5264,6 +5328,7 @@
       <c r="AQ34" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="n">
@@ -5351,6 +5416,7 @@
       <c r="AQ35" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="n">
@@ -5438,6 +5504,7 @@
       <c r="AQ36" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="n">
@@ -5525,6 +5592,7 @@
       <c r="AQ37" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="n">
@@ -5612,6 +5680,7 @@
       <c r="AQ38" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="n">
@@ -5685,6 +5754,7 @@
       <c r="AQ39" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="n">
@@ -5772,6 +5842,7 @@
       <c r="AQ40" s="14" t="n">
         <v>31</v>
       </c>
+      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="n">
@@ -5859,6 +5930,7 @@
       <c r="AQ41" s="14" t="n">
         <v>31</v>
       </c>
+      <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="n">
@@ -5946,6 +6018,7 @@
       <c r="AQ42" s="14" t="n">
         <v>31</v>
       </c>
+      <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="n">
@@ -6033,6 +6106,7 @@
       <c r="AQ43" s="14" t="n">
         <v>31</v>
       </c>
+      <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="n">
@@ -6120,6 +6194,7 @@
       <c r="AQ44" s="14" t="n">
         <v>31</v>
       </c>
+      <c r="AMJ44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="n">
@@ -6193,6 +6268,7 @@
       <c r="AQ45" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="n">
@@ -6280,6 +6356,7 @@
       <c r="AQ46" s="14" t="n">
         <v>37</v>
       </c>
+      <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="n">
@@ -6367,6 +6444,7 @@
       <c r="AQ47" s="14" t="n">
         <v>37</v>
       </c>
+      <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="n">
@@ -6454,6 +6532,7 @@
       <c r="AQ48" s="14" t="n">
         <v>37</v>
       </c>
+      <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="n">
@@ -6541,6 +6620,7 @@
       <c r="AQ49" s="14" t="n">
         <v>37</v>
       </c>
+      <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="n">
@@ -6614,6 +6694,7 @@
       <c r="AQ50" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="n">
@@ -6701,6 +6782,7 @@
       <c r="AQ51" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="n">
@@ -6788,6 +6870,7 @@
       <c r="AQ52" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="n">
@@ -6875,6 +6958,7 @@
       <c r="AQ53" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="n">
@@ -6962,6 +7046,7 @@
       <c r="AQ54" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="n">
@@ -7049,6 +7134,7 @@
       <c r="AQ55" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="n">
@@ -7136,6 +7222,7 @@
       <c r="AQ56" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="n">
@@ -7223,6 +7310,7 @@
       <c r="AQ57" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="n">
@@ -7296,6 +7384,7 @@
       <c r="AQ58" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="n">
@@ -7383,6 +7472,7 @@
       <c r="AQ59" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="n">
@@ -7470,6 +7560,7 @@
       <c r="AQ60" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="n">
@@ -7557,6 +7648,7 @@
       <c r="AQ61" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="n">
@@ -7644,6 +7736,7 @@
       <c r="AQ62" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="n">
@@ -7731,6 +7824,7 @@
       <c r="AQ63" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="n">
@@ -7818,6 +7912,7 @@
       <c r="AQ64" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="n">
@@ -7905,6 +8000,7 @@
       <c r="AQ65" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="n">
@@ -7992,6 +8088,7 @@
       <c r="AQ66" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="n">
@@ -8079,6 +8176,7 @@
       <c r="AQ67" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="n">
@@ -8166,6 +8264,7 @@
       <c r="AQ68" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="n">
@@ -8253,6 +8352,7 @@
       <c r="AQ69" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="n">
@@ -8340,6 +8440,7 @@
       <c r="AQ70" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="n">
@@ -8427,6 +8528,7 @@
       <c r="AQ71" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="n">
@@ -8514,6 +8616,7 @@
       <c r="AQ72" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="n">
@@ -8601,6 +8704,7 @@
       <c r="AQ73" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="n">
@@ -8688,6 +8792,7 @@
       <c r="AQ74" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="n">
@@ -8775,6 +8880,7 @@
       <c r="AQ75" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="n">
@@ -8862,6 +8968,7 @@
       <c r="AQ76" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="n">
@@ -8949,6 +9056,7 @@
       <c r="AQ77" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="n">
@@ -9036,6 +9144,7 @@
       <c r="AQ78" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="n">
@@ -9123,6 +9232,7 @@
       <c r="AQ79" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="n">
@@ -9210,6 +9320,7 @@
       <c r="AQ80" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="n">
@@ -9297,6 +9408,7 @@
       <c r="AQ81" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="n">
@@ -9384,6 +9496,7 @@
       <c r="AQ82" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="n">
@@ -9471,6 +9584,7 @@
       <c r="AQ83" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="n">
@@ -9558,6 +9672,7 @@
       <c r="AQ84" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="n">
@@ -9645,6 +9760,7 @@
       <c r="AQ85" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="n">
@@ -9732,6 +9848,7 @@
       <c r="AQ86" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="n">
@@ -9819,6 +9936,7 @@
       <c r="AQ87" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="n">
@@ -9906,6 +10024,7 @@
       <c r="AQ88" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="n">
@@ -9993,6 +10112,7 @@
       <c r="AQ89" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="n">
@@ -10080,6 +10200,7 @@
       <c r="AQ90" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="n">
@@ -10167,6 +10288,7 @@
       <c r="AQ91" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="n">
@@ -10254,6 +10376,7 @@
       <c r="AQ92" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="n">
@@ -10343,6 +10466,7 @@
       <c r="AQ93" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="n">
@@ -10430,6 +10554,7 @@
       <c r="AQ94" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="n">
@@ -10517,6 +10642,7 @@
       <c r="AQ95" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="n">
@@ -10582,6 +10708,7 @@
         <v>317</v>
       </c>
       <c r="AQ96" s="14"/>
+      <c r="AMJ96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="n">
@@ -10649,6 +10776,7 @@
       <c r="AQ97" s="14" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="n">
@@ -10730,6 +10858,7 @@
       <c r="AQ98" s="14" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="n">
@@ -10815,6 +10944,7 @@
       <c r="AQ99" s="14" t="n">
         <v>88</v>
       </c>
+      <c r="AMJ99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="n">
@@ -10896,6 +11026,7 @@
       <c r="AQ100" s="14" t="n">
         <v>88</v>
       </c>
+      <c r="AMJ100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="n">
@@ -10981,6 +11112,7 @@
       <c r="AQ101" s="14" t="n">
         <v>88</v>
       </c>
+      <c r="AMJ101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="n">
@@ -11066,6 +11198,7 @@
       <c r="AQ102" s="14" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="n">
@@ -11149,6 +11282,7 @@
       <c r="AQ103" s="14" t="n">
         <v>92</v>
       </c>
+      <c r="AMJ103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="n">
@@ -11232,6 +11366,7 @@
       <c r="AQ104" s="14" t="n">
         <v>92</v>
       </c>
+      <c r="AMJ104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="n">
@@ -11315,6 +11450,7 @@
       <c r="AQ105" s="14" t="n">
         <v>92</v>
       </c>
+      <c r="AMJ105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="n">
@@ -11398,6 +11534,7 @@
       <c r="AQ106" s="14" t="n">
         <v>92</v>
       </c>
+      <c r="AMJ106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="n">
@@ -11465,6 +11602,7 @@
       <c r="AQ107" s="14" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="n">
@@ -11546,6 +11684,7 @@
       <c r="AQ108" s="14" t="n">
         <v>303</v>
       </c>
+      <c r="AMJ108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="n">
@@ -11631,6 +11770,7 @@
       <c r="AQ109" s="14" t="n">
         <v>97</v>
       </c>
+      <c r="AMJ109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="n">
@@ -11712,6 +11852,7 @@
       <c r="AQ110" s="14" t="n">
         <v>97</v>
       </c>
+      <c r="AMJ110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="n">
@@ -11791,6 +11932,7 @@
       <c r="AQ111" s="14" t="n">
         <v>97</v>
       </c>
+      <c r="AMJ111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="n">
@@ -11874,6 +12016,7 @@
       <c r="AQ112" s="14" t="n">
         <v>100</v>
       </c>
+      <c r="AMJ112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="n">
@@ -11957,6 +12100,7 @@
       <c r="AQ113" s="14" t="n">
         <v>100</v>
       </c>
+      <c r="AMJ113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="n">
@@ -12038,6 +12182,7 @@
       <c r="AQ114" s="14" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="n">
@@ -12123,6 +12268,7 @@
       <c r="AQ115" s="14" t="n">
         <v>103</v>
       </c>
+      <c r="AMJ115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="n">
@@ -12204,6 +12350,7 @@
       <c r="AQ116" s="14" t="n">
         <v>103</v>
       </c>
+      <c r="AMJ116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="n">
@@ -12289,6 +12436,7 @@
       <c r="AQ117" s="14" t="n">
         <v>103</v>
       </c>
+      <c r="AMJ117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="n">
@@ -12374,6 +12522,7 @@
       <c r="AQ118" s="14" t="n">
         <v>501</v>
       </c>
+      <c r="AMJ118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="n">
@@ -12457,6 +12606,7 @@
       <c r="AQ119" s="14" t="n">
         <v>501</v>
       </c>
+      <c r="AMJ119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="n">
@@ -12542,6 +12692,7 @@
       <c r="AQ120" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="n">
@@ -12627,6 +12778,7 @@
       <c r="AQ121" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="n">
@@ -12712,6 +12864,7 @@
       <c r="AQ122" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="n">
@@ -12797,6 +12950,7 @@
       <c r="AQ123" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="n">
@@ -12882,6 +13036,7 @@
       <c r="AQ124" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="n">
@@ -12967,6 +13122,7 @@
       <c r="AQ125" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="n">
@@ -13052,6 +13208,7 @@
       <c r="AQ126" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="n">
@@ -13137,6 +13294,7 @@
       <c r="AQ127" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="n">
@@ -13222,6 +13380,7 @@
       <c r="AQ128" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="n">
@@ -13307,6 +13466,7 @@
       <c r="AQ129" s="14" t="n">
         <v>502</v>
       </c>
+      <c r="AMJ129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="n">
@@ -13390,6 +13550,7 @@
       <c r="AQ130" s="14" t="n">
         <v>502</v>
       </c>
+      <c r="AMJ130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="n">
@@ -13475,6 +13636,7 @@
       <c r="AQ131" s="25" t="n">
         <v>119</v>
       </c>
+      <c r="AMJ131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="n">
@@ -13560,6 +13722,7 @@
       <c r="AQ132" s="25" t="n">
         <v>119</v>
       </c>
+      <c r="AMJ132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="n">
@@ -13645,6 +13808,7 @@
       <c r="AQ133" s="25" t="n">
         <v>119</v>
       </c>
+      <c r="AMJ133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="10" t="n">
@@ -13730,6 +13894,7 @@
       <c r="AQ134" s="25" t="n">
         <v>119</v>
       </c>
+      <c r="AMJ134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="10" t="n">
@@ -13815,6 +13980,7 @@
       <c r="AQ135" s="25" t="n">
         <v>119</v>
       </c>
+      <c r="AMJ135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="10" t="n">
@@ -13900,6 +14066,7 @@
       <c r="AQ136" s="14" t="n">
         <v>503</v>
       </c>
+      <c r="AMJ136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="10" t="n">
@@ -13983,6 +14150,7 @@
       <c r="AQ137" s="14" t="n">
         <v>503</v>
       </c>
+      <c r="AMJ137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="n">
@@ -14068,6 +14236,7 @@
       <c r="AQ138" s="25" t="n">
         <v>126</v>
       </c>
+      <c r="AMJ138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="10" t="n">
@@ -14153,6 +14322,7 @@
       <c r="AQ139" s="14" t="n">
         <v>504</v>
       </c>
+      <c r="AMJ139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="10" t="n">
@@ -14236,6 +14406,7 @@
       <c r="AQ140" s="14" t="n">
         <v>504</v>
       </c>
+      <c r="AMJ140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="10" t="n">
@@ -14321,6 +14492,7 @@
       <c r="AQ141" s="25" t="n">
         <v>129</v>
       </c>
+      <c r="AMJ141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="10" t="n">
@@ -14406,6 +14578,7 @@
       <c r="AQ142" s="25" t="n">
         <v>129</v>
       </c>
+      <c r="AMJ142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="10" t="n">
@@ -14491,6 +14664,7 @@
       <c r="AQ143" s="14" t="n">
         <v>505</v>
       </c>
+      <c r="AMJ143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="n">
@@ -14556,6 +14730,7 @@
         <v>461</v>
       </c>
       <c r="AQ144" s="14"/>
+      <c r="AMJ144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="n">
@@ -14623,6 +14798,7 @@
       <c r="AQ145" s="14" t="n">
         <v>310</v>
       </c>
+      <c r="AMJ145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="n">
@@ -14690,6 +14866,7 @@
       <c r="AQ146" s="14" t="n">
         <v>310</v>
       </c>
+      <c r="AMJ146" s="0"/>
     </row>
     <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="n">
@@ -14771,6 +14948,7 @@
       <c r="AQ147" s="14" t="n">
         <v>311</v>
       </c>
+      <c r="AMJ147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="n">
@@ -14854,6 +15032,7 @@
       <c r="AQ148" s="14" t="n">
         <v>133</v>
       </c>
+      <c r="AMJ148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="n">
@@ -14935,6 +15114,7 @@
       <c r="AQ149" s="14" t="n">
         <v>133</v>
       </c>
+      <c r="AMJ149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="n">
@@ -15020,6 +15200,7 @@
       <c r="AQ150" s="14" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="n">
@@ -15109,6 +15290,7 @@
       <c r="AQ151" s="14" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="n">
@@ -15192,6 +15374,7 @@
       <c r="AQ152" s="14" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="n">
@@ -15279,6 +15462,7 @@
       <c r="AQ153" s="14" t="n">
         <v>138</v>
       </c>
+      <c r="AMJ153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="10" t="n">
@@ -15366,6 +15550,7 @@
       <c r="AQ154" s="14" t="n">
         <v>138</v>
       </c>
+      <c r="AMJ154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="n">
@@ -15445,6 +15630,7 @@
       <c r="AQ155" s="14" t="n">
         <v>138</v>
       </c>
+      <c r="AMJ155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="10" t="n">
@@ -15532,6 +15718,7 @@
       <c r="AQ156" s="14" t="n">
         <v>142</v>
       </c>
+      <c r="AMJ156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="n">
@@ -15619,6 +15806,7 @@
       <c r="AQ157" s="14" t="n">
         <v>142</v>
       </c>
+      <c r="AMJ157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="10" t="n">
@@ -15702,6 +15890,7 @@
       <c r="AQ158" s="14" t="n">
         <v>138</v>
       </c>
+      <c r="AMJ158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="10" t="n">
@@ -15785,6 +15974,7 @@
       <c r="AQ159" s="14" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="10" t="n">
@@ -15866,6 +16056,7 @@
       <c r="AQ160" s="20" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="10" t="n">
@@ -15953,6 +16144,7 @@
       <c r="AQ161" s="14" t="n">
         <v>147</v>
       </c>
+      <c r="AMJ161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="10" t="n">
@@ -16016,6 +16208,7 @@
         <v>149</v>
       </c>
       <c r="AQ162" s="14"/>
+      <c r="AMJ162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="10" t="n">
@@ -16089,6 +16282,7 @@
       <c r="AQ163" s="20" t="n">
         <v>400</v>
       </c>
+      <c r="AMJ163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="n">
@@ -16172,6 +16366,7 @@
       <c r="AQ164" s="14" t="n">
         <v>149</v>
       </c>
+      <c r="AMJ164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="n">
@@ -16255,6 +16450,7 @@
       <c r="AQ165" s="14" t="n">
         <v>149</v>
       </c>
+      <c r="AMJ165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="n">
@@ -16338,6 +16534,7 @@
       <c r="AQ166" s="14" t="n">
         <v>149</v>
       </c>
+      <c r="AMJ166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="10" t="n">
@@ -16421,6 +16618,7 @@
       <c r="AQ167" s="14" t="n">
         <v>149</v>
       </c>
+      <c r="AMJ167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="10" t="n">
@@ -16490,6 +16688,7 @@
         <v>92</v>
       </c>
       <c r="AQ168" s="14"/>
+      <c r="AMJ168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="10" t="n">
@@ -16559,6 +16758,7 @@
         <v>556</v>
       </c>
       <c r="AQ169" s="14"/>
+      <c r="AMJ169" s="0"/>
     </row>
     <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="10" t="n">
@@ -16632,6 +16832,7 @@
         <v>150</v>
       </c>
       <c r="AQ170" s="14"/>
+      <c r="AMJ170" s="0"/>
     </row>
     <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="10" t="n">
@@ -16703,6 +16904,7 @@
         <v>151</v>
       </c>
       <c r="AQ171" s="14"/>
+      <c r="AMJ171" s="0"/>
     </row>
     <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="10" t="n">
@@ -16774,6 +16976,7 @@
         <v>152</v>
       </c>
       <c r="AQ172" s="14"/>
+      <c r="AMJ172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="n">
@@ -16845,6 +17048,7 @@
         <v>167</v>
       </c>
       <c r="AQ173" s="14"/>
+      <c r="AMJ173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="10" t="n">
@@ -16914,6 +17118,7 @@
         <v>466</v>
       </c>
       <c r="AQ174" s="14"/>
+      <c r="AMJ174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="10" t="n">
@@ -16983,6 +17188,7 @@
         <v>147</v>
       </c>
       <c r="AQ175" s="14"/>
+      <c r="AMJ175" s="0"/>
     </row>
     <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="10" t="n">
@@ -17054,6 +17260,7 @@
       </c>
       <c r="AP176" s="14"/>
       <c r="AQ176" s="14"/>
+      <c r="AMJ176" s="0"/>
     </row>
     <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="10" t="n">
@@ -17125,6 +17332,7 @@
       </c>
       <c r="AP177" s="14"/>
       <c r="AQ177" s="14"/>
+      <c r="AMJ177" s="0"/>
     </row>
     <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="10" t="n">
@@ -17198,6 +17406,7 @@
         <v>88</v>
       </c>
       <c r="AQ178" s="14"/>
+      <c r="AMJ178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="n">
@@ -17271,6 +17480,7 @@
         <v>97</v>
       </c>
       <c r="AQ179" s="14"/>
+      <c r="AMJ179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="10" t="n">
@@ -17344,6 +17554,7 @@
         <v>103</v>
       </c>
       <c r="AQ180" s="14"/>
+      <c r="AMJ180" s="0"/>
     </row>
     <row r="181" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="10" t="n">
@@ -17417,6 +17628,73 @@
         <v>593</v>
       </c>
       <c r="AQ181" s="14"/>
+      <c r="AMJ181" s="0"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="39" t="n">
+        <v>521</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D182" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="E182" s="40"/>
+      <c r="F182" s="30"/>
+      <c r="G182" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="H182" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="I182" s="39" t="s">
+        <v>595</v>
+      </c>
+      <c r="J182" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="K182" s="41"/>
+      <c r="L182" s="41"/>
+      <c r="M182" s="39"/>
+      <c r="N182" s="42"/>
+      <c r="O182" s="39"/>
+      <c r="P182" s="39"/>
+      <c r="Q182" s="39"/>
+      <c r="R182" s="39"/>
+      <c r="S182" s="39"/>
+      <c r="T182" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="U182" s="39"/>
+      <c r="V182" s="39"/>
+      <c r="W182" s="39"/>
+      <c r="X182" s="39"/>
+      <c r="Y182" s="39"/>
+      <c r="Z182" s="39"/>
+      <c r="AA182" s="39"/>
+      <c r="AB182" s="39"/>
+      <c r="AC182" s="39"/>
+      <c r="AD182" s="43"/>
+      <c r="AE182" s="39"/>
+      <c r="AF182" s="39"/>
+      <c r="AG182" s="39"/>
+      <c r="AH182" s="39"/>
+      <c r="AI182" s="44"/>
+      <c r="AJ182" s="39"/>
+      <c r="AK182" s="39"/>
+      <c r="AL182" s="11"/>
+      <c r="AM182" s="11"/>
+      <c r="AN182" s="14"/>
+      <c r="AO182" s="39" t="n">
+        <v>521</v>
+      </c>
+      <c r="AP182" s="16"/>
+      <c r="AQ182" s="10"/>
+      <c r="AMJ182" s="0"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ181"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="597">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1893,6 +1894,12 @@
   </si>
   <si>
     <t xml:space="preserve">Decimal.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136
+137
+138
+146</t>
   </si>
   <si>
     <t xml:space="preserve">LOCAL 5</t>
@@ -2400,53 +2407,53 @@
   </sheetPr>
   <dimension ref="1:182"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F181" activeCellId="0" sqref="F181:F182"/>
+      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="AP172" activeCellId="0" sqref="AP172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.4898785425101"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="64.165991902834"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="55.165991902834"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="115.153846153846"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="116.117408906883"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="51.3117408906883"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.6032388663968"/>
@@ -16876,7 +16883,9 @@
       <c r="Q171" s="11"/>
       <c r="R171" s="11"/>
       <c r="S171" s="11"/>
-      <c r="T171" s="11"/>
+      <c r="T171" s="11" t="s">
+        <v>552</v>
+      </c>
       <c r="U171" s="11"/>
       <c r="V171" s="11"/>
       <c r="W171" s="11"/>
@@ -16948,7 +16957,9 @@
       <c r="Q172" s="11"/>
       <c r="R172" s="11"/>
       <c r="S172" s="11"/>
-      <c r="T172" s="11"/>
+      <c r="T172" s="11" t="s">
+        <v>552</v>
+      </c>
       <c r="U172" s="11"/>
       <c r="V172" s="11"/>
       <c r="W172" s="11"/>
@@ -17020,7 +17031,9 @@
       <c r="Q173" s="11"/>
       <c r="R173" s="11"/>
       <c r="S173" s="11"/>
-      <c r="T173" s="11"/>
+      <c r="T173" s="11" t="s">
+        <v>552</v>
+      </c>
       <c r="U173" s="11"/>
       <c r="V173" s="11"/>
       <c r="W173" s="11"/>
@@ -17115,7 +17128,7 @@
         <v>159</v>
       </c>
       <c r="AP174" s="17" t="s">
-        <v>466</v>
+        <v>571</v>
       </c>
       <c r="AQ174" s="14"/>
       <c r="AMJ174" s="0"/>
@@ -17134,17 +17147,17 @@
         <v>546</v>
       </c>
       <c r="E175" s="30" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F175" s="30"/>
       <c r="G175" s="30" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H175" s="30" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I175" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J175" s="10" t="s">
         <v>570</v>
@@ -17204,17 +17217,17 @@
         <v>546</v>
       </c>
       <c r="E176" s="30" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F176" s="30"/>
       <c r="G176" s="30" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H176" s="30" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I176" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J176" s="10" t="s">
         <v>570</v>
@@ -17224,14 +17237,14 @@
       <c r="M176" s="13"/>
       <c r="N176" s="10"/>
       <c r="O176" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P176" s="11"/>
       <c r="Q176" s="11"/>
       <c r="R176" s="11"/>
       <c r="S176" s="11"/>
       <c r="T176" s="11" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="U176" s="11"/>
       <c r="V176" s="11"/>
@@ -17276,17 +17289,17 @@
         <v>546</v>
       </c>
       <c r="E177" s="30" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F177" s="30"/>
       <c r="G177" s="30" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H177" s="30" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I177" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J177" s="10" t="s">
         <v>560</v>
@@ -17303,14 +17316,14 @@
       <c r="R177" s="11"/>
       <c r="S177" s="11"/>
       <c r="T177" s="11" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="U177" s="11"/>
       <c r="V177" s="11"/>
       <c r="W177" s="11"/>
       <c r="X177" s="11"/>
       <c r="Y177" s="36" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Z177" s="11"/>
       <c r="AA177" s="11"/>
@@ -17348,14 +17361,14 @@
         <v>546</v>
       </c>
       <c r="E178" s="30" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F178" s="30"/>
       <c r="G178" s="30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H178" s="30" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I178" s="10" t="s">
         <v>559</v>
@@ -17367,10 +17380,10 @@
       <c r="L178" s="13"/>
       <c r="M178" s="13"/>
       <c r="N178" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O178" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P178" s="11"/>
       <c r="Q178" s="11"/>
@@ -17422,14 +17435,14 @@
         <v>546</v>
       </c>
       <c r="E179" s="30" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F179" s="30"/>
       <c r="G179" s="30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H179" s="30" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I179" s="10" t="s">
         <v>559</v>
@@ -17441,10 +17454,10 @@
       <c r="L179" s="13"/>
       <c r="M179" s="13"/>
       <c r="N179" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O179" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P179" s="11"/>
       <c r="Q179" s="11"/>
@@ -17496,14 +17509,14 @@
         <v>546</v>
       </c>
       <c r="E180" s="30" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H180" s="30" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I180" s="10" t="s">
         <v>559</v>
@@ -17515,10 +17528,10 @@
       <c r="L180" s="13"/>
       <c r="M180" s="13"/>
       <c r="N180" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O180" s="37" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P180" s="11"/>
       <c r="Q180" s="11"/>
@@ -17570,14 +17583,14 @@
         <v>546</v>
       </c>
       <c r="E181" s="30" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F181" s="30"/>
       <c r="G181" s="30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H181" s="30" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I181" s="10" t="s">
         <v>559</v>
@@ -17589,10 +17602,10 @@
       <c r="L181" s="13"/>
       <c r="M181" s="13"/>
       <c r="N181" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O181" s="37" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P181" s="11"/>
       <c r="Q181" s="11"/>
@@ -17625,7 +17638,7 @@
         <v>166</v>
       </c>
       <c r="AP181" s="38" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AQ181" s="14"/>
       <c r="AMJ181" s="0"/>
@@ -17646,13 +17659,13 @@
       <c r="E182" s="40"/>
       <c r="F182" s="30"/>
       <c r="G182" s="40" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H182" s="40" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I182" s="39" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J182" s="39" t="s">
         <v>551</v>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="596">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1809,9 +1810,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dobriy 0.33 in Bakery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy 0.33 in Bakery </t>
   </si>
   <si>
     <t xml:space="preserve">Hidden</t>
@@ -2407,53 +2405,53 @@
   </sheetPr>
   <dimension ref="1:182"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
-      <selection pane="bottomLeft" activeCell="AP172" activeCellId="0" sqref="AP172"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A167" activeCellId="0" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="64.165991902834"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="116.117408906883"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="117.186234817814"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.6032388663968"/>
@@ -16594,7 +16592,7 @@
       <c r="X167" s="11"/>
       <c r="Y167" s="11"/>
       <c r="Z167" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AA167" s="11"/>
       <c r="AB167" s="14"/>
@@ -16638,23 +16636,23 @@
         <v>44</v>
       </c>
       <c r="D168" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E168" s="30" t="s">
         <v>546</v>
-      </c>
-      <c r="E168" s="30" t="s">
-        <v>547</v>
       </c>
       <c r="F168" s="30"/>
       <c r="G168" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="H168" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="H168" s="30" t="s">
+      <c r="I168" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="I168" s="10" t="s">
+      <c r="J168" s="10" t="s">
         <v>550</v>
-      </c>
-      <c r="J168" s="10" t="s">
-        <v>551</v>
       </c>
       <c r="K168" s="13"/>
       <c r="L168" s="13"/>
@@ -16666,7 +16664,7 @@
       <c r="R168" s="11"/>
       <c r="S168" s="11"/>
       <c r="T168" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U168" s="11"/>
       <c r="V168" s="11"/>
@@ -16708,23 +16706,23 @@
         <v>44</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F169" s="10"/>
       <c r="G169" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="H169" s="31" t="s">
         <v>554</v>
       </c>
-      <c r="H169" s="31" t="s">
-        <v>555</v>
-      </c>
       <c r="I169" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="J169" s="10" t="s">
         <v>550</v>
-      </c>
-      <c r="J169" s="10" t="s">
-        <v>551</v>
       </c>
       <c r="K169" s="13"/>
       <c r="L169" s="13"/>
@@ -16736,7 +16734,7 @@
       <c r="R169" s="11"/>
       <c r="S169" s="11"/>
       <c r="T169" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U169" s="11"/>
       <c r="V169" s="11"/>
@@ -16762,7 +16760,7 @@
         <v>154</v>
       </c>
       <c r="AP169" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AQ169" s="14"/>
       <c r="AMJ169" s="0"/>
@@ -16778,39 +16776,39 @@
         <v>44</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E170" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F170" s="30"/>
       <c r="G170" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H170" s="30" t="s">
         <v>528</v>
       </c>
       <c r="I170" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="J170" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="J170" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="K170" s="13"/>
       <c r="L170" s="13"/>
       <c r="M170" s="13"/>
       <c r="N170" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="O170" s="33" t="s">
         <v>561</v>
-      </c>
-      <c r="O170" s="33" t="s">
-        <v>562</v>
       </c>
       <c r="P170" s="11"/>
       <c r="Q170" s="11"/>
       <c r="R170" s="11"/>
       <c r="S170" s="11"/>
       <c r="T170" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U170" s="11"/>
       <c r="V170" s="11"/>
@@ -16852,39 +16850,39 @@
         <v>44</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E171" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F171" s="30"/>
       <c r="G171" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H171" s="30" t="s">
         <v>528</v>
       </c>
       <c r="I171" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="J171" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="J171" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="K171" s="13"/>
       <c r="L171" s="13"/>
       <c r="M171" s="13"/>
       <c r="N171" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O171" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P171" s="11"/>
       <c r="Q171" s="11"/>
       <c r="R171" s="11"/>
       <c r="S171" s="11"/>
       <c r="T171" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U171" s="11"/>
       <c r="V171" s="11"/>
@@ -16926,39 +16924,39 @@
         <v>44</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E172" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F172" s="30"/>
       <c r="G172" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H172" s="30" t="s">
         <v>528</v>
       </c>
       <c r="I172" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="J172" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="J172" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="K172" s="13"/>
       <c r="L172" s="13"/>
       <c r="M172" s="13"/>
       <c r="N172" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O172" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P172" s="11"/>
       <c r="Q172" s="11"/>
       <c r="R172" s="11"/>
       <c r="S172" s="11"/>
       <c r="T172" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U172" s="11"/>
       <c r="V172" s="11"/>
@@ -17000,39 +16998,39 @@
         <v>44</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E173" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F173" s="30"/>
       <c r="G173" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H173" s="30" t="s">
         <v>528</v>
       </c>
       <c r="I173" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="J173" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="J173" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="K173" s="13"/>
       <c r="L173" s="13"/>
       <c r="M173" s="13"/>
       <c r="N173" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O173" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P173" s="11"/>
       <c r="Q173" s="11"/>
       <c r="R173" s="11"/>
       <c r="S173" s="11"/>
       <c r="T173" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U173" s="11"/>
       <c r="V173" s="11"/>
@@ -17074,23 +17072,23 @@
         <v>44</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E174" s="30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F174" s="30"/>
       <c r="G174" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="H174" s="30" t="s">
         <v>567</v>
       </c>
-      <c r="H174" s="30" t="s">
+      <c r="I174" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="I174" s="10" t="s">
+      <c r="J174" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="J174" s="10" t="s">
-        <v>570</v>
       </c>
       <c r="K174" s="13"/>
       <c r="L174" s="13"/>
@@ -17102,7 +17100,7 @@
       <c r="R174" s="11"/>
       <c r="S174" s="11"/>
       <c r="T174" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U174" s="11"/>
       <c r="V174" s="11"/>
@@ -17128,7 +17126,7 @@
         <v>159</v>
       </c>
       <c r="AP174" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AQ174" s="14"/>
       <c r="AMJ174" s="0"/>
@@ -17144,23 +17142,23 @@
         <v>44</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E175" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F175" s="30"/>
       <c r="G175" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="H175" s="30" t="s">
         <v>573</v>
       </c>
-      <c r="H175" s="30" t="s">
+      <c r="I175" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="I175" s="10" t="s">
-        <v>575</v>
-      </c>
       <c r="J175" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K175" s="13"/>
       <c r="L175" s="13"/>
@@ -17172,7 +17170,7 @@
       <c r="R175" s="11"/>
       <c r="S175" s="11"/>
       <c r="T175" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U175" s="11"/>
       <c r="V175" s="11"/>
@@ -17214,37 +17212,37 @@
         <v>44</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E176" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F176" s="30"/>
       <c r="G176" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="H176" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="H176" s="30" t="s">
+      <c r="I176" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="I176" s="10" t="s">
-        <v>579</v>
-      </c>
       <c r="J176" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K176" s="13"/>
       <c r="L176" s="13"/>
       <c r="M176" s="13"/>
       <c r="N176" s="10"/>
       <c r="O176" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P176" s="11"/>
       <c r="Q176" s="11"/>
       <c r="R176" s="11"/>
       <c r="S176" s="11"/>
       <c r="T176" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="U176" s="11"/>
       <c r="V176" s="11"/>
@@ -17286,23 +17284,23 @@
         <v>44</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E177" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F177" s="30"/>
       <c r="G177" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="H177" s="30" t="s">
         <v>583</v>
       </c>
-      <c r="H177" s="30" t="s">
+      <c r="I177" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="I177" s="10" t="s">
-        <v>585</v>
-      </c>
       <c r="J177" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K177" s="13"/>
       <c r="L177" s="13"/>
@@ -17316,14 +17314,14 @@
       <c r="R177" s="11"/>
       <c r="S177" s="11"/>
       <c r="T177" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="U177" s="11"/>
       <c r="V177" s="11"/>
       <c r="W177" s="11"/>
       <c r="X177" s="11"/>
       <c r="Y177" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Z177" s="11"/>
       <c r="AA177" s="11"/>
@@ -17358,39 +17356,39 @@
         <v>44</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E178" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F178" s="30"/>
       <c r="G178" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="H178" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="H178" s="30" t="s">
-        <v>589</v>
-      </c>
       <c r="I178" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="J178" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="J178" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="K178" s="13"/>
       <c r="L178" s="13"/>
       <c r="M178" s="13"/>
       <c r="N178" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="O178" s="16" t="s">
         <v>590</v>
-      </c>
-      <c r="O178" s="16" t="s">
-        <v>591</v>
       </c>
       <c r="P178" s="11"/>
       <c r="Q178" s="11"/>
       <c r="R178" s="11"/>
       <c r="S178" s="11"/>
       <c r="T178" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U178" s="11"/>
       <c r="V178" s="11"/>
@@ -17432,39 +17430,39 @@
         <v>44</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E179" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F179" s="30"/>
       <c r="G179" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="H179" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="H179" s="30" t="s">
-        <v>589</v>
-      </c>
       <c r="I179" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="J179" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="J179" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="K179" s="13"/>
       <c r="L179" s="13"/>
       <c r="M179" s="13"/>
       <c r="N179" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="O179" s="16" t="s">
         <v>590</v>
-      </c>
-      <c r="O179" s="16" t="s">
-        <v>591</v>
       </c>
       <c r="P179" s="11"/>
       <c r="Q179" s="11"/>
       <c r="R179" s="11"/>
       <c r="S179" s="11"/>
       <c r="T179" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U179" s="11"/>
       <c r="V179" s="11"/>
@@ -17506,39 +17504,39 @@
         <v>44</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E180" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="H180" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="H180" s="30" t="s">
-        <v>589</v>
-      </c>
       <c r="I180" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="J180" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="J180" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="K180" s="13"/>
       <c r="L180" s="13"/>
       <c r="M180" s="13"/>
       <c r="N180" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O180" s="37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P180" s="11"/>
       <c r="Q180" s="11"/>
       <c r="R180" s="11"/>
       <c r="S180" s="11"/>
       <c r="T180" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U180" s="11"/>
       <c r="V180" s="11"/>
@@ -17580,39 +17578,39 @@
         <v>44</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E181" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F181" s="30"/>
       <c r="G181" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="H181" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="H181" s="30" t="s">
-        <v>589</v>
-      </c>
       <c r="I181" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="J181" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="J181" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="K181" s="13"/>
       <c r="L181" s="13"/>
       <c r="M181" s="13"/>
       <c r="N181" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O181" s="37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P181" s="11"/>
       <c r="Q181" s="11"/>
       <c r="R181" s="11"/>
       <c r="S181" s="11"/>
       <c r="T181" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U181" s="11"/>
       <c r="V181" s="11"/>
@@ -17638,7 +17636,7 @@
         <v>166</v>
       </c>
       <c r="AP181" s="38" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AQ181" s="14"/>
       <c r="AMJ181" s="0"/>
@@ -17654,21 +17652,21 @@
         <v>44</v>
       </c>
       <c r="D182" s="39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E182" s="40"/>
       <c r="F182" s="30"/>
       <c r="G182" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="H182" s="40" t="s">
         <v>595</v>
       </c>
-      <c r="H182" s="40" t="s">
-        <v>596</v>
-      </c>
       <c r="I182" s="39" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J182" s="39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K182" s="41"/>
       <c r="L182" s="41"/>
@@ -17680,7 +17678,7 @@
       <c r="R182" s="39"/>
       <c r="S182" s="39"/>
       <c r="T182" s="39" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U182" s="39"/>
       <c r="V182" s="39"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1672,7 +1673,7 @@
     <t xml:space="preserve">BRAND</t>
   </si>
   <si>
-    <t xml:space="preserve">1 door cooler</t>
+    <t xml:space="preserve">1 door cooler - Modern Trade</t>
   </si>
   <si>
     <t xml:space="preserve">Min 30% Coca-Cola</t>
@@ -1681,7 +1682,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 30% кока-кола</t>
   </si>
   <si>
-    <t xml:space="preserve">2 door cooler, Open Front, Cash Cooler, Cash Cooler (Open Top)</t>
+    <t xml:space="preserve">Company Coolers: 1st Cash Cooler, 2 door cooler - Modern Trade, Open Front - Modern Trade, Cash Cooler (Open Top) - Modern Trade, Coolers - Counter top, 1.5 door cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD Fuze and Coca-Cola shelf 2-3 </t>
@@ -2001,7 +2002,7 @@
     <numFmt numFmtId="171" formatCode="@"/>
     <numFmt numFmtId="172" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2042,6 +2043,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2115,7 +2123,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2200,6 +2208,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2263,57 +2279,57 @@
   </sheetPr>
   <dimension ref="A1:AQ181"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="T37" activeCellId="0" sqref="T37"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="bottomLeft" activeCell="Z153" activeCellId="0" sqref="Z153:Z154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.2631578947368"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="42.7246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.2307692307692"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="66.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="47.8663967611336"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.5263157894737"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4696356275304"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.9716599190283"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1619433198381"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.2793522267206"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.2834008097166"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="7.09716599190283"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.2672064777328"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.7651821862348"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="120.093117408907"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.0080971659919"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.1943319838057"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.587044534413"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.9514170040486"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.919028340081"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9554655870445"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.4048582995951"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="61.4574898785425"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="25.9514170040486"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.6882591093117"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="22.1578947368421"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.9109311740891"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="121.14979757085"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.93522267206478"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.7773279352227"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15142,7 +15158,7 @@
       <c r="Y153" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="Z153" s="9" t="s">
+      <c r="Z153" s="21" t="s">
         <v>500</v>
       </c>
       <c r="AA153" s="9"/>
@@ -15229,7 +15245,7 @@
       <c r="Y154" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="Z154" s="9" t="s">
+      <c r="Z154" s="22" t="s">
         <v>503</v>
       </c>
       <c r="AA154" s="9"/>
@@ -15694,10 +15710,10 @@
       <c r="D160" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E160" s="21" t="s">
+      <c r="E160" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="F160" s="21"/>
+      <c r="F160" s="23"/>
       <c r="G160" s="9" t="s">
         <v>519</v>
       </c>
@@ -15713,7 +15729,7 @@
       </c>
       <c r="L160" s="11"/>
       <c r="M160" s="11"/>
-      <c r="N160" s="22"/>
+      <c r="N160" s="24"/>
       <c r="O160" s="9"/>
       <c r="P160" s="9"/>
       <c r="Q160" s="9"/>
@@ -15725,7 +15741,7 @@
       <c r="U160" s="9"/>
       <c r="V160" s="9"/>
       <c r="W160" s="9"/>
-      <c r="X160" s="22"/>
+      <c r="X160" s="24"/>
       <c r="Y160" s="8" t="s">
         <v>519</v>
       </c>
@@ -15775,10 +15791,10 @@
       <c r="D161" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E161" s="21" t="s">
+      <c r="E161" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="F161" s="21"/>
+      <c r="F161" s="23"/>
       <c r="G161" s="9" t="s">
         <v>521</v>
       </c>
@@ -15814,7 +15830,7 @@
       <c r="U161" s="9"/>
       <c r="V161" s="9"/>
       <c r="W161" s="9"/>
-      <c r="X161" s="22"/>
+      <c r="X161" s="24"/>
       <c r="Y161" s="8" t="s">
         <v>519</v>
       </c>
@@ -15860,8 +15876,8 @@
         <v>44</v>
       </c>
       <c r="D162" s="9"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
       <c r="G162" s="9" t="s">
         <v>526</v>
       </c>
@@ -16267,7 +16283,7 @@
       <c r="L167" s="11"/>
       <c r="M167" s="11"/>
       <c r="N167" s="9"/>
-      <c r="O167" s="23" t="s">
+      <c r="O167" s="25" t="s">
         <v>544</v>
       </c>
       <c r="P167" s="9"/>
@@ -16330,14 +16346,14 @@
       <c r="D168" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E168" s="24" t="s">
+      <c r="E168" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24" t="s">
+      <c r="F168" s="26"/>
+      <c r="G168" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="H168" s="24" t="s">
+      <c r="H168" s="26" t="s">
         <v>548</v>
       </c>
       <c r="I168" s="8" t="s">
@@ -16406,7 +16422,7 @@
       <c r="G169" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="H169" s="25" t="s">
+      <c r="H169" s="27" t="s">
         <v>554</v>
       </c>
       <c r="I169" s="8" t="s">
@@ -16419,7 +16435,7 @@
       <c r="L169" s="11"/>
       <c r="M169" s="11"/>
       <c r="N169" s="8"/>
-      <c r="O169" s="26"/>
+      <c r="O169" s="28"/>
       <c r="P169" s="9"/>
       <c r="Q169" s="9"/>
       <c r="R169" s="9"/>
@@ -16468,14 +16484,14 @@
       <c r="D170" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E170" s="24" t="s">
+      <c r="E170" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="F170" s="24"/>
-      <c r="G170" s="24" t="s">
+      <c r="F170" s="26"/>
+      <c r="G170" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="H170" s="24" t="s">
+      <c r="H170" s="26" t="s">
         <v>528</v>
       </c>
       <c r="I170" s="8" t="s">
@@ -16541,14 +16557,14 @@
       <c r="D171" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E171" s="24" t="s">
+      <c r="E171" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24" t="s">
+      <c r="F171" s="26"/>
+      <c r="G171" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="H171" s="24" t="s">
+      <c r="H171" s="26" t="s">
         <v>528</v>
       </c>
       <c r="I171" s="8" t="s">
@@ -16614,14 +16630,14 @@
       <c r="D172" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E172" s="24" t="s">
+      <c r="E172" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="F172" s="24"/>
-      <c r="G172" s="24" t="s">
+      <c r="F172" s="26"/>
+      <c r="G172" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="H172" s="24" t="s">
+      <c r="H172" s="26" t="s">
         <v>528</v>
       </c>
       <c r="I172" s="8" t="s">
@@ -16687,14 +16703,14 @@
       <c r="D173" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E173" s="24" t="s">
+      <c r="E173" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="F173" s="24"/>
-      <c r="G173" s="24" t="s">
+      <c r="F173" s="26"/>
+      <c r="G173" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="H173" s="24" t="s">
+      <c r="H173" s="26" t="s">
         <v>528</v>
       </c>
       <c r="I173" s="8" t="s">
@@ -16760,14 +16776,14 @@
       <c r="D174" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E174" s="24" t="s">
+      <c r="E174" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24" t="s">
+      <c r="F174" s="26"/>
+      <c r="G174" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="H174" s="24" t="s">
+      <c r="H174" s="26" t="s">
         <v>567</v>
       </c>
       <c r="I174" s="8" t="s">
@@ -16780,7 +16796,7 @@
       <c r="L174" s="11"/>
       <c r="M174" s="11"/>
       <c r="N174" s="8"/>
-      <c r="O174" s="27"/>
+      <c r="O174" s="29"/>
       <c r="P174" s="9"/>
       <c r="Q174" s="9"/>
       <c r="R174" s="9"/>
@@ -16829,14 +16845,14 @@
       <c r="D175" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E175" s="24" t="s">
+      <c r="E175" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24" t="s">
+      <c r="F175" s="26"/>
+      <c r="G175" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="H175" s="24" t="s">
+      <c r="H175" s="26" t="s">
         <v>573</v>
       </c>
       <c r="I175" s="8" t="s">
@@ -16898,14 +16914,14 @@
       <c r="D176" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E176" s="24" t="s">
+      <c r="E176" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="F176" s="24"/>
-      <c r="G176" s="24" t="s">
+      <c r="F176" s="26"/>
+      <c r="G176" s="26" t="s">
         <v>576</v>
       </c>
-      <c r="H176" s="24" t="s">
+      <c r="H176" s="26" t="s">
         <v>577</v>
       </c>
       <c r="I176" s="8" t="s">
@@ -16969,14 +16985,14 @@
       <c r="D177" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E177" s="24" t="s">
+      <c r="E177" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="F177" s="24"/>
-      <c r="G177" s="24" t="s">
+      <c r="F177" s="26"/>
+      <c r="G177" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="H177" s="24" t="s">
+      <c r="H177" s="26" t="s">
         <v>583</v>
       </c>
       <c r="I177" s="8" t="s">
@@ -17040,14 +17056,14 @@
       <c r="D178" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E178" s="24" t="s">
+      <c r="E178" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24" t="s">
+      <c r="F178" s="26"/>
+      <c r="G178" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="H178" s="24" t="s">
+      <c r="H178" s="26" t="s">
         <v>588</v>
       </c>
       <c r="I178" s="8" t="s">
@@ -17113,14 +17129,14 @@
       <c r="D179" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E179" s="24" t="s">
+      <c r="E179" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="F179" s="24"/>
-      <c r="G179" s="24" t="s">
+      <c r="F179" s="26"/>
+      <c r="G179" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="H179" s="24" t="s">
+      <c r="H179" s="26" t="s">
         <v>588</v>
       </c>
       <c r="I179" s="8" t="s">
@@ -17135,7 +17151,7 @@
       <c r="N179" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="O179" s="28" t="s">
+      <c r="O179" s="30" t="s">
         <v>592</v>
       </c>
       <c r="P179" s="9"/>
@@ -17186,14 +17202,14 @@
       <c r="D180" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E180" s="24" t="s">
+      <c r="E180" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="F180" s="24"/>
-      <c r="G180" s="24" t="s">
+      <c r="F180" s="26"/>
+      <c r="G180" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="H180" s="24" t="s">
+      <c r="H180" s="26" t="s">
         <v>588</v>
       </c>
       <c r="I180" s="8" t="s">
@@ -17208,7 +17224,7 @@
       <c r="N180" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="O180" s="28" t="s">
+      <c r="O180" s="30" t="s">
         <v>593</v>
       </c>
       <c r="P180" s="9"/>
@@ -17259,12 +17275,12 @@
       <c r="D181" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="E181" s="24"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="24" t="s">
+      <c r="E181" s="26"/>
+      <c r="F181" s="26"/>
+      <c r="G181" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="H181" s="24" t="s">
+      <c r="H181" s="26" t="s">
         <v>596</v>
       </c>
       <c r="I181" s="8" t="s">
@@ -17276,7 +17292,7 @@
       <c r="K181" s="11"/>
       <c r="L181" s="11"/>
       <c r="M181" s="8"/>
-      <c r="N181" s="28"/>
+      <c r="N181" s="30"/>
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
@@ -17294,12 +17310,12 @@
       <c r="AA181" s="8"/>
       <c r="AB181" s="8"/>
       <c r="AC181" s="8"/>
-      <c r="AD181" s="29"/>
+      <c r="AD181" s="31"/>
       <c r="AE181" s="8"/>
       <c r="AF181" s="8"/>
       <c r="AG181" s="8"/>
       <c r="AH181" s="8"/>
-      <c r="AI181" s="30"/>
+      <c r="AI181" s="32"/>
       <c r="AJ181" s="8"/>
       <c r="AK181" s="8"/>
       <c r="AL181" s="9"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1044,10 +1045,10 @@
     <t xml:space="preserve">4607174577145</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 6</t>
+    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">NEW SKU 7</t>
@@ -2052,7 +2053,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2063,6 +2064,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -2123,7 +2130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2204,6 +2211,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -2265,6 +2280,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2279,53 +2354,53 @@
   </sheetPr>
   <dimension ref="A1:AQ181"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="Z153" activeCellId="0" sqref="Z153:Z154"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G92" activeCellId="0" sqref="G92:AR92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.8178137651822"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="57.9514170040486"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.2793522267206"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="7.17813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.9109311740891"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="121.14979757085"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="83.6599190283401"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="122.222672064777"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.8178137651822"/>
@@ -10096,26 +10171,26 @@
         <v>148</v>
       </c>
       <c r="F92" s="9"/>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H92" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="I92" s="9" t="s">
+      <c r="I92" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J92" s="9"/>
-      <c r="K92" s="10" t="n">
+      <c r="J92" s="8"/>
+      <c r="K92" s="11" t="n">
         <v>1</v>
       </c>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
-      <c r="N92" s="9" t="s">
+      <c r="N92" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="O92" s="12" t="n">
-        <v>111111</v>
+      <c r="O92" s="21" t="n">
+        <v>4650075423257</v>
       </c>
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
@@ -13383,7 +13458,7 @@
         <v>120</v>
       </c>
       <c r="AP131" s="12"/>
-      <c r="AQ131" s="20" t="n">
+      <c r="AQ131" s="22" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13468,7 +13543,7 @@
         <v>121</v>
       </c>
       <c r="AP132" s="12"/>
-      <c r="AQ132" s="20" t="n">
+      <c r="AQ132" s="22" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13553,7 +13628,7 @@
         <v>122</v>
       </c>
       <c r="AP133" s="12"/>
-      <c r="AQ133" s="20" t="n">
+      <c r="AQ133" s="22" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13638,7 +13713,7 @@
         <v>123</v>
       </c>
       <c r="AP134" s="12"/>
-      <c r="AQ134" s="20" t="n">
+      <c r="AQ134" s="22" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13723,7 +13798,7 @@
         <v>124</v>
       </c>
       <c r="AP135" s="12"/>
-      <c r="AQ135" s="20" t="n">
+      <c r="AQ135" s="22" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13976,7 +14051,7 @@
         <v>127</v>
       </c>
       <c r="AP138" s="12"/>
-      <c r="AQ138" s="20" t="n">
+      <c r="AQ138" s="22" t="n">
         <v>126</v>
       </c>
     </row>
@@ -14229,7 +14304,7 @@
         <v>130</v>
       </c>
       <c r="AP141" s="12"/>
-      <c r="AQ141" s="20" t="n">
+      <c r="AQ141" s="22" t="n">
         <v>129</v>
       </c>
     </row>
@@ -14314,7 +14389,7 @@
         <v>131</v>
       </c>
       <c r="AP142" s="12"/>
-      <c r="AQ142" s="20" t="n">
+      <c r="AQ142" s="22" t="n">
         <v>129</v>
       </c>
     </row>
@@ -15158,7 +15233,7 @@
       <c r="Y153" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="Z153" s="21" t="s">
+      <c r="Z153" s="23" t="s">
         <v>500</v>
       </c>
       <c r="AA153" s="9"/>
@@ -15245,7 +15320,7 @@
       <c r="Y154" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="Z154" s="22" t="s">
+      <c r="Z154" s="24" t="s">
         <v>503</v>
       </c>
       <c r="AA154" s="9"/>
@@ -15710,10 +15785,10 @@
       <c r="D160" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E160" s="23" t="s">
+      <c r="E160" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="F160" s="23"/>
+      <c r="F160" s="25"/>
       <c r="G160" s="9" t="s">
         <v>519</v>
       </c>
@@ -15729,7 +15804,7 @@
       </c>
       <c r="L160" s="11"/>
       <c r="M160" s="11"/>
-      <c r="N160" s="24"/>
+      <c r="N160" s="26"/>
       <c r="O160" s="9"/>
       <c r="P160" s="9"/>
       <c r="Q160" s="9"/>
@@ -15741,7 +15816,7 @@
       <c r="U160" s="9"/>
       <c r="V160" s="9"/>
       <c r="W160" s="9"/>
-      <c r="X160" s="24"/>
+      <c r="X160" s="26"/>
       <c r="Y160" s="8" t="s">
         <v>519</v>
       </c>
@@ -15791,10 +15866,10 @@
       <c r="D161" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E161" s="23" t="s">
+      <c r="E161" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="F161" s="23"/>
+      <c r="F161" s="25"/>
       <c r="G161" s="9" t="s">
         <v>521</v>
       </c>
@@ -15830,7 +15905,7 @@
       <c r="U161" s="9"/>
       <c r="V161" s="9"/>
       <c r="W161" s="9"/>
-      <c r="X161" s="24"/>
+      <c r="X161" s="26"/>
       <c r="Y161" s="8" t="s">
         <v>519</v>
       </c>
@@ -15876,8 +15951,8 @@
         <v>44</v>
       </c>
       <c r="D162" s="9"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="25"/>
       <c r="G162" s="9" t="s">
         <v>526</v>
       </c>
@@ -16283,7 +16358,7 @@
       <c r="L167" s="11"/>
       <c r="M167" s="11"/>
       <c r="N167" s="9"/>
-      <c r="O167" s="25" t="s">
+      <c r="O167" s="27" t="s">
         <v>544</v>
       </c>
       <c r="P167" s="9"/>
@@ -16346,14 +16421,14 @@
       <c r="D168" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E168" s="26" t="s">
+      <c r="E168" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="F168" s="26"/>
-      <c r="G168" s="26" t="s">
+      <c r="F168" s="28"/>
+      <c r="G168" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="H168" s="26" t="s">
+      <c r="H168" s="28" t="s">
         <v>548</v>
       </c>
       <c r="I168" s="8" t="s">
@@ -16422,7 +16497,7 @@
       <c r="G169" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="H169" s="27" t="s">
+      <c r="H169" s="29" t="s">
         <v>554</v>
       </c>
       <c r="I169" s="8" t="s">
@@ -16435,7 +16510,7 @@
       <c r="L169" s="11"/>
       <c r="M169" s="11"/>
       <c r="N169" s="8"/>
-      <c r="O169" s="28"/>
+      <c r="O169" s="30"/>
       <c r="P169" s="9"/>
       <c r="Q169" s="9"/>
       <c r="R169" s="9"/>
@@ -16484,14 +16559,14 @@
       <c r="D170" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E170" s="26" t="s">
+      <c r="E170" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="F170" s="26"/>
-      <c r="G170" s="26" t="s">
+      <c r="F170" s="28"/>
+      <c r="G170" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="H170" s="26" t="s">
+      <c r="H170" s="28" t="s">
         <v>528</v>
       </c>
       <c r="I170" s="8" t="s">
@@ -16557,14 +16632,14 @@
       <c r="D171" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E171" s="26" t="s">
+      <c r="E171" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="F171" s="26"/>
-      <c r="G171" s="26" t="s">
+      <c r="F171" s="28"/>
+      <c r="G171" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="H171" s="26" t="s">
+      <c r="H171" s="28" t="s">
         <v>528</v>
       </c>
       <c r="I171" s="8" t="s">
@@ -16630,14 +16705,14 @@
       <c r="D172" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E172" s="26" t="s">
+      <c r="E172" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="F172" s="26"/>
-      <c r="G172" s="26" t="s">
+      <c r="F172" s="28"/>
+      <c r="G172" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="H172" s="26" t="s">
+      <c r="H172" s="28" t="s">
         <v>528</v>
       </c>
       <c r="I172" s="8" t="s">
@@ -16703,14 +16778,14 @@
       <c r="D173" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E173" s="26" t="s">
+      <c r="E173" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="F173" s="26"/>
-      <c r="G173" s="26" t="s">
+      <c r="F173" s="28"/>
+      <c r="G173" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="H173" s="26" t="s">
+      <c r="H173" s="28" t="s">
         <v>528</v>
       </c>
       <c r="I173" s="8" t="s">
@@ -16776,14 +16851,14 @@
       <c r="D174" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E174" s="26" t="s">
+      <c r="E174" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="F174" s="26"/>
-      <c r="G174" s="26" t="s">
+      <c r="F174" s="28"/>
+      <c r="G174" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="H174" s="26" t="s">
+      <c r="H174" s="28" t="s">
         <v>567</v>
       </c>
       <c r="I174" s="8" t="s">
@@ -16796,7 +16871,7 @@
       <c r="L174" s="11"/>
       <c r="M174" s="11"/>
       <c r="N174" s="8"/>
-      <c r="O174" s="29"/>
+      <c r="O174" s="31"/>
       <c r="P174" s="9"/>
       <c r="Q174" s="9"/>
       <c r="R174" s="9"/>
@@ -16845,14 +16920,14 @@
       <c r="D175" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E175" s="26" t="s">
+      <c r="E175" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="F175" s="26"/>
-      <c r="G175" s="26" t="s">
+      <c r="F175" s="28"/>
+      <c r="G175" s="28" t="s">
         <v>572</v>
       </c>
-      <c r="H175" s="26" t="s">
+      <c r="H175" s="28" t="s">
         <v>573</v>
       </c>
       <c r="I175" s="8" t="s">
@@ -16914,14 +16989,14 @@
       <c r="D176" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E176" s="26" t="s">
+      <c r="E176" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F176" s="26"/>
-      <c r="G176" s="26" t="s">
+      <c r="F176" s="28"/>
+      <c r="G176" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="H176" s="26" t="s">
+      <c r="H176" s="28" t="s">
         <v>577</v>
       </c>
       <c r="I176" s="8" t="s">
@@ -16985,14 +17060,14 @@
       <c r="D177" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E177" s="26" t="s">
+      <c r="E177" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="F177" s="26"/>
-      <c r="G177" s="26" t="s">
+      <c r="F177" s="28"/>
+      <c r="G177" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="H177" s="26" t="s">
+      <c r="H177" s="28" t="s">
         <v>583</v>
       </c>
       <c r="I177" s="8" t="s">
@@ -17056,14 +17131,14 @@
       <c r="D178" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E178" s="26" t="s">
+      <c r="E178" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="F178" s="26"/>
-      <c r="G178" s="26" t="s">
+      <c r="F178" s="28"/>
+      <c r="G178" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="H178" s="26" t="s">
+      <c r="H178" s="28" t="s">
         <v>588</v>
       </c>
       <c r="I178" s="8" t="s">
@@ -17129,14 +17204,14 @@
       <c r="D179" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E179" s="26" t="s">
+      <c r="E179" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="F179" s="26"/>
-      <c r="G179" s="26" t="s">
+      <c r="F179" s="28"/>
+      <c r="G179" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="H179" s="26" t="s">
+      <c r="H179" s="28" t="s">
         <v>588</v>
       </c>
       <c r="I179" s="8" t="s">
@@ -17151,7 +17226,7 @@
       <c r="N179" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="O179" s="30" t="s">
+      <c r="O179" s="32" t="s">
         <v>592</v>
       </c>
       <c r="P179" s="9"/>
@@ -17202,14 +17277,14 @@
       <c r="D180" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E180" s="26" t="s">
+      <c r="E180" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="F180" s="26"/>
-      <c r="G180" s="26" t="s">
+      <c r="F180" s="28"/>
+      <c r="G180" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="H180" s="26" t="s">
+      <c r="H180" s="28" t="s">
         <v>588</v>
       </c>
       <c r="I180" s="8" t="s">
@@ -17224,7 +17299,7 @@
       <c r="N180" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="O180" s="30" t="s">
+      <c r="O180" s="32" t="s">
         <v>593</v>
       </c>
       <c r="P180" s="9"/>
@@ -17275,12 +17350,12 @@
       <c r="D181" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="E181" s="26"/>
-      <c r="F181" s="26"/>
-      <c r="G181" s="26" t="s">
+      <c r="E181" s="28"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="H181" s="26" t="s">
+      <c r="H181" s="28" t="s">
         <v>596</v>
       </c>
       <c r="I181" s="8" t="s">
@@ -17292,7 +17367,7 @@
       <c r="K181" s="11"/>
       <c r="L181" s="11"/>
       <c r="M181" s="8"/>
-      <c r="N181" s="30"/>
+      <c r="N181" s="32"/>
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
@@ -17310,12 +17385,12 @@
       <c r="AA181" s="8"/>
       <c r="AB181" s="8"/>
       <c r="AC181" s="8"/>
-      <c r="AD181" s="31"/>
+      <c r="AD181" s="33"/>
       <c r="AE181" s="8"/>
       <c r="AF181" s="8"/>
       <c r="AG181" s="8"/>
       <c r="AH181" s="8"/>
-      <c r="AI181" s="32"/>
+      <c r="AI181" s="34"/>
       <c r="AJ181" s="8"/>
       <c r="AK181" s="8"/>
       <c r="AL181" s="9"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -13,6 +13,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$186</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$186</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1844,7 +1846,7 @@
     <t xml:space="preserve">SSD snack</t>
   </si>
   <si>
-    <t xml:space="preserve">Impulse Activations: Dobry/Coke  in Bakery</t>
+    <t xml:space="preserve">Impulse Activations: Dobry/Coke in Bakery</t>
   </si>
   <si>
     <t xml:space="preserve">Impulse Активации: Добрый/Кола в выпечке</t>
@@ -2031,18 +2033,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="172" formatCode="@"/>
-    <numFmt numFmtId="173" formatCode="D\-MMM"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00&quot; ₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="@"/>
+    <numFmt numFmtId="172" formatCode="D\-MMM"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00&quot; ₽&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -2175,7 +2176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -2192,15 +2193,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2216,15 +2213,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2240,15 +2237,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2256,11 +2257,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2268,15 +2269,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2284,27 +2281,31 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="172" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2320,23 +2321,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2344,7 +2345,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2352,19 +2353,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2384,7 +2381,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2392,12 +2389,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2488,54 +2489,54 @@
   <dimension ref="A1:AP186"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="F172" activeCellId="0" sqref="F172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="52.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.6356275303644"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="90.9433198380567"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="130.684210526316"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="158.748987854251"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="92.4453441295547"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="133.04048582996"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="161.643724696356"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="68.7692307692308"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="42" min="42" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="9.10526315789474"/>
   </cols>
@@ -3902,7 +3903,7 @@
       <c r="AE16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF16" s="21" t="n">
+      <c r="AF16" s="16" t="n">
         <v>0.003997</v>
       </c>
       <c r="AG16" s="17"/>
@@ -4792,10 +4793,10 @@
       <c r="C27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="17" t="s">
@@ -4848,7 +4849,7 @@
       <c r="AE27" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF27" s="21" t="n">
+      <c r="AF27" s="16" t="n">
         <v>0.003081</v>
       </c>
       <c r="AG27" s="17"/>
@@ -5050,10 +5051,10 @@
       <c r="C30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>49</v>
       </c>
       <c r="F30" s="17" t="s">
@@ -5074,7 +5075,7 @@
       <c r="M30" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="N30" s="23" t="n">
+      <c r="N30" s="22" t="n">
         <v>5449000064110</v>
       </c>
       <c r="O30" s="19"/>
@@ -5106,7 +5107,7 @@
       <c r="AE30" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF30" s="21" t="n">
+      <c r="AF30" s="16" t="n">
         <v>0.003081</v>
       </c>
       <c r="AG30" s="17"/>
@@ -5136,10 +5137,10 @@
       <c r="C31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="17" t="s">
@@ -5192,15 +5193,15 @@
       <c r="AE31" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF31" s="21" t="n">
+      <c r="AF31" s="16" t="n">
         <v>0.003081</v>
       </c>
       <c r="AG31" s="17"/>
       <c r="AH31" s="17"/>
       <c r="AI31" s="17"/>
-      <c r="AJ31" s="24"/>
-      <c r="AK31" s="24"/>
-      <c r="AL31" s="24"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
       <c r="AM31" s="17" t="n">
         <v>3</v>
       </c>
@@ -5308,10 +5309,10 @@
       <c r="C33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="17" t="s">
@@ -5364,7 +5365,7 @@
       <c r="AE33" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF33" s="21" t="n">
+      <c r="AF33" s="16" t="n">
         <v>0.003081</v>
       </c>
       <c r="AG33" s="17"/>
@@ -5748,7 +5749,7 @@
       <c r="M38" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="N38" s="25" t="s">
+      <c r="N38" s="24" t="s">
         <v>162</v>
       </c>
       <c r="O38" s="10"/>
@@ -5834,7 +5835,7 @@
       <c r="M39" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="N39" s="25" t="s">
+      <c r="N39" s="24" t="s">
         <v>165</v>
       </c>
       <c r="O39" s="10"/>
@@ -5920,7 +5921,7 @@
       <c r="M40" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="N40" s="25" t="s">
+      <c r="N40" s="24" t="s">
         <v>168</v>
       </c>
       <c r="O40" s="10"/>
@@ -6006,7 +6007,7 @@
       <c r="M41" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="N41" s="25" t="s">
+      <c r="N41" s="24" t="s">
         <v>171</v>
       </c>
       <c r="O41" s="10"/>
@@ -6092,7 +6093,7 @@
       <c r="M42" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="N42" s="25" t="s">
+      <c r="N42" s="24" t="s">
         <v>174</v>
       </c>
       <c r="O42" s="10"/>
@@ -6626,7 +6627,7 @@
       <c r="AE48" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF48" s="21" t="n">
+      <c r="AF48" s="16" t="n">
         <v>0.001693</v>
       </c>
       <c r="AG48" s="17"/>
@@ -6752,7 +6753,7 @@
       <c r="M50" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="N50" s="26" t="s">
+      <c r="N50" s="25" t="s">
         <v>198</v>
       </c>
       <c r="O50" s="10"/>
@@ -6838,7 +6839,7 @@
       <c r="M51" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="N51" s="26" t="s">
+      <c r="N51" s="25" t="s">
         <v>201</v>
       </c>
       <c r="O51" s="10"/>
@@ -7010,7 +7011,7 @@
       <c r="M53" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="N53" s="26" t="s">
+      <c r="N53" s="25" t="s">
         <v>208</v>
       </c>
       <c r="O53" s="10"/>
@@ -7096,7 +7097,7 @@
       <c r="M54" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="N54" s="26" t="s">
+      <c r="N54" s="25" t="s">
         <v>211</v>
       </c>
       <c r="O54" s="10"/>
@@ -7182,7 +7183,7 @@
       <c r="M55" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="N55" s="26" t="s">
+      <c r="N55" s="25" t="s">
         <v>214</v>
       </c>
       <c r="O55" s="10"/>
@@ -7271,7 +7272,7 @@
       <c r="N56" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="O56" s="25"/>
+      <c r="O56" s="24"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10" t="s">
@@ -7385,7 +7386,7 @@
       <c r="AN57" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="AO57" s="27" t="s">
+      <c r="AO57" s="26" t="s">
         <v>220</v>
       </c>
       <c r="AP57" s="13" t="n">
@@ -8974,7 +8975,7 @@
       <c r="M76" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="N76" s="25" t="s">
+      <c r="N76" s="24" t="s">
         <v>259</v>
       </c>
       <c r="O76" s="10"/>
@@ -9060,7 +9061,7 @@
       <c r="M77" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="N77" s="25" t="s">
+      <c r="N77" s="24" t="s">
         <v>262</v>
       </c>
       <c r="O77" s="10"/>
@@ -9146,7 +9147,7 @@
       <c r="M78" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="N78" s="25" t="s">
+      <c r="N78" s="24" t="s">
         <v>265</v>
       </c>
       <c r="O78" s="10"/>
@@ -9232,7 +9233,7 @@
       <c r="M79" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="N79" s="25" t="s">
+      <c r="N79" s="24" t="s">
         <v>268</v>
       </c>
       <c r="O79" s="10"/>
@@ -9318,7 +9319,7 @@
       <c r="M80" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="N80" s="25" t="s">
+      <c r="N80" s="24" t="s">
         <v>271</v>
       </c>
       <c r="O80" s="10"/>
@@ -9404,7 +9405,7 @@
       <c r="M81" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="N81" s="25" t="s">
+      <c r="N81" s="24" t="s">
         <v>274</v>
       </c>
       <c r="O81" s="10"/>
@@ -9490,7 +9491,7 @@
       <c r="M82" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="N82" s="25" t="s">
+      <c r="N82" s="24" t="s">
         <v>277</v>
       </c>
       <c r="O82" s="10"/>
@@ -9576,7 +9577,7 @@
       <c r="M83" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="N83" s="25" t="s">
+      <c r="N83" s="24" t="s">
         <v>280</v>
       </c>
       <c r="O83" s="10"/>
@@ -9748,7 +9749,7 @@
       <c r="M85" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="N85" s="28" t="s">
+      <c r="N85" s="27" t="s">
         <v>285</v>
       </c>
       <c r="O85" s="10"/>
@@ -10038,7 +10039,7 @@
       <c r="AE88" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF88" s="21" t="n">
+      <c r="AF88" s="16" t="n">
         <v>0.001693</v>
       </c>
       <c r="AG88" s="17"/>
@@ -10554,7 +10555,7 @@
       <c r="AE94" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF94" s="21" t="n">
+      <c r="AF94" s="16" t="n">
         <v>0.001693</v>
       </c>
       <c r="AG94" s="17"/>
@@ -10995,13 +10996,13 @@
         <v>61</v>
       </c>
       <c r="T100" s="17"/>
-      <c r="U100" s="29"/>
+      <c r="U100" s="28"/>
       <c r="V100" s="17"/>
       <c r="W100" s="17"/>
       <c r="X100" s="17"/>
       <c r="Y100" s="17"/>
       <c r="Z100" s="20"/>
-      <c r="AA100" s="30" t="s">
+      <c r="AA100" s="29" t="s">
         <v>335</v>
       </c>
       <c r="AB100" s="17"/>
@@ -11010,7 +11011,7 @@
       <c r="AE100" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF100" s="17"/>
+      <c r="AF100" s="30"/>
       <c r="AG100" s="20"/>
       <c r="AH100" s="17"/>
       <c r="AI100" s="20"/>
@@ -11159,13 +11160,13 @@
         <v>61</v>
       </c>
       <c r="T102" s="20"/>
-      <c r="U102" s="29"/>
+      <c r="U102" s="28"/>
       <c r="V102" s="17"/>
       <c r="W102" s="17"/>
       <c r="X102" s="17"/>
       <c r="Y102" s="17"/>
       <c r="Z102" s="20"/>
-      <c r="AA102" s="30" t="s">
+      <c r="AA102" s="29" t="s">
         <v>335</v>
       </c>
       <c r="AB102" s="17"/>
@@ -11174,7 +11175,7 @@
       <c r="AE102" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF102" s="17"/>
+      <c r="AF102" s="30"/>
       <c r="AG102" s="17"/>
       <c r="AH102" s="17"/>
       <c r="AI102" s="20"/>
@@ -11231,36 +11232,36 @@
       </c>
       <c r="O103" s="19"/>
       <c r="P103" s="19"/>
-      <c r="Q103" s="24"/>
+      <c r="Q103" s="23"/>
       <c r="R103" s="17" t="s">
         <v>60</v>
       </c>
       <c r="S103" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="T103" s="24"/>
-      <c r="U103" s="29"/>
+      <c r="T103" s="23"/>
+      <c r="U103" s="28"/>
       <c r="V103" s="17"/>
       <c r="W103" s="17"/>
       <c r="X103" s="17"/>
       <c r="Y103" s="17"/>
-      <c r="Z103" s="24"/>
-      <c r="AA103" s="30" t="s">
+      <c r="Z103" s="23"/>
+      <c r="AA103" s="29" t="s">
         <v>335</v>
       </c>
       <c r="AB103" s="17"/>
-      <c r="AC103" s="24"/>
-      <c r="AD103" s="24"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="23"/>
       <c r="AE103" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF103" s="17"/>
+      <c r="AF103" s="30"/>
       <c r="AG103" s="17"/>
       <c r="AH103" s="17"/>
-      <c r="AI103" s="24"/>
-      <c r="AJ103" s="24"/>
-      <c r="AK103" s="24"/>
-      <c r="AL103" s="24"/>
+      <c r="AI103" s="23"/>
+      <c r="AJ103" s="23"/>
+      <c r="AK103" s="23"/>
+      <c r="AL103" s="23"/>
       <c r="AM103" s="17" t="n">
         <v>3</v>
       </c>
@@ -11311,36 +11312,36 @@
       </c>
       <c r="O104" s="19"/>
       <c r="P104" s="19"/>
-      <c r="Q104" s="24"/>
+      <c r="Q104" s="23"/>
       <c r="R104" s="17" t="s">
         <v>60</v>
       </c>
       <c r="S104" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="T104" s="24"/>
-      <c r="U104" s="29"/>
+      <c r="T104" s="23"/>
+      <c r="U104" s="28"/>
       <c r="V104" s="17"/>
       <c r="W104" s="17"/>
       <c r="X104" s="17"/>
       <c r="Y104" s="17"/>
-      <c r="Z104" s="24"/>
-      <c r="AA104" s="30" t="s">
+      <c r="Z104" s="23"/>
+      <c r="AA104" s="29" t="s">
         <v>335</v>
       </c>
       <c r="AB104" s="17"/>
-      <c r="AC104" s="24"/>
-      <c r="AD104" s="24"/>
+      <c r="AC104" s="23"/>
+      <c r="AD104" s="23"/>
       <c r="AE104" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF104" s="17"/>
+      <c r="AF104" s="30"/>
       <c r="AG104" s="17"/>
       <c r="AH104" s="17"/>
-      <c r="AI104" s="24"/>
-      <c r="AJ104" s="24"/>
-      <c r="AK104" s="24"/>
-      <c r="AL104" s="24"/>
+      <c r="AI104" s="23"/>
+      <c r="AJ104" s="23"/>
+      <c r="AK104" s="23"/>
+      <c r="AL104" s="23"/>
       <c r="AM104" s="17" t="n">
         <v>3</v>
       </c>
@@ -11391,36 +11392,36 @@
       </c>
       <c r="O105" s="19"/>
       <c r="P105" s="19"/>
-      <c r="Q105" s="24"/>
+      <c r="Q105" s="23"/>
       <c r="R105" s="17" t="s">
         <v>60</v>
       </c>
       <c r="S105" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="T105" s="24"/>
-      <c r="U105" s="29"/>
+      <c r="T105" s="23"/>
+      <c r="U105" s="28"/>
       <c r="V105" s="17"/>
       <c r="W105" s="17"/>
       <c r="X105" s="17"/>
       <c r="Y105" s="17"/>
-      <c r="Z105" s="24"/>
-      <c r="AA105" s="30" t="s">
+      <c r="Z105" s="23"/>
+      <c r="AA105" s="29" t="s">
         <v>335</v>
       </c>
       <c r="AB105" s="17"/>
-      <c r="AC105" s="24"/>
-      <c r="AD105" s="24"/>
+      <c r="AC105" s="23"/>
+      <c r="AD105" s="23"/>
       <c r="AE105" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF105" s="17"/>
+      <c r="AF105" s="30"/>
       <c r="AG105" s="17"/>
       <c r="AH105" s="17"/>
-      <c r="AI105" s="24"/>
-      <c r="AJ105" s="24"/>
-      <c r="AK105" s="24"/>
-      <c r="AL105" s="24"/>
+      <c r="AI105" s="23"/>
+      <c r="AJ105" s="23"/>
+      <c r="AK105" s="23"/>
+      <c r="AL105" s="23"/>
       <c r="AM105" s="17" t="n">
         <v>3</v>
       </c>
@@ -13290,69 +13291,69 @@
       <c r="C129" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="D129" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="E129" s="22" t="s">
+      <c r="E129" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="F129" s="22" t="s">
+      <c r="F129" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G129" s="22" t="s">
+      <c r="G129" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="H129" s="22" t="s">
+      <c r="H129" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I129" s="22"/>
+      <c r="I129" s="21"/>
       <c r="J129" s="34" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="18"/>
       <c r="L129" s="18"/>
-      <c r="M129" s="22" t="s">
+      <c r="M129" s="21" t="s">
         <v>423</v>
       </c>
       <c r="N129" s="19" t="n">
         <v>5449000044839</v>
       </c>
-      <c r="O129" s="22"/>
-      <c r="P129" s="22"/>
-      <c r="Q129" s="22"/>
-      <c r="R129" s="22" t="s">
+      <c r="O129" s="21"/>
+      <c r="P129" s="21"/>
+      <c r="Q129" s="21"/>
+      <c r="R129" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="S129" s="22" t="s">
+      <c r="S129" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="T129" s="22"/>
-      <c r="U129" s="22"/>
-      <c r="V129" s="22"/>
-      <c r="W129" s="22"/>
-      <c r="X129" s="22" t="s">
+      <c r="T129" s="21"/>
+      <c r="U129" s="21"/>
+      <c r="V129" s="21"/>
+      <c r="W129" s="21"/>
+      <c r="X129" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="Y129" s="22"/>
-      <c r="Z129" s="22"/>
+      <c r="Y129" s="21"/>
+      <c r="Z129" s="21"/>
       <c r="AA129" s="19"/>
-      <c r="AB129" s="22"/>
-      <c r="AC129" s="22" t="s">
+      <c r="AB129" s="21"/>
+      <c r="AC129" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="AD129" s="22" t="s">
+      <c r="AD129" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AE129" s="22" t="s">
+      <c r="AE129" s="21" t="s">
         <v>64</v>
       </c>
       <c r="AF129" s="35"/>
-      <c r="AG129" s="22"/>
-      <c r="AH129" s="22"/>
-      <c r="AI129" s="22"/>
-      <c r="AJ129" s="22"/>
-      <c r="AK129" s="22"/>
-      <c r="AL129" s="22"/>
+      <c r="AG129" s="21"/>
+      <c r="AH129" s="21"/>
+      <c r="AI129" s="21"/>
+      <c r="AJ129" s="21"/>
+      <c r="AK129" s="21"/>
+      <c r="AL129" s="21"/>
       <c r="AM129" s="19" t="n">
         <v>3</v>
       </c>
@@ -14619,7 +14620,7 @@
       </c>
       <c r="Y145" s="17"/>
       <c r="Z145" s="17"/>
-      <c r="AA145" s="30"/>
+      <c r="AA145" s="29"/>
       <c r="AB145" s="17"/>
       <c r="AC145" s="17" t="s">
         <v>401</v>
@@ -14628,7 +14629,7 @@
       <c r="AE145" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF145" s="17"/>
+      <c r="AF145" s="30"/>
       <c r="AG145" s="17"/>
       <c r="AH145" s="17"/>
       <c r="AI145" s="17"/>
@@ -14662,16 +14663,16 @@
       <c r="E146" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="F146" s="22" t="s">
+      <c r="F146" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="G146" s="22" t="s">
+      <c r="G146" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="H146" s="22" t="s">
+      <c r="H146" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I146" s="22"/>
+      <c r="I146" s="21"/>
       <c r="J146" s="18" t="n">
         <v>1</v>
       </c>
@@ -14701,16 +14702,16 @@
       </c>
       <c r="Y146" s="17"/>
       <c r="Z146" s="17"/>
-      <c r="AA146" s="30"/>
+      <c r="AA146" s="29"/>
       <c r="AB146" s="17"/>
       <c r="AC146" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="AD146" s="24"/>
+      <c r="AD146" s="23"/>
       <c r="AE146" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF146" s="17"/>
+      <c r="AF146" s="30"/>
       <c r="AG146" s="17"/>
       <c r="AH146" s="17"/>
       <c r="AI146" s="17"/>
@@ -16232,7 +16233,7 @@
       <c r="AO165" s="13" t="n">
         <v>148</v>
       </c>
-      <c r="AP165" s="28" t="n">
+      <c r="AP165" s="27" t="n">
         <v>301</v>
       </c>
     </row>
@@ -16449,10 +16450,10 @@
       <c r="AN168" s="13" t="n">
         <v>149</v>
       </c>
-      <c r="AO168" s="27" t="s">
+      <c r="AO168" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="AP168" s="28" t="n">
+      <c r="AP168" s="27" t="n">
         <v>400</v>
       </c>
     </row>
@@ -16590,11 +16591,11 @@
       <c r="Y170" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="Z170" s="30"/>
+      <c r="Z170" s="29"/>
       <c r="AA170" s="17"/>
       <c r="AB170" s="17"/>
       <c r="AC170" s="20"/>
-      <c r="AD170" s="22" t="s">
+      <c r="AD170" s="21" t="s">
         <v>53</v>
       </c>
       <c r="AE170" s="17" t="s">
@@ -16672,25 +16673,25 @@
       <c r="Y171" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="Z171" s="30"/>
+      <c r="Z171" s="29"/>
       <c r="AA171" s="17"/>
       <c r="AB171" s="17"/>
       <c r="AC171" s="20"/>
-      <c r="AD171" s="22" t="s">
+      <c r="AD171" s="21" t="s">
         <v>53</v>
       </c>
       <c r="AE171" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF171" s="45" t="n">
+      <c r="AF171" s="35" t="n">
         <v>0.01</v>
       </c>
       <c r="AG171" s="17"/>
       <c r="AH171" s="17"/>
-      <c r="AI171" s="24"/>
-      <c r="AJ171" s="24"/>
-      <c r="AK171" s="24"/>
-      <c r="AL171" s="24"/>
+      <c r="AI171" s="23"/>
+      <c r="AJ171" s="23"/>
+      <c r="AK171" s="23"/>
+      <c r="AL171" s="23"/>
       <c r="AM171" s="17" t="n">
         <v>3</v>
       </c>
@@ -16718,10 +16719,10 @@
       <c r="E172" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="F172" s="22" t="s">
+      <c r="F172" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="G172" s="22" t="s">
+      <c r="G172" s="21" t="s">
         <v>558</v>
       </c>
       <c r="H172" s="17" t="s">
@@ -16734,12 +16735,12 @@
       <c r="K172" s="18"/>
       <c r="L172" s="18"/>
       <c r="M172" s="17"/>
-      <c r="N172" s="46" t="s">
+      <c r="N172" s="45" t="s">
         <v>559</v>
       </c>
       <c r="O172" s="19"/>
       <c r="P172" s="19"/>
-      <c r="Q172" s="24"/>
+      <c r="Q172" s="23"/>
       <c r="R172" s="17" t="s">
         <v>60</v>
       </c>
@@ -16750,29 +16751,29 @@
       <c r="U172" s="17"/>
       <c r="V172" s="17"/>
       <c r="W172" s="17"/>
-      <c r="X172" s="24"/>
-      <c r="Y172" s="46" t="s">
+      <c r="X172" s="23"/>
+      <c r="Y172" s="45" t="s">
         <v>559</v>
       </c>
-      <c r="Z172" s="30"/>
+      <c r="Z172" s="29"/>
       <c r="AA172" s="17"/>
       <c r="AB172" s="17"/>
-      <c r="AC172" s="24"/>
-      <c r="AD172" s="22" t="s">
+      <c r="AC172" s="23"/>
+      <c r="AD172" s="21" t="s">
         <v>53</v>
       </c>
       <c r="AE172" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF172" s="45" t="n">
+      <c r="AF172" s="35" t="n">
         <v>0.01</v>
       </c>
       <c r="AG172" s="17"/>
       <c r="AH172" s="17"/>
-      <c r="AI172" s="24"/>
-      <c r="AJ172" s="24"/>
-      <c r="AK172" s="24"/>
-      <c r="AL172" s="24"/>
+      <c r="AI172" s="23"/>
+      <c r="AJ172" s="23"/>
+      <c r="AK172" s="23"/>
+      <c r="AL172" s="23"/>
       <c r="AM172" s="17" t="n">
         <v>3</v>
       </c>
@@ -16797,13 +16798,13 @@
       <c r="D173" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E173" s="47" t="s">
+      <c r="E173" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="F173" s="47" t="s">
+      <c r="F173" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="G173" s="47" t="s">
+      <c r="G173" s="46" t="s">
         <v>563</v>
       </c>
       <c r="H173" s="9" t="s">
@@ -16871,7 +16872,7 @@
       <c r="F174" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="G174" s="48" t="s">
+      <c r="G174" s="47" t="s">
         <v>569</v>
       </c>
       <c r="H174" s="9" t="s">
@@ -16884,7 +16885,7 @@
       <c r="K174" s="12"/>
       <c r="L174" s="12"/>
       <c r="M174" s="9"/>
-      <c r="N174" s="49"/>
+      <c r="N174" s="48"/>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
       <c r="Q174" s="10"/>
@@ -16933,13 +16934,13 @@
       <c r="D175" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E175" s="47" t="s">
+      <c r="E175" s="46" t="s">
         <v>571</v>
       </c>
-      <c r="F175" s="47" t="s">
+      <c r="F175" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="G175" s="47" t="s">
+      <c r="G175" s="46" t="s">
         <v>543</v>
       </c>
       <c r="H175" s="9" t="s">
@@ -16987,7 +16988,7 @@
       <c r="AN175" s="13" t="n">
         <v>155</v>
       </c>
-      <c r="AO175" s="50" t="n">
+      <c r="AO175" s="49" t="n">
         <v>620</v>
       </c>
       <c r="AP175" s="13"/>
@@ -17005,13 +17006,13 @@
       <c r="D176" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E176" s="47" t="s">
+      <c r="E176" s="46" t="s">
         <v>571</v>
       </c>
-      <c r="F176" s="47" t="s">
+      <c r="F176" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="G176" s="47" t="s">
+      <c r="G176" s="46" t="s">
         <v>543</v>
       </c>
       <c r="H176" s="9" t="s">
@@ -17059,7 +17060,7 @@
       <c r="AN176" s="13" t="n">
         <v>156</v>
       </c>
-      <c r="AO176" s="50" t="n">
+      <c r="AO176" s="49" t="n">
         <v>621</v>
       </c>
       <c r="AP176" s="13"/>
@@ -17077,13 +17078,13 @@
       <c r="D177" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E177" s="47" t="s">
+      <c r="E177" s="46" t="s">
         <v>571</v>
       </c>
-      <c r="F177" s="47" t="s">
+      <c r="F177" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="G177" s="47" t="s">
+      <c r="G177" s="46" t="s">
         <v>543</v>
       </c>
       <c r="H177" s="9" t="s">
@@ -17131,7 +17132,7 @@
       <c r="AN177" s="13" t="n">
         <v>157</v>
       </c>
-      <c r="AO177" s="50" t="n">
+      <c r="AO177" s="49" t="n">
         <v>151</v>
       </c>
       <c r="AP177" s="13"/>
@@ -17149,13 +17150,13 @@
       <c r="D178" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E178" s="47" t="s">
+      <c r="E178" s="46" t="s">
         <v>571</v>
       </c>
-      <c r="F178" s="47" t="s">
+      <c r="F178" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="G178" s="47" t="s">
+      <c r="G178" s="46" t="s">
         <v>543</v>
       </c>
       <c r="H178" s="9" t="s">
@@ -17203,7 +17204,7 @@
       <c r="AN178" s="13" t="n">
         <v>158</v>
       </c>
-      <c r="AO178" s="50" t="n">
+      <c r="AO178" s="49" t="n">
         <v>623</v>
       </c>
       <c r="AP178" s="13"/>
@@ -17221,13 +17222,13 @@
       <c r="D179" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E179" s="47" t="s">
+      <c r="E179" s="46" t="s">
         <v>580</v>
       </c>
-      <c r="F179" s="47" t="s">
+      <c r="F179" s="46" t="s">
         <v>581</v>
       </c>
-      <c r="G179" s="47" t="s">
+      <c r="G179" s="46" t="s">
         <v>582</v>
       </c>
       <c r="H179" s="9" t="s">
@@ -17240,7 +17241,7 @@
       <c r="K179" s="12"/>
       <c r="L179" s="12"/>
       <c r="M179" s="9"/>
-      <c r="N179" s="51"/>
+      <c r="N179" s="50"/>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
       <c r="Q179" s="10"/>
@@ -17289,13 +17290,13 @@
       <c r="D180" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E180" s="47" t="s">
+      <c r="E180" s="46" t="s">
         <v>586</v>
       </c>
-      <c r="F180" s="47" t="s">
+      <c r="F180" s="46" t="s">
         <v>587</v>
       </c>
-      <c r="G180" s="47" t="s">
+      <c r="G180" s="46" t="s">
         <v>588</v>
       </c>
       <c r="H180" s="9" t="s">
@@ -17357,13 +17358,13 @@
       <c r="D181" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E181" s="47" t="s">
+      <c r="E181" s="46" t="s">
         <v>590</v>
       </c>
-      <c r="F181" s="47" t="s">
+      <c r="F181" s="46" t="s">
         <v>591</v>
       </c>
-      <c r="G181" s="47" t="s">
+      <c r="G181" s="46" t="s">
         <v>592</v>
       </c>
       <c r="H181" s="9" t="s">
@@ -17427,13 +17428,13 @@
       <c r="D182" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E182" s="47" t="s">
+      <c r="E182" s="46" t="s">
         <v>596</v>
       </c>
-      <c r="F182" s="47" t="s">
+      <c r="F182" s="46" t="s">
         <v>597</v>
       </c>
-      <c r="G182" s="47" t="s">
+      <c r="G182" s="46" t="s">
         <v>598</v>
       </c>
       <c r="H182" s="9" t="s">
@@ -17497,13 +17498,13 @@
       <c r="D183" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E183" s="47" t="s">
+      <c r="E183" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="F183" s="47" t="s">
+      <c r="F183" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="G183" s="47" t="s">
+      <c r="G183" s="46" t="s">
         <v>603</v>
       </c>
       <c r="H183" s="9" t="s">
@@ -17569,13 +17570,13 @@
       <c r="D184" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E184" s="47" t="s">
+      <c r="E184" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="F184" s="47" t="s">
+      <c r="F184" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="G184" s="47" t="s">
+      <c r="G184" s="46" t="s">
         <v>603</v>
       </c>
       <c r="H184" s="9" t="s">
@@ -17590,7 +17591,7 @@
       <c r="M184" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="N184" s="52" t="s">
+      <c r="N184" s="51" t="s">
         <v>607</v>
       </c>
       <c r="O184" s="10"/>
@@ -17641,13 +17642,13 @@
       <c r="D185" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E185" s="47" t="s">
+      <c r="E185" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="F185" s="47" t="s">
+      <c r="F185" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="G185" s="47" t="s">
+      <c r="G185" s="46" t="s">
         <v>603</v>
       </c>
       <c r="H185" s="9" t="s">
@@ -17662,7 +17663,7 @@
       <c r="M185" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="N185" s="52" t="s">
+      <c r="N185" s="51" t="s">
         <v>608</v>
       </c>
       <c r="O185" s="10"/>
@@ -17713,11 +17714,11 @@
       <c r="D186" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="E186" s="47"/>
-      <c r="F186" s="47" t="s">
+      <c r="E186" s="46"/>
+      <c r="F186" s="46" t="s">
         <v>610</v>
       </c>
-      <c r="G186" s="47" t="s">
+      <c r="G186" s="46" t="s">
         <v>611</v>
       </c>
       <c r="H186" s="9" t="s">
@@ -17729,7 +17730,7 @@
       <c r="J186" s="12"/>
       <c r="K186" s="12"/>
       <c r="L186" s="9"/>
-      <c r="M186" s="52"/>
+      <c r="M186" s="51"/>
       <c r="N186" s="9"/>
       <c r="O186" s="9"/>
       <c r="P186" s="9"/>
@@ -17747,10 +17748,10 @@
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
       <c r="AB186" s="9"/>
-      <c r="AC186" s="53"/>
+      <c r="AC186" s="52"/>
       <c r="AD186" s="9"/>
       <c r="AE186" s="9"/>
-      <c r="AF186" s="9"/>
+      <c r="AF186" s="53"/>
       <c r="AG186" s="9"/>
       <c r="AH186" s="54"/>
       <c r="AI186" s="9"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -12,9 +12,10 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$186</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$186</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$186</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$186</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2488,55 +2489,55 @@
   </sheetPr>
   <dimension ref="A1:AP186"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="F172" activeCellId="0" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.0566801619433"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="133.04048582996"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="161.643724696356"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="134.218623481781"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="163.141700404858"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="68.7692307692308"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="42" min="42" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="9.10526315789474"/>
   </cols>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190729_1304\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1704\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D34AF34-0851-4D87-BA5B-DBA21C5E0357}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA3F0F3-FEBF-46D9-A822-AD9D81D1B337}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONV_BIG_REG" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,14 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="0">CONV_BIG_REG!$A$1:$AP$186</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">CONV_BIG_REG!$A$1:$AP$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="613">
   <si>
     <t>Sorting</t>
   </si>
@@ -375,6 +381,12 @@
   </si>
   <si>
     <t>Кока-Кола Зеро Вишня- 0.9л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>5449000251626, 5449000251619</t>
   </si>
   <si>
     <t>Coca-Cola Zero - 0.5L</t>
@@ -1283,9 +1295,6 @@
     <t>Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
   </si>
   <si>
-    <t>4607042434877=4607042434891</t>
-  </si>
-  <si>
     <t>Dobriy - Apple - 1L share on Display</t>
   </si>
   <si>
@@ -1293,9 +1302,6 @@
   </si>
   <si>
     <t>Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>4607042434891=4607042434877</t>
   </si>
   <si>
     <t>Dobriy - Multifruit - 1L share on Display</t>
@@ -2036,12 +2042,6 @@
   </si>
   <si>
     <t>Plan</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Cherry - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>5449000251626, 5449000251619</t>
   </si>
 </sst>
 </file>
@@ -2106,14 +2106,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -2218,6 +2218,12 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2239,7 +2245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2288,12 +2294,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2346,7 +2346,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -2681,53 +2681,54 @@
   <dimension ref="A1:AMK186"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" topLeftCell="G1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17:N17"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="N117" sqref="N117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="1"/>
-    <col min="2" max="2" width="15.21875" style="1"/>
-    <col min="3" max="3" width="20.6640625" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1"/>
+    <col min="2" max="2" width="15.33203125" style="1"/>
+    <col min="3" max="3" width="20.77734375" style="1"/>
+    <col min="4" max="4" width="15.77734375" style="1"/>
     <col min="5" max="5" width="16.33203125" style="1"/>
-    <col min="6" max="6" width="54.33203125" style="1"/>
-    <col min="7" max="7" width="75.109375" style="1"/>
-    <col min="8" max="8" width="54.6640625" style="1"/>
-    <col min="9" max="9" width="20.21875" style="1"/>
+    <col min="6" max="6" width="54.77734375" style="1"/>
+    <col min="7" max="7" width="75.77734375" style="1"/>
+    <col min="8" max="8" width="55.109375" style="1"/>
+    <col min="9" max="9" width="20.33203125" style="1"/>
     <col min="10" max="10" width="13.44140625" style="1"/>
-    <col min="11" max="11" width="17.77734375" style="1"/>
-    <col min="12" max="12" width="18.33203125" style="1"/>
-    <col min="13" max="13" width="36" style="1"/>
-    <col min="14" max="14" width="35.109375" style="1"/>
-    <col min="15" max="15" width="23.109375" style="1"/>
-    <col min="16" max="16" width="20.21875" style="1"/>
+    <col min="11" max="11" width="17.88671875" style="1"/>
+    <col min="12" max="12" width="18.44140625" style="1"/>
+    <col min="13" max="13" width="36.33203125" style="1"/>
+    <col min="14" max="14" width="35.33203125" style="1"/>
+    <col min="15" max="15" width="23.21875" style="1"/>
+    <col min="16" max="16" width="20.33203125" style="1"/>
     <col min="17" max="17" width="13.33203125" style="1"/>
-    <col min="18" max="18" width="22.77734375" style="1"/>
-    <col min="19" max="19" width="15" style="1"/>
+    <col min="18" max="18" width="22.88671875" style="1"/>
+    <col min="19" max="19" width="15.109375" style="1"/>
     <col min="20" max="20" width="11.21875" style="1"/>
-    <col min="21" max="21" width="18.77734375" style="1"/>
-    <col min="22" max="22" width="94.77734375" style="1"/>
-    <col min="23" max="23" width="25.5546875" style="1"/>
-    <col min="24" max="24" width="136.5546875" style="1"/>
-    <col min="25" max="25" width="166.21875" style="1"/>
-    <col min="26" max="26" width="23.21875" style="1"/>
-    <col min="27" max="27" width="28.33203125" style="1"/>
-    <col min="28" max="28" width="29" style="1"/>
-    <col min="29" max="29" width="20" style="1"/>
-    <col min="30" max="30" width="18.109375" style="1"/>
-    <col min="31" max="31" width="18.77734375" style="1"/>
-    <col min="32" max="32" width="15.33203125" style="2"/>
+    <col min="21" max="21" width="18.88671875" style="1"/>
+    <col min="22" max="22" width="95.6640625" style="1"/>
+    <col min="23" max="23" width="25.6640625" style="1"/>
+    <col min="24" max="24" width="137.77734375" style="1"/>
+    <col min="25" max="25" width="167.77734375" style="1"/>
+    <col min="26" max="26" width="23.33203125" style="1"/>
+    <col min="27" max="27" width="28.44140625" style="1"/>
+    <col min="28" max="28" width="29.21875" style="1"/>
+    <col min="29" max="29" width="20.109375" style="1"/>
+    <col min="30" max="30" width="18.21875" style="1"/>
+    <col min="31" max="31" width="18.88671875" style="1"/>
+    <col min="32" max="32" width="15.44140625" style="2"/>
     <col min="33" max="33" width="16.44140625" style="1"/>
-    <col min="34" max="34" width="17.77734375" style="1"/>
-    <col min="35" max="35" width="70.44140625" style="1"/>
-    <col min="36" max="36" width="29.5546875" style="1"/>
-    <col min="37" max="37" width="24.6640625" style="1"/>
-    <col min="38" max="38" width="25" style="1"/>
+    <col min="34" max="34" width="17.88671875" style="1"/>
+    <col min="35" max="35" width="71" style="1"/>
+    <col min="36" max="36" width="29.77734375" style="1"/>
+    <col min="37" max="37" width="24.88671875" style="1"/>
+    <col min="38" max="38" width="25.21875" style="1"/>
     <col min="39" max="39" width="11.6640625" style="1"/>
     <col min="40" max="40" width="13.33203125" style="1"/>
-    <col min="41" max="41" width="15.21875" style="1"/>
+    <col min="41" max="41" width="15.33203125" style="1"/>
     <col min="42" max="42" width="13.44140625" style="1"/>
     <col min="43" max="1025" width="9.109375" style="1"/>
   </cols>
@@ -4090,6 +4091,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
+      <c r="AD16"/>
       <c r="AE16" s="9" t="s">
         <v>64</v>
       </c>
@@ -4099,6 +4101,9 @@
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
       <c r="AM16" s="9">
         <v>3</v>
       </c>
@@ -4141,11 +4146,11 @@
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
-      <c r="M17" s="39" t="s">
-        <v>613</v>
-      </c>
-      <c r="N17" s="40" t="s">
-        <v>614</v>
+      <c r="M17" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -4213,10 +4218,10 @@
         <v>49</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>58</v>
@@ -4228,10 +4233,10 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -4299,10 +4304,10 @@
         <v>49</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>58</v>
@@ -4314,10 +4319,10 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -4385,10 +4390,10 @@
         <v>49</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>58</v>
@@ -4400,10 +4405,10 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -4471,10 +4476,10 @@
         <v>49</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>58</v>
@@ -4486,10 +4491,10 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -4557,10 +4562,10 @@
         <v>49</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>58</v>
@@ -4572,10 +4577,10 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -4643,10 +4648,10 @@
         <v>49</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>58</v>
@@ -4658,10 +4663,10 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -4729,10 +4734,10 @@
         <v>49</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>58</v>
@@ -4744,10 +4749,10 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -4815,10 +4820,10 @@
         <v>49</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>58</v>
@@ -4830,10 +4835,10 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -4901,10 +4906,10 @@
         <v>49</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>58</v>
@@ -4916,10 +4921,10 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
@@ -4987,10 +4992,10 @@
         <v>49</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>58</v>
@@ -5002,7 +5007,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N27" s="13">
         <v>5449000098917</v>
@@ -5042,6 +5047,9 @@
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
       <c r="AI27" s="9"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
       <c r="AM27" s="9">
         <v>3</v>
       </c>
@@ -5070,10 +5078,10 @@
         <v>49</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>58</v>
@@ -5085,10 +5093,10 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -5156,10 +5164,10 @@
         <v>49</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>58</v>
@@ -5171,10 +5179,10 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
@@ -5242,10 +5250,10 @@
         <v>49</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>58</v>
@@ -5257,9 +5265,9 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="N30" s="16">
+        <v>139</v>
+      </c>
+      <c r="N30" s="18">
         <v>5449000064110</v>
       </c>
       <c r="O30" s="13"/>
@@ -5297,6 +5305,9 @@
       <c r="AG30" s="9"/>
       <c r="AH30" s="9"/>
       <c r="AI30" s="9"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
       <c r="AM30" s="9">
         <v>3</v>
       </c>
@@ -5325,10 +5336,10 @@
         <v>49</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>58</v>
@@ -5340,7 +5351,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N31" s="13">
         <v>5449000046390</v>
@@ -5380,6 +5391,9 @@
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
       <c r="AI31" s="9"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
       <c r="AM31" s="9">
         <v>3</v>
       </c>
@@ -5408,10 +5422,10 @@
         <v>49</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>58</v>
@@ -5423,10 +5437,10 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
@@ -5494,10 +5508,10 @@
         <v>49</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>58</v>
@@ -5509,7 +5523,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N33" s="13">
         <v>42099697</v>
@@ -5549,6 +5563,9 @@
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
       <c r="AM33" s="9">
         <v>3</v>
       </c>
@@ -5577,10 +5594,10 @@
         <v>49</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>58</v>
@@ -5592,10 +5609,10 @@
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
@@ -5663,10 +5680,10 @@
         <v>49</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>58</v>
@@ -5678,10 +5695,10 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -5749,10 +5766,10 @@
         <v>49</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>58</v>
@@ -5764,10 +5781,10 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
@@ -5832,13 +5849,13 @@
         <v>44</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>52</v>
@@ -5884,7 +5901,7 @@
         <v>31</v>
       </c>
       <c r="AO37" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP37" s="13">
         <v>300</v>
@@ -5904,13 +5921,13 @@
         <v>44</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>58</v>
@@ -5922,10 +5939,10 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="N38" s="17" t="s">
         <v>161</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
@@ -5990,13 +6007,13 @@
         <v>44</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>58</v>
@@ -6008,10 +6025,10 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="N39" s="17" t="s">
         <v>164</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
@@ -6076,13 +6093,13 @@
         <v>44</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>58</v>
@@ -6094,10 +6111,10 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="N40" s="17" t="s">
         <v>167</v>
+      </c>
+      <c r="N40" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
@@ -6162,13 +6179,13 @@
         <v>44</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>58</v>
@@ -6180,10 +6197,10 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N41" s="17" t="s">
         <v>170</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -6248,13 +6265,13 @@
         <v>44</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>58</v>
@@ -6266,10 +6283,10 @@
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="N42" s="17" t="s">
         <v>173</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
@@ -6334,13 +6351,13 @@
         <v>44</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>52</v>
@@ -6386,7 +6403,7 @@
         <v>37</v>
       </c>
       <c r="AO43" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AP43" s="13">
         <v>300</v>
@@ -6406,13 +6423,13 @@
         <v>44</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>58</v>
@@ -6424,10 +6441,10 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
@@ -6492,13 +6509,13 @@
         <v>44</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>58</v>
@@ -6510,10 +6527,10 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
@@ -6578,13 +6595,13 @@
         <v>44</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>58</v>
@@ -6596,10 +6613,10 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
@@ -6664,13 +6681,13 @@
         <v>44</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>58</v>
@@ -6682,10 +6699,10 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
@@ -6750,13 +6767,13 @@
         <v>44</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>58</v>
@@ -6768,10 +6785,10 @@
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
@@ -6808,6 +6825,9 @@
       <c r="AG48" s="9"/>
       <c r="AH48" s="9"/>
       <c r="AI48" s="9"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48"/>
       <c r="AM48" s="9">
         <v>3</v>
       </c>
@@ -6833,13 +6853,13 @@
         <v>44</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>52</v>
@@ -6885,7 +6905,7 @@
         <v>42</v>
       </c>
       <c r="AO49" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AP49" s="13">
         <v>300</v>
@@ -6905,13 +6925,13 @@
         <v>44</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>58</v>
@@ -6923,10 +6943,10 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="N50" s="18" t="s">
         <v>197</v>
+      </c>
+      <c r="N50" s="20" t="s">
+        <v>199</v>
       </c>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
@@ -6991,13 +7011,13 @@
         <v>44</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>58</v>
@@ -7009,10 +7029,10 @@
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="N51" s="18" t="s">
         <v>200</v>
+      </c>
+      <c r="N51" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
@@ -7077,13 +7097,13 @@
         <v>44</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>58</v>
@@ -7095,10 +7115,10 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N52" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
@@ -7163,13 +7183,13 @@
         <v>44</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>58</v>
@@ -7181,10 +7201,10 @@
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="N53" s="18" t="s">
         <v>207</v>
+      </c>
+      <c r="N53" s="20" t="s">
+        <v>209</v>
       </c>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
@@ -7249,13 +7269,13 @@
         <v>44</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>58</v>
@@ -7267,10 +7287,10 @@
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="N54" s="18" t="s">
         <v>210</v>
+      </c>
+      <c r="N54" s="20" t="s">
+        <v>212</v>
       </c>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
@@ -7335,13 +7355,13 @@
         <v>44</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>58</v>
@@ -7353,10 +7373,10 @@
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="N55" s="18" t="s">
         <v>213</v>
+      </c>
+      <c r="N55" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
@@ -7421,13 +7441,13 @@
         <v>44</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>58</v>
@@ -7439,12 +7459,12 @@
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N56" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="O56" s="17"/>
+        <v>218</v>
+      </c>
+      <c r="O56" s="19"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10" t="s">
@@ -7507,13 +7527,13 @@
         <v>44</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>52</v>
@@ -7559,7 +7579,7 @@
         <v>50</v>
       </c>
       <c r="AO57" s="15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AP57" s="13">
         <v>300</v>
@@ -7579,13 +7599,13 @@
         <v>44</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>58</v>
@@ -7597,7 +7617,7 @@
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N58" s="13">
         <v>4607042434877</v>
@@ -7665,13 +7685,13 @@
         <v>44</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>58</v>
@@ -7683,7 +7703,7 @@
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N59" s="13">
         <v>4607042434891</v>
@@ -7751,13 +7771,13 @@
         <v>44</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H60" s="10" t="s">
         <v>58</v>
@@ -7769,7 +7789,7 @@
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N60" s="13">
         <v>4607042438738</v>
@@ -7837,13 +7857,13 @@
         <v>44</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H61" s="10" t="s">
         <v>58</v>
@@ -7855,7 +7875,7 @@
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N61" s="13">
         <v>4607042438950</v>
@@ -7923,13 +7943,13 @@
         <v>44</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H62" s="10" t="s">
         <v>58</v>
@@ -7941,7 +7961,7 @@
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N62" s="13">
         <v>4607042434884</v>
@@ -8009,13 +8029,13 @@
         <v>44</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H63" s="10" t="s">
         <v>58</v>
@@ -8027,7 +8047,7 @@
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
       <c r="M63" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N63" s="13">
         <v>4607042431388</v>
@@ -8095,13 +8115,13 @@
         <v>44</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>58</v>
@@ -8113,7 +8133,7 @@
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N64" s="13">
         <v>4607042431333</v>
@@ -8181,13 +8201,13 @@
         <v>44</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>58</v>
@@ -8199,7 +8219,7 @@
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
       <c r="M65" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N65" s="13">
         <v>4607042438776</v>
@@ -8267,13 +8287,13 @@
         <v>44</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H66" s="10" t="s">
         <v>58</v>
@@ -8285,7 +8305,7 @@
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N66" s="13">
         <v>4607042431371</v>
@@ -8353,13 +8373,13 @@
         <v>44</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H67" s="10" t="s">
         <v>58</v>
@@ -8371,7 +8391,7 @@
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
       <c r="M67" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N67" s="13">
         <v>4607174577787</v>
@@ -8439,13 +8459,13 @@
         <v>44</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H68" s="10" t="s">
         <v>58</v>
@@ -8457,7 +8477,7 @@
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N68" s="13">
         <v>4607042430619</v>
@@ -8525,13 +8545,13 @@
         <v>44</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H69" s="10" t="s">
         <v>58</v>
@@ -8543,7 +8563,7 @@
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N69" s="13">
         <v>4607042430565</v>
@@ -8611,13 +8631,13 @@
         <v>44</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>58</v>
@@ -8629,7 +8649,7 @@
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
       <c r="M70" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N70" s="13">
         <v>4607174579309</v>
@@ -8697,13 +8717,13 @@
         <v>44</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>58</v>
@@ -8715,7 +8735,7 @@
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
       <c r="M71" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N71" s="13">
         <v>4607174579286</v>
@@ -8783,13 +8803,13 @@
         <v>44</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>58</v>
@@ -8801,7 +8821,7 @@
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
       <c r="M72" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N72" s="13">
         <v>4607174577794</v>
@@ -8869,13 +8889,13 @@
         <v>44</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>58</v>
@@ -8887,7 +8907,7 @@
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N73" s="13">
         <v>4607042439155</v>
@@ -8955,13 +8975,13 @@
         <v>44</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H74" s="10" t="s">
         <v>58</v>
@@ -8973,7 +8993,7 @@
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
       <c r="M74" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N74" s="13">
         <v>4607042439216</v>
@@ -9041,13 +9061,13 @@
         <v>44</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H75" s="10" t="s">
         <v>58</v>
@@ -9059,7 +9079,7 @@
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N75" s="13">
         <v>4607042439223</v>
@@ -9127,13 +9147,13 @@
         <v>44</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H76" s="10" t="s">
         <v>58</v>
@@ -9145,10 +9165,10 @@
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="N76" s="17" t="s">
         <v>258</v>
+      </c>
+      <c r="N76" s="19" t="s">
+        <v>260</v>
       </c>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
@@ -9213,13 +9233,13 @@
         <v>44</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H77" s="10" t="s">
         <v>58</v>
@@ -9231,10 +9251,10 @@
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="N77" s="17" t="s">
         <v>261</v>
+      </c>
+      <c r="N77" s="19" t="s">
+        <v>263</v>
       </c>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
@@ -9299,13 +9319,13 @@
         <v>44</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H78" s="10" t="s">
         <v>58</v>
@@ -9317,10 +9337,10 @@
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="N78" s="17" t="s">
         <v>264</v>
+      </c>
+      <c r="N78" s="19" t="s">
+        <v>266</v>
       </c>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
@@ -9385,13 +9405,13 @@
         <v>44</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>58</v>
@@ -9403,10 +9423,10 @@
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="N79" s="17" t="s">
         <v>267</v>
+      </c>
+      <c r="N79" s="19" t="s">
+        <v>269</v>
       </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
@@ -9471,13 +9491,13 @@
         <v>44</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>58</v>
@@ -9489,10 +9509,10 @@
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="N80" s="17" t="s">
         <v>270</v>
+      </c>
+      <c r="N80" s="19" t="s">
+        <v>272</v>
       </c>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
@@ -9557,13 +9577,13 @@
         <v>44</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>58</v>
@@ -9575,10 +9595,10 @@
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
       <c r="M81" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="N81" s="17" t="s">
         <v>273</v>
+      </c>
+      <c r="N81" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
@@ -9643,13 +9663,13 @@
         <v>44</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H82" s="10" t="s">
         <v>58</v>
@@ -9661,10 +9681,10 @@
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="N82" s="17" t="s">
         <v>276</v>
+      </c>
+      <c r="N82" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
@@ -9729,13 +9749,13 @@
         <v>44</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>58</v>
@@ -9747,10 +9767,10 @@
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="N83" s="17" t="s">
         <v>279</v>
+      </c>
+      <c r="N83" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
@@ -9815,13 +9835,13 @@
         <v>44</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H84" s="10" t="s">
         <v>58</v>
@@ -9833,7 +9853,7 @@
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
       <c r="M84" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N84" s="13">
         <v>4650075422922</v>
@@ -9901,13 +9921,13 @@
         <v>44</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H85" s="10" t="s">
         <v>58</v>
@@ -9919,10 +9939,10 @@
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
       <c r="M85" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="N85" s="16" t="s">
         <v>284</v>
+      </c>
+      <c r="N85" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
@@ -9987,13 +10007,13 @@
         <v>44</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>58</v>
@@ -10005,7 +10025,7 @@
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N86" s="13">
         <v>4650075421550</v>
@@ -10073,13 +10093,13 @@
         <v>44</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>58</v>
@@ -10091,10 +10111,10 @@
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
       <c r="M87" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N87" s="13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
@@ -10159,13 +10179,13 @@
         <v>44</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>58</v>
@@ -10177,30 +10197,34 @@
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
       <c r="M88" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N88" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O88" s="13"/>
       <c r="P88" s="13"/>
+      <c r="Q88"/>
       <c r="R88" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S88" s="9" t="s">
         <v>61</v>
       </c>
+      <c r="T88"/>
       <c r="U88" s="9"/>
       <c r="V88" s="9"/>
       <c r="W88" s="9" t="s">
         <v>62</v>
       </c>
       <c r="X88" s="9"/>
+      <c r="Y88"/>
       <c r="Z88" s="9" t="s">
         <v>63</v>
       </c>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
+      <c r="AC88"/>
       <c r="AD88" s="10" t="s">
         <v>53</v>
       </c>
@@ -10212,6 +10236,10 @@
       </c>
       <c r="AG88" s="9"/>
       <c r="AH88" s="9"/>
+      <c r="AI88"/>
+      <c r="AJ88"/>
+      <c r="AK88"/>
+      <c r="AL88"/>
       <c r="AM88" s="9">
         <v>3</v>
       </c>
@@ -10237,13 +10265,13 @@
         <v>44</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>58</v>
@@ -10255,10 +10283,10 @@
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
       <c r="M89" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N89" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
@@ -10323,13 +10351,13 @@
         <v>44</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>58</v>
@@ -10341,10 +10369,10 @@
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N90" s="13" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
@@ -10409,13 +10437,13 @@
         <v>44</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>58</v>
@@ -10427,10 +10455,10 @@
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
       <c r="M91" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N91" s="13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
@@ -10495,13 +10523,13 @@
         <v>44</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>58</v>
@@ -10513,7 +10541,7 @@
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N92" s="13">
         <v>4650075422809</v>
@@ -10581,13 +10609,13 @@
         <v>44</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>58</v>
@@ -10599,7 +10627,7 @@
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
       <c r="M93" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N93" s="13">
         <v>4650075423257</v>
@@ -10667,13 +10695,13 @@
         <v>44</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>58</v>
@@ -10685,10 +10713,10 @@
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
       <c r="M94" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N94" s="13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O94" s="13"/>
       <c r="P94" s="13"/>
@@ -10725,6 +10753,9 @@
       <c r="AG94" s="9"/>
       <c r="AH94" s="9"/>
       <c r="AI94" s="9"/>
+      <c r="AJ94"/>
+      <c r="AK94"/>
+      <c r="AL94"/>
       <c r="AM94" s="9">
         <v>3</v>
       </c>
@@ -10751,10 +10782,10 @@
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>44</v>
@@ -10796,7 +10827,7 @@
         <v>301</v>
       </c>
       <c r="AO95" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AP95" s="13"/>
     </row>
@@ -10815,10 +10846,10 @@
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H96" s="9" t="s">
         <v>44</v>
@@ -10860,7 +10891,7 @@
         <v>302</v>
       </c>
       <c r="AO96" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AP96" s="13">
         <v>301</v>
@@ -10880,16 +10911,16 @@
         <v>44</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="11">
@@ -10903,7 +10934,7 @@
       <c r="P97" s="10"/>
       <c r="Q97" s="10"/>
       <c r="R97" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S97" s="10"/>
       <c r="T97" s="10"/>
@@ -10940,7 +10971,7 @@
         <v>88</v>
       </c>
       <c r="AO97" s="15" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AP97" s="13">
         <v>302</v>
@@ -10960,13 +10991,13 @@
         <v>44</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H98" s="10" t="s">
         <v>58</v>
@@ -10978,13 +11009,13 @@
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
       <c r="M98" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N98" s="13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O98" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
@@ -10992,7 +11023,7 @@
         <v>60</v>
       </c>
       <c r="S98" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="T98" s="10"/>
       <c r="U98" s="10"/>
@@ -11044,16 +11075,16 @@
         <v>44</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="11">
@@ -11070,12 +11101,12 @@
         <v>60</v>
       </c>
       <c r="S99" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="T99" s="10"/>
       <c r="U99" s="10"/>
       <c r="V99" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="W99" s="10"/>
       <c r="X99" s="10"/>
@@ -11124,31 +11155,32 @@
         <v>44</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
       <c r="M100" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N100" s="13" t="s">
         <v>59</v>
       </c>
       <c r="O100" s="13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P100" s="13"/>
+      <c r="Q100"/>
       <c r="R100" s="9" t="s">
         <v>60</v>
       </c>
@@ -11156,20 +11188,28 @@
         <v>61</v>
       </c>
       <c r="T100" s="9"/>
-      <c r="U100" s="19"/>
+      <c r="U100" s="21"/>
       <c r="V100" s="9"/>
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
-      <c r="AA100" s="20" t="s">
-        <v>334</v>
+      <c r="Z100"/>
+      <c r="AA100" s="22" t="s">
+        <v>336</v>
       </c>
       <c r="AB100" s="9"/>
+      <c r="AC100"/>
+      <c r="AD100"/>
       <c r="AE100" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF100" s="21"/>
+      <c r="AF100" s="23"/>
+      <c r="AG100"/>
       <c r="AH100" s="9"/>
+      <c r="AI100"/>
+      <c r="AJ100"/>
+      <c r="AK100"/>
+      <c r="AL100"/>
       <c r="AM100" s="9">
         <v>3</v>
       </c>
@@ -11177,7 +11217,7 @@
         <v>833</v>
       </c>
       <c r="AO100" s="9"/>
-      <c r="AP100" s="22">
+      <c r="AP100" s="24">
         <v>88</v>
       </c>
     </row>
@@ -11192,19 +11232,19 @@
         <v>43</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="11">
@@ -11218,7 +11258,7 @@
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
       <c r="R101" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S101" s="10"/>
       <c r="T101" s="10"/>
@@ -11245,12 +11285,12 @@
       <c r="AG101" s="10"/>
       <c r="AH101" s="10"/>
       <c r="AI101" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AJ101" s="10"/>
       <c r="AK101" s="10"/>
       <c r="AL101" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AM101" s="13">
         <v>2</v>
@@ -11259,7 +11299,7 @@
         <v>92</v>
       </c>
       <c r="AO101" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AP101" s="13">
         <v>302</v>
@@ -11276,16 +11316,16 @@
         <v>43</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>58</v>
@@ -11297,34 +11337,43 @@
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="N102" s="23">
+        <v>345</v>
+      </c>
+      <c r="N102" s="25">
         <v>5449000228970</v>
       </c>
       <c r="O102" s="13"/>
       <c r="P102" s="13"/>
+      <c r="Q102"/>
       <c r="R102" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S102" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U102" s="19"/>
+      <c r="T102"/>
+      <c r="U102" s="21"/>
       <c r="V102" s="9"/>
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
-      <c r="AA102" s="20" t="s">
-        <v>334</v>
+      <c r="Z102"/>
+      <c r="AA102" s="22" t="s">
+        <v>336</v>
       </c>
       <c r="AB102" s="9"/>
+      <c r="AC102"/>
+      <c r="AD102"/>
       <c r="AE102" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF102" s="21"/>
+      <c r="AF102" s="23"/>
       <c r="AG102" s="9"/>
       <c r="AH102" s="9"/>
+      <c r="AI102"/>
+      <c r="AJ102"/>
+      <c r="AK102"/>
+      <c r="AL102"/>
       <c r="AM102" s="9">
         <v>3</v>
       </c>
@@ -11332,7 +11381,7 @@
         <v>834</v>
       </c>
       <c r="AO102" s="9"/>
-      <c r="AP102" s="22">
+      <c r="AP102" s="24">
         <v>92</v>
       </c>
     </row>
@@ -11347,16 +11396,16 @@
         <v>43</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>58</v>
@@ -11368,34 +11417,43 @@
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
       <c r="M103" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="N103" s="23">
+        <v>348</v>
+      </c>
+      <c r="N103" s="25">
         <v>5449000228956</v>
       </c>
       <c r="O103" s="13"/>
       <c r="P103" s="13"/>
+      <c r="Q103"/>
       <c r="R103" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S103" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U103" s="19"/>
+      <c r="T103"/>
+      <c r="U103" s="21"/>
       <c r="V103" s="9"/>
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
-      <c r="AA103" s="20" t="s">
-        <v>334</v>
+      <c r="Z103"/>
+      <c r="AA103" s="22" t="s">
+        <v>336</v>
       </c>
       <c r="AB103" s="9"/>
+      <c r="AC103"/>
+      <c r="AD103"/>
       <c r="AE103" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF103" s="21"/>
+      <c r="AF103" s="23"/>
       <c r="AG103" s="9"/>
       <c r="AH103" s="9"/>
+      <c r="AI103"/>
+      <c r="AJ103"/>
+      <c r="AK103"/>
+      <c r="AL103"/>
       <c r="AM103" s="9">
         <v>3</v>
       </c>
@@ -11403,7 +11461,7 @@
         <v>835</v>
       </c>
       <c r="AO103" s="9"/>
-      <c r="AP103" s="22">
+      <c r="AP103" s="24">
         <v>92</v>
       </c>
     </row>
@@ -11418,16 +11476,16 @@
         <v>43</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>58</v>
@@ -11438,35 +11496,44 @@
       </c>
       <c r="K104" s="12"/>
       <c r="L104" s="12"/>
-      <c r="M104" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="N104" s="23">
+      <c r="M104" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="N104" s="25">
         <v>5449000231659</v>
       </c>
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
+      <c r="Q104"/>
       <c r="R104" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S104" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U104" s="19"/>
+      <c r="T104"/>
+      <c r="U104" s="21"/>
       <c r="V104" s="9"/>
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
-      <c r="AA104" s="20" t="s">
-        <v>334</v>
+      <c r="Z104"/>
+      <c r="AA104" s="22" t="s">
+        <v>336</v>
       </c>
       <c r="AB104" s="9"/>
+      <c r="AC104"/>
+      <c r="AD104"/>
       <c r="AE104" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF104" s="21"/>
+      <c r="AF104" s="23"/>
       <c r="AG104" s="9"/>
       <c r="AH104" s="9"/>
+      <c r="AI104"/>
+      <c r="AJ104"/>
+      <c r="AK104"/>
+      <c r="AL104"/>
       <c r="AM104" s="9">
         <v>3</v>
       </c>
@@ -11474,7 +11541,7 @@
         <v>836</v>
       </c>
       <c r="AO104" s="9"/>
-      <c r="AP104" s="22">
+      <c r="AP104" s="24">
         <v>92</v>
       </c>
     </row>
@@ -11489,16 +11556,16 @@
         <v>43</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>58</v>
@@ -11510,34 +11577,43 @@
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
       <c r="M105" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="N105" s="23">
+        <v>354</v>
+      </c>
+      <c r="N105" s="25">
         <v>5449000228963</v>
       </c>
       <c r="O105" s="13"/>
       <c r="P105" s="13"/>
+      <c r="Q105"/>
       <c r="R105" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S105" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U105" s="19"/>
+      <c r="T105"/>
+      <c r="U105" s="21"/>
       <c r="V105" s="9"/>
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
-      <c r="AA105" s="20" t="s">
-        <v>334</v>
+      <c r="Z105"/>
+      <c r="AA105" s="22" t="s">
+        <v>336</v>
       </c>
       <c r="AB105" s="9"/>
+      <c r="AC105"/>
+      <c r="AD105"/>
       <c r="AE105" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF105" s="21"/>
+      <c r="AF105" s="23"/>
       <c r="AG105" s="9"/>
       <c r="AH105" s="9"/>
+      <c r="AI105"/>
+      <c r="AJ105"/>
+      <c r="AK105"/>
+      <c r="AL105"/>
       <c r="AM105" s="9">
         <v>3</v>
       </c>
@@ -11545,7 +11621,7 @@
         <v>837</v>
       </c>
       <c r="AO105" s="9"/>
-      <c r="AP105" s="22">
+      <c r="AP105" s="24">
         <v>92</v>
       </c>
     </row>
@@ -11563,16 +11639,16 @@
         <v>44</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="11">
@@ -11586,7 +11662,7 @@
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
       <c r="R106" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S106" s="10"/>
       <c r="T106" s="10"/>
@@ -11623,7 +11699,7 @@
         <v>103</v>
       </c>
       <c r="AO106" s="15" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AP106" s="13">
         <v>302</v>
@@ -11643,13 +11719,13 @@
         <v>44</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H107" s="10" t="s">
         <v>58</v>
@@ -11661,13 +11737,13 @@
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
       <c r="M107" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N107" s="13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O107" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
@@ -11675,7 +11751,7 @@
         <v>60</v>
       </c>
       <c r="S107" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="T107" s="10"/>
       <c r="U107" s="10"/>
@@ -11727,16 +11803,16 @@
         <v>44</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="11">
@@ -11753,12 +11829,12 @@
         <v>60</v>
       </c>
       <c r="S108" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="T108" s="10"/>
       <c r="U108" s="10"/>
       <c r="V108" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="W108" s="10"/>
       <c r="X108" s="10"/>
@@ -11807,29 +11883,29 @@
         <v>44</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I109" s="10"/>
       <c r="J109" s="11"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
       <c r="M109" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N109" s="13" t="s">
         <v>59</v>
       </c>
       <c r="O109" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
@@ -11861,7 +11937,7 @@
       <c r="AG109" s="10"/>
       <c r="AH109" s="10"/>
       <c r="AI109" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AJ109" s="10"/>
       <c r="AK109" s="10"/>
@@ -11892,10 +11968,10 @@
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>44</v>
@@ -11957,16 +12033,16 @@
         <v>44</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="11">
@@ -11980,7 +12056,7 @@
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
       <c r="R111" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S111" s="10"/>
       <c r="T111" s="10"/>
@@ -12017,7 +12093,7 @@
         <v>97</v>
       </c>
       <c r="AO111" s="15" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AP111" s="13">
         <v>303</v>
@@ -12037,13 +12113,13 @@
         <v>44</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H112" s="10" t="s">
         <v>58</v>
@@ -12055,13 +12131,13 @@
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
       <c r="M112" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N112" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O112" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
@@ -12069,7 +12145,7 @@
         <v>60</v>
       </c>
       <c r="S112" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="T112" s="10"/>
       <c r="U112" s="10"/>
@@ -12121,16 +12197,16 @@
         <v>44</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I113" s="10"/>
       <c r="J113" s="11">
@@ -12147,12 +12223,12 @@
         <v>60</v>
       </c>
       <c r="S113" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="T113" s="10"/>
       <c r="U113" s="10"/>
       <c r="V113" s="10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="W113" s="10"/>
       <c r="X113" s="10"/>
@@ -12201,16 +12277,16 @@
         <v>44</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I114" s="10"/>
       <c r="J114" s="11">
@@ -12259,7 +12335,7 @@
         <v>100</v>
       </c>
       <c r="AO114" s="15" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AP114" s="13">
         <v>97</v>
@@ -12279,26 +12355,26 @@
         <v>44</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I115" s="10"/>
       <c r="J115" s="11"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
       <c r="M115" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="N115" s="13" t="s">
-        <v>381</v>
+        <v>222</v>
+      </c>
+      <c r="N115" s="13">
+        <v>4607042434877</v>
       </c>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
@@ -12331,7 +12407,7 @@
       <c r="AG115" s="10"/>
       <c r="AH115" s="10"/>
       <c r="AI115" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AJ115" s="10"/>
       <c r="AK115" s="10"/>
@@ -12361,26 +12437,26 @@
         <v>44</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I116" s="10"/>
       <c r="J116" s="11"/>
       <c r="K116" s="12"/>
       <c r="L116" s="12"/>
       <c r="M116" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="N116" s="13" t="s">
-        <v>385</v>
+        <v>224</v>
+      </c>
+      <c r="N116" s="13">
+        <v>4607042434891</v>
       </c>
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
@@ -12488,7 +12564,7 @@
       <c r="AN117" s="9">
         <v>506</v>
       </c>
-      <c r="AO117" s="25" t="s">
+      <c r="AO117" s="27" t="s">
         <v>389</v>
       </c>
       <c r="AP117" s="13"/>
@@ -12552,7 +12628,7 @@
       <c r="AN118" s="9">
         <v>501</v>
       </c>
-      <c r="AO118" s="25" t="s">
+      <c r="AO118" s="27" t="s">
         <v>392</v>
       </c>
       <c r="AP118" s="13">
@@ -12570,7 +12646,7 @@
         <v>43</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>393</v>
@@ -12591,19 +12667,19 @@
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
       <c r="M119" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N119" s="13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O119" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P119" s="10"/>
       <c r="Q119" s="10"/>
       <c r="R119" s="10"/>
       <c r="S119" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="T119" s="10"/>
       <c r="U119" s="10"/>
@@ -12654,10 +12730,10 @@
         <v>43</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>399</v>
@@ -12680,7 +12756,7 @@
       <c r="P120" s="10"/>
       <c r="Q120" s="10"/>
       <c r="R120" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S120" s="10"/>
       <c r="T120" s="10"/>
@@ -12736,10 +12812,10 @@
         <v>43</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>404</v>
@@ -12820,10 +12896,10 @@
         <v>43</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>406</v>
@@ -12841,7 +12917,7 @@
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
       <c r="M122" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N122" s="13" t="s">
         <v>59</v>
@@ -12904,10 +12980,10 @@
         <v>43</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>408</v>
@@ -12925,7 +13001,7 @@
       <c r="K123" s="12"/>
       <c r="L123" s="12"/>
       <c r="M123" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N123" s="13">
         <v>5449000131836</v>
@@ -12988,10 +13064,10 @@
         <v>43</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>410</v>
@@ -13009,7 +13085,7 @@
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
       <c r="M124" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N124" s="13">
         <v>54491069</v>
@@ -13072,10 +13148,10 @@
         <v>43</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>412</v>
@@ -13156,10 +13232,10 @@
         <v>43</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>415</v>
@@ -13177,7 +13253,7 @@
       <c r="K126" s="12"/>
       <c r="L126" s="12"/>
       <c r="M126" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N126" s="13">
         <v>40822938</v>
@@ -13240,10 +13316,10 @@
         <v>43</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>417</v>
@@ -13324,10 +13400,10 @@
         <v>43</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>420</v>
@@ -13408,10 +13484,10 @@
         <v>43</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>422</v>
@@ -13513,19 +13589,19 @@
       <c r="K130" s="12"/>
       <c r="L130" s="12"/>
       <c r="M130" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N130" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O130" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P130" s="10"/>
       <c r="Q130" s="10"/>
       <c r="R130" s="10"/>
       <c r="S130" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="T130" s="10"/>
       <c r="U130" s="10"/>
@@ -13624,7 +13700,7 @@
       <c r="AN131" s="9">
         <v>502</v>
       </c>
-      <c r="AO131" s="25" t="s">
+      <c r="AO131" s="27" t="s">
         <v>430</v>
       </c>
       <c r="AP131" s="13">
@@ -13642,10 +13718,10 @@
         <v>43</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>431</v>
@@ -13668,7 +13744,7 @@
       <c r="P132" s="10"/>
       <c r="Q132" s="10"/>
       <c r="R132" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S132" s="10"/>
       <c r="T132" s="10"/>
@@ -13724,10 +13800,10 @@
         <v>43</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>434</v>
@@ -13745,7 +13821,7 @@
       <c r="K133" s="12"/>
       <c r="L133" s="12"/>
       <c r="M133" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N133" s="13">
         <v>4607042434877</v>
@@ -13793,7 +13869,7 @@
         <v>120</v>
       </c>
       <c r="AO133" s="13"/>
-      <c r="AP133" s="26">
+      <c r="AP133" s="28">
         <v>119</v>
       </c>
     </row>
@@ -13808,10 +13884,10 @@
         <v>43</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>436</v>
@@ -13829,7 +13905,7 @@
       <c r="K134" s="12"/>
       <c r="L134" s="12"/>
       <c r="M134" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N134" s="13">
         <v>4607042434891</v>
@@ -13877,7 +13953,7 @@
         <v>121</v>
       </c>
       <c r="AO134" s="13"/>
-      <c r="AP134" s="26">
+      <c r="AP134" s="28">
         <v>119</v>
       </c>
     </row>
@@ -13892,10 +13968,10 @@
         <v>43</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F135" s="10" t="s">
         <v>438</v>
@@ -13913,7 +13989,7 @@
       <c r="K135" s="12"/>
       <c r="L135" s="12"/>
       <c r="M135" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N135" s="13">
         <v>4607042438738</v>
@@ -13961,7 +14037,7 @@
         <v>122</v>
       </c>
       <c r="AO135" s="13"/>
-      <c r="AP135" s="26">
+      <c r="AP135" s="28">
         <v>119</v>
       </c>
     </row>
@@ -13976,10 +14052,10 @@
         <v>43</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>440</v>
@@ -13997,7 +14073,7 @@
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
       <c r="M136" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N136" s="13">
         <v>4607042439155</v>
@@ -14045,7 +14121,7 @@
         <v>123</v>
       </c>
       <c r="AO136" s="13"/>
-      <c r="AP136" s="26">
+      <c r="AP136" s="28">
         <v>119</v>
       </c>
     </row>
@@ -14060,10 +14136,10 @@
         <v>43</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>442</v>
@@ -14081,7 +14157,7 @@
       <c r="K137" s="12"/>
       <c r="L137" s="12"/>
       <c r="M137" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N137" s="13">
         <v>4607042439216</v>
@@ -14129,7 +14205,7 @@
         <v>124</v>
       </c>
       <c r="AO137" s="13"/>
-      <c r="AP137" s="26">
+      <c r="AP137" s="28">
         <v>119</v>
       </c>
     </row>
@@ -14192,7 +14268,7 @@
       <c r="AN138" s="9">
         <v>503</v>
       </c>
-      <c r="AO138" s="25" t="s">
+      <c r="AO138" s="27" t="s">
         <v>446</v>
       </c>
       <c r="AP138" s="13">
@@ -14231,7 +14307,7 @@
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
       <c r="M139" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N139" s="13" t="s">
         <v>450</v>
@@ -14243,7 +14319,7 @@
       <c r="Q139" s="10"/>
       <c r="R139" s="10"/>
       <c r="S139" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="T139" s="10"/>
       <c r="U139" s="10"/>
@@ -14294,10 +14370,10 @@
         <v>43</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>451</v>
@@ -14320,7 +14396,7 @@
       <c r="P140" s="10"/>
       <c r="Q140" s="10"/>
       <c r="R140" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S140" s="10"/>
       <c r="T140" s="10"/>
@@ -14376,10 +14452,10 @@
         <v>43</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F141" s="9" t="s">
         <v>453</v>
@@ -14397,7 +14473,7 @@
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
       <c r="M141" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N141" s="13">
         <v>5449000005489</v>
@@ -14445,7 +14521,7 @@
         <v>127</v>
       </c>
       <c r="AO141" s="13"/>
-      <c r="AP141" s="26">
+      <c r="AP141" s="28">
         <v>126</v>
       </c>
     </row>
@@ -14508,7 +14584,7 @@
       <c r="AN142" s="9">
         <v>504</v>
       </c>
-      <c r="AO142" s="25" t="s">
+      <c r="AO142" s="27" t="s">
         <v>457</v>
       </c>
       <c r="AP142" s="13">
@@ -14547,7 +14623,7 @@
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
       <c r="M143" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N143" s="13" t="s">
         <v>461</v>
@@ -14559,7 +14635,7 @@
       <c r="Q143" s="10"/>
       <c r="R143" s="10"/>
       <c r="S143" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="T143" s="10"/>
       <c r="U143" s="10"/>
@@ -14610,10 +14686,10 @@
         <v>43</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>462</v>
@@ -14636,7 +14712,7 @@
       <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
       <c r="R144" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S144" s="10"/>
       <c r="T144" s="10"/>
@@ -14692,10 +14768,10 @@
         <v>43</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F145" s="9" t="s">
         <v>465</v>
@@ -14713,10 +14789,10 @@
       <c r="K145" s="12"/>
       <c r="L145" s="12"/>
       <c r="M145" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N145" s="13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O145" s="13"/>
       <c r="P145" s="13"/>
@@ -14736,21 +14812,22 @@
       </c>
       <c r="Y145" s="9"/>
       <c r="Z145" s="9"/>
-      <c r="AA145" s="20"/>
+      <c r="AA145" s="22"/>
       <c r="AB145" s="9"/>
       <c r="AC145" s="9" t="s">
         <v>402</v>
       </c>
+      <c r="AD145"/>
       <c r="AE145" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF145" s="21"/>
+      <c r="AF145" s="23"/>
       <c r="AG145" s="9"/>
       <c r="AH145" s="9"/>
       <c r="AI145" s="9"/>
-      <c r="AJ145" s="27"/>
-      <c r="AK145" s="27"/>
-      <c r="AL145" s="27"/>
+      <c r="AJ145" s="29"/>
+      <c r="AK145" s="29"/>
+      <c r="AL145" s="29"/>
       <c r="AM145" s="9">
         <v>3</v>
       </c>
@@ -14758,7 +14835,7 @@
         <v>939</v>
       </c>
       <c r="AO145" s="9"/>
-      <c r="AP145" s="24">
+      <c r="AP145" s="26">
         <v>129</v>
       </c>
     </row>
@@ -14773,10 +14850,10 @@
         <v>43</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>467</v>
@@ -14794,10 +14871,10 @@
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
       <c r="M146" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N146" s="13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O146" s="13"/>
       <c r="P146" s="13"/>
@@ -14817,21 +14894,22 @@
       </c>
       <c r="Y146" s="9"/>
       <c r="Z146" s="9"/>
-      <c r="AA146" s="20"/>
+      <c r="AA146" s="22"/>
       <c r="AB146" s="9"/>
       <c r="AC146" s="9" t="s">
         <v>402</v>
       </c>
+      <c r="AD146"/>
       <c r="AE146" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF146" s="21"/>
+      <c r="AF146" s="23"/>
       <c r="AG146" s="9"/>
       <c r="AH146" s="9"/>
       <c r="AI146" s="9"/>
-      <c r="AJ146" s="27"/>
-      <c r="AK146" s="27"/>
-      <c r="AL146" s="27"/>
+      <c r="AJ146" s="29"/>
+      <c r="AK146" s="29"/>
+      <c r="AL146" s="29"/>
       <c r="AM146" s="9">
         <v>3</v>
       </c>
@@ -14839,7 +14917,7 @@
         <v>940</v>
       </c>
       <c r="AO146" s="9"/>
-      <c r="AP146" s="24">
+      <c r="AP146" s="26">
         <v>129</v>
       </c>
     </row>
@@ -14941,7 +15019,7 @@
       <c r="K148" s="12"/>
       <c r="L148" s="12"/>
       <c r="M148" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N148" s="13" t="s">
         <v>474</v>
@@ -14953,7 +15031,7 @@
       <c r="Q148" s="10"/>
       <c r="R148" s="10"/>
       <c r="S148" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="T148" s="10"/>
       <c r="U148" s="10"/>
@@ -15303,7 +15381,7 @@
       </c>
       <c r="L153" s="12"/>
       <c r="M153" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N153" s="13" t="s">
         <v>494</v>
@@ -15383,7 +15461,7 @@
       <c r="K154" s="12"/>
       <c r="L154" s="12"/>
       <c r="M154" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N154" s="13" t="s">
         <v>494</v>
@@ -15445,7 +15523,7 @@
         <v>44</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>500</v>
@@ -15454,7 +15532,7 @@
         <v>501</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I155" s="10"/>
       <c r="J155" s="11">
@@ -15529,7 +15607,7 @@
         <v>44</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F156" s="9" t="s">
         <v>505</v>
@@ -15549,7 +15627,7 @@
         <v>15</v>
       </c>
       <c r="M156" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N156" s="13" t="s">
         <v>494</v>
@@ -15617,7 +15695,7 @@
         <v>44</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>508</v>
@@ -15638,7 +15716,7 @@
       <c r="P157" s="10"/>
       <c r="Q157" s="10"/>
       <c r="R157" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S157" s="10"/>
       <c r="T157" s="10"/>
@@ -15738,7 +15816,7 @@
       <c r="X158" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="Y158" s="28" t="s">
+      <c r="Y158" s="30" t="s">
         <v>516</v>
       </c>
       <c r="Z158" s="10"/>
@@ -15878,7 +15956,7 @@
         <v>521</v>
       </c>
       <c r="H160" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I160" s="10"/>
       <c r="J160" s="11">
@@ -15892,7 +15970,7 @@
       <c r="P160" s="10"/>
       <c r="Q160" s="10"/>
       <c r="R160" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S160" s="10"/>
       <c r="T160" s="10"/>
@@ -16137,7 +16215,7 @@
       <c r="K163" s="12"/>
       <c r="L163" s="12"/>
       <c r="M163" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N163" s="13" t="s">
         <v>494</v>
@@ -16203,7 +16281,7 @@
         <v>44</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F164" s="10" t="s">
         <v>532</v>
@@ -16282,10 +16360,10 @@
         <v>43</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E165" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="E165" s="31" t="s">
+        <v>342</v>
       </c>
       <c r="F165" s="10" t="s">
         <v>535</v>
@@ -16302,7 +16380,7 @@
       </c>
       <c r="K165" s="12"/>
       <c r="L165" s="12"/>
-      <c r="M165" s="30"/>
+      <c r="M165" s="32"/>
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
@@ -16314,7 +16392,7 @@
       <c r="T165" s="10"/>
       <c r="U165" s="10"/>
       <c r="V165" s="10"/>
-      <c r="W165" s="30"/>
+      <c r="W165" s="32"/>
       <c r="X165" s="9" t="s">
         <v>535</v>
       </c>
@@ -16347,7 +16425,7 @@
       <c r="AO165" s="13">
         <v>148</v>
       </c>
-      <c r="AP165" s="16">
+      <c r="AP165" s="18">
         <v>301</v>
       </c>
     </row>
@@ -16362,10 +16440,10 @@
         <v>43</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E166" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="E166" s="31" t="s">
+        <v>342</v>
       </c>
       <c r="F166" s="10" t="s">
         <v>537</v>
@@ -16385,7 +16463,7 @@
       </c>
       <c r="L166" s="12"/>
       <c r="M166" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N166" s="13" t="s">
         <v>494</v>
@@ -16402,7 +16480,7 @@
       <c r="T166" s="10"/>
       <c r="U166" s="10"/>
       <c r="V166" s="10"/>
-      <c r="W166" s="30"/>
+      <c r="W166" s="32"/>
       <c r="X166" s="9" t="s">
         <v>535</v>
       </c>
@@ -16448,7 +16526,7 @@
         <v>43</v>
       </c>
       <c r="D167" s="10"/>
-      <c r="E167" s="29"/>
+      <c r="E167" s="31"/>
       <c r="F167" s="10" t="s">
         <v>542</v>
       </c>
@@ -16510,10 +16588,10 @@
         <v>43</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F168" s="10" t="s">
         <v>544</v>
@@ -16567,7 +16645,7 @@
       <c r="AO168" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="AP168" s="16">
+      <c r="AP168" s="18">
         <v>400</v>
       </c>
     </row>
@@ -16582,10 +16660,10 @@
         <v>43</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>547</v>
@@ -16633,7 +16711,7 @@
       <c r="AE169" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AF169" s="31">
+      <c r="AF169" s="33">
         <v>0.01</v>
       </c>
       <c r="AG169" s="10"/>
@@ -16664,7 +16742,7 @@
         <v>43</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>551</v>
@@ -16690,6 +16768,7 @@
       </c>
       <c r="O170" s="13"/>
       <c r="P170" s="13"/>
+      <c r="Q170"/>
       <c r="R170" s="9" t="s">
         <v>60</v>
       </c>
@@ -16700,23 +16779,29 @@
       <c r="U170" s="9"/>
       <c r="V170" s="9"/>
       <c r="W170" s="9"/>
+      <c r="X170"/>
       <c r="Y170" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="Z170" s="20"/>
+      <c r="Z170" s="22"/>
       <c r="AA170" s="9"/>
       <c r="AB170" s="9"/>
+      <c r="AC170"/>
       <c r="AD170" s="10" t="s">
         <v>53</v>
       </c>
       <c r="AE170" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF170" s="31">
+      <c r="AF170" s="33">
         <v>0.01</v>
       </c>
       <c r="AG170" s="9"/>
       <c r="AH170" s="9"/>
+      <c r="AI170"/>
+      <c r="AJ170"/>
+      <c r="AK170"/>
+      <c r="AL170"/>
       <c r="AM170" s="9">
         <v>3</v>
       </c>
@@ -16739,7 +16824,7 @@
         <v>43</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>551</v>
@@ -16765,6 +16850,7 @@
       </c>
       <c r="O171" s="13"/>
       <c r="P171" s="13"/>
+      <c r="Q171"/>
       <c r="R171" s="9" t="s">
         <v>60</v>
       </c>
@@ -16775,12 +16861,14 @@
       <c r="U171" s="9"/>
       <c r="V171" s="9"/>
       <c r="W171" s="9"/>
+      <c r="X171"/>
       <c r="Y171" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="Z171" s="20"/>
+      <c r="Z171" s="22"/>
       <c r="AA171" s="9"/>
       <c r="AB171" s="9"/>
+      <c r="AC171"/>
       <c r="AD171" s="10" t="s">
         <v>53</v>
       </c>
@@ -16792,6 +16880,10 @@
       </c>
       <c r="AG171" s="9"/>
       <c r="AH171" s="9"/>
+      <c r="AI171"/>
+      <c r="AJ171"/>
+      <c r="AK171"/>
+      <c r="AL171"/>
       <c r="AM171" s="9">
         <v>3</v>
       </c>
@@ -16814,7 +16906,7 @@
         <v>43</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>551</v>
@@ -16835,11 +16927,12 @@
       <c r="K172" s="12"/>
       <c r="L172" s="12"/>
       <c r="M172" s="9"/>
-      <c r="N172" s="32" t="s">
+      <c r="N172" s="34" t="s">
         <v>560</v>
       </c>
       <c r="O172" s="13"/>
       <c r="P172" s="13"/>
+      <c r="Q172"/>
       <c r="R172" s="9" t="s">
         <v>60</v>
       </c>
@@ -16850,12 +16943,14 @@
       <c r="U172" s="9"/>
       <c r="V172" s="9"/>
       <c r="W172" s="9"/>
-      <c r="Y172" s="32" t="s">
+      <c r="X172"/>
+      <c r="Y172" s="34" t="s">
         <v>560</v>
       </c>
-      <c r="Z172" s="20"/>
+      <c r="Z172" s="22"/>
       <c r="AA172" s="9"/>
       <c r="AB172" s="9"/>
+      <c r="AC172"/>
       <c r="AD172" s="10" t="s">
         <v>53</v>
       </c>
@@ -16867,6 +16962,10 @@
       </c>
       <c r="AG172" s="9"/>
       <c r="AH172" s="9"/>
+      <c r="AI172"/>
+      <c r="AJ172"/>
+      <c r="AK172"/>
+      <c r="AL172"/>
       <c r="AM172" s="9">
         <v>3</v>
       </c>
@@ -16891,13 +16990,13 @@
       <c r="D173" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="E173" s="33" t="s">
+      <c r="E173" s="35" t="s">
         <v>562</v>
       </c>
-      <c r="F173" s="33" t="s">
+      <c r="F173" s="35" t="s">
         <v>563</v>
       </c>
-      <c r="G173" s="33" t="s">
+      <c r="G173" s="35" t="s">
         <v>564</v>
       </c>
       <c r="H173" s="9" t="s">
@@ -16965,7 +17064,7 @@
       <c r="F174" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="G174" s="24" t="s">
+      <c r="G174" s="26" t="s">
         <v>570</v>
       </c>
       <c r="H174" s="9" t="s">
@@ -16978,7 +17077,7 @@
       <c r="K174" s="12"/>
       <c r="L174" s="12"/>
       <c r="M174" s="9"/>
-      <c r="N174" s="34"/>
+      <c r="N174" s="36"/>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
       <c r="Q174" s="10"/>
@@ -17027,13 +17126,13 @@
       <c r="D175" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="E175" s="33" t="s">
+      <c r="E175" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="F175" s="33" t="s">
+      <c r="F175" s="35" t="s">
         <v>573</v>
       </c>
-      <c r="G175" s="33" t="s">
+      <c r="G175" s="35" t="s">
         <v>544</v>
       </c>
       <c r="H175" s="9" t="s">
@@ -17048,7 +17147,7 @@
       <c r="M175" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="N175" s="25" t="s">
+      <c r="N175" s="27" t="s">
         <v>577</v>
       </c>
       <c r="O175" s="10"/>
@@ -17099,13 +17198,13 @@
       <c r="D176" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="E176" s="33" t="s">
+      <c r="E176" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="F176" s="33" t="s">
+      <c r="F176" s="35" t="s">
         <v>573</v>
       </c>
-      <c r="G176" s="33" t="s">
+      <c r="G176" s="35" t="s">
         <v>544</v>
       </c>
       <c r="H176" s="9" t="s">
@@ -17120,7 +17219,7 @@
       <c r="M176" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="N176" s="25" t="s">
+      <c r="N176" s="27" t="s">
         <v>578</v>
       </c>
       <c r="O176" s="10"/>
@@ -17171,13 +17270,13 @@
       <c r="D177" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="E177" s="33" t="s">
+      <c r="E177" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="F177" s="33" t="s">
+      <c r="F177" s="35" t="s">
         <v>573</v>
       </c>
-      <c r="G177" s="33" t="s">
+      <c r="G177" s="35" t="s">
         <v>544</v>
       </c>
       <c r="H177" s="9" t="s">
@@ -17192,7 +17291,7 @@
       <c r="M177" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="N177" s="25" t="s">
+      <c r="N177" s="27" t="s">
         <v>579</v>
       </c>
       <c r="O177" s="10"/>
@@ -17243,13 +17342,13 @@
       <c r="D178" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="E178" s="33" t="s">
+      <c r="E178" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="F178" s="33" t="s">
+      <c r="F178" s="35" t="s">
         <v>573</v>
       </c>
-      <c r="G178" s="33" t="s">
+      <c r="G178" s="35" t="s">
         <v>544</v>
       </c>
       <c r="H178" s="9" t="s">
@@ -17264,7 +17363,7 @@
       <c r="M178" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="N178" s="25" t="s">
+      <c r="N178" s="27" t="s">
         <v>580</v>
       </c>
       <c r="O178" s="10"/>
@@ -17315,13 +17414,13 @@
       <c r="D179" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="E179" s="33" t="s">
+      <c r="E179" s="35" t="s">
         <v>581</v>
       </c>
-      <c r="F179" s="33" t="s">
+      <c r="F179" s="35" t="s">
         <v>582</v>
       </c>
-      <c r="G179" s="33" t="s">
+      <c r="G179" s="35" t="s">
         <v>583</v>
       </c>
       <c r="H179" s="9" t="s">
@@ -17334,7 +17433,7 @@
       <c r="K179" s="12"/>
       <c r="L179" s="12"/>
       <c r="M179" s="9"/>
-      <c r="N179" s="35"/>
+      <c r="N179" s="37"/>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
       <c r="Q179" s="10"/>
@@ -17383,13 +17482,13 @@
       <c r="D180" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="E180" s="33" t="s">
+      <c r="E180" s="35" t="s">
         <v>587</v>
       </c>
-      <c r="F180" s="33" t="s">
+      <c r="F180" s="35" t="s">
         <v>588</v>
       </c>
-      <c r="G180" s="33" t="s">
+      <c r="G180" s="35" t="s">
         <v>589</v>
       </c>
       <c r="H180" s="9" t="s">
@@ -17451,13 +17550,13 @@
       <c r="D181" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="E181" s="33" t="s">
+      <c r="E181" s="35" t="s">
         <v>591</v>
       </c>
-      <c r="F181" s="33" t="s">
+      <c r="F181" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="G181" s="33" t="s">
+      <c r="G181" s="35" t="s">
         <v>593</v>
       </c>
       <c r="H181" s="9" t="s">
@@ -17521,13 +17620,13 @@
       <c r="D182" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="E182" s="33" t="s">
+      <c r="E182" s="35" t="s">
         <v>597</v>
       </c>
-      <c r="F182" s="33" t="s">
+      <c r="F182" s="35" t="s">
         <v>598</v>
       </c>
-      <c r="G182" s="33" t="s">
+      <c r="G182" s="35" t="s">
         <v>599</v>
       </c>
       <c r="H182" s="9" t="s">
@@ -17591,13 +17690,13 @@
       <c r="D183" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="E183" s="33" t="s">
+      <c r="E183" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="F183" s="33" t="s">
+      <c r="F183" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="G183" s="33" t="s">
+      <c r="G183" s="35" t="s">
         <v>604</v>
       </c>
       <c r="H183" s="9" t="s">
@@ -17612,7 +17711,7 @@
       <c r="M183" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="N183" s="25" t="s">
+      <c r="N183" s="27" t="s">
         <v>606</v>
       </c>
       <c r="O183" s="10"/>
@@ -17645,7 +17744,7 @@
       <c r="AN183" s="13">
         <v>163</v>
       </c>
-      <c r="AO183" s="25" t="s">
+      <c r="AO183" s="27" t="s">
         <v>607</v>
       </c>
       <c r="AP183" s="13"/>
@@ -17663,13 +17762,13 @@
       <c r="D184" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="E184" s="33" t="s">
+      <c r="E184" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="F184" s="33" t="s">
+      <c r="F184" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="G184" s="33" t="s">
+      <c r="G184" s="35" t="s">
         <v>604</v>
       </c>
       <c r="H184" s="9" t="s">
@@ -17684,7 +17783,7 @@
       <c r="M184" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="N184" s="36" t="s">
+      <c r="N184" s="38" t="s">
         <v>608</v>
       </c>
       <c r="O184" s="10"/>
@@ -17735,13 +17834,13 @@
       <c r="D185" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="E185" s="33" t="s">
+      <c r="E185" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="F185" s="33" t="s">
+      <c r="F185" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="G185" s="33" t="s">
+      <c r="G185" s="35" t="s">
         <v>604</v>
       </c>
       <c r="H185" s="9" t="s">
@@ -17756,7 +17855,7 @@
       <c r="M185" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="N185" s="36" t="s">
+      <c r="N185" s="38" t="s">
         <v>609</v>
       </c>
       <c r="O185" s="10"/>
@@ -17807,11 +17906,11 @@
       <c r="D186" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33" t="s">
+      <c r="E186" s="35"/>
+      <c r="F186" s="35" t="s">
         <v>611</v>
       </c>
-      <c r="G186" s="33" t="s">
+      <c r="G186" s="35" t="s">
         <v>612</v>
       </c>
       <c r="H186" s="9" t="s">
@@ -17823,7 +17922,7 @@
       <c r="J186" s="12"/>
       <c r="K186" s="12"/>
       <c r="L186" s="9"/>
-      <c r="M186" s="36"/>
+      <c r="M186" s="38"/>
       <c r="N186" s="9"/>
       <c r="O186" s="9"/>
       <c r="P186" s="9"/>
@@ -17841,12 +17940,12 @@
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
       <c r="AB186" s="9"/>
-      <c r="AC186" s="37"/>
+      <c r="AC186" s="39"/>
       <c r="AD186" s="9"/>
       <c r="AE186" s="9"/>
-      <c r="AF186" s="21"/>
+      <c r="AF186" s="23"/>
       <c r="AG186" s="9"/>
-      <c r="AH186" s="38"/>
+      <c r="AH186" s="40"/>
       <c r="AI186" s="9"/>
       <c r="AJ186" s="9"/>
       <c r="AK186" s="10"/>
@@ -17855,7 +17954,7 @@
       <c r="AN186" s="9">
         <v>521</v>
       </c>
-      <c r="AO186" s="25"/>
+      <c r="AO186" s="27"/>
       <c r="AP186" s="9"/>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1704\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1845\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA3F0F3-FEBF-46D9-A822-AD9D81D1B337}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F4286D-0CE5-4432-ADE6-07A7B4A70FB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONV_BIG_REG" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="610">
   <si>
     <t>Sorting</t>
   </si>
@@ -1174,34 +1174,22 @@
     <t>SSD Дисплей 1-й: Кока-Кола - 0.9л</t>
   </si>
   <si>
-    <t>Coca-Cola - 0.9L</t>
-  </si>
-  <si>
     <t>SSD Display 1st: Sprite - 0.9L</t>
   </si>
   <si>
     <t>SSD Дисплей 1-й: Спрайт - 0.9л</t>
   </si>
   <si>
-    <t>Sprite - 0.9L</t>
-  </si>
-  <si>
     <t>SSD Display Coca-Cola Zero - 0.9L</t>
   </si>
   <si>
     <t>SSD Дисплей 1-й: Кока-Кола Зеро - 0.9л</t>
   </si>
   <si>
-    <t>Coca-Cola Zero - 0.9L</t>
-  </si>
-  <si>
     <t>SSD Display 1st: Fanta Orange - 0.9L</t>
   </si>
   <si>
     <t>SSD Дисплей 1-й: Фанта Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L</t>
   </si>
   <si>
     <t>SSD Display 2d</t>
@@ -2042,6 +2030,9 @@
   </si>
   <si>
     <t>Plan</t>
+  </si>
+  <si>
+    <t>Sprite - 0.9L/1l</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2088,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2107,13 +2098,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2171,129 +2156,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2681,183 +2668,184 @@
   <dimension ref="A1:AMK186"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" topLeftCell="G1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="N117" sqref="N117"/>
+      <selection pane="bottomLeft" activeCell="M102" sqref="M102:N105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1"/>
-    <col min="2" max="2" width="15.33203125" style="1"/>
-    <col min="3" max="3" width="20.77734375" style="1"/>
-    <col min="4" max="4" width="15.77734375" style="1"/>
-    <col min="5" max="5" width="16.33203125" style="1"/>
-    <col min="6" max="6" width="54.77734375" style="1"/>
-    <col min="7" max="7" width="75.77734375" style="1"/>
-    <col min="8" max="8" width="55.109375" style="1"/>
-    <col min="9" max="9" width="20.33203125" style="1"/>
-    <col min="10" max="10" width="13.44140625" style="1"/>
-    <col min="11" max="11" width="17.88671875" style="1"/>
-    <col min="12" max="12" width="18.44140625" style="1"/>
-    <col min="13" max="13" width="36.33203125" style="1"/>
-    <col min="14" max="14" width="35.33203125" style="1"/>
-    <col min="15" max="15" width="23.21875" style="1"/>
-    <col min="16" max="16" width="20.33203125" style="1"/>
-    <col min="17" max="17" width="13.33203125" style="1"/>
-    <col min="18" max="18" width="22.88671875" style="1"/>
-    <col min="19" max="19" width="15.109375" style="1"/>
-    <col min="20" max="20" width="11.21875" style="1"/>
-    <col min="21" max="21" width="18.88671875" style="1"/>
-    <col min="22" max="22" width="95.6640625" style="1"/>
-    <col min="23" max="23" width="25.6640625" style="1"/>
-    <col min="24" max="24" width="137.77734375" style="1"/>
-    <col min="25" max="25" width="167.77734375" style="1"/>
-    <col min="26" max="26" width="23.33203125" style="1"/>
-    <col min="27" max="27" width="28.44140625" style="1"/>
-    <col min="28" max="28" width="29.21875" style="1"/>
-    <col min="29" max="29" width="20.109375" style="1"/>
-    <col min="30" max="30" width="18.21875" style="1"/>
-    <col min="31" max="31" width="18.88671875" style="1"/>
-    <col min="32" max="32" width="15.44140625" style="2"/>
-    <col min="33" max="33" width="16.44140625" style="1"/>
-    <col min="34" max="34" width="17.88671875" style="1"/>
-    <col min="35" max="35" width="71" style="1"/>
-    <col min="36" max="36" width="29.77734375" style="1"/>
-    <col min="37" max="37" width="24.88671875" style="1"/>
-    <col min="38" max="38" width="25.21875" style="1"/>
-    <col min="39" max="39" width="11.6640625" style="1"/>
-    <col min="40" max="40" width="13.33203125" style="1"/>
-    <col min="41" max="41" width="15.33203125" style="1"/>
-    <col min="42" max="42" width="13.44140625" style="1"/>
-    <col min="43" max="1025" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.88671875" style="7"/>
+    <col min="2" max="2" width="15.33203125" style="7"/>
+    <col min="3" max="3" width="20.77734375" style="7"/>
+    <col min="4" max="4" width="15.77734375" style="7"/>
+    <col min="5" max="5" width="16.33203125" style="7"/>
+    <col min="6" max="6" width="54.77734375" style="7"/>
+    <col min="7" max="7" width="75.77734375" style="7"/>
+    <col min="8" max="8" width="55.109375" style="7"/>
+    <col min="9" max="9" width="20.33203125" style="7"/>
+    <col min="10" max="10" width="13.44140625" style="7"/>
+    <col min="11" max="11" width="17.88671875" style="7"/>
+    <col min="12" max="12" width="18.44140625" style="7"/>
+    <col min="13" max="13" width="36.33203125" style="7"/>
+    <col min="14" max="14" width="35.33203125" style="7"/>
+    <col min="15" max="15" width="23.21875" style="7"/>
+    <col min="16" max="16" width="20.33203125" style="7"/>
+    <col min="17" max="17" width="13.33203125" style="7"/>
+    <col min="18" max="18" width="22.88671875" style="7"/>
+    <col min="19" max="19" width="15.109375" style="7"/>
+    <col min="20" max="20" width="11.21875" style="7"/>
+    <col min="21" max="21" width="18.88671875" style="7"/>
+    <col min="22" max="22" width="95.6640625" style="7"/>
+    <col min="23" max="23" width="25.6640625" style="7"/>
+    <col min="24" max="24" width="137.77734375" style="7"/>
+    <col min="25" max="25" width="167.77734375" style="7"/>
+    <col min="26" max="26" width="23.33203125" style="7"/>
+    <col min="27" max="27" width="28.44140625" style="7"/>
+    <col min="28" max="28" width="29.21875" style="7"/>
+    <col min="29" max="29" width="20.109375" style="7"/>
+    <col min="30" max="30" width="18.21875" style="7"/>
+    <col min="31" max="31" width="18.88671875" style="7"/>
+    <col min="32" max="32" width="15.44140625" style="38"/>
+    <col min="33" max="33" width="16.44140625" style="7"/>
+    <col min="34" max="34" width="17.88671875" style="7"/>
+    <col min="35" max="35" width="71" style="7"/>
+    <col min="36" max="36" width="29.77734375" style="7"/>
+    <col min="37" max="37" width="24.88671875" style="7"/>
+    <col min="38" max="38" width="25.21875" style="7"/>
+    <col min="39" max="39" width="11.6640625" style="7"/>
+    <col min="40" max="40" width="13.33203125" style="7"/>
+    <col min="41" max="41" width="15.33203125" style="7"/>
+    <col min="42" max="42" width="13.44140625" style="7"/>
+    <col min="43" max="1025" width="9.109375" style="7"/>
+    <col min="1026" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4091,7 +4079,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
-      <c r="AD16"/>
+      <c r="AD16" s="8"/>
       <c r="AE16" s="9" t="s">
         <v>64</v>
       </c>
@@ -4101,9 +4089,9 @@
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
-      <c r="AJ16"/>
-      <c r="AK16"/>
-      <c r="AL16"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
       <c r="AM16" s="9">
         <v>3</v>
       </c>
@@ -4146,10 +4134,10 @@
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="13" t="s">
         <v>103</v>
       </c>
       <c r="O17" s="10"/>
@@ -5047,9 +5035,9 @@
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
       <c r="AI27" s="9"/>
-      <c r="AJ27"/>
-      <c r="AK27"/>
-      <c r="AL27"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
       <c r="AM27" s="9">
         <v>3</v>
       </c>
@@ -5267,7 +5255,7 @@
       <c r="M30" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="16">
         <v>5449000064110</v>
       </c>
       <c r="O30" s="13"/>
@@ -5305,9 +5293,9 @@
       <c r="AG30" s="9"/>
       <c r="AH30" s="9"/>
       <c r="AI30" s="9"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
-      <c r="AL30"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
       <c r="AM30" s="9">
         <v>3</v>
       </c>
@@ -5391,9 +5379,9 @@
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
       <c r="AI31" s="9"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
       <c r="AM31" s="9">
         <v>3</v>
       </c>
@@ -5563,9 +5551,9 @@
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
       <c r="AM33" s="9">
         <v>3</v>
       </c>
@@ -5941,7 +5929,7 @@
       <c r="M38" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="N38" s="19" t="s">
+      <c r="N38" s="17" t="s">
         <v>163</v>
       </c>
       <c r="O38" s="10"/>
@@ -6027,7 +6015,7 @@
       <c r="M39" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="N39" s="19" t="s">
+      <c r="N39" s="17" t="s">
         <v>166</v>
       </c>
       <c r="O39" s="10"/>
@@ -6113,7 +6101,7 @@
       <c r="M40" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="N40" s="19" t="s">
+      <c r="N40" s="17" t="s">
         <v>169</v>
       </c>
       <c r="O40" s="10"/>
@@ -6199,7 +6187,7 @@
       <c r="M41" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="N41" s="19" t="s">
+      <c r="N41" s="17" t="s">
         <v>172</v>
       </c>
       <c r="O41" s="10"/>
@@ -6285,7 +6273,7 @@
       <c r="M42" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="N42" s="19" t="s">
+      <c r="N42" s="17" t="s">
         <v>175</v>
       </c>
       <c r="O42" s="10"/>
@@ -6825,9 +6813,9 @@
       <c r="AG48" s="9"/>
       <c r="AH48" s="9"/>
       <c r="AI48" s="9"/>
-      <c r="AJ48"/>
-      <c r="AK48"/>
-      <c r="AL48"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
       <c r="AM48" s="9">
         <v>3</v>
       </c>
@@ -6945,7 +6933,7 @@
       <c r="M50" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="N50" s="20" t="s">
+      <c r="N50" s="18" t="s">
         <v>199</v>
       </c>
       <c r="O50" s="10"/>
@@ -7031,7 +7019,7 @@
       <c r="M51" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="N51" s="20" t="s">
+      <c r="N51" s="18" t="s">
         <v>202</v>
       </c>
       <c r="O51" s="10"/>
@@ -7203,7 +7191,7 @@
       <c r="M53" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="N53" s="20" t="s">
+      <c r="N53" s="18" t="s">
         <v>209</v>
       </c>
       <c r="O53" s="10"/>
@@ -7289,7 +7277,7 @@
       <c r="M54" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="N54" s="20" t="s">
+      <c r="N54" s="18" t="s">
         <v>212</v>
       </c>
       <c r="O54" s="10"/>
@@ -7375,7 +7363,7 @@
       <c r="M55" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="N55" s="20" t="s">
+      <c r="N55" s="18" t="s">
         <v>215</v>
       </c>
       <c r="O55" s="10"/>
@@ -7464,7 +7452,7 @@
       <c r="N56" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="O56" s="19"/>
+      <c r="O56" s="17"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10" t="s">
@@ -9167,7 +9155,7 @@
       <c r="M76" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="N76" s="19" t="s">
+      <c r="N76" s="17" t="s">
         <v>260</v>
       </c>
       <c r="O76" s="10"/>
@@ -9253,7 +9241,7 @@
       <c r="M77" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="N77" s="19" t="s">
+      <c r="N77" s="17" t="s">
         <v>263</v>
       </c>
       <c r="O77" s="10"/>
@@ -9339,7 +9327,7 @@
       <c r="M78" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="N78" s="19" t="s">
+      <c r="N78" s="17" t="s">
         <v>266</v>
       </c>
       <c r="O78" s="10"/>
@@ -9425,7 +9413,7 @@
       <c r="M79" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="N79" s="19" t="s">
+      <c r="N79" s="17" t="s">
         <v>269</v>
       </c>
       <c r="O79" s="10"/>
@@ -9511,7 +9499,7 @@
       <c r="M80" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="N80" s="19" t="s">
+      <c r="N80" s="17" t="s">
         <v>272</v>
       </c>
       <c r="O80" s="10"/>
@@ -9597,7 +9585,7 @@
       <c r="M81" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="N81" s="19" t="s">
+      <c r="N81" s="17" t="s">
         <v>275</v>
       </c>
       <c r="O81" s="10"/>
@@ -9683,7 +9671,7 @@
       <c r="M82" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="N82" s="19" t="s">
+      <c r="N82" s="17" t="s">
         <v>278</v>
       </c>
       <c r="O82" s="10"/>
@@ -9769,7 +9757,7 @@
       <c r="M83" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="N83" s="19" t="s">
+      <c r="N83" s="17" t="s">
         <v>281</v>
       </c>
       <c r="O83" s="10"/>
@@ -9941,7 +9929,7 @@
       <c r="M85" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="N85" s="18" t="s">
+      <c r="N85" s="16" t="s">
         <v>286</v>
       </c>
       <c r="O85" s="10"/>
@@ -10204,27 +10192,27 @@
       </c>
       <c r="O88" s="13"/>
       <c r="P88" s="13"/>
-      <c r="Q88"/>
+      <c r="Q88" s="8"/>
       <c r="R88" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S88" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T88"/>
+      <c r="T88" s="8"/>
       <c r="U88" s="9"/>
       <c r="V88" s="9"/>
       <c r="W88" s="9" t="s">
         <v>62</v>
       </c>
       <c r="X88" s="9"/>
-      <c r="Y88"/>
+      <c r="Y88" s="8"/>
       <c r="Z88" s="9" t="s">
         <v>63</v>
       </c>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
-      <c r="AC88"/>
+      <c r="AC88" s="8"/>
       <c r="AD88" s="10" t="s">
         <v>53</v>
       </c>
@@ -10236,10 +10224,10 @@
       </c>
       <c r="AG88" s="9"/>
       <c r="AH88" s="9"/>
-      <c r="AI88"/>
-      <c r="AJ88"/>
-      <c r="AK88"/>
-      <c r="AL88"/>
+      <c r="AI88" s="8"/>
+      <c r="AJ88" s="8"/>
+      <c r="AK88" s="8"/>
+      <c r="AL88" s="8"/>
       <c r="AM88" s="9">
         <v>3</v>
       </c>
@@ -10753,9 +10741,9 @@
       <c r="AG94" s="9"/>
       <c r="AH94" s="9"/>
       <c r="AI94" s="9"/>
-      <c r="AJ94"/>
-      <c r="AK94"/>
-      <c r="AL94"/>
+      <c r="AJ94" s="8"/>
+      <c r="AK94" s="8"/>
+      <c r="AL94" s="8"/>
       <c r="AM94" s="9">
         <v>3</v>
       </c>
@@ -11180,7 +11168,7 @@
         <v>325</v>
       </c>
       <c r="P100" s="13"/>
-      <c r="Q100"/>
+      <c r="Q100" s="8"/>
       <c r="R100" s="9" t="s">
         <v>60</v>
       </c>
@@ -11188,28 +11176,28 @@
         <v>61</v>
       </c>
       <c r="T100" s="9"/>
-      <c r="U100" s="21"/>
+      <c r="U100" s="19"/>
       <c r="V100" s="9"/>
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
-      <c r="Z100"/>
-      <c r="AA100" s="22" t="s">
+      <c r="Z100" s="8"/>
+      <c r="AA100" s="20" t="s">
         <v>336</v>
       </c>
       <c r="AB100" s="9"/>
-      <c r="AC100"/>
-      <c r="AD100"/>
+      <c r="AC100" s="8"/>
+      <c r="AD100" s="8"/>
       <c r="AE100" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF100" s="23"/>
-      <c r="AG100"/>
+      <c r="AF100" s="21"/>
+      <c r="AG100" s="8"/>
       <c r="AH100" s="9"/>
-      <c r="AI100"/>
-      <c r="AJ100"/>
-      <c r="AK100"/>
-      <c r="AL100"/>
+      <c r="AI100" s="8"/>
+      <c r="AJ100" s="8"/>
+      <c r="AK100" s="8"/>
+      <c r="AL100" s="8"/>
       <c r="AM100" s="9">
         <v>3</v>
       </c>
@@ -11217,7 +11205,7 @@
         <v>833</v>
       </c>
       <c r="AO100" s="9"/>
-      <c r="AP100" s="24">
+      <c r="AP100" s="22">
         <v>88</v>
       </c>
     </row>
@@ -11336,44 +11324,44 @@
       </c>
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
-      <c r="M102" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="N102" s="25">
-        <v>5449000228970</v>
+      <c r="M102" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="N102" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="O102" s="13"/>
       <c r="P102" s="13"/>
-      <c r="Q102"/>
+      <c r="Q102" s="8"/>
       <c r="R102" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S102" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T102"/>
-      <c r="U102" s="21"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="19"/>
       <c r="V102" s="9"/>
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
-      <c r="Z102"/>
-      <c r="AA102" s="22" t="s">
+      <c r="Z102" s="8"/>
+      <c r="AA102" s="20" t="s">
         <v>336</v>
       </c>
       <c r="AB102" s="9"/>
-      <c r="AC102"/>
-      <c r="AD102"/>
+      <c r="AC102" s="8"/>
+      <c r="AD102" s="8"/>
       <c r="AE102" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF102" s="23"/>
+      <c r="AF102" s="21"/>
       <c r="AG102" s="9"/>
       <c r="AH102" s="9"/>
-      <c r="AI102"/>
-      <c r="AJ102"/>
-      <c r="AK102"/>
-      <c r="AL102"/>
+      <c r="AI102" s="8"/>
+      <c r="AJ102" s="8"/>
+      <c r="AK102" s="8"/>
+      <c r="AL102" s="8"/>
       <c r="AM102" s="9">
         <v>3</v>
       </c>
@@ -11381,7 +11369,7 @@
         <v>834</v>
       </c>
       <c r="AO102" s="9"/>
-      <c r="AP102" s="24">
+      <c r="AP102" s="22">
         <v>92</v>
       </c>
     </row>
@@ -11402,10 +11390,10 @@
         <v>342</v>
       </c>
       <c r="F103" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G103" s="9" t="s">
         <v>346</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>347</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>58</v>
@@ -11416,44 +11404,44 @@
       </c>
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
-      <c r="M103" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="N103" s="25">
-        <v>5449000228956</v>
+      <c r="M103" s="39" t="s">
+        <v>609</v>
+      </c>
+      <c r="N103" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="O103" s="13"/>
       <c r="P103" s="13"/>
-      <c r="Q103"/>
+      <c r="Q103" s="8"/>
       <c r="R103" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S103" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T103"/>
-      <c r="U103" s="21"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="19"/>
       <c r="V103" s="9"/>
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
-      <c r="Z103"/>
-      <c r="AA103" s="22" t="s">
+      <c r="Z103" s="8"/>
+      <c r="AA103" s="20" t="s">
         <v>336</v>
       </c>
       <c r="AB103" s="9"/>
-      <c r="AC103"/>
-      <c r="AD103"/>
+      <c r="AC103" s="8"/>
+      <c r="AD103" s="8"/>
       <c r="AE103" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF103" s="23"/>
+      <c r="AF103" s="21"/>
       <c r="AG103" s="9"/>
       <c r="AH103" s="9"/>
-      <c r="AI103"/>
-      <c r="AJ103"/>
-      <c r="AK103"/>
-      <c r="AL103"/>
+      <c r="AI103" s="8"/>
+      <c r="AJ103" s="8"/>
+      <c r="AK103" s="8"/>
+      <c r="AL103" s="8"/>
       <c r="AM103" s="9">
         <v>3</v>
       </c>
@@ -11461,7 +11449,7 @@
         <v>835</v>
       </c>
       <c r="AO103" s="9"/>
-      <c r="AP103" s="24">
+      <c r="AP103" s="22">
         <v>92</v>
       </c>
     </row>
@@ -11482,10 +11470,10 @@
         <v>342</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>58</v>
@@ -11496,44 +11484,44 @@
       </c>
       <c r="K104" s="12"/>
       <c r="L104" s="12"/>
-      <c r="M104" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="N104" s="25">
-        <v>5449000231659</v>
+      <c r="M104" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="N104" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
-      <c r="Q104"/>
+      <c r="Q104" s="8"/>
       <c r="R104" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S104" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T104"/>
-      <c r="U104" s="21"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="19"/>
       <c r="V104" s="9"/>
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
-      <c r="Z104"/>
-      <c r="AA104" s="22" t="s">
+      <c r="Z104" s="8"/>
+      <c r="AA104" s="20" t="s">
         <v>336</v>
       </c>
       <c r="AB104" s="9"/>
-      <c r="AC104"/>
-      <c r="AD104"/>
+      <c r="AC104" s="8"/>
+      <c r="AD104" s="8"/>
       <c r="AE104" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF104" s="23"/>
+      <c r="AF104" s="21"/>
       <c r="AG104" s="9"/>
       <c r="AH104" s="9"/>
-      <c r="AI104"/>
-      <c r="AJ104"/>
-      <c r="AK104"/>
-      <c r="AL104"/>
+      <c r="AI104" s="8"/>
+      <c r="AJ104" s="8"/>
+      <c r="AK104" s="8"/>
+      <c r="AL104" s="8"/>
       <c r="AM104" s="9">
         <v>3</v>
       </c>
@@ -11541,7 +11529,7 @@
         <v>836</v>
       </c>
       <c r="AO104" s="9"/>
-      <c r="AP104" s="24">
+      <c r="AP104" s="22">
         <v>92</v>
       </c>
     </row>
@@ -11562,10 +11550,10 @@
         <v>342</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>58</v>
@@ -11576,44 +11564,44 @@
       </c>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
-      <c r="M105" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="N105" s="25">
-        <v>5449000228963</v>
+      <c r="M105" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="N105" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="O105" s="13"/>
       <c r="P105" s="13"/>
-      <c r="Q105"/>
+      <c r="Q105" s="8"/>
       <c r="R105" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S105" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T105"/>
-      <c r="U105" s="21"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="19"/>
       <c r="V105" s="9"/>
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
-      <c r="Z105"/>
-      <c r="AA105" s="22" t="s">
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="20" t="s">
         <v>336</v>
       </c>
       <c r="AB105" s="9"/>
-      <c r="AC105"/>
-      <c r="AD105"/>
+      <c r="AC105" s="8"/>
+      <c r="AD105" s="8"/>
       <c r="AE105" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF105" s="23"/>
+      <c r="AF105" s="21"/>
       <c r="AG105" s="9"/>
       <c r="AH105" s="9"/>
-      <c r="AI105"/>
-      <c r="AJ105"/>
-      <c r="AK105"/>
-      <c r="AL105"/>
+      <c r="AI105" s="8"/>
+      <c r="AJ105" s="8"/>
+      <c r="AK105" s="8"/>
+      <c r="AL105" s="8"/>
       <c r="AM105" s="9">
         <v>3</v>
       </c>
@@ -11621,7 +11609,7 @@
         <v>837</v>
       </c>
       <c r="AO105" s="9"/>
-      <c r="AP105" s="24">
+      <c r="AP105" s="22">
         <v>92</v>
       </c>
     </row>
@@ -11642,10 +11630,10 @@
         <v>316</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H106" s="10" t="s">
         <v>319</v>
@@ -11699,7 +11687,7 @@
         <v>103</v>
       </c>
       <c r="AO106" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AP106" s="13">
         <v>302</v>
@@ -11722,10 +11710,10 @@
         <v>316</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H107" s="10" t="s">
         <v>58</v>
@@ -11806,10 +11794,10 @@
         <v>316</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>329</v>
@@ -11834,7 +11822,7 @@
       <c r="T108" s="10"/>
       <c r="U108" s="10"/>
       <c r="V108" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="W108" s="10"/>
       <c r="X108" s="10"/>
@@ -11886,10 +11874,10 @@
         <v>316</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H109" s="10" t="s">
         <v>334</v>
@@ -11937,7 +11925,7 @@
       <c r="AG109" s="10"/>
       <c r="AH109" s="10"/>
       <c r="AI109" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AJ109" s="10"/>
       <c r="AK109" s="10"/>
@@ -11968,10 +11956,10 @@
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>44</v>
@@ -12036,10 +12024,10 @@
         <v>316</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H111" s="10" t="s">
         <v>319</v>
@@ -12093,7 +12081,7 @@
         <v>97</v>
       </c>
       <c r="AO111" s="15" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AP111" s="13">
         <v>303</v>
@@ -12116,10 +12104,10 @@
         <v>316</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H112" s="10" t="s">
         <v>58</v>
@@ -12134,10 +12122,10 @@
         <v>324</v>
       </c>
       <c r="N112" s="13" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="O112" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
@@ -12200,10 +12188,10 @@
         <v>316</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H113" s="10" t="s">
         <v>329</v>
@@ -12228,7 +12216,7 @@
       <c r="T113" s="10"/>
       <c r="U113" s="10"/>
       <c r="V113" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="W113" s="10"/>
       <c r="X113" s="10"/>
@@ -12280,13 +12268,13 @@
         <v>316</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I114" s="10"/>
       <c r="J114" s="11">
@@ -12335,7 +12323,7 @@
         <v>100</v>
       </c>
       <c r="AO114" s="15" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AP114" s="13">
         <v>97</v>
@@ -12358,10 +12346,10 @@
         <v>316</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>334</v>
@@ -12407,7 +12395,7 @@
       <c r="AG115" s="10"/>
       <c r="AH115" s="10"/>
       <c r="AI115" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AJ115" s="10"/>
       <c r="AK115" s="10"/>
@@ -12440,10 +12428,10 @@
         <v>316</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>334</v>
@@ -12489,7 +12477,7 @@
       <c r="AG116" s="10"/>
       <c r="AH116" s="10"/>
       <c r="AI116" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AJ116" s="10"/>
       <c r="AK116" s="10"/>
@@ -12520,10 +12508,10 @@
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H117" s="9" t="s">
         <v>44</v>
@@ -12564,8 +12552,8 @@
       <c r="AN117" s="9">
         <v>506</v>
       </c>
-      <c r="AO117" s="27" t="s">
-        <v>389</v>
+      <c r="AO117" s="24" t="s">
+        <v>385</v>
       </c>
       <c r="AP117" s="13"/>
     </row>
@@ -12584,10 +12572,10 @@
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H118" s="9" t="s">
         <v>44</v>
@@ -12628,8 +12616,8 @@
       <c r="AN118" s="9">
         <v>501</v>
       </c>
-      <c r="AO118" s="27" t="s">
-        <v>392</v>
+      <c r="AO118" s="24" t="s">
+        <v>388</v>
       </c>
       <c r="AP118" s="13">
         <v>506</v>
@@ -12649,16 +12637,16 @@
         <v>337</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I119" s="10"/>
       <c r="J119" s="11">
@@ -12686,7 +12674,7 @@
       <c r="V119" s="10"/>
       <c r="W119" s="10"/>
       <c r="X119" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y119" s="10"/>
       <c r="Z119" s="10"/>
@@ -12697,7 +12685,7 @@
         <v>53</v>
       </c>
       <c r="AE119" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AF119" s="14">
         <v>6.25E-2</v>
@@ -12736,13 +12724,13 @@
         <v>342</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I120" s="10"/>
       <c r="J120" s="11">
@@ -12764,14 +12752,14 @@
       <c r="V120" s="10"/>
       <c r="W120" s="10"/>
       <c r="X120" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y120" s="10"/>
       <c r="Z120" s="10"/>
       <c r="AA120" s="13"/>
       <c r="AB120" s="10"/>
       <c r="AC120" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD120" s="10" t="s">
         <v>53</v>
@@ -12795,7 +12783,7 @@
         <v>108</v>
       </c>
       <c r="AO120" s="15" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AP120" s="13">
         <v>501</v>
@@ -12818,10 +12806,10 @@
         <v>342</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H121" s="10" t="s">
         <v>58</v>
@@ -12852,14 +12840,14 @@
       <c r="V121" s="10"/>
       <c r="W121" s="10"/>
       <c r="X121" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y121" s="10"/>
       <c r="Z121" s="10"/>
       <c r="AA121" s="13"/>
       <c r="AB121" s="10"/>
       <c r="AC121" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD121" s="10" t="s">
         <v>53</v>
@@ -12902,10 +12890,10 @@
         <v>342</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H122" s="10" t="s">
         <v>58</v>
@@ -12936,14 +12924,14 @@
       <c r="V122" s="10"/>
       <c r="W122" s="10"/>
       <c r="X122" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y122" s="10"/>
       <c r="Z122" s="10"/>
       <c r="AA122" s="13"/>
       <c r="AB122" s="10"/>
       <c r="AC122" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD122" s="10" t="s">
         <v>53</v>
@@ -12986,10 +12974,10 @@
         <v>342</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H123" s="10" t="s">
         <v>58</v>
@@ -13020,14 +13008,14 @@
       <c r="V123" s="10"/>
       <c r="W123" s="10"/>
       <c r="X123" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y123" s="10"/>
       <c r="Z123" s="10"/>
       <c r="AA123" s="13"/>
       <c r="AB123" s="10"/>
       <c r="AC123" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD123" s="10" t="s">
         <v>53</v>
@@ -13070,10 +13058,10 @@
         <v>342</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H124" s="10" t="s">
         <v>58</v>
@@ -13104,14 +13092,14 @@
       <c r="V124" s="10"/>
       <c r="W124" s="10"/>
       <c r="X124" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y124" s="10"/>
       <c r="Z124" s="10"/>
       <c r="AA124" s="13"/>
       <c r="AB124" s="10"/>
       <c r="AC124" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD124" s="10" t="s">
         <v>53</v>
@@ -13154,10 +13142,10 @@
         <v>342</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H125" s="10" t="s">
         <v>58</v>
@@ -13169,7 +13157,7 @@
       <c r="K125" s="12"/>
       <c r="L125" s="12"/>
       <c r="M125" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="N125" s="13" t="s">
         <v>82</v>
@@ -13188,14 +13176,14 @@
       <c r="V125" s="10"/>
       <c r="W125" s="10"/>
       <c r="X125" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y125" s="10"/>
       <c r="Z125" s="10"/>
       <c r="AA125" s="13"/>
       <c r="AB125" s="10"/>
       <c r="AC125" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD125" s="10" t="s">
         <v>53</v>
@@ -13238,10 +13226,10 @@
         <v>342</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H126" s="10" t="s">
         <v>58</v>
@@ -13272,14 +13260,14 @@
       <c r="V126" s="10"/>
       <c r="W126" s="10"/>
       <c r="X126" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y126" s="10"/>
       <c r="Z126" s="10"/>
       <c r="AA126" s="13"/>
       <c r="AB126" s="10"/>
       <c r="AC126" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD126" s="10" t="s">
         <v>53</v>
@@ -13322,10 +13310,10 @@
         <v>342</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H127" s="10" t="s">
         <v>58</v>
@@ -13337,7 +13325,7 @@
       <c r="K127" s="12"/>
       <c r="L127" s="12"/>
       <c r="M127" s="10" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N127" s="13" t="s">
         <v>79</v>
@@ -13356,14 +13344,14 @@
       <c r="V127" s="10"/>
       <c r="W127" s="10"/>
       <c r="X127" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y127" s="10"/>
       <c r="Z127" s="10"/>
       <c r="AA127" s="13"/>
       <c r="AB127" s="10"/>
       <c r="AC127" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD127" s="10" t="s">
         <v>53</v>
@@ -13406,10 +13394,10 @@
         <v>342</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H128" s="10" t="s">
         <v>58</v>
@@ -13440,14 +13428,14 @@
       <c r="V128" s="10"/>
       <c r="W128" s="10"/>
       <c r="X128" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y128" s="10"/>
       <c r="Z128" s="10"/>
       <c r="AA128" s="13"/>
       <c r="AB128" s="10"/>
       <c r="AC128" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD128" s="10" t="s">
         <v>53</v>
@@ -13490,10 +13478,10 @@
         <v>342</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H129" s="10" t="s">
         <v>58</v>
@@ -13505,7 +13493,7 @@
       <c r="K129" s="12"/>
       <c r="L129" s="12"/>
       <c r="M129" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N129" s="13">
         <v>5449000044839</v>
@@ -13524,14 +13512,14 @@
       <c r="V129" s="10"/>
       <c r="W129" s="10"/>
       <c r="X129" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y129" s="10"/>
       <c r="Z129" s="10"/>
       <c r="AA129" s="13"/>
       <c r="AB129" s="10"/>
       <c r="AC129" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD129" s="10" t="s">
         <v>53</v>
@@ -13571,16 +13559,16 @@
         <v>44</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I130" s="10"/>
       <c r="J130" s="11">
@@ -13592,10 +13580,10 @@
         <v>324</v>
       </c>
       <c r="N130" s="13" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="O130" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P130" s="10"/>
       <c r="Q130" s="10"/>
@@ -13608,7 +13596,7 @@
       <c r="V130" s="10"/>
       <c r="W130" s="10"/>
       <c r="X130" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y130" s="10"/>
       <c r="Z130" s="10"/>
@@ -13619,7 +13607,7 @@
         <v>53</v>
       </c>
       <c r="AE130" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AF130" s="14">
         <v>5.2499999999999998E-2</v>
@@ -13656,10 +13644,10 @@
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>44</v>
@@ -13700,8 +13688,8 @@
       <c r="AN131" s="9">
         <v>502</v>
       </c>
-      <c r="AO131" s="27" t="s">
-        <v>430</v>
+      <c r="AO131" s="24" t="s">
+        <v>426</v>
       </c>
       <c r="AP131" s="13">
         <v>506</v>
@@ -13724,13 +13712,13 @@
         <v>342</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I132" s="10"/>
       <c r="J132" s="11">
@@ -13752,14 +13740,14 @@
       <c r="V132" s="10"/>
       <c r="W132" s="10"/>
       <c r="X132" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y132" s="10"/>
       <c r="Z132" s="10"/>
       <c r="AA132" s="13"/>
       <c r="AB132" s="10"/>
       <c r="AC132" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD132" s="10" t="s">
         <v>53</v>
@@ -13783,7 +13771,7 @@
         <v>119</v>
       </c>
       <c r="AO132" s="15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AP132" s="13">
         <v>502</v>
@@ -13806,10 +13794,10 @@
         <v>342</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H133" s="10" t="s">
         <v>58</v>
@@ -13840,14 +13828,14 @@
       <c r="V133" s="10"/>
       <c r="W133" s="10"/>
       <c r="X133" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y133" s="10"/>
       <c r="Z133" s="10"/>
       <c r="AA133" s="13"/>
       <c r="AB133" s="10"/>
       <c r="AC133" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD133" s="10" t="s">
         <v>53</v>
@@ -13869,7 +13857,7 @@
         <v>120</v>
       </c>
       <c r="AO133" s="13"/>
-      <c r="AP133" s="28">
+      <c r="AP133" s="25">
         <v>119</v>
       </c>
     </row>
@@ -13890,10 +13878,10 @@
         <v>342</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H134" s="10" t="s">
         <v>58</v>
@@ -13924,14 +13912,14 @@
       <c r="V134" s="10"/>
       <c r="W134" s="10"/>
       <c r="X134" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y134" s="10"/>
       <c r="Z134" s="10"/>
       <c r="AA134" s="13"/>
       <c r="AB134" s="10"/>
       <c r="AC134" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD134" s="10" t="s">
         <v>53</v>
@@ -13953,7 +13941,7 @@
         <v>121</v>
       </c>
       <c r="AO134" s="13"/>
-      <c r="AP134" s="28">
+      <c r="AP134" s="25">
         <v>119</v>
       </c>
     </row>
@@ -13974,10 +13962,10 @@
         <v>342</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H135" s="10" t="s">
         <v>58</v>
@@ -14008,14 +13996,14 @@
       <c r="V135" s="10"/>
       <c r="W135" s="10"/>
       <c r="X135" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y135" s="10"/>
       <c r="Z135" s="10"/>
       <c r="AA135" s="13"/>
       <c r="AB135" s="10"/>
       <c r="AC135" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD135" s="10" t="s">
         <v>53</v>
@@ -14037,7 +14025,7 @@
         <v>122</v>
       </c>
       <c r="AO135" s="13"/>
-      <c r="AP135" s="28">
+      <c r="AP135" s="25">
         <v>119</v>
       </c>
     </row>
@@ -14058,10 +14046,10 @@
         <v>342</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H136" s="10" t="s">
         <v>58</v>
@@ -14092,14 +14080,14 @@
       <c r="V136" s="10"/>
       <c r="W136" s="10"/>
       <c r="X136" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y136" s="10"/>
       <c r="Z136" s="10"/>
       <c r="AA136" s="13"/>
       <c r="AB136" s="10"/>
       <c r="AC136" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD136" s="10" t="s">
         <v>53</v>
@@ -14121,7 +14109,7 @@
         <v>123</v>
       </c>
       <c r="AO136" s="13"/>
-      <c r="AP136" s="28">
+      <c r="AP136" s="25">
         <v>119</v>
       </c>
     </row>
@@ -14142,10 +14130,10 @@
         <v>342</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H137" s="10" t="s">
         <v>58</v>
@@ -14176,14 +14164,14 @@
       <c r="V137" s="10"/>
       <c r="W137" s="10"/>
       <c r="X137" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y137" s="10"/>
       <c r="Z137" s="10"/>
       <c r="AA137" s="13"/>
       <c r="AB137" s="10"/>
       <c r="AC137" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD137" s="10" t="s">
         <v>53</v>
@@ -14205,7 +14193,7 @@
         <v>124</v>
       </c>
       <c r="AO137" s="13"/>
-      <c r="AP137" s="28">
+      <c r="AP137" s="25">
         <v>119</v>
       </c>
     </row>
@@ -14224,10 +14212,10 @@
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="9" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H138" s="9" t="s">
         <v>44</v>
@@ -14268,8 +14256,8 @@
       <c r="AN138" s="9">
         <v>503</v>
       </c>
-      <c r="AO138" s="27" t="s">
-        <v>446</v>
+      <c r="AO138" s="24" t="s">
+        <v>442</v>
       </c>
       <c r="AP138" s="13">
         <v>506</v>
@@ -14289,16 +14277,16 @@
         <v>44</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I139" s="10"/>
       <c r="J139" s="11">
@@ -14310,10 +14298,10 @@
         <v>324</v>
       </c>
       <c r="N139" s="13" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="O139" s="10" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="P139" s="10"/>
       <c r="Q139" s="10"/>
@@ -14326,7 +14314,7 @@
       <c r="V139" s="10"/>
       <c r="W139" s="10"/>
       <c r="X139" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y139" s="10"/>
       <c r="Z139" s="10"/>
@@ -14337,7 +14325,7 @@
         <v>53</v>
       </c>
       <c r="AE139" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AF139" s="14">
         <v>1.2500000000000001E-2</v>
@@ -14376,13 +14364,13 @@
         <v>342</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I140" s="10"/>
       <c r="J140" s="11">
@@ -14404,14 +14392,14 @@
       <c r="V140" s="10"/>
       <c r="W140" s="10"/>
       <c r="X140" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y140" s="10"/>
       <c r="Z140" s="10"/>
       <c r="AA140" s="13"/>
       <c r="AB140" s="10"/>
       <c r="AC140" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD140" s="10" t="s">
         <v>53</v>
@@ -14458,10 +14446,10 @@
         <v>342</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H141" s="9" t="s">
         <v>58</v>
@@ -14492,14 +14480,14 @@
       <c r="V141" s="9"/>
       <c r="W141" s="9"/>
       <c r="X141" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
       <c r="AA141" s="13"/>
       <c r="AB141" s="9"/>
       <c r="AC141" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD141" s="9" t="s">
         <v>53</v>
@@ -14521,7 +14509,7 @@
         <v>127</v>
       </c>
       <c r="AO141" s="13"/>
-      <c r="AP141" s="28">
+      <c r="AP141" s="25">
         <v>126</v>
       </c>
     </row>
@@ -14540,10 +14528,10 @@
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H142" s="9" t="s">
         <v>44</v>
@@ -14584,8 +14572,8 @@
       <c r="AN142" s="9">
         <v>504</v>
       </c>
-      <c r="AO142" s="27" t="s">
-        <v>457</v>
+      <c r="AO142" s="24" t="s">
+        <v>453</v>
       </c>
       <c r="AP142" s="13">
         <v>506</v>
@@ -14605,16 +14593,16 @@
         <v>44</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="11">
@@ -14626,10 +14614,10 @@
         <v>324</v>
       </c>
       <c r="N143" s="13" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O143" s="10" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P143" s="10"/>
       <c r="Q143" s="10"/>
@@ -14642,7 +14630,7 @@
       <c r="V143" s="10"/>
       <c r="W143" s="10"/>
       <c r="X143" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y143" s="10"/>
       <c r="Z143" s="10"/>
@@ -14653,7 +14641,7 @@
         <v>53</v>
       </c>
       <c r="AE143" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AF143" s="14">
         <v>2.75E-2</v>
@@ -14692,13 +14680,13 @@
         <v>342</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I144" s="10"/>
       <c r="J144" s="11">
@@ -14720,14 +14708,14 @@
       <c r="V144" s="10"/>
       <c r="W144" s="10"/>
       <c r="X144" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y144" s="10"/>
       <c r="Z144" s="10"/>
       <c r="AA144" s="13"/>
       <c r="AB144" s="10"/>
       <c r="AC144" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD144" s="10" t="s">
         <v>53</v>
@@ -14751,7 +14739,7 @@
         <v>129</v>
       </c>
       <c r="AO144" s="15" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AP144" s="13">
         <v>504</v>
@@ -14774,10 +14762,10 @@
         <v>342</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>58</v>
@@ -14808,26 +14796,26 @@
       <c r="V145" s="9"/>
       <c r="W145" s="9"/>
       <c r="X145" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y145" s="9"/>
       <c r="Z145" s="9"/>
-      <c r="AA145" s="22"/>
+      <c r="AA145" s="20"/>
       <c r="AB145" s="9"/>
       <c r="AC145" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD145"/>
+        <v>398</v>
+      </c>
+      <c r="AD145" s="8"/>
       <c r="AE145" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF145" s="23"/>
+      <c r="AF145" s="21"/>
       <c r="AG145" s="9"/>
       <c r="AH145" s="9"/>
       <c r="AI145" s="9"/>
-      <c r="AJ145" s="29"/>
-      <c r="AK145" s="29"/>
-      <c r="AL145" s="29"/>
+      <c r="AJ145" s="26"/>
+      <c r="AK145" s="26"/>
+      <c r="AL145" s="26"/>
       <c r="AM145" s="9">
         <v>3</v>
       </c>
@@ -14835,7 +14823,7 @@
         <v>939</v>
       </c>
       <c r="AO145" s="9"/>
-      <c r="AP145" s="26">
+      <c r="AP145" s="23">
         <v>129</v>
       </c>
     </row>
@@ -14856,10 +14844,10 @@
         <v>342</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H146" s="10" t="s">
         <v>58</v>
@@ -14890,26 +14878,26 @@
       <c r="V146" s="9"/>
       <c r="W146" s="9"/>
       <c r="X146" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y146" s="9"/>
       <c r="Z146" s="9"/>
-      <c r="AA146" s="22"/>
+      <c r="AA146" s="20"/>
       <c r="AB146" s="9"/>
       <c r="AC146" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD146"/>
+        <v>398</v>
+      </c>
+      <c r="AD146" s="8"/>
       <c r="AE146" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF146" s="23"/>
+      <c r="AF146" s="21"/>
       <c r="AG146" s="9"/>
       <c r="AH146" s="9"/>
       <c r="AI146" s="9"/>
-      <c r="AJ146" s="29"/>
-      <c r="AK146" s="29"/>
-      <c r="AL146" s="29"/>
+      <c r="AJ146" s="26"/>
+      <c r="AK146" s="26"/>
+      <c r="AL146" s="26"/>
       <c r="AM146" s="9">
         <v>3</v>
       </c>
@@ -14917,7 +14905,7 @@
         <v>940</v>
       </c>
       <c r="AO146" s="9"/>
-      <c r="AP146" s="26">
+      <c r="AP146" s="23">
         <v>129</v>
       </c>
     </row>
@@ -14936,10 +14924,10 @@
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>44</v>
@@ -15001,16 +14989,16 @@
         <v>44</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I148" s="10"/>
       <c r="J148" s="11">
@@ -15022,10 +15010,10 @@
         <v>324</v>
       </c>
       <c r="N148" s="13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="O148" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P148" s="10"/>
       <c r="Q148" s="10"/>
@@ -15038,7 +15026,7 @@
       <c r="V148" s="10"/>
       <c r="W148" s="10"/>
       <c r="X148" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Y148" s="10"/>
       <c r="Z148" s="10"/>
@@ -15049,7 +15037,7 @@
         <v>53</v>
       </c>
       <c r="AE148" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AF148" s="14">
         <v>3.5000000000000003E-2</v>
@@ -15086,10 +15074,10 @@
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H149" s="10" t="s">
         <v>44</v>
@@ -15131,7 +15119,7 @@
         <v>310</v>
       </c>
       <c r="AO149" s="15" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AP149" s="13"/>
     </row>
@@ -15150,10 +15138,10 @@
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="10" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H150" s="10" t="s">
         <v>44</v>
@@ -15216,10 +15204,10 @@
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H151" s="10" t="s">
         <v>44</v>
@@ -15261,7 +15249,7 @@
         <v>312</v>
       </c>
       <c r="AO151" s="15" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AP151" s="13">
         <v>310</v>
@@ -15281,16 +15269,16 @@
         <v>44</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I152" s="10"/>
       <c r="J152" s="11"/>
@@ -15302,7 +15290,7 @@
       <c r="P152" s="10"/>
       <c r="Q152" s="10"/>
       <c r="R152" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="S152" s="10"/>
       <c r="T152" s="10"/>
@@ -15310,7 +15298,7 @@
       <c r="V152" s="10"/>
       <c r="W152" s="10"/>
       <c r="X152" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y152" s="10"/>
       <c r="Z152" s="10"/>
@@ -15321,7 +15309,7 @@
         <v>53</v>
       </c>
       <c r="AE152" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AF152" s="14">
         <v>0.14000000000000001</v>
@@ -15329,7 +15317,7 @@
       <c r="AG152" s="10"/>
       <c r="AH152" s="10"/>
       <c r="AI152" s="10" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AJ152" s="10"/>
       <c r="AK152" s="10"/>
@@ -15341,7 +15329,7 @@
         <v>133</v>
       </c>
       <c r="AO152" s="15" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AP152" s="13">
         <v>311</v>
@@ -15361,16 +15349,16 @@
         <v>44</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I153" s="10"/>
       <c r="J153" s="11">
@@ -15384,21 +15372,21 @@
         <v>324</v>
       </c>
       <c r="N153" s="13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
       <c r="Q153" s="10"/>
       <c r="R153" s="10"/>
       <c r="S153" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="T153" s="10"/>
       <c r="U153" s="10"/>
       <c r="V153" s="10"/>
       <c r="W153" s="10"/>
       <c r="X153" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y153" s="10"/>
       <c r="Z153" s="10"/>
@@ -15443,16 +15431,16 @@
         <v>44</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H154" s="10" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I154" s="10"/>
       <c r="J154" s="11">
@@ -15464,21 +15452,21 @@
         <v>324</v>
       </c>
       <c r="N154" s="13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
       <c r="Q154" s="10"/>
       <c r="R154" s="10"/>
       <c r="S154" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="T154" s="10"/>
       <c r="U154" s="10"/>
       <c r="V154" s="10"/>
       <c r="W154" s="10"/>
       <c r="X154" s="9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Y154" s="10"/>
       <c r="Z154" s="10"/>
@@ -15526,10 +15514,10 @@
         <v>342</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H155" s="10" t="s">
         <v>329</v>
@@ -15547,16 +15535,16 @@
       <c r="Q155" s="10"/>
       <c r="R155" s="10"/>
       <c r="S155" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="T155" s="10"/>
       <c r="U155" s="10"/>
       <c r="V155" s="9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="W155" s="10"/>
       <c r="X155" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y155" s="10"/>
       <c r="Z155" s="10"/>
@@ -15575,12 +15563,12 @@
       <c r="AG155" s="10"/>
       <c r="AH155" s="10"/>
       <c r="AI155" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AJ155" s="10"/>
       <c r="AK155" s="10"/>
       <c r="AL155" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AM155" s="13">
         <v>2</v>
@@ -15610,13 +15598,13 @@
         <v>342</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I156" s="10"/>
       <c r="J156" s="11"/>
@@ -15630,21 +15618,21 @@
         <v>324</v>
       </c>
       <c r="N156" s="13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
       <c r="Q156" s="10"/>
       <c r="R156" s="10"/>
       <c r="S156" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="T156" s="10"/>
       <c r="U156" s="10"/>
       <c r="V156" s="10"/>
       <c r="W156" s="10"/>
       <c r="X156" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y156" s="10"/>
       <c r="Z156" s="10"/>
@@ -15655,7 +15643,7 @@
         <v>53</v>
       </c>
       <c r="AE156" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AF156" s="14">
         <v>2.5000000000000001E-2</v>
@@ -15663,12 +15651,12 @@
       <c r="AG156" s="10"/>
       <c r="AH156" s="10"/>
       <c r="AI156" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AJ156" s="10"/>
       <c r="AK156" s="10"/>
       <c r="AL156" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AM156" s="13">
         <v>2</v>
@@ -15698,10 +15686,10 @@
         <v>342</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H157" s="10" t="s">
         <v>52</v>
@@ -15724,7 +15712,7 @@
       <c r="V157" s="10"/>
       <c r="W157" s="10"/>
       <c r="X157" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y157" s="10"/>
       <c r="Z157" s="10"/>
@@ -15735,7 +15723,7 @@
         <v>53</v>
       </c>
       <c r="AE157" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AF157" s="14">
         <v>2.5000000000000001E-2</v>
@@ -15743,12 +15731,12 @@
       <c r="AG157" s="10"/>
       <c r="AH157" s="10"/>
       <c r="AI157" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AJ157" s="10"/>
       <c r="AK157" s="10"/>
       <c r="AL157" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AM157" s="13">
         <v>2</v>
@@ -15757,7 +15745,7 @@
         <v>138</v>
       </c>
       <c r="AO157" s="15" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AP157" s="13">
         <v>312</v>
@@ -15778,13 +15766,13 @@
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="9" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H158" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I158" s="10"/>
       <c r="J158" s="11">
@@ -15793,31 +15781,31 @@
       <c r="K158" s="12"/>
       <c r="L158" s="12"/>
       <c r="M158" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N158" s="13" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
       <c r="Q158" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="R158" s="10" t="s">
         <v>60</v>
       </c>
       <c r="S158" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="T158" s="10"/>
       <c r="U158" s="10"/>
       <c r="V158" s="10"/>
       <c r="W158" s="10"/>
       <c r="X158" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y158" s="30" t="s">
-        <v>516</v>
+        <v>484</v>
+      </c>
+      <c r="Y158" s="27" t="s">
+        <v>512</v>
       </c>
       <c r="Z158" s="10"/>
       <c r="AA158" s="13"/>
@@ -15831,12 +15819,12 @@
       <c r="AG158" s="10"/>
       <c r="AH158" s="10"/>
       <c r="AI158" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AJ158" s="10"/>
       <c r="AK158" s="10"/>
       <c r="AL158" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AM158" s="13">
         <v>3</v>
@@ -15864,13 +15852,13 @@
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="9" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H159" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I159" s="10"/>
       <c r="J159" s="11">
@@ -15879,31 +15867,31 @@
       <c r="K159" s="12"/>
       <c r="L159" s="12"/>
       <c r="M159" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N159" s="13" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
       <c r="Q159" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="R159" s="10" t="s">
         <v>60</v>
       </c>
       <c r="S159" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="T159" s="10"/>
       <c r="U159" s="10"/>
       <c r="V159" s="10"/>
       <c r="W159" s="10"/>
       <c r="X159" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y159" s="9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Z159" s="10"/>
       <c r="AA159" s="13"/>
@@ -15917,12 +15905,12 @@
       <c r="AG159" s="10"/>
       <c r="AH159" s="10"/>
       <c r="AI159" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AJ159" s="10"/>
       <c r="AK159" s="10"/>
       <c r="AL159" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AM159" s="13">
         <v>3</v>
@@ -15950,13 +15938,13 @@
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="9" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H160" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I160" s="10"/>
       <c r="J160" s="11">
@@ -15978,7 +15966,7 @@
       <c r="V160" s="10"/>
       <c r="W160" s="10"/>
       <c r="X160" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y160" s="10"/>
       <c r="Z160" s="10"/>
@@ -15993,12 +15981,12 @@
       <c r="AG160" s="10"/>
       <c r="AH160" s="10"/>
       <c r="AI160" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AJ160" s="10"/>
       <c r="AK160" s="10"/>
       <c r="AL160" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AM160" s="13">
         <v>3</v>
@@ -16007,7 +15995,7 @@
         <v>142</v>
       </c>
       <c r="AO160" s="15" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AP160" s="13">
         <v>138</v>
@@ -16028,10 +16016,10 @@
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="9" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H161" s="10" t="s">
         <v>58</v>
@@ -16043,35 +16031,35 @@
       <c r="K161" s="12"/>
       <c r="L161" s="12"/>
       <c r="M161" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N161" s="13" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
       <c r="Q161" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="R161" s="10" t="s">
         <v>60</v>
       </c>
       <c r="S161" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="T161" s="10"/>
       <c r="U161" s="10"/>
       <c r="V161" s="10"/>
       <c r="W161" s="10"/>
       <c r="X161" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y161" s="10"/>
       <c r="Z161" s="10"/>
       <c r="AA161" s="13"/>
       <c r="AB161" s="10"/>
       <c r="AC161" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD161" s="10"/>
       <c r="AE161" s="10" t="s">
@@ -16081,12 +16069,12 @@
       <c r="AG161" s="10"/>
       <c r="AH161" s="10"/>
       <c r="AI161" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AJ161" s="10"/>
       <c r="AK161" s="10"/>
       <c r="AL161" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AM161" s="13">
         <v>4</v>
@@ -16114,10 +16102,10 @@
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="9" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H162" s="10" t="s">
         <v>58</v>
@@ -16129,35 +16117,35 @@
       <c r="K162" s="12"/>
       <c r="L162" s="12"/>
       <c r="M162" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="N162" s="13" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
       <c r="Q162" s="10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="R162" s="10" t="s">
         <v>60</v>
       </c>
       <c r="S162" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="T162" s="10"/>
       <c r="U162" s="10"/>
       <c r="V162" s="10"/>
       <c r="W162" s="10"/>
       <c r="X162" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y162" s="10"/>
       <c r="Z162" s="10"/>
       <c r="AA162" s="13"/>
       <c r="AB162" s="10"/>
       <c r="AC162" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD162" s="10"/>
       <c r="AE162" s="10" t="s">
@@ -16167,12 +16155,12 @@
       <c r="AG162" s="10"/>
       <c r="AH162" s="10"/>
       <c r="AI162" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AJ162" s="10"/>
       <c r="AK162" s="10"/>
       <c r="AL162" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AM162" s="13">
         <v>4</v>
@@ -16200,13 +16188,13 @@
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I163" s="10"/>
       <c r="J163" s="11">
@@ -16218,7 +16206,7 @@
         <v>324</v>
       </c>
       <c r="N163" s="13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
@@ -16227,14 +16215,14 @@
         <v>60</v>
       </c>
       <c r="S163" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="T163" s="10"/>
       <c r="U163" s="10"/>
       <c r="V163" s="10"/>
       <c r="W163" s="10"/>
       <c r="X163" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y163" s="10"/>
       <c r="Z163" s="10"/>
@@ -16249,12 +16237,12 @@
       <c r="AG163" s="10"/>
       <c r="AH163" s="10"/>
       <c r="AI163" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AJ163" s="10"/>
       <c r="AK163" s="10"/>
       <c r="AL163" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AM163" s="13">
         <v>3</v>
@@ -16284,13 +16272,13 @@
         <v>342</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H164" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I164" s="10"/>
       <c r="J164" s="11"/>
@@ -16298,21 +16286,21 @@
       <c r="L164" s="12"/>
       <c r="M164" s="10"/>
       <c r="N164" s="13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
       <c r="Q164" s="10"/>
       <c r="R164" s="10"/>
       <c r="S164" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="T164" s="10"/>
       <c r="U164" s="10"/>
       <c r="V164" s="10"/>
       <c r="W164" s="10"/>
       <c r="X164" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y164" s="10"/>
       <c r="Z164" s="10"/>
@@ -16323,7 +16311,7 @@
         <v>53</v>
       </c>
       <c r="AE164" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AF164" s="14">
         <v>2.5000000000000001E-2</v>
@@ -16331,12 +16319,12 @@
       <c r="AG164" s="10"/>
       <c r="AH164" s="10"/>
       <c r="AI164" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AJ164" s="10"/>
       <c r="AK164" s="10"/>
       <c r="AL164" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AM164" s="13">
         <v>2</v>
@@ -16362,17 +16350,17 @@
       <c r="D165" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E165" s="31" t="s">
+      <c r="E165" s="28" t="s">
         <v>342</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H165" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I165" s="10"/>
       <c r="J165" s="11">
@@ -16380,7 +16368,7 @@
       </c>
       <c r="K165" s="12"/>
       <c r="L165" s="12"/>
-      <c r="M165" s="32"/>
+      <c r="M165" s="29"/>
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
@@ -16392,9 +16380,9 @@
       <c r="T165" s="10"/>
       <c r="U165" s="10"/>
       <c r="V165" s="10"/>
-      <c r="W165" s="32"/>
+      <c r="W165" s="29"/>
       <c r="X165" s="9" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="Y165" s="10"/>
       <c r="Z165" s="10"/>
@@ -16405,7 +16393,7 @@
         <v>53</v>
       </c>
       <c r="AE165" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AF165" s="14">
         <v>0.03</v>
@@ -16425,7 +16413,7 @@
       <c r="AO165" s="13">
         <v>148</v>
       </c>
-      <c r="AP165" s="18">
+      <c r="AP165" s="16">
         <v>301</v>
       </c>
     </row>
@@ -16442,17 +16430,17 @@
       <c r="D166" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E166" s="31" t="s">
+      <c r="E166" s="28" t="s">
         <v>342</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H166" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I166" s="10"/>
       <c r="J166" s="11">
@@ -16466,7 +16454,7 @@
         <v>324</v>
       </c>
       <c r="N166" s="13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
@@ -16475,14 +16463,14 @@
         <v>60</v>
       </c>
       <c r="S166" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="T166" s="10"/>
       <c r="U166" s="10"/>
       <c r="V166" s="10"/>
-      <c r="W166" s="32"/>
+      <c r="W166" s="29"/>
       <c r="X166" s="9" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="Y166" s="10"/>
       <c r="Z166" s="10"/>
@@ -16493,13 +16481,13 @@
         <v>53</v>
       </c>
       <c r="AE166" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="AF166" s="14"/>
       <c r="AG166" s="10"/>
       <c r="AH166" s="10"/>
       <c r="AI166" s="10" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AJ166" s="10"/>
       <c r="AK166" s="10"/>
@@ -16526,12 +16514,12 @@
         <v>43</v>
       </c>
       <c r="D167" s="10"/>
-      <c r="E167" s="31"/>
+      <c r="E167" s="28"/>
       <c r="F167" s="10" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H167" s="10" t="s">
         <v>44</v>
@@ -16594,10 +16582,10 @@
         <v>342</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H168" s="10" t="s">
         <v>52</v>
@@ -16643,9 +16631,9 @@
         <v>149</v>
       </c>
       <c r="AO168" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="AP168" s="18">
+        <v>542</v>
+      </c>
+      <c r="AP168" s="16">
         <v>400</v>
       </c>
     </row>
@@ -16666,13 +16654,13 @@
         <v>342</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H169" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="I169" s="10"/>
       <c r="J169" s="11">
@@ -16682,7 +16670,7 @@
       <c r="L169" s="12"/>
       <c r="M169" s="10"/>
       <c r="N169" s="13" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
@@ -16691,7 +16679,7 @@
         <v>60</v>
       </c>
       <c r="S169" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="T169" s="10"/>
       <c r="U169" s="10"/>
@@ -16699,7 +16687,7 @@
       <c r="W169" s="10"/>
       <c r="X169" s="10"/>
       <c r="Y169" s="10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="Z169" s="10"/>
       <c r="AA169" s="13"/>
@@ -16711,7 +16699,7 @@
       <c r="AE169" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AF169" s="33">
+      <c r="AF169" s="30">
         <v>0.01</v>
       </c>
       <c r="AG169" s="10"/>
@@ -16745,16 +16733,16 @@
         <v>337</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="I170" s="9"/>
       <c r="J170" s="12">
@@ -16764,44 +16752,44 @@
       <c r="L170" s="12"/>
       <c r="M170" s="9"/>
       <c r="N170" s="9" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="O170" s="13"/>
       <c r="P170" s="13"/>
-      <c r="Q170"/>
+      <c r="Q170" s="8"/>
       <c r="R170" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S170" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="T170" s="9"/>
       <c r="U170" s="9"/>
       <c r="V170" s="9"/>
       <c r="W170" s="9"/>
-      <c r="X170"/>
+      <c r="X170" s="8"/>
       <c r="Y170" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="Z170" s="22"/>
+        <v>550</v>
+      </c>
+      <c r="Z170" s="20"/>
       <c r="AA170" s="9"/>
       <c r="AB170" s="9"/>
-      <c r="AC170"/>
+      <c r="AC170" s="8"/>
       <c r="AD170" s="10" t="s">
         <v>53</v>
       </c>
       <c r="AE170" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AF170" s="33">
+      <c r="AF170" s="30">
         <v>0.01</v>
       </c>
       <c r="AG170" s="9"/>
       <c r="AH170" s="9"/>
-      <c r="AI170"/>
-      <c r="AJ170"/>
-      <c r="AK170"/>
-      <c r="AL170"/>
+      <c r="AI170" s="8"/>
+      <c r="AJ170" s="8"/>
+      <c r="AK170" s="8"/>
+      <c r="AL170" s="8"/>
       <c r="AM170" s="9">
         <v>3</v>
       </c>
@@ -16827,16 +16815,16 @@
         <v>337</v>
       </c>
       <c r="E171" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="F171" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="F171" s="9" t="s">
-        <v>555</v>
-      </c>
       <c r="G171" s="9" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="I171" s="9"/>
       <c r="J171" s="12">
@@ -16846,29 +16834,29 @@
       <c r="L171" s="12"/>
       <c r="M171" s="9"/>
       <c r="N171" s="9" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="O171" s="13"/>
       <c r="P171" s="13"/>
-      <c r="Q171"/>
+      <c r="Q171" s="8"/>
       <c r="R171" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S171" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="T171" s="9"/>
       <c r="U171" s="9"/>
       <c r="V171" s="9"/>
       <c r="W171" s="9"/>
-      <c r="X171"/>
+      <c r="X171" s="8"/>
       <c r="Y171" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="Z171" s="22"/>
+        <v>553</v>
+      </c>
+      <c r="Z171" s="20"/>
       <c r="AA171" s="9"/>
       <c r="AB171" s="9"/>
-      <c r="AC171"/>
+      <c r="AC171" s="8"/>
       <c r="AD171" s="10" t="s">
         <v>53</v>
       </c>
@@ -16880,10 +16868,10 @@
       </c>
       <c r="AG171" s="9"/>
       <c r="AH171" s="9"/>
-      <c r="AI171"/>
-      <c r="AJ171"/>
-      <c r="AK171"/>
-      <c r="AL171"/>
+      <c r="AI171" s="8"/>
+      <c r="AJ171" s="8"/>
+      <c r="AK171" s="8"/>
+      <c r="AL171" s="8"/>
       <c r="AM171" s="9">
         <v>3</v>
       </c>
@@ -16909,16 +16897,16 @@
         <v>337</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="I172" s="9"/>
       <c r="J172" s="12">
@@ -16927,30 +16915,30 @@
       <c r="K172" s="12"/>
       <c r="L172" s="12"/>
       <c r="M172" s="9"/>
-      <c r="N172" s="34" t="s">
-        <v>560</v>
+      <c r="N172" s="31" t="s">
+        <v>556</v>
       </c>
       <c r="O172" s="13"/>
       <c r="P172" s="13"/>
-      <c r="Q172"/>
+      <c r="Q172" s="8"/>
       <c r="R172" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S172" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="T172" s="9"/>
       <c r="U172" s="9"/>
       <c r="V172" s="9"/>
       <c r="W172" s="9"/>
-      <c r="X172"/>
-      <c r="Y172" s="34" t="s">
-        <v>560</v>
-      </c>
-      <c r="Z172" s="22"/>
+      <c r="X172" s="8"/>
+      <c r="Y172" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z172" s="20"/>
       <c r="AA172" s="9"/>
       <c r="AB172" s="9"/>
-      <c r="AC172"/>
+      <c r="AC172" s="8"/>
       <c r="AD172" s="10" t="s">
         <v>53</v>
       </c>
@@ -16962,10 +16950,10 @@
       </c>
       <c r="AG172" s="9"/>
       <c r="AH172" s="9"/>
-      <c r="AI172"/>
-      <c r="AJ172"/>
-      <c r="AK172"/>
-      <c r="AL172"/>
+      <c r="AI172" s="8"/>
+      <c r="AJ172" s="8"/>
+      <c r="AK172" s="8"/>
+      <c r="AL172" s="8"/>
       <c r="AM172" s="9">
         <v>3</v>
       </c>
@@ -16988,22 +16976,22 @@
         <v>43</v>
       </c>
       <c r="D173" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="E173" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="F173" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="G173" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="H173" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="E173" s="35" t="s">
+      <c r="I173" s="9" t="s">
         <v>562</v>
-      </c>
-      <c r="F173" s="35" t="s">
-        <v>563</v>
-      </c>
-      <c r="G173" s="35" t="s">
-        <v>564</v>
-      </c>
-      <c r="H173" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="I173" s="9" t="s">
-        <v>566</v>
       </c>
       <c r="J173" s="12"/>
       <c r="K173" s="12"/>
@@ -17015,7 +17003,7 @@
       <c r="Q173" s="10"/>
       <c r="R173" s="10"/>
       <c r="S173" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T173" s="10"/>
       <c r="U173" s="10"/>
@@ -17056,34 +17044,34 @@
         <v>43</v>
       </c>
       <c r="D174" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="G174" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="H174" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="E174" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="F174" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="G174" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="H174" s="9" t="s">
-        <v>565</v>
-      </c>
       <c r="I174" s="9" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J174" s="12"/>
       <c r="K174" s="12"/>
       <c r="L174" s="12"/>
       <c r="M174" s="9"/>
-      <c r="N174" s="36"/>
+      <c r="N174" s="33"/>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
       <c r="Q174" s="10"/>
       <c r="R174" s="10"/>
       <c r="S174" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T174" s="10"/>
       <c r="U174" s="10"/>
@@ -17109,7 +17097,7 @@
         <v>154</v>
       </c>
       <c r="AO174" s="15" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AP174" s="13"/>
     </row>
@@ -17124,38 +17112,38 @@
         <v>43</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="E175" s="35" t="s">
-        <v>572</v>
-      </c>
-      <c r="F175" s="35" t="s">
-        <v>573</v>
-      </c>
-      <c r="G175" s="35" t="s">
-        <v>544</v>
+        <v>557</v>
+      </c>
+      <c r="E175" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="F175" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="G175" s="32" t="s">
+        <v>540</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J175" s="12"/>
       <c r="K175" s="12"/>
       <c r="L175" s="12"/>
       <c r="M175" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="N175" s="27" t="s">
-        <v>577</v>
+        <v>572</v>
+      </c>
+      <c r="N175" s="24" t="s">
+        <v>573</v>
       </c>
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
       <c r="Q175" s="10"/>
       <c r="R175" s="10"/>
       <c r="S175" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T175" s="10"/>
       <c r="U175" s="10"/>
@@ -17196,38 +17184,38 @@
         <v>43</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="E176" s="35" t="s">
-        <v>572</v>
-      </c>
-      <c r="F176" s="35" t="s">
-        <v>573</v>
-      </c>
-      <c r="G176" s="35" t="s">
-        <v>544</v>
+        <v>557</v>
+      </c>
+      <c r="E176" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="F176" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="G176" s="32" t="s">
+        <v>540</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J176" s="12"/>
       <c r="K176" s="12"/>
       <c r="L176" s="12"/>
       <c r="M176" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="N176" s="27" t="s">
-        <v>578</v>
+        <v>572</v>
+      </c>
+      <c r="N176" s="24" t="s">
+        <v>574</v>
       </c>
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
       <c r="Q176" s="10"/>
       <c r="R176" s="10"/>
       <c r="S176" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T176" s="10"/>
       <c r="U176" s="10"/>
@@ -17268,38 +17256,38 @@
         <v>43</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="E177" s="35" t="s">
-        <v>572</v>
-      </c>
-      <c r="F177" s="35" t="s">
-        <v>573</v>
-      </c>
-      <c r="G177" s="35" t="s">
-        <v>544</v>
+        <v>557</v>
+      </c>
+      <c r="E177" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="F177" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="G177" s="32" t="s">
+        <v>540</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J177" s="12"/>
       <c r="K177" s="12"/>
       <c r="L177" s="12"/>
       <c r="M177" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="N177" s="27" t="s">
-        <v>579</v>
+        <v>572</v>
+      </c>
+      <c r="N177" s="24" t="s">
+        <v>575</v>
       </c>
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
       <c r="Q177" s="10"/>
       <c r="R177" s="10"/>
       <c r="S177" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T177" s="10"/>
       <c r="U177" s="10"/>
@@ -17340,38 +17328,38 @@
         <v>43</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="E178" s="35" t="s">
-        <v>572</v>
-      </c>
-      <c r="F178" s="35" t="s">
-        <v>573</v>
-      </c>
-      <c r="G178" s="35" t="s">
-        <v>544</v>
+        <v>557</v>
+      </c>
+      <c r="E178" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="F178" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="G178" s="32" t="s">
+        <v>540</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J178" s="12"/>
       <c r="K178" s="12"/>
       <c r="L178" s="12"/>
       <c r="M178" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="N178" s="24" t="s">
         <v>576</v>
-      </c>
-      <c r="N178" s="27" t="s">
-        <v>580</v>
       </c>
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
       <c r="Q178" s="10"/>
       <c r="R178" s="10"/>
       <c r="S178" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T178" s="10"/>
       <c r="U178" s="10"/>
@@ -17412,34 +17400,34 @@
         <v>43</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="E179" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="E179" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="F179" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="G179" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="I179" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="F179" s="35" t="s">
-        <v>582</v>
-      </c>
-      <c r="G179" s="35" t="s">
-        <v>583</v>
-      </c>
-      <c r="H179" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="I179" s="9" t="s">
-        <v>585</v>
       </c>
       <c r="J179" s="12"/>
       <c r="K179" s="12"/>
       <c r="L179" s="12"/>
       <c r="M179" s="9"/>
-      <c r="N179" s="37"/>
+      <c r="N179" s="34"/>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
       <c r="Q179" s="10"/>
       <c r="R179" s="10"/>
       <c r="S179" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T179" s="10"/>
       <c r="U179" s="10"/>
@@ -17465,7 +17453,7 @@
         <v>159</v>
       </c>
       <c r="AO179" s="15" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AP179" s="13"/>
     </row>
@@ -17480,22 +17468,22 @@
         <v>43</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="E180" s="35" t="s">
-        <v>587</v>
-      </c>
-      <c r="F180" s="35" t="s">
-        <v>588</v>
-      </c>
-      <c r="G180" s="35" t="s">
-        <v>589</v>
+        <v>557</v>
+      </c>
+      <c r="E180" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="F180" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="G180" s="32" t="s">
+        <v>585</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="J180" s="12"/>
       <c r="K180" s="12"/>
@@ -17507,7 +17495,7 @@
       <c r="Q180" s="10"/>
       <c r="R180" s="10"/>
       <c r="S180" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T180" s="10"/>
       <c r="U180" s="10"/>
@@ -17548,43 +17536,43 @@
         <v>43</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="E181" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="F181" s="35" t="s">
-        <v>592</v>
-      </c>
-      <c r="G181" s="35" t="s">
-        <v>593</v>
+        <v>557</v>
+      </c>
+      <c r="E181" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="F181" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="G181" s="32" t="s">
+        <v>589</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="J181" s="12"/>
       <c r="K181" s="12"/>
       <c r="L181" s="12"/>
       <c r="M181" s="9"/>
       <c r="N181" s="9" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
       <c r="Q181" s="10"/>
       <c r="R181" s="10"/>
       <c r="S181" s="10" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="T181" s="10"/>
       <c r="U181" s="10"/>
       <c r="V181" s="10"/>
       <c r="W181" s="10"/>
       <c r="X181" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y181" s="10"/>
       <c r="Z181" s="10"/>
@@ -17618,22 +17606,22 @@
         <v>43</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="E182" s="35" t="s">
-        <v>597</v>
-      </c>
-      <c r="F182" s="35" t="s">
-        <v>598</v>
-      </c>
-      <c r="G182" s="35" t="s">
-        <v>599</v>
+        <v>557</v>
+      </c>
+      <c r="E182" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="F182" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="G182" s="32" t="s">
+        <v>595</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J182" s="12"/>
       <c r="K182" s="12"/>
@@ -17647,14 +17635,14 @@
       <c r="Q182" s="10"/>
       <c r="R182" s="10"/>
       <c r="S182" s="10" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="T182" s="10"/>
       <c r="U182" s="10"/>
       <c r="V182" s="10"/>
       <c r="W182" s="10"/>
       <c r="X182" s="9" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="Y182" s="10"/>
       <c r="Z182" s="10"/>
@@ -17688,38 +17676,38 @@
         <v>43</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="E183" s="35" t="s">
-        <v>602</v>
-      </c>
-      <c r="F183" s="35" t="s">
-        <v>603</v>
-      </c>
-      <c r="G183" s="35" t="s">
-        <v>604</v>
+        <v>557</v>
+      </c>
+      <c r="E183" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="F183" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="G183" s="32" t="s">
+        <v>600</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J183" s="12"/>
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
       <c r="M183" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="N183" s="27" t="s">
-        <v>606</v>
+        <v>601</v>
+      </c>
+      <c r="N183" s="24" t="s">
+        <v>602</v>
       </c>
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
       <c r="Q183" s="10"/>
       <c r="R183" s="10"/>
       <c r="S183" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T183" s="10"/>
       <c r="U183" s="10"/>
@@ -17744,8 +17732,8 @@
       <c r="AN183" s="13">
         <v>163</v>
       </c>
-      <c r="AO183" s="27" t="s">
-        <v>607</v>
+      <c r="AO183" s="24" t="s">
+        <v>603</v>
       </c>
       <c r="AP183" s="13"/>
     </row>
@@ -17760,38 +17748,38 @@
         <v>43</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="E184" s="35" t="s">
-        <v>602</v>
-      </c>
-      <c r="F184" s="35" t="s">
-        <v>603</v>
-      </c>
-      <c r="G184" s="35" t="s">
-        <v>604</v>
+        <v>557</v>
+      </c>
+      <c r="E184" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="F184" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="G184" s="32" t="s">
+        <v>600</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J184" s="12"/>
       <c r="K184" s="12"/>
       <c r="L184" s="12"/>
       <c r="M184" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="N184" s="38" t="s">
-        <v>608</v>
+        <v>601</v>
+      </c>
+      <c r="N184" s="35" t="s">
+        <v>604</v>
       </c>
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
       <c r="Q184" s="10"/>
       <c r="R184" s="10"/>
       <c r="S184" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T184" s="10"/>
       <c r="U184" s="10"/>
@@ -17832,38 +17820,38 @@
         <v>43</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="E185" s="35" t="s">
-        <v>602</v>
-      </c>
-      <c r="F185" s="35" t="s">
-        <v>603</v>
-      </c>
-      <c r="G185" s="35" t="s">
-        <v>604</v>
+        <v>557</v>
+      </c>
+      <c r="E185" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="F185" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="G185" s="32" t="s">
+        <v>600</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J185" s="12"/>
       <c r="K185" s="12"/>
       <c r="L185" s="12"/>
       <c r="M185" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="N185" s="35" t="s">
         <v>605</v>
-      </c>
-      <c r="N185" s="38" t="s">
-        <v>609</v>
       </c>
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
       <c r="Q185" s="10"/>
       <c r="R185" s="10"/>
       <c r="S185" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T185" s="10"/>
       <c r="U185" s="10"/>
@@ -17889,7 +17877,7 @@
         <v>166</v>
       </c>
       <c r="AO185" s="15" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AP185" s="13"/>
     </row>
@@ -17904,32 +17892,32 @@
         <v>43</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E186" s="35"/>
-      <c r="F186" s="35" t="s">
-        <v>611</v>
-      </c>
-      <c r="G186" s="35" t="s">
-        <v>612</v>
+        <v>557</v>
+      </c>
+      <c r="E186" s="32"/>
+      <c r="F186" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="G186" s="32" t="s">
+        <v>608</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J186" s="12"/>
       <c r="K186" s="12"/>
       <c r="L186" s="9"/>
-      <c r="M186" s="38"/>
+      <c r="M186" s="35"/>
       <c r="N186" s="9"/>
       <c r="O186" s="9"/>
       <c r="P186" s="9"/>
       <c r="Q186" s="9"/>
       <c r="R186" s="9"/>
       <c r="S186" s="9" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T186" s="9"/>
       <c r="U186" s="9"/>
@@ -17940,12 +17928,12 @@
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
       <c r="AB186" s="9"/>
-      <c r="AC186" s="39"/>
+      <c r="AC186" s="36"/>
       <c r="AD186" s="9"/>
       <c r="AE186" s="9"/>
-      <c r="AF186" s="23"/>
+      <c r="AF186" s="21"/>
       <c r="AG186" s="9"/>
-      <c r="AH186" s="40"/>
+      <c r="AH186" s="37"/>
       <c r="AI186" s="9"/>
       <c r="AJ186" s="9"/>
       <c r="AK186" s="10"/>
@@ -17954,7 +17942,7 @@
       <c r="AN186" s="9">
         <v>521</v>
       </c>
-      <c r="AO186" s="27"/>
+      <c r="AO186" s="24"/>
       <c r="AP186" s="9"/>
     </row>
   </sheetData>
